--- a/inventories/lci-sweet_sure.xlsx
+++ b/inventories/lci-sweet_sure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/sweet_sure-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7A46BE-6806-164C-884F-B8D5E163F3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE02C6F7-DC1F-0941-BCB9-E7358718D1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="156">
   <si>
     <t>Activity</t>
   </si>
@@ -492,6 +492,18 @@
   </si>
   <si>
     <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>electricity import, from neighboring countries</t>
+  </si>
+  <si>
+    <t>electricity, high voltage</t>
+  </si>
+  <si>
+    <t>market group for electricity, high voltage</t>
+  </si>
+  <si>
+    <t>Link to European electricity.</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2616,7 +2628,146 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="50" t="str">
+        <f>B130</f>
+        <v>electricity import, from neighboring countries</v>
+      </c>
+      <c r="B139" s="50">
+        <v>1</v>
+      </c>
+      <c r="C139" s="50" t="str">
+        <f>B131</f>
+        <v>CH</v>
+      </c>
+      <c r="D139" s="50" t="str">
+        <f>B135</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="F139" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="51" t="str">
+        <f>B133</f>
+        <v>electricity, high voltage</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="50">
+        <v>1</v>
+      </c>
+      <c r="C140" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F140" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" s="50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/inventories/lci-sweet_sure.xlsx
+++ b/inventories/lci-sweet_sure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/sweet_sure-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1CD80D-90FB-7147-87F0-06DEEFBF260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83CAA6-CB0C-924A-B20B-740D88A9CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="282">
   <si>
     <t>Activity</t>
   </si>
@@ -837,6 +837,51 @@
   </si>
   <si>
     <t>Dataset created based on ecoinvent's "treatment of biowaste, municipal incineration with fly ash extraction". In ecoinvent, all burden is allocated to waste treatment. In STEM, waste-based heat and electricity are allocated the burden of burning waste. So we allocated the burden of treating waste between heat and electricity production, based on the respective outputs: 0.42MJ/kg electric energy and 1.01MJ/kg thermal energy. Allocation to heat production: 1.01 / (1.01 + 0.42) = 71%. Hence, to deliver 1 MJ of heat: 1/1.01 * 71%. Also added a flow of CO2 uptake to compensate for non-fossil CO2 emissions.</t>
+  </si>
+  <si>
+    <t>biomethane import, from neighboring countries</t>
+  </si>
+  <si>
+    <t>biomethane, high pressure</t>
+  </si>
+  <si>
+    <t>Link to European market.</t>
+  </si>
+  <si>
+    <t>market for biomethane, high pressure</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>kerosene import, from neighboring countries</t>
+  </si>
+  <si>
+    <t>kerosene</t>
+  </si>
+  <si>
+    <t>market for kerosene</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>diesel import, from neighboring countries</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>market for diesel</t>
+  </si>
+  <si>
+    <t>synthetic kerosene import, from neighboring countries</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation</t>
+  </si>
+  <si>
+    <t>kerosene, synthetic</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H1262"/>
+  <dimension ref="A1:H1321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1241" workbookViewId="0">
-      <selection activeCell="C1256" sqref="C1256"/>
+    <sheetView tabSelected="1" topLeftCell="A1259" workbookViewId="0">
+      <selection activeCell="B1290" sqref="B1290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18545,7 +18590,7 @@
         <v>1.2863796923076931</v>
       </c>
       <c r="C947" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D947" s="50" t="s">
         <v>7</v>
@@ -21351,7 +21396,7 @@
         <v>0.35732769230769212</v>
       </c>
       <c r="C1104" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1104" s="50" t="s">
         <v>7</v>
@@ -24164,7 +24209,579 @@
       </c>
     </row>
     <row r="1261" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1262" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1262" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1262" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1262" s="49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1263" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1263" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1264" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1264" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1265" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1265" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1266" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1266" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1267" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1267" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1268" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1268" s="50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1269" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1270" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1270" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1270" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1270" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1270" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1270" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1270" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1270" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1271" s="50" t="str">
+        <f>B1262</f>
+        <v>biomethane import, from neighboring countries</v>
+      </c>
+      <c r="B1271" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1271" s="50" t="str">
+        <f>B1263</f>
+        <v>CH</v>
+      </c>
+      <c r="D1271" s="50" t="str">
+        <f>B1267</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="F1271" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1271" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1271" s="51" t="str">
+        <f>B1265</f>
+        <v>biomethane, high pressure</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1272" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1272" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1272" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1272" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1272" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1272" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1272" s="50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1274" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1274" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1274" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1275" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1275" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1276" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1276" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1277" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1277" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1278" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1278" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1279" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1279" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1280" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1280" s="50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1281" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1282" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1282" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1282" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1282" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1282" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1282" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1282" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1282" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1283" s="50" t="str">
+        <f>B1274</f>
+        <v>kerosene import, from neighboring countries</v>
+      </c>
+      <c r="B1283" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1283" s="50" t="str">
+        <f>B1275</f>
+        <v>CH</v>
+      </c>
+      <c r="D1283" s="50" t="str">
+        <f>B1279</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F1283" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1283" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1283" s="51" t="str">
+        <f>B1277</f>
+        <v>kerosene</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1284" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1284" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1284" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1284" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1284" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1284" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1284" s="50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1286" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1286" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1286" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1287" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1287" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1288" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1288" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1289" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1289" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1290" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1290" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1291" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1291" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1292" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1292" s="50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1293" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1294" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1294" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1294" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1294" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1294" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1294" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1294" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1294" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1295" s="50" t="str">
+        <f>B1286</f>
+        <v>synthetic kerosene import, from neighboring countries</v>
+      </c>
+      <c r="B1295" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1295" s="50" t="str">
+        <f>B1287</f>
+        <v>CH</v>
+      </c>
+      <c r="D1295" s="50" t="str">
+        <f>B1291</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F1295" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1295" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1295" s="51" t="str">
+        <f>B1289</f>
+        <v>kerosene, synthetic</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1296" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1296" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1296" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1296" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1296" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1296" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1296" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1298" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1298" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1298" s="49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1299" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1299" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1300" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1300" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1301" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1301" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1302" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1302" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1303" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1303" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1304" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1304" s="50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1305" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1306" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1306" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1306" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1306" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1306" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1306" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1306" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1306" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1307" s="50" t="str">
+        <f>B1298</f>
+        <v>diesel import, from neighboring countries</v>
+      </c>
+      <c r="B1307" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1307" s="50" t="str">
+        <f>B1299</f>
+        <v>CH</v>
+      </c>
+      <c r="D1307" s="50" t="str">
+        <f>B1303</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F1307" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1307" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1307" s="51" t="str">
+        <f>B1301</f>
+        <v>diesel</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1308" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1308" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1308" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1308" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1308" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1308" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1308" s="50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1310" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1310" s="49"/>
+      <c r="B1310" s="49"/>
+    </row>
+    <row r="1311" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1312" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1313" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1313" s="3"/>
+    </row>
+    <row r="1314" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1315" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1316" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1317" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1317" s="49"/>
+    </row>
+    <row r="1318" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1319" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H1319" s="51"/>
+    </row>
+    <row r="1320" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1321" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/inventories/lci-sweet_sure.xlsx
+++ b/inventories/lci-sweet_sure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/sweet_sure-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83CAA6-CB0C-924A-B20B-740D88A9CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D14CD6C-9D22-FA42-BFC9-E9400F257C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30460" yWindow="-1460" windowWidth="23460" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biomass and waste" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5968" uniqueCount="343">
   <si>
     <t>Activity</t>
   </si>
@@ -882,6 +882,189 @@
   </si>
   <si>
     <t>kerosene, synthetic</t>
+  </si>
+  <si>
+    <t>synthetic diesel import, from neighboring countries</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation</t>
+  </si>
+  <si>
+    <t>diesel, synthetic</t>
+  </si>
+  <si>
+    <t>synthetic natural gas import, from neighboring countries</t>
+  </si>
+  <si>
+    <t>natural gas, synthetic</t>
+  </si>
+  <si>
+    <t>methane, from electrochemical methanation, with carbon from atmosphere</t>
+  </si>
+  <si>
+    <t>methane, from electrochemical methanation</t>
+  </si>
+  <si>
+    <t>heat, from nuclear power plant</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>Free of environmental burden</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>market for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>electricity, used in industrial electric boiler</t>
+  </si>
+  <si>
+    <t>electricity, used in industrial heat pump</t>
+  </si>
+  <si>
+    <t>heat production, air-water heat pump 10kW</t>
+  </si>
+  <si>
+    <t>heat, air-water heat pump 10kW</t>
+  </si>
+  <si>
+    <t>light fuel oil, burned in industrial furnace 1MW</t>
+  </si>
+  <si>
+    <t>heat production, light fuel oil, at industrial furnace 1MW</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, other than natural gas</t>
+  </si>
+  <si>
+    <t>heavy fuel oil, burned in industrial furnace 1MW</t>
+  </si>
+  <si>
+    <t>heat production, heavy fuel oil, at industrial furnace 1MW</t>
+  </si>
+  <si>
+    <t>natural gas, burned in industrial furnace &gt;100kW</t>
+  </si>
+  <si>
+    <t>heat production, natural gas, at boiler condensing modulating &gt;100kW</t>
+  </si>
+  <si>
+    <t>hard coal, burned in hard coal industrial furnace 1-10MW</t>
+  </si>
+  <si>
+    <t>heat production, at hard coal industrial furnace 1-10MW</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial oil-fired CHP</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, oil</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial gas-fired CHP</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, natural gas, 1MW electrical, lean burn</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial gas-fired CHP with CCS</t>
+  </si>
+  <si>
+    <t>heat production, at co-generation natural gas-fired power plant, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial fuel cell CHP</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial non-renewable waste-fired CHP</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial non-renewable waste-fired CHP with CCS</t>
+  </si>
+  <si>
+    <t>heat production, at co-generation wood-fired power plant, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>heat, residential, by combustion of hydrogen using CHP, allocated by exergy, distributed by pipeline, produced by Electrolysis, PEM using electricity from grid</t>
+  </si>
+  <si>
+    <t>heat, from residential heating system</t>
+  </si>
+  <si>
+    <t>heat, from district heating</t>
+  </si>
+  <si>
+    <t>market for district heating (SPS)</t>
+  </si>
+  <si>
+    <t>wood, burned in wood industrial furnace 1-10MW</t>
+  </si>
+  <si>
+    <t>heat production, wood chips from industry, at furnace 1000kW</t>
+  </si>
+  <si>
+    <t>heat production, wood pellet, at furnace 300kW</t>
+  </si>
+  <si>
+    <t>pellet, burned in pellet industrial furnace 300kW</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, other than natural gas</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial wood-fired CHP</t>
+  </si>
+  <si>
+    <t>non-renewable waste, burned in industrial furnace</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial wood-fired CHP with CCS</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial hydrogen-fired CHP</t>
+  </si>
+  <si>
+    <t>renewable waste, burned in industrial furnace</t>
+  </si>
+  <si>
+    <t>solar energy, from industrial hot water tank</t>
+  </si>
+  <si>
+    <t>heat production, at hot water tank, solar+electric, flat plate, multiple dwelling</t>
+  </si>
+  <si>
+    <t>heat, solar+electric, multiple-dwelling, for hot water</t>
+  </si>
+  <si>
+    <t>heat production, from hydrogen-fired one gigawatt gas turbine</t>
+  </si>
+  <si>
+    <t>hydrogen, burned in industrial gas turbine 1GW</t>
+  </si>
+  <si>
+    <t>gas power plant, combined cycle, 400MW electrical</t>
+  </si>
+  <si>
+    <t>gas power plant construction, combined cycle, 400MW electrical</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, wood chips, 6667 kW</t>
+  </si>
+  <si>
+    <t>electricity, used in industrial electric processes</t>
+  </si>
+  <si>
+    <t>DE</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1153,6 +1336,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H1321"/>
+  <dimension ref="A1:L1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1259" workbookViewId="0">
-      <selection activeCell="B1290" sqref="B1290"/>
+    <sheetView tabSelected="1" topLeftCell="A1431" workbookViewId="0">
+      <selection activeCell="B1462" sqref="B1462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24762,26 +24946,5194 @@
     </row>
     <row r="1309" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="1310" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1310" s="49"/>
-      <c r="B1310" s="49"/>
-    </row>
-    <row r="1311" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1312" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A1310" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1310" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1311" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1311" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1312" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1312" s="50">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1313" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1313" s="3"/>
-    </row>
-    <row r="1314" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1315" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1316" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A1313" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1313" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1314" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1314" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1315" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1315" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1316" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1316" s="50" t="s">
+        <v>269</v>
+      </c>
+    </row>
     <row r="1317" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1317" s="49"/>
-    </row>
-    <row r="1318" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A1317" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1318" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1318" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1318" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1318" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1318" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1318" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1318" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1318" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="1319" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H1319" s="51"/>
-    </row>
-    <row r="1320" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A1319" s="50" t="str">
+        <f>B1310</f>
+        <v>synthetic diesel import, from neighboring countries</v>
+      </c>
+      <c r="B1319" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1319" s="50" t="str">
+        <f>B1311</f>
+        <v>CH</v>
+      </c>
+      <c r="D1319" s="50" t="str">
+        <f>B1315</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F1319" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1319" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1319" s="51" t="str">
+        <f>B1313</f>
+        <v>diesel, synthetic</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1320" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1320" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1320" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1320" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1320" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1320" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1320" s="50" t="s">
+        <v>284</v>
+      </c>
+    </row>
     <row r="1321" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1322" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1322" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1322" s="49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1323" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1323" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1324" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1324" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1325" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1325" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1326" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1326" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1327" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1327" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1328" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1328" s="50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1329" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1330" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1330" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1330" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1330" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1330" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1330" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1330" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1330" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1331" s="50" t="str">
+        <f>B1322</f>
+        <v>synthetic natural gas import, from neighboring countries</v>
+      </c>
+      <c r="B1331" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1331" s="50" t="str">
+        <f>B1323</f>
+        <v>CH</v>
+      </c>
+      <c r="D1331" s="50" t="str">
+        <f>B1327</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F1331" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1331" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1331" s="51" t="str">
+        <f>B1325</f>
+        <v>natural gas, synthetic</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1332" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1332" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1332" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1332" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1332" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1332" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1332" s="50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1335" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1335" s="49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1336" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1336" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1337" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1337" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1338" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1338" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1339" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1339" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1340" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1340" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1341" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1341" s="50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1342" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1343" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1343" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1343" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1343" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1343" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1343" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1343" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1343" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1344" s="50" t="str">
+        <f>B1335</f>
+        <v>heat, from nuclear power plant</v>
+      </c>
+      <c r="B1344" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1344" s="50" t="str">
+        <f>B1336</f>
+        <v>CH</v>
+      </c>
+      <c r="D1344" s="50" t="str">
+        <f>B1340</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F1344" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1344" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1344" s="51" t="str">
+        <f>B1338</f>
+        <v>heat</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1345" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1345" s="50">
+        <v>1</v>
+      </c>
+      <c r="D1345" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1345" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1345" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1345" s="50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1347" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1347" s="53"/>
+      <c r="D1347" s="53"/>
+      <c r="E1347" s="53"/>
+      <c r="F1347" s="53"/>
+      <c r="G1347" s="53"/>
+      <c r="H1347" s="53"/>
+    </row>
+    <row r="1348" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1348" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1348" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1348" s="53"/>
+      <c r="D1348" s="53"/>
+      <c r="E1348" s="53"/>
+      <c r="F1348" s="53"/>
+      <c r="G1348" s="53"/>
+      <c r="H1348" s="53"/>
+      <c r="I1348" s="53"/>
+      <c r="J1348" s="53"/>
+      <c r="K1348" s="53"/>
+      <c r="L1348" s="53"/>
+    </row>
+    <row r="1349" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1349" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1349" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1349" s="53"/>
+      <c r="D1349" s="53"/>
+      <c r="E1349" s="53"/>
+      <c r="F1349" s="53"/>
+      <c r="G1349" s="53"/>
+      <c r="H1349" s="53"/>
+      <c r="I1349" s="53"/>
+      <c r="J1349" s="53"/>
+      <c r="K1349" s="53"/>
+      <c r="L1349" s="53"/>
+    </row>
+    <row r="1350" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1350" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1350" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1350" s="53"/>
+      <c r="D1350" s="53"/>
+      <c r="E1350" s="53"/>
+      <c r="F1350" s="53"/>
+      <c r="G1350" s="53"/>
+      <c r="H1350" s="53"/>
+      <c r="I1350" s="53"/>
+      <c r="J1350" s="53"/>
+    </row>
+    <row r="1351" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1351" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1351" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1351" s="53"/>
+      <c r="D1351" s="53"/>
+      <c r="E1351" s="53"/>
+      <c r="F1351" s="53"/>
+      <c r="G1351" s="53"/>
+      <c r="H1351" s="53"/>
+      <c r="I1351" s="53"/>
+      <c r="J1351" s="53"/>
+      <c r="K1351" s="53"/>
+      <c r="L1351" s="53"/>
+    </row>
+    <row r="1352" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1352" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1352" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1352" s="53"/>
+      <c r="D1352" s="53"/>
+      <c r="E1352" s="53"/>
+      <c r="F1352" s="53"/>
+      <c r="G1352" s="53"/>
+      <c r="H1352" s="53"/>
+      <c r="I1352" s="53"/>
+      <c r="J1352" s="53"/>
+      <c r="K1352" s="53"/>
+      <c r="L1352" s="53"/>
+    </row>
+    <row r="1353" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1353" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1353" s="53"/>
+      <c r="C1353" s="53"/>
+      <c r="D1353" s="53"/>
+      <c r="E1353" s="53"/>
+      <c r="F1353" s="53"/>
+      <c r="G1353" s="53"/>
+      <c r="H1353" s="53"/>
+      <c r="I1353" s="53"/>
+      <c r="J1353" s="53"/>
+      <c r="K1353" s="53"/>
+      <c r="L1353" s="53"/>
+    </row>
+    <row r="1354" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1354" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1354" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1354" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1354" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1354" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1354" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1354" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1354" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1354" s="53"/>
+      <c r="J1354" s="53"/>
+      <c r="K1354" s="53"/>
+    </row>
+    <row r="1355" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1355" s="53" t="str">
+        <f>B1347</f>
+        <v>electricity, used in industrial electric boiler</v>
+      </c>
+      <c r="B1355" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1355" s="53" t="str">
+        <f>B1348</f>
+        <v>CH</v>
+      </c>
+      <c r="D1355" s="53" t="str">
+        <f>B1352</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1355" s="53"/>
+      <c r="F1355" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1355" s="53" t="str">
+        <f>B1350</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="I1355" s="53"/>
+      <c r="J1355" s="53"/>
+      <c r="K1355" s="53"/>
+      <c r="L1355" s="53"/>
+    </row>
+    <row r="1356" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1356" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1356">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1357" s="53"/>
+      <c r="B1357"/>
+    </row>
+    <row r="1358" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1358" s="53"/>
+    </row>
+    <row r="1359" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1359" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1359" s="53"/>
+      <c r="D1359" s="53"/>
+      <c r="E1359" s="53"/>
+      <c r="F1359" s="53"/>
+      <c r="G1359" s="53"/>
+      <c r="H1359" s="53"/>
+    </row>
+    <row r="1360" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1360" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1360" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1360" s="53"/>
+      <c r="D1360" s="53"/>
+      <c r="E1360" s="53"/>
+      <c r="F1360" s="53"/>
+      <c r="G1360" s="53"/>
+      <c r="H1360" s="53"/>
+      <c r="I1360" s="53"/>
+      <c r="J1360" s="53"/>
+      <c r="K1360" s="53"/>
+      <c r="L1360" s="53"/>
+    </row>
+    <row r="1361" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1361" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1361" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1361" s="53"/>
+      <c r="D1361" s="53"/>
+      <c r="E1361" s="53"/>
+      <c r="F1361" s="53"/>
+      <c r="G1361" s="53"/>
+      <c r="H1361" s="53"/>
+      <c r="I1361" s="53"/>
+      <c r="J1361" s="53"/>
+      <c r="K1361" s="53"/>
+      <c r="L1361" s="53"/>
+    </row>
+    <row r="1362" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1362" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1362" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1362" s="53"/>
+      <c r="D1362" s="53"/>
+      <c r="E1362" s="53"/>
+      <c r="F1362" s="53"/>
+      <c r="G1362" s="53"/>
+      <c r="H1362" s="53"/>
+      <c r="I1362" s="53"/>
+      <c r="J1362" s="53"/>
+    </row>
+    <row r="1363" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1363" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1363" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1363" s="53"/>
+      <c r="D1363" s="53"/>
+      <c r="E1363" s="53"/>
+      <c r="F1363" s="53"/>
+      <c r="G1363" s="53"/>
+      <c r="H1363" s="53"/>
+      <c r="I1363" s="53"/>
+      <c r="J1363" s="53"/>
+      <c r="K1363" s="53"/>
+      <c r="L1363" s="53"/>
+    </row>
+    <row r="1364" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1364" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1364" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1364" s="53"/>
+      <c r="D1364" s="53"/>
+      <c r="E1364" s="53"/>
+      <c r="F1364" s="53"/>
+      <c r="G1364" s="53"/>
+      <c r="H1364" s="53"/>
+      <c r="I1364" s="53"/>
+      <c r="J1364" s="53"/>
+      <c r="K1364" s="53"/>
+      <c r="L1364" s="53"/>
+    </row>
+    <row r="1365" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1365" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1365" s="53"/>
+      <c r="C1365" s="53"/>
+      <c r="D1365" s="53"/>
+      <c r="E1365" s="53"/>
+      <c r="F1365" s="53"/>
+      <c r="G1365" s="53"/>
+      <c r="H1365" s="53"/>
+      <c r="I1365" s="53"/>
+      <c r="J1365" s="53"/>
+      <c r="K1365" s="53"/>
+      <c r="L1365" s="53"/>
+    </row>
+    <row r="1366" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1366" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1366" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1366" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1366" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1366" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1366" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1366" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1366" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1366" s="53"/>
+      <c r="J1366" s="53"/>
+      <c r="K1366" s="53"/>
+    </row>
+    <row r="1367" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1367" s="53" t="str">
+        <f>B1359</f>
+        <v>electricity, used in industrial heat pump</v>
+      </c>
+      <c r="B1367" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1367" s="53" t="str">
+        <f>B1360</f>
+        <v>CH</v>
+      </c>
+      <c r="D1367" s="53" t="str">
+        <f>B1364</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1367" s="53"/>
+      <c r="F1367" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1367" s="53" t="str">
+        <f>B1362</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="I1367" s="53"/>
+      <c r="J1367" s="53"/>
+      <c r="K1367" s="53"/>
+      <c r="L1367" s="53"/>
+    </row>
+    <row r="1368" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1368" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1368" s="2">
+        <f>1/0.0925925925925926/3.6</f>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1369" s="53"/>
+      <c r="B1369"/>
+    </row>
+    <row r="1370" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1370" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1370" s="53"/>
+      <c r="D1370" s="53"/>
+      <c r="E1370" s="53"/>
+      <c r="F1370" s="53"/>
+      <c r="G1370" s="53"/>
+      <c r="H1370" s="53"/>
+    </row>
+    <row r="1371" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1371" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1371" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1371" s="53"/>
+      <c r="D1371" s="53"/>
+      <c r="E1371" s="53"/>
+      <c r="F1371" s="53"/>
+      <c r="G1371" s="53"/>
+      <c r="H1371" s="53"/>
+      <c r="I1371" s="53"/>
+      <c r="J1371" s="53"/>
+      <c r="K1371" s="53"/>
+      <c r="L1371" s="53"/>
+    </row>
+    <row r="1372" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1372" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1372" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1372" s="53"/>
+      <c r="D1372" s="53"/>
+      <c r="E1372" s="53"/>
+      <c r="F1372" s="53"/>
+      <c r="G1372" s="53"/>
+      <c r="H1372" s="53"/>
+      <c r="I1372" s="53"/>
+      <c r="J1372" s="53"/>
+      <c r="K1372" s="53"/>
+      <c r="L1372" s="53"/>
+    </row>
+    <row r="1373" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1373" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1373" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1373" s="53"/>
+      <c r="D1373" s="53"/>
+      <c r="E1373" s="53"/>
+      <c r="F1373" s="53"/>
+      <c r="G1373" s="53"/>
+      <c r="H1373" s="53"/>
+      <c r="I1373" s="53"/>
+      <c r="J1373" s="53"/>
+    </row>
+    <row r="1374" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1374" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1374" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1374" s="53"/>
+      <c r="D1374" s="53"/>
+      <c r="E1374" s="53"/>
+      <c r="F1374" s="53"/>
+      <c r="G1374" s="53"/>
+      <c r="H1374" s="53"/>
+      <c r="I1374" s="53"/>
+      <c r="J1374" s="53"/>
+      <c r="K1374" s="53"/>
+      <c r="L1374" s="53"/>
+    </row>
+    <row r="1375" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1375" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1375" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1375" s="53"/>
+      <c r="D1375" s="53"/>
+      <c r="E1375" s="53"/>
+      <c r="F1375" s="53"/>
+      <c r="G1375" s="53"/>
+      <c r="H1375" s="53"/>
+      <c r="I1375" s="53"/>
+      <c r="J1375" s="53"/>
+      <c r="K1375" s="53"/>
+      <c r="L1375" s="53"/>
+    </row>
+    <row r="1376" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1376" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1376" s="53"/>
+      <c r="C1376" s="53"/>
+      <c r="D1376" s="53"/>
+      <c r="E1376" s="53"/>
+      <c r="F1376" s="53"/>
+      <c r="G1376" s="53"/>
+      <c r="H1376" s="53"/>
+      <c r="I1376" s="53"/>
+      <c r="J1376" s="53"/>
+      <c r="K1376" s="53"/>
+      <c r="L1376" s="53"/>
+    </row>
+    <row r="1377" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1377" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1377" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1377" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1377" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1377" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1377" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1377" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1377" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1377" s="53"/>
+      <c r="J1377" s="53"/>
+      <c r="K1377" s="53"/>
+    </row>
+    <row r="1378" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1378" s="53" t="str">
+        <f>B1370</f>
+        <v>electricity, used in industrial electric processes</v>
+      </c>
+      <c r="B1378" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1378" s="53" t="str">
+        <f>B1371</f>
+        <v>CH</v>
+      </c>
+      <c r="D1378" s="53" t="str">
+        <f>B1375</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1378" s="53"/>
+      <c r="F1378" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1378" s="53" t="str">
+        <f>B1373</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="I1378" s="53"/>
+      <c r="J1378" s="53"/>
+      <c r="K1378" s="53"/>
+      <c r="L1378" s="53"/>
+    </row>
+    <row r="1379" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1379" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1379">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1380" s="53"/>
+      <c r="B1380"/>
+    </row>
+    <row r="1381" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1381" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1381" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1381" s="53"/>
+      <c r="D1381" s="53"/>
+      <c r="E1381" s="53"/>
+      <c r="F1381" s="53"/>
+      <c r="G1381" s="53"/>
+      <c r="H1381" s="53"/>
+    </row>
+    <row r="1382" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1382" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1382" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1382" s="53"/>
+      <c r="D1382" s="53"/>
+      <c r="E1382" s="53"/>
+      <c r="F1382" s="53"/>
+      <c r="G1382" s="53"/>
+      <c r="H1382" s="53"/>
+      <c r="I1382" s="53"/>
+      <c r="J1382" s="53"/>
+      <c r="K1382" s="53"/>
+      <c r="L1382" s="53"/>
+    </row>
+    <row r="1383" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1383" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1383" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1383" s="53"/>
+      <c r="D1383" s="53"/>
+      <c r="E1383" s="53"/>
+      <c r="F1383" s="53"/>
+      <c r="G1383" s="53"/>
+      <c r="H1383" s="53"/>
+      <c r="I1383" s="53"/>
+      <c r="J1383" s="53"/>
+      <c r="K1383" s="53"/>
+      <c r="L1383" s="53"/>
+    </row>
+    <row r="1384" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1384" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1384" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1384" s="53"/>
+      <c r="D1384" s="53"/>
+      <c r="E1384" s="53"/>
+      <c r="F1384" s="53"/>
+      <c r="G1384" s="53"/>
+      <c r="H1384" s="53"/>
+      <c r="I1384" s="53"/>
+      <c r="J1384" s="53"/>
+    </row>
+    <row r="1385" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1385" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1385" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1385" s="53"/>
+      <c r="D1385" s="53"/>
+      <c r="E1385" s="53"/>
+      <c r="F1385" s="53"/>
+      <c r="G1385" s="53"/>
+      <c r="H1385" s="53"/>
+      <c r="I1385" s="53"/>
+      <c r="J1385" s="53"/>
+      <c r="K1385" s="53"/>
+      <c r="L1385" s="53"/>
+    </row>
+    <row r="1386" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1386" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1386" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1386" s="53"/>
+      <c r="D1386" s="53"/>
+      <c r="E1386" s="53"/>
+      <c r="F1386" s="53"/>
+      <c r="G1386" s="53"/>
+      <c r="H1386" s="53"/>
+      <c r="I1386" s="53"/>
+      <c r="J1386" s="53"/>
+      <c r="K1386" s="53"/>
+      <c r="L1386" s="53"/>
+    </row>
+    <row r="1387" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1387" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1387" s="53"/>
+      <c r="C1387" s="53"/>
+      <c r="D1387" s="53"/>
+      <c r="E1387" s="53"/>
+      <c r="F1387" s="53"/>
+      <c r="G1387" s="53"/>
+      <c r="H1387" s="53"/>
+      <c r="I1387" s="53"/>
+      <c r="J1387" s="53"/>
+      <c r="K1387" s="53"/>
+      <c r="L1387" s="53"/>
+    </row>
+    <row r="1388" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1388" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1388" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1388" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1388" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1388" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1388" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1388" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1388" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1388" s="53"/>
+      <c r="J1388" s="53"/>
+      <c r="K1388" s="53"/>
+    </row>
+    <row r="1389" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1389" s="53" t="str">
+        <f>B1381</f>
+        <v>light fuel oil, burned in industrial furnace 1MW</v>
+      </c>
+      <c r="B1389" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1389" s="53" t="str">
+        <f>B1382</f>
+        <v>CH</v>
+      </c>
+      <c r="D1389" s="53" t="str">
+        <f>B1386</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1389" s="53"/>
+      <c r="F1389" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1389" s="53" t="str">
+        <f>B1384</f>
+        <v>heat</v>
+      </c>
+      <c r="I1389" s="53"/>
+      <c r="J1389" s="53"/>
+      <c r="K1389" s="53"/>
+      <c r="L1389" s="53"/>
+    </row>
+    <row r="1390" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1390" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1390">
+        <f>1/(0.0274*40.1)</f>
+        <v>0.91013342556018706</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1392" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1392" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1392" s="53"/>
+      <c r="D1392" s="53"/>
+      <c r="E1392" s="53"/>
+      <c r="F1392" s="53"/>
+      <c r="H1392" s="53"/>
+    </row>
+    <row r="1393" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1393" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1393" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1393" s="53"/>
+      <c r="D1393" s="53"/>
+      <c r="E1393" s="53"/>
+      <c r="F1393" s="53"/>
+      <c r="H1393" s="53"/>
+      <c r="I1393" s="53"/>
+      <c r="J1393" s="53"/>
+      <c r="K1393" s="53"/>
+      <c r="L1393" s="53"/>
+    </row>
+    <row r="1394" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1394" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1394" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1394" s="53"/>
+      <c r="D1394" s="53"/>
+      <c r="E1394" s="53"/>
+      <c r="F1394" s="53"/>
+      <c r="H1394" s="53"/>
+      <c r="I1394" s="53"/>
+      <c r="J1394" s="53"/>
+      <c r="K1394" s="53"/>
+      <c r="L1394" s="53"/>
+    </row>
+    <row r="1395" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1395" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1395" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1395" s="53"/>
+      <c r="D1395" s="53"/>
+      <c r="E1395" s="53"/>
+      <c r="F1395" s="53"/>
+      <c r="H1395" s="53"/>
+      <c r="I1395" s="53"/>
+      <c r="J1395" s="53"/>
+    </row>
+    <row r="1396" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1396" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1396" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1396" s="53"/>
+      <c r="D1396" s="53"/>
+      <c r="E1396" s="53"/>
+      <c r="F1396" s="53"/>
+      <c r="H1396" s="53"/>
+      <c r="I1396" s="53"/>
+      <c r="J1396" s="53"/>
+      <c r="K1396" s="53"/>
+      <c r="L1396" s="53"/>
+    </row>
+    <row r="1397" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1397" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1397" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1397" s="53"/>
+      <c r="D1397" s="53"/>
+      <c r="E1397" s="53"/>
+      <c r="F1397" s="53"/>
+      <c r="H1397" s="53"/>
+      <c r="I1397" s="53"/>
+      <c r="J1397" s="53"/>
+      <c r="K1397" s="53"/>
+      <c r="L1397" s="53"/>
+    </row>
+    <row r="1398" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1398" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1398" s="53"/>
+      <c r="C1398" s="53"/>
+      <c r="D1398" s="53"/>
+      <c r="E1398" s="53"/>
+      <c r="F1398" s="53"/>
+      <c r="H1398" s="53"/>
+      <c r="I1398" s="53"/>
+      <c r="J1398" s="53"/>
+      <c r="K1398" s="53"/>
+      <c r="L1398" s="53"/>
+    </row>
+    <row r="1399" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1399" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1399" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1399" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1399" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1399" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1399" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1399" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1399" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1399" s="53"/>
+      <c r="J1399" s="53"/>
+      <c r="K1399" s="53"/>
+    </row>
+    <row r="1400" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1400" s="53" t="str">
+        <f>B1392</f>
+        <v>heavy fuel oil, burned in industrial furnace 1MW</v>
+      </c>
+      <c r="B1400" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1400" s="53" t="str">
+        <f>B1393</f>
+        <v>CH</v>
+      </c>
+      <c r="D1400" s="53" t="str">
+        <f>B1397</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1400" s="53"/>
+      <c r="F1400" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1400" s="53" t="str">
+        <f>B1395</f>
+        <v>heat</v>
+      </c>
+      <c r="I1400" s="53"/>
+      <c r="J1400" s="53"/>
+      <c r="K1400" s="53"/>
+      <c r="L1400" s="53"/>
+    </row>
+    <row r="1401" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1401" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1401">
+        <f>1/(0.0259*39)</f>
+        <v>0.99000099000098996</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1403" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1403" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1403" s="53"/>
+      <c r="D1403" s="53"/>
+      <c r="E1403" s="53"/>
+      <c r="F1403" s="53"/>
+      <c r="H1403" s="53"/>
+    </row>
+    <row r="1404" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1404" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1404" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1404" s="53"/>
+      <c r="D1404" s="53"/>
+      <c r="E1404" s="53"/>
+      <c r="F1404" s="53"/>
+      <c r="H1404" s="53"/>
+      <c r="I1404" s="53"/>
+      <c r="J1404" s="53"/>
+      <c r="K1404" s="53"/>
+      <c r="L1404" s="53"/>
+    </row>
+    <row r="1405" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1405" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1405" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1405" s="53"/>
+      <c r="D1405" s="53"/>
+      <c r="E1405" s="53"/>
+      <c r="F1405" s="53"/>
+      <c r="H1405" s="53"/>
+      <c r="I1405" s="53"/>
+      <c r="J1405" s="53"/>
+      <c r="K1405" s="53"/>
+      <c r="L1405" s="53"/>
+    </row>
+    <row r="1406" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1406" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1406" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1406" s="53"/>
+      <c r="D1406" s="53"/>
+      <c r="E1406" s="53"/>
+      <c r="F1406" s="53"/>
+      <c r="H1406" s="53"/>
+      <c r="I1406" s="53"/>
+      <c r="J1406" s="53"/>
+    </row>
+    <row r="1407" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1407" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1407" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1407" s="53"/>
+      <c r="D1407" s="53"/>
+      <c r="E1407" s="53"/>
+      <c r="F1407" s="53"/>
+      <c r="H1407" s="53"/>
+      <c r="I1407" s="53"/>
+      <c r="J1407" s="53"/>
+      <c r="K1407" s="53"/>
+      <c r="L1407" s="53"/>
+    </row>
+    <row r="1408" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1408" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1408" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1408" s="53"/>
+      <c r="D1408" s="53"/>
+      <c r="E1408" s="53"/>
+      <c r="F1408" s="53"/>
+      <c r="H1408" s="53"/>
+      <c r="I1408" s="53"/>
+      <c r="J1408" s="53"/>
+      <c r="K1408" s="53"/>
+      <c r="L1408" s="53"/>
+    </row>
+    <row r="1409" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1409" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1409" s="53"/>
+      <c r="C1409" s="53"/>
+      <c r="D1409" s="53"/>
+      <c r="E1409" s="53"/>
+      <c r="F1409" s="53"/>
+      <c r="H1409" s="53"/>
+      <c r="I1409" s="53"/>
+      <c r="J1409" s="53"/>
+      <c r="K1409" s="53"/>
+      <c r="L1409" s="53"/>
+    </row>
+    <row r="1410" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1410" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1410" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1410" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1410" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1410" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1410" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1410" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1410" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1410" s="53"/>
+      <c r="J1410" s="53"/>
+      <c r="K1410" s="53"/>
+    </row>
+    <row r="1411" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1411" s="53" t="str">
+        <f>B1403</f>
+        <v>natural gas, burned in industrial furnace &gt;100kW</v>
+      </c>
+      <c r="B1411" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1411" s="53" t="str">
+        <f>B1404</f>
+        <v>CH</v>
+      </c>
+      <c r="D1411" s="53" t="str">
+        <f>B1408</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1411" s="53"/>
+      <c r="F1411" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1411" s="53" t="str">
+        <f>B1406</f>
+        <v>heat</v>
+      </c>
+      <c r="I1411" s="53"/>
+      <c r="J1411" s="53"/>
+      <c r="K1411" s="53"/>
+      <c r="L1411" s="53"/>
+    </row>
+    <row r="1412" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1412" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1412">
+        <f>1/(0.046347*36)</f>
+        <v>0.59934359889049504</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1413"/>
+    </row>
+    <row r="1414" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1414" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1414" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1414" s="53"/>
+      <c r="D1414" s="53"/>
+      <c r="E1414" s="53"/>
+      <c r="F1414" s="53"/>
+      <c r="H1414" s="53"/>
+    </row>
+    <row r="1415" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1415" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1415" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1415" s="53"/>
+      <c r="D1415" s="53"/>
+      <c r="E1415" s="53"/>
+      <c r="F1415" s="53"/>
+      <c r="H1415" s="53"/>
+      <c r="I1415" s="53"/>
+      <c r="J1415" s="53"/>
+      <c r="K1415" s="53"/>
+      <c r="L1415" s="53"/>
+    </row>
+    <row r="1416" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1416" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1416" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1416" s="53"/>
+      <c r="D1416" s="53"/>
+      <c r="E1416" s="53"/>
+      <c r="F1416" s="53"/>
+      <c r="H1416" s="53"/>
+      <c r="I1416" s="53"/>
+      <c r="J1416" s="53"/>
+      <c r="K1416" s="53"/>
+      <c r="L1416" s="53"/>
+    </row>
+    <row r="1417" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1417" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1417" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1417" s="53"/>
+      <c r="D1417" s="53"/>
+      <c r="E1417" s="53"/>
+      <c r="F1417" s="53"/>
+      <c r="H1417" s="53"/>
+      <c r="I1417" s="53"/>
+      <c r="J1417" s="53"/>
+    </row>
+    <row r="1418" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1418" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1418" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1418" s="53"/>
+      <c r="D1418" s="53"/>
+      <c r="E1418" s="53"/>
+      <c r="F1418" s="53"/>
+      <c r="H1418" s="53"/>
+      <c r="I1418" s="53"/>
+      <c r="J1418" s="53"/>
+      <c r="K1418" s="53"/>
+      <c r="L1418" s="53"/>
+    </row>
+    <row r="1419" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1419" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1419" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1419" s="53"/>
+      <c r="D1419" s="53"/>
+      <c r="E1419" s="53"/>
+      <c r="F1419" s="53"/>
+      <c r="H1419" s="53"/>
+      <c r="I1419" s="53"/>
+      <c r="J1419" s="53"/>
+      <c r="K1419" s="53"/>
+      <c r="L1419" s="53"/>
+    </row>
+    <row r="1420" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1420" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1420" s="53"/>
+      <c r="C1420" s="53"/>
+      <c r="D1420" s="53"/>
+      <c r="E1420" s="53"/>
+      <c r="F1420" s="53"/>
+      <c r="H1420" s="53"/>
+      <c r="I1420" s="53"/>
+      <c r="J1420" s="53"/>
+      <c r="K1420" s="53"/>
+      <c r="L1420" s="53"/>
+    </row>
+    <row r="1421" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1421" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1421" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1421" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1421" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1421" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1421" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1421" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1421" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1421" s="53"/>
+      <c r="J1421" s="53"/>
+      <c r="K1421" s="53"/>
+    </row>
+    <row r="1422" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1422" s="53" t="str">
+        <f>B1414</f>
+        <v>hard coal, burned in hard coal industrial furnace 1-10MW</v>
+      </c>
+      <c r="B1422" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1422" s="53" t="str">
+        <f>B1415</f>
+        <v>CH</v>
+      </c>
+      <c r="D1422" s="53" t="str">
+        <f>B1419</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1422" s="53"/>
+      <c r="F1422" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1422" s="53" t="str">
+        <f>B1417</f>
+        <v>heat</v>
+      </c>
+      <c r="I1422" s="53"/>
+      <c r="J1422" s="53"/>
+      <c r="K1422" s="53"/>
+      <c r="L1422" s="53"/>
+    </row>
+    <row r="1423" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1423" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1423">
+        <v>0.8</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1424"/>
+    </row>
+    <row r="1425" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1425" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1425" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1425" s="53"/>
+      <c r="D1425" s="53"/>
+      <c r="E1425" s="53"/>
+      <c r="F1425" s="53"/>
+      <c r="H1425" s="53"/>
+    </row>
+    <row r="1426" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1426" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1426" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1426" s="53"/>
+      <c r="D1426" s="53"/>
+      <c r="E1426" s="53"/>
+      <c r="F1426" s="53"/>
+      <c r="H1426" s="53"/>
+      <c r="I1426" s="53"/>
+      <c r="J1426" s="53"/>
+      <c r="K1426" s="53"/>
+      <c r="L1426" s="53"/>
+    </row>
+    <row r="1427" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1427" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1427" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1427" s="53"/>
+      <c r="D1427" s="53"/>
+      <c r="E1427" s="53"/>
+      <c r="F1427" s="53"/>
+      <c r="H1427" s="53"/>
+      <c r="I1427" s="53"/>
+      <c r="J1427" s="53"/>
+      <c r="K1427" s="53"/>
+      <c r="L1427" s="53"/>
+    </row>
+    <row r="1428" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1428" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1428" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1428" s="53"/>
+      <c r="D1428" s="53"/>
+      <c r="E1428" s="53"/>
+      <c r="F1428" s="53"/>
+      <c r="H1428" s="53"/>
+      <c r="I1428" s="53"/>
+      <c r="J1428" s="53"/>
+    </row>
+    <row r="1429" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1429" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1429" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1429" s="53"/>
+      <c r="D1429" s="53"/>
+      <c r="E1429" s="53"/>
+      <c r="F1429" s="53"/>
+      <c r="H1429" s="53"/>
+      <c r="I1429" s="53"/>
+      <c r="J1429" s="53"/>
+      <c r="K1429" s="53"/>
+      <c r="L1429" s="53"/>
+    </row>
+    <row r="1430" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1430" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1430" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1430" s="53"/>
+      <c r="D1430" s="53"/>
+      <c r="E1430" s="53"/>
+      <c r="F1430" s="53"/>
+      <c r="H1430" s="53"/>
+      <c r="I1430" s="53"/>
+      <c r="J1430" s="53"/>
+      <c r="K1430" s="53"/>
+      <c r="L1430" s="53"/>
+    </row>
+    <row r="1431" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1431" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1431" s="53"/>
+      <c r="C1431" s="53"/>
+      <c r="D1431" s="53"/>
+      <c r="E1431" s="53"/>
+      <c r="F1431" s="53"/>
+      <c r="H1431" s="53"/>
+      <c r="I1431" s="53"/>
+      <c r="J1431" s="53"/>
+      <c r="K1431" s="53"/>
+      <c r="L1431" s="53"/>
+    </row>
+    <row r="1432" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1432" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1432" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1432" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1432" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1432" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1432" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1432" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1432" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1432" s="53"/>
+      <c r="J1432" s="53"/>
+      <c r="K1432" s="53"/>
+    </row>
+    <row r="1433" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1433" s="53" t="str">
+        <f>B1425</f>
+        <v>heat, from on-site industrial oil-fired CHP</v>
+      </c>
+      <c r="B1433" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1433" s="53" t="str">
+        <f>B1426</f>
+        <v>CH</v>
+      </c>
+      <c r="D1433" s="53" t="str">
+        <f>B1430</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1433" s="53"/>
+      <c r="F1433" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1433" s="53" t="str">
+        <f>B1428</f>
+        <v>heat</v>
+      </c>
+      <c r="I1433" s="53"/>
+      <c r="J1433" s="53"/>
+      <c r="K1433" s="53"/>
+      <c r="L1433" s="53"/>
+    </row>
+    <row r="1434" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1434" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1434">
+        <f>1/(0.0366*39)</f>
+        <v>0.70057447106627435</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1435"/>
+    </row>
+    <row r="1437" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1437" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1437" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1437" s="53"/>
+      <c r="D1437" s="53"/>
+      <c r="E1437" s="53"/>
+      <c r="F1437" s="53"/>
+      <c r="H1437" s="53"/>
+    </row>
+    <row r="1438" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1438" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1438" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1438" s="53"/>
+      <c r="D1438" s="53"/>
+      <c r="E1438" s="53"/>
+      <c r="F1438" s="53"/>
+      <c r="H1438" s="53"/>
+      <c r="I1438" s="53"/>
+      <c r="J1438" s="53"/>
+      <c r="K1438" s="53"/>
+      <c r="L1438" s="53"/>
+    </row>
+    <row r="1439" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1439" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1439" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1439" s="53"/>
+      <c r="D1439" s="53"/>
+      <c r="E1439" s="53"/>
+      <c r="F1439" s="53"/>
+      <c r="H1439" s="53"/>
+      <c r="I1439" s="53"/>
+      <c r="J1439" s="53"/>
+      <c r="K1439" s="53"/>
+      <c r="L1439" s="53"/>
+    </row>
+    <row r="1440" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1440" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1440" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1440" s="53"/>
+      <c r="D1440" s="53"/>
+      <c r="E1440" s="53"/>
+      <c r="F1440" s="53"/>
+      <c r="H1440" s="53"/>
+      <c r="I1440" s="53"/>
+      <c r="J1440" s="53"/>
+    </row>
+    <row r="1441" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1441" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1441" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1441" s="53"/>
+      <c r="D1441" s="53"/>
+      <c r="E1441" s="53"/>
+      <c r="F1441" s="53"/>
+      <c r="H1441" s="53"/>
+      <c r="I1441" s="53"/>
+      <c r="J1441" s="53"/>
+      <c r="K1441" s="53"/>
+      <c r="L1441" s="53"/>
+    </row>
+    <row r="1442" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1442" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1442" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1442" s="53"/>
+      <c r="D1442" s="53"/>
+      <c r="E1442" s="53"/>
+      <c r="F1442" s="53"/>
+      <c r="H1442" s="53"/>
+      <c r="I1442" s="53"/>
+      <c r="J1442" s="53"/>
+      <c r="K1442" s="53"/>
+      <c r="L1442" s="53"/>
+    </row>
+    <row r="1443" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1443" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1443" s="53"/>
+      <c r="C1443" s="53"/>
+      <c r="D1443" s="53"/>
+      <c r="E1443" s="53"/>
+      <c r="F1443" s="53"/>
+      <c r="H1443" s="53"/>
+      <c r="I1443" s="53"/>
+      <c r="J1443" s="53"/>
+      <c r="K1443" s="53"/>
+      <c r="L1443" s="53"/>
+    </row>
+    <row r="1444" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1444" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1444" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1444" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1444" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1444" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1444" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1444" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1444" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1444" s="53"/>
+      <c r="J1444" s="53"/>
+      <c r="K1444" s="53"/>
+    </row>
+    <row r="1445" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1445" s="53" t="str">
+        <f>B1437</f>
+        <v>heat, from on-site industrial gas-fired CHP</v>
+      </c>
+      <c r="B1445" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1445" s="53" t="str">
+        <f>B1438</f>
+        <v>CH</v>
+      </c>
+      <c r="D1445" s="53" t="str">
+        <f>B1442</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1445" s="53"/>
+      <c r="F1445" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1445" s="53" t="str">
+        <f>B1440</f>
+        <v>heat</v>
+      </c>
+      <c r="I1445" s="53"/>
+      <c r="J1445" s="53"/>
+      <c r="K1445" s="53"/>
+      <c r="L1445" s="53"/>
+    </row>
+    <row r="1446" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1446" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1446">
+        <f>1/(0.0095*36)</f>
+        <v>2.9239766081871346</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1447"/>
+    </row>
+    <row r="1448" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1448" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1448" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1448" s="53"/>
+      <c r="D1448" s="53"/>
+      <c r="E1448" s="53"/>
+      <c r="F1448" s="53"/>
+      <c r="H1448" s="53"/>
+    </row>
+    <row r="1449" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1449" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1449" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1449" s="53"/>
+      <c r="D1449" s="53"/>
+      <c r="E1449" s="53"/>
+      <c r="F1449" s="53"/>
+      <c r="H1449" s="53"/>
+      <c r="I1449" s="53"/>
+      <c r="J1449" s="53"/>
+      <c r="K1449" s="53"/>
+      <c r="L1449" s="53"/>
+    </row>
+    <row r="1450" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1450" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1450" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1450" s="53"/>
+      <c r="D1450" s="53"/>
+      <c r="E1450" s="53"/>
+      <c r="F1450" s="53"/>
+      <c r="H1450" s="53"/>
+      <c r="I1450" s="53"/>
+      <c r="J1450" s="53"/>
+      <c r="K1450" s="53"/>
+      <c r="L1450" s="53"/>
+    </row>
+    <row r="1451" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1451" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1451" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1451" s="53"/>
+      <c r="D1451" s="53"/>
+      <c r="E1451" s="53"/>
+      <c r="F1451" s="53"/>
+      <c r="H1451" s="53"/>
+      <c r="I1451" s="53"/>
+      <c r="J1451" s="53"/>
+    </row>
+    <row r="1452" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1452" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1452" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1452" s="53"/>
+      <c r="D1452" s="53"/>
+      <c r="E1452" s="53"/>
+      <c r="F1452" s="53"/>
+      <c r="H1452" s="53"/>
+      <c r="I1452" s="53"/>
+      <c r="J1452" s="53"/>
+      <c r="K1452" s="53"/>
+      <c r="L1452" s="53"/>
+    </row>
+    <row r="1453" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1453" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1453" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1453" s="53"/>
+      <c r="D1453" s="53"/>
+      <c r="E1453" s="53"/>
+      <c r="F1453" s="53"/>
+      <c r="H1453" s="53"/>
+      <c r="I1453" s="53"/>
+      <c r="J1453" s="53"/>
+      <c r="K1453" s="53"/>
+      <c r="L1453" s="53"/>
+    </row>
+    <row r="1454" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1454" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1454" s="53"/>
+      <c r="C1454" s="53"/>
+      <c r="D1454" s="53"/>
+      <c r="E1454" s="53"/>
+      <c r="F1454" s="53"/>
+      <c r="H1454" s="53"/>
+      <c r="I1454" s="53"/>
+      <c r="J1454" s="53"/>
+      <c r="K1454" s="53"/>
+      <c r="L1454" s="53"/>
+    </row>
+    <row r="1455" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1455" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1455" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1455" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1455" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1455" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1455" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1455" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1455" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1455" s="53"/>
+      <c r="J1455" s="53"/>
+      <c r="K1455" s="53"/>
+    </row>
+    <row r="1456" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1456" s="53" t="str">
+        <f>B1448</f>
+        <v>heat, from on-site industrial gas-fired CHP with CCS</v>
+      </c>
+      <c r="B1456" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1456" s="53" t="str">
+        <f>B1449</f>
+        <v>CH</v>
+      </c>
+      <c r="D1456" s="53" t="str">
+        <f>B1453</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1456" s="53"/>
+      <c r="F1456" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1456" s="53" t="str">
+        <f>B1451</f>
+        <v>heat</v>
+      </c>
+      <c r="I1456" s="53"/>
+      <c r="J1456" s="53"/>
+      <c r="K1456" s="53"/>
+      <c r="L1456" s="53"/>
+    </row>
+    <row r="1457" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1457" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1457">
+        <f>1/(0.011726*1.08*36)</f>
+        <v>2.1934303777122204</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1458"/>
+    </row>
+    <row r="1459" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1459" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1459" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1459" s="53"/>
+      <c r="D1459" s="53"/>
+      <c r="E1459" s="53"/>
+      <c r="F1459" s="53"/>
+      <c r="H1459" s="53"/>
+    </row>
+    <row r="1460" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1460" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1460" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1460" s="53"/>
+      <c r="D1460" s="53"/>
+      <c r="E1460" s="53"/>
+      <c r="F1460" s="53"/>
+      <c r="H1460" s="53"/>
+      <c r="I1460" s="53"/>
+      <c r="J1460" s="53"/>
+      <c r="K1460" s="53"/>
+      <c r="L1460" s="53"/>
+    </row>
+    <row r="1461" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1461" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1461" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1461" s="53"/>
+      <c r="D1461" s="53"/>
+      <c r="E1461" s="53"/>
+      <c r="F1461" s="53"/>
+      <c r="H1461" s="53"/>
+      <c r="I1461" s="53"/>
+      <c r="J1461" s="53"/>
+      <c r="K1461" s="53"/>
+      <c r="L1461" s="53"/>
+    </row>
+    <row r="1462" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1462" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1462" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1462" s="53"/>
+      <c r="D1462" s="53"/>
+      <c r="E1462" s="53"/>
+      <c r="F1462" s="53"/>
+      <c r="H1462" s="53"/>
+      <c r="I1462" s="53"/>
+      <c r="J1462" s="53"/>
+    </row>
+    <row r="1463" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1463" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1463" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1463" s="53"/>
+      <c r="D1463" s="53"/>
+      <c r="E1463" s="53"/>
+      <c r="F1463" s="53"/>
+      <c r="H1463" s="53"/>
+      <c r="I1463" s="53"/>
+      <c r="J1463" s="53"/>
+      <c r="K1463" s="53"/>
+      <c r="L1463" s="53"/>
+    </row>
+    <row r="1464" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1464" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1464" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1464" s="53"/>
+      <c r="D1464" s="53"/>
+      <c r="E1464" s="53"/>
+      <c r="F1464" s="53"/>
+      <c r="H1464" s="53"/>
+      <c r="I1464" s="53"/>
+      <c r="J1464" s="53"/>
+      <c r="K1464" s="53"/>
+      <c r="L1464" s="53"/>
+    </row>
+    <row r="1465" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1465" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1465" s="53"/>
+      <c r="C1465" s="53"/>
+      <c r="D1465" s="53"/>
+      <c r="E1465" s="53"/>
+      <c r="F1465" s="53"/>
+      <c r="H1465" s="53"/>
+      <c r="I1465" s="53"/>
+      <c r="J1465" s="53"/>
+      <c r="K1465" s="53"/>
+      <c r="L1465" s="53"/>
+    </row>
+    <row r="1466" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1466" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1466" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1466" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1466" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1466" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1466" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1466" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1466" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1466" s="53"/>
+      <c r="J1466" s="53"/>
+      <c r="K1466" s="53"/>
+    </row>
+    <row r="1467" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1467" s="53" t="str">
+        <f>B1459</f>
+        <v>heat, from on-site industrial fuel cell CHP</v>
+      </c>
+      <c r="B1467" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1467" s="53" t="str">
+        <f>B1460</f>
+        <v>CH</v>
+      </c>
+      <c r="D1467" s="53" t="str">
+        <f>B1464</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1467" s="53"/>
+      <c r="F1467" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1467" s="53" t="str">
+        <f>B1462</f>
+        <v>heat</v>
+      </c>
+      <c r="I1467" s="53"/>
+      <c r="J1467" s="53"/>
+      <c r="K1467" s="53"/>
+      <c r="L1467" s="53"/>
+    </row>
+    <row r="1468" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1468" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1468">
+        <f>1/(0.011726*1.08*36)</f>
+        <v>2.1934303777122204</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1469"/>
+    </row>
+    <row r="1470" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1470" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1470" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1470" s="53"/>
+      <c r="D1470" s="53"/>
+      <c r="E1470" s="53"/>
+      <c r="F1470" s="53"/>
+      <c r="H1470" s="53"/>
+    </row>
+    <row r="1471" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1471" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1471" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1471" s="53"/>
+      <c r="D1471" s="53"/>
+      <c r="E1471" s="53"/>
+      <c r="F1471" s="53"/>
+      <c r="H1471" s="53"/>
+      <c r="I1471" s="53"/>
+      <c r="J1471" s="53"/>
+      <c r="K1471" s="53"/>
+      <c r="L1471" s="53"/>
+    </row>
+    <row r="1472" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1472" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1472" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1472" s="53"/>
+      <c r="D1472" s="53"/>
+      <c r="E1472" s="53"/>
+      <c r="F1472" s="53"/>
+      <c r="H1472" s="53"/>
+      <c r="I1472" s="53"/>
+      <c r="J1472" s="53"/>
+      <c r="K1472" s="53"/>
+      <c r="L1472" s="53"/>
+    </row>
+    <row r="1473" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1473" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1473" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1473" s="53"/>
+      <c r="D1473" s="53"/>
+      <c r="E1473" s="53"/>
+      <c r="F1473" s="53"/>
+      <c r="H1473" s="53"/>
+      <c r="I1473" s="53"/>
+      <c r="J1473" s="53"/>
+    </row>
+    <row r="1474" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1474" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1474" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1474" s="53"/>
+      <c r="D1474" s="53"/>
+      <c r="E1474" s="53"/>
+      <c r="F1474" s="53"/>
+      <c r="H1474" s="53"/>
+      <c r="I1474" s="53"/>
+      <c r="J1474" s="53"/>
+      <c r="K1474" s="53"/>
+      <c r="L1474" s="53"/>
+    </row>
+    <row r="1475" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1475" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1475" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1475" s="53"/>
+      <c r="D1475" s="53"/>
+      <c r="E1475" s="53"/>
+      <c r="F1475" s="53"/>
+      <c r="H1475" s="53"/>
+      <c r="I1475" s="53"/>
+      <c r="J1475" s="53"/>
+      <c r="K1475" s="53"/>
+      <c r="L1475" s="53"/>
+    </row>
+    <row r="1476" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1476" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1476" s="53"/>
+      <c r="C1476" s="53"/>
+      <c r="D1476" s="53"/>
+      <c r="E1476" s="53"/>
+      <c r="F1476" s="53"/>
+      <c r="H1476" s="53"/>
+      <c r="I1476" s="53"/>
+      <c r="J1476" s="53"/>
+      <c r="K1476" s="53"/>
+      <c r="L1476" s="53"/>
+    </row>
+    <row r="1477" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1477" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1477" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1477" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1477" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1477" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1477" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1477" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1477" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1477" s="53"/>
+      <c r="J1477" s="53"/>
+      <c r="K1477" s="53"/>
+    </row>
+    <row r="1478" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1478" s="53" t="str">
+        <f>B1470</f>
+        <v>heat, from on-site industrial non-renewable waste-fired CHP</v>
+      </c>
+      <c r="B1478" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1478" s="53" t="str">
+        <f>B1471</f>
+        <v>CH</v>
+      </c>
+      <c r="D1478" s="53" t="str">
+        <f>B1475</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1478" s="53"/>
+      <c r="F1478" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1478" s="53" t="str">
+        <f>B1473</f>
+        <v>heat</v>
+      </c>
+      <c r="I1478" s="53"/>
+      <c r="J1478" s="53"/>
+      <c r="K1478" s="53"/>
+      <c r="L1478" s="53"/>
+    </row>
+    <row r="1479" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1479" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1479">
+        <v>0.4</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1480"/>
+    </row>
+    <row r="1481" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1481" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1481" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1481" s="53"/>
+      <c r="D1481" s="53"/>
+      <c r="E1481" s="53"/>
+      <c r="F1481" s="53"/>
+      <c r="H1481" s="53"/>
+    </row>
+    <row r="1482" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1482" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1482" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1482" s="53"/>
+      <c r="D1482" s="53"/>
+      <c r="E1482" s="53"/>
+      <c r="F1482" s="53"/>
+      <c r="H1482" s="53"/>
+      <c r="I1482" s="53"/>
+      <c r="J1482" s="53"/>
+      <c r="K1482" s="53"/>
+      <c r="L1482" s="53"/>
+    </row>
+    <row r="1483" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1483" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1483" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1483" s="53"/>
+      <c r="D1483" s="53"/>
+      <c r="E1483" s="53"/>
+      <c r="F1483" s="53"/>
+      <c r="H1483" s="53"/>
+      <c r="I1483" s="53"/>
+      <c r="J1483" s="53"/>
+      <c r="K1483" s="53"/>
+      <c r="L1483" s="53"/>
+    </row>
+    <row r="1484" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1484" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1484" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1484" s="53"/>
+      <c r="D1484" s="53"/>
+      <c r="E1484" s="53"/>
+      <c r="F1484" s="53"/>
+      <c r="H1484" s="53"/>
+      <c r="I1484" s="53"/>
+      <c r="J1484" s="53"/>
+    </row>
+    <row r="1485" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1485" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1485" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1485" s="53"/>
+      <c r="D1485" s="53"/>
+      <c r="E1485" s="53"/>
+      <c r="F1485" s="53"/>
+      <c r="H1485" s="53"/>
+      <c r="I1485" s="53"/>
+      <c r="J1485" s="53"/>
+      <c r="K1485" s="53"/>
+      <c r="L1485" s="53"/>
+    </row>
+    <row r="1486" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1486" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1486" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1486" s="53"/>
+      <c r="D1486" s="53"/>
+      <c r="E1486" s="53"/>
+      <c r="F1486" s="53"/>
+      <c r="H1486" s="53"/>
+      <c r="I1486" s="53"/>
+      <c r="J1486" s="53"/>
+      <c r="K1486" s="53"/>
+      <c r="L1486" s="53"/>
+    </row>
+    <row r="1487" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1487" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1487" s="53"/>
+      <c r="C1487" s="53"/>
+      <c r="D1487" s="53"/>
+      <c r="E1487" s="53"/>
+      <c r="F1487" s="53"/>
+      <c r="H1487" s="53"/>
+      <c r="I1487" s="53"/>
+      <c r="J1487" s="53"/>
+      <c r="K1487" s="53"/>
+      <c r="L1487" s="53"/>
+    </row>
+    <row r="1488" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1488" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1488" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1488" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1488" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1488" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1488" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1488" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1488" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1488" s="53"/>
+      <c r="J1488" s="53"/>
+      <c r="K1488" s="53"/>
+    </row>
+    <row r="1489" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1489" s="53" t="str">
+        <f>B1481</f>
+        <v>heat, from on-site industrial non-renewable waste-fired CHP with CCS</v>
+      </c>
+      <c r="B1489" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1489" s="53" t="str">
+        <f>B1482</f>
+        <v>CH</v>
+      </c>
+      <c r="D1489" s="53" t="str">
+        <f>B1486</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1489" s="53"/>
+      <c r="F1489" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1489" s="53" t="str">
+        <f>B1484</f>
+        <v>heat</v>
+      </c>
+      <c r="I1489" s="53"/>
+      <c r="J1489" s="53"/>
+      <c r="K1489" s="53"/>
+      <c r="L1489" s="53"/>
+    </row>
+    <row r="1490" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1490" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1490">
+        <v>0.5</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1491"/>
+    </row>
+    <row r="1492" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1492" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1492" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1492" s="53"/>
+      <c r="D1492" s="53"/>
+      <c r="E1492" s="53"/>
+      <c r="F1492" s="53"/>
+      <c r="H1492" s="53"/>
+    </row>
+    <row r="1493" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1493" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1493" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1493" s="53"/>
+      <c r="D1493" s="53"/>
+      <c r="E1493" s="53"/>
+      <c r="F1493" s="53"/>
+      <c r="H1493" s="53"/>
+      <c r="I1493" s="53"/>
+      <c r="J1493" s="53"/>
+      <c r="K1493" s="53"/>
+      <c r="L1493" s="53"/>
+    </row>
+    <row r="1494" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1494" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1494" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1494" s="53"/>
+      <c r="D1494" s="53"/>
+      <c r="E1494" s="53"/>
+      <c r="F1494" s="53"/>
+      <c r="H1494" s="53"/>
+      <c r="I1494" s="53"/>
+      <c r="J1494" s="53"/>
+      <c r="K1494" s="53"/>
+      <c r="L1494" s="53"/>
+    </row>
+    <row r="1495" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1495" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1495" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1495" s="53"/>
+      <c r="D1495" s="53"/>
+      <c r="E1495" s="53"/>
+      <c r="F1495" s="53"/>
+      <c r="H1495" s="53"/>
+      <c r="I1495" s="53"/>
+      <c r="J1495" s="53"/>
+    </row>
+    <row r="1496" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1496" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1496" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1496" s="53"/>
+      <c r="D1496" s="53"/>
+      <c r="E1496" s="53"/>
+      <c r="F1496" s="53"/>
+      <c r="H1496" s="53"/>
+      <c r="I1496" s="53"/>
+      <c r="J1496" s="53"/>
+      <c r="K1496" s="53"/>
+      <c r="L1496" s="53"/>
+    </row>
+    <row r="1497" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1497" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1497" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1497" s="53"/>
+      <c r="D1497" s="53"/>
+      <c r="E1497" s="53"/>
+      <c r="F1497" s="53"/>
+      <c r="H1497" s="53"/>
+      <c r="I1497" s="53"/>
+      <c r="J1497" s="53"/>
+      <c r="K1497" s="53"/>
+      <c r="L1497" s="53"/>
+    </row>
+    <row r="1498" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1498" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1498" s="53"/>
+      <c r="C1498" s="53"/>
+      <c r="D1498" s="53"/>
+      <c r="E1498" s="53"/>
+      <c r="F1498" s="53"/>
+      <c r="H1498" s="53"/>
+      <c r="I1498" s="53"/>
+      <c r="J1498" s="53"/>
+      <c r="K1498" s="53"/>
+      <c r="L1498" s="53"/>
+    </row>
+    <row r="1499" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1499" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1499" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1499" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1499" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1499" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1499" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1499" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1499" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1499" s="53"/>
+      <c r="J1499" s="53"/>
+      <c r="K1499" s="53"/>
+    </row>
+    <row r="1500" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1500" s="53" t="str">
+        <f>B1492</f>
+        <v>heat, from on-site industrial wood-fired CHP</v>
+      </c>
+      <c r="B1500" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1500" s="53" t="str">
+        <f>B1493</f>
+        <v>CH</v>
+      </c>
+      <c r="D1500" s="53" t="str">
+        <f>B1497</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1500" s="53"/>
+      <c r="F1500" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1500" s="53" t="str">
+        <f>B1495</f>
+        <v>heat</v>
+      </c>
+      <c r="I1500" s="53"/>
+      <c r="J1500" s="53"/>
+      <c r="K1500" s="53"/>
+      <c r="L1500" s="53"/>
+    </row>
+    <row r="1501" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1501" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1501">
+        <f>1/(0.0396618169378429*19.1)</f>
+        <v>1.3200610810256006</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1503" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1503" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1503" s="53"/>
+      <c r="D1503" s="53"/>
+      <c r="E1503" s="53"/>
+      <c r="F1503" s="53"/>
+      <c r="H1503" s="53"/>
+    </row>
+    <row r="1504" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1504" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1504" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1504" s="53"/>
+      <c r="D1504" s="53"/>
+      <c r="E1504" s="53"/>
+      <c r="F1504" s="53"/>
+      <c r="H1504" s="53"/>
+      <c r="I1504" s="53"/>
+      <c r="J1504" s="53"/>
+      <c r="K1504" s="53"/>
+      <c r="L1504" s="53"/>
+    </row>
+    <row r="1505" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1505" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1505" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1505" s="53"/>
+      <c r="D1505" s="53"/>
+      <c r="E1505" s="53"/>
+      <c r="F1505" s="53"/>
+      <c r="H1505" s="53"/>
+      <c r="I1505" s="53"/>
+      <c r="J1505" s="53"/>
+      <c r="K1505" s="53"/>
+      <c r="L1505" s="53"/>
+    </row>
+    <row r="1506" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1506" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1506" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1506" s="53"/>
+      <c r="D1506" s="53"/>
+      <c r="E1506" s="53"/>
+      <c r="F1506" s="53"/>
+      <c r="H1506" s="53"/>
+      <c r="I1506" s="53"/>
+      <c r="J1506" s="53"/>
+    </row>
+    <row r="1507" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1507" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1507" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1507" s="53"/>
+      <c r="D1507" s="53"/>
+      <c r="E1507" s="53"/>
+      <c r="F1507" s="53"/>
+      <c r="H1507" s="53"/>
+      <c r="I1507" s="53"/>
+      <c r="J1507" s="53"/>
+      <c r="K1507" s="53"/>
+      <c r="L1507" s="53"/>
+    </row>
+    <row r="1508" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1508" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1508" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1508" s="53"/>
+      <c r="D1508" s="53"/>
+      <c r="E1508" s="53"/>
+      <c r="F1508" s="53"/>
+      <c r="H1508" s="53"/>
+      <c r="I1508" s="53"/>
+      <c r="J1508" s="53"/>
+      <c r="K1508" s="53"/>
+      <c r="L1508" s="53"/>
+    </row>
+    <row r="1509" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1509" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1509" s="53"/>
+      <c r="C1509" s="53"/>
+      <c r="D1509" s="53"/>
+      <c r="E1509" s="53"/>
+      <c r="F1509" s="53"/>
+      <c r="H1509" s="53"/>
+      <c r="I1509" s="53"/>
+      <c r="J1509" s="53"/>
+      <c r="K1509" s="53"/>
+      <c r="L1509" s="53"/>
+    </row>
+    <row r="1510" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1510" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1510" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1510" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1510" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1510" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1510" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1510" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1510" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1510" s="53"/>
+      <c r="J1510" s="53"/>
+      <c r="K1510" s="53"/>
+    </row>
+    <row r="1511" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1511" s="53" t="str">
+        <f>B1503</f>
+        <v>heat, from on-site industrial wood-fired CHP with CCS</v>
+      </c>
+      <c r="B1511" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1511" s="53" t="str">
+        <f>B1504</f>
+        <v>CH</v>
+      </c>
+      <c r="D1511" s="53" t="str">
+        <f>B1508</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1511" s="53"/>
+      <c r="F1511" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1511" s="53" t="str">
+        <f>B1506</f>
+        <v>heat</v>
+      </c>
+      <c r="I1511" s="53"/>
+      <c r="J1511" s="53"/>
+      <c r="K1511" s="53"/>
+      <c r="L1511" s="53"/>
+    </row>
+    <row r="1512" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1512" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1512">
+        <f>1/(0.0396618169378429*19.1*1.1)</f>
+        <v>1.2000555282050913</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1514" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1514" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1514" s="53"/>
+      <c r="D1514" s="53"/>
+      <c r="E1514" s="53"/>
+      <c r="F1514" s="53"/>
+      <c r="H1514" s="53"/>
+    </row>
+    <row r="1515" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1515" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1515" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1515" s="53"/>
+      <c r="D1515" s="53"/>
+      <c r="E1515" s="53"/>
+      <c r="F1515" s="53"/>
+      <c r="H1515" s="53"/>
+      <c r="I1515" s="53"/>
+      <c r="J1515" s="53"/>
+      <c r="K1515" s="53"/>
+      <c r="L1515" s="53"/>
+    </row>
+    <row r="1516" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1516" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1516" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1516" s="53"/>
+      <c r="D1516" s="53"/>
+      <c r="E1516" s="53"/>
+      <c r="F1516" s="53"/>
+      <c r="H1516" s="53"/>
+      <c r="I1516" s="53"/>
+      <c r="J1516" s="53"/>
+      <c r="K1516" s="53"/>
+      <c r="L1516" s="53"/>
+    </row>
+    <row r="1517" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1517" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1517" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1517" s="53"/>
+      <c r="D1517" s="53"/>
+      <c r="E1517" s="53"/>
+      <c r="F1517" s="53"/>
+      <c r="H1517" s="53"/>
+      <c r="I1517" s="53"/>
+      <c r="J1517" s="53"/>
+    </row>
+    <row r="1518" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1518" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1518" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1518" s="53"/>
+      <c r="D1518" s="53"/>
+      <c r="E1518" s="53"/>
+      <c r="F1518" s="53"/>
+      <c r="H1518" s="53"/>
+      <c r="I1518" s="53"/>
+      <c r="J1518" s="53"/>
+      <c r="K1518" s="53"/>
+      <c r="L1518" s="53"/>
+    </row>
+    <row r="1519" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1519" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1519" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1519" s="53"/>
+      <c r="D1519" s="53"/>
+      <c r="E1519" s="53"/>
+      <c r="F1519" s="53"/>
+      <c r="H1519" s="53"/>
+      <c r="I1519" s="53"/>
+      <c r="J1519" s="53"/>
+      <c r="K1519" s="53"/>
+      <c r="L1519" s="53"/>
+    </row>
+    <row r="1520" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1520" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1520" s="53"/>
+      <c r="C1520" s="53"/>
+      <c r="D1520" s="53"/>
+      <c r="E1520" s="53"/>
+      <c r="F1520" s="53"/>
+      <c r="H1520" s="53"/>
+      <c r="I1520" s="53"/>
+      <c r="J1520" s="53"/>
+      <c r="K1520" s="53"/>
+      <c r="L1520" s="53"/>
+    </row>
+    <row r="1521" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1521" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1521" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1521" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1521" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1521" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1521" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1521" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1521" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1521" s="53"/>
+      <c r="J1521" s="53"/>
+      <c r="K1521" s="53"/>
+    </row>
+    <row r="1522" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1522" s="53" t="str">
+        <f>B1514</f>
+        <v>heat, from on-site industrial hydrogen-fired CHP</v>
+      </c>
+      <c r="B1522" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1522" s="53" t="str">
+        <f>B1515</f>
+        <v>CH</v>
+      </c>
+      <c r="D1522" s="53" t="str">
+        <f>B1519</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1522" s="53"/>
+      <c r="F1522" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1522" s="53" t="str">
+        <f>B1517</f>
+        <v>heat</v>
+      </c>
+      <c r="I1522" s="53"/>
+      <c r="J1522" s="53"/>
+      <c r="K1522" s="53"/>
+      <c r="L1522" s="53"/>
+    </row>
+    <row r="1523" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1523" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1523">
+        <f>1/(0.00167*120)</f>
+        <v>4.9900199600798407</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1523" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1525" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1525" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1525" s="53"/>
+      <c r="D1525" s="53"/>
+      <c r="E1525" s="53"/>
+      <c r="F1525" s="53"/>
+      <c r="H1525" s="53"/>
+    </row>
+    <row r="1526" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1526" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1526" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1526" s="53"/>
+      <c r="D1526" s="53"/>
+      <c r="E1526" s="53"/>
+      <c r="F1526" s="53"/>
+      <c r="H1526" s="53"/>
+      <c r="I1526" s="53"/>
+      <c r="J1526" s="53"/>
+      <c r="K1526" s="53"/>
+      <c r="L1526" s="53"/>
+    </row>
+    <row r="1527" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1527" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1527" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1527" s="53"/>
+      <c r="D1527" s="53"/>
+      <c r="E1527" s="53"/>
+      <c r="F1527" s="53"/>
+      <c r="H1527" s="53"/>
+      <c r="I1527" s="53"/>
+      <c r="J1527" s="53"/>
+      <c r="K1527" s="53"/>
+      <c r="L1527" s="53"/>
+    </row>
+    <row r="1528" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1528" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1528" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1528" s="53"/>
+      <c r="D1528" s="53"/>
+      <c r="E1528" s="53"/>
+      <c r="F1528" s="53"/>
+      <c r="H1528" s="53"/>
+      <c r="I1528" s="53"/>
+      <c r="J1528" s="53"/>
+    </row>
+    <row r="1529" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1529" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1529" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1529" s="53"/>
+      <c r="D1529" s="53"/>
+      <c r="E1529" s="53"/>
+      <c r="F1529" s="53"/>
+      <c r="H1529" s="53"/>
+      <c r="I1529" s="53"/>
+      <c r="J1529" s="53"/>
+      <c r="K1529" s="53"/>
+      <c r="L1529" s="53"/>
+    </row>
+    <row r="1530" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1530" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1530" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1530" s="53"/>
+      <c r="D1530" s="53"/>
+      <c r="E1530" s="53"/>
+      <c r="F1530" s="53"/>
+      <c r="H1530" s="53"/>
+      <c r="I1530" s="53"/>
+      <c r="J1530" s="53"/>
+      <c r="K1530" s="53"/>
+      <c r="L1530" s="53"/>
+    </row>
+    <row r="1531" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1531" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1531" s="53"/>
+      <c r="C1531" s="53"/>
+      <c r="D1531" s="53"/>
+      <c r="E1531" s="53"/>
+      <c r="F1531" s="53"/>
+      <c r="H1531" s="53"/>
+      <c r="I1531" s="53"/>
+      <c r="J1531" s="53"/>
+      <c r="K1531" s="53"/>
+      <c r="L1531" s="53"/>
+    </row>
+    <row r="1532" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1532" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1532" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1532" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1532" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1532" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1532" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1532" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1532" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1532" s="53"/>
+      <c r="J1532" s="53"/>
+      <c r="K1532" s="53"/>
+    </row>
+    <row r="1533" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1533" s="53" t="str">
+        <f>B1525</f>
+        <v>heat, from district heating</v>
+      </c>
+      <c r="B1533" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1533" s="53" t="str">
+        <f>B1526</f>
+        <v>CH</v>
+      </c>
+      <c r="D1533" s="53" t="str">
+        <f>B1530</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1533" s="53"/>
+      <c r="F1533" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1533" s="53" t="str">
+        <f>B1528</f>
+        <v>heat</v>
+      </c>
+      <c r="I1533" s="53"/>
+      <c r="J1533" s="53"/>
+      <c r="K1533" s="53"/>
+      <c r="L1533" s="53"/>
+    </row>
+    <row r="1534" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1534" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1534">
+        <v>1</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1536" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1536" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1536" s="53"/>
+      <c r="D1536" s="53"/>
+      <c r="E1536" s="53"/>
+      <c r="F1536" s="53"/>
+      <c r="H1536" s="53"/>
+    </row>
+    <row r="1537" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1537" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1537" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1537" s="53"/>
+      <c r="D1537" s="53"/>
+      <c r="E1537" s="53"/>
+      <c r="F1537" s="53"/>
+      <c r="H1537" s="53"/>
+      <c r="I1537" s="53"/>
+      <c r="J1537" s="53"/>
+      <c r="K1537" s="53"/>
+      <c r="L1537" s="53"/>
+    </row>
+    <row r="1538" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1538" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1538" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1538" s="53"/>
+      <c r="D1538" s="53"/>
+      <c r="E1538" s="53"/>
+      <c r="F1538" s="53"/>
+      <c r="H1538" s="53"/>
+      <c r="I1538" s="53"/>
+      <c r="J1538" s="53"/>
+      <c r="K1538" s="53"/>
+      <c r="L1538" s="53"/>
+    </row>
+    <row r="1539" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1539" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1539" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1539" s="53"/>
+      <c r="D1539" s="53"/>
+      <c r="E1539" s="53"/>
+      <c r="F1539" s="53"/>
+      <c r="H1539" s="53"/>
+      <c r="I1539" s="53"/>
+      <c r="J1539" s="53"/>
+    </row>
+    <row r="1540" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1540" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1540" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1540" s="53"/>
+      <c r="D1540" s="53"/>
+      <c r="E1540" s="53"/>
+      <c r="F1540" s="53"/>
+      <c r="H1540" s="53"/>
+      <c r="I1540" s="53"/>
+      <c r="J1540" s="53"/>
+      <c r="K1540" s="53"/>
+      <c r="L1540" s="53"/>
+    </row>
+    <row r="1541" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1541" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1541" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1541" s="53"/>
+      <c r="D1541" s="53"/>
+      <c r="E1541" s="53"/>
+      <c r="F1541" s="53"/>
+      <c r="H1541" s="53"/>
+      <c r="I1541" s="53"/>
+      <c r="J1541" s="53"/>
+      <c r="K1541" s="53"/>
+      <c r="L1541" s="53"/>
+    </row>
+    <row r="1542" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1542" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1542" s="53"/>
+      <c r="C1542" s="53"/>
+      <c r="D1542" s="53"/>
+      <c r="E1542" s="53"/>
+      <c r="F1542" s="53"/>
+      <c r="H1542" s="53"/>
+      <c r="I1542" s="53"/>
+      <c r="J1542" s="53"/>
+      <c r="K1542" s="53"/>
+      <c r="L1542" s="53"/>
+    </row>
+    <row r="1543" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1543" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1543" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1543" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1543" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1543" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1543" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1543" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1543" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1543" s="53"/>
+      <c r="J1543" s="53"/>
+      <c r="K1543" s="53"/>
+    </row>
+    <row r="1544" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1544" s="53" t="str">
+        <f>B1536</f>
+        <v>wood, burned in wood industrial furnace 1-10MW</v>
+      </c>
+      <c r="B1544" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1544" s="53" t="str">
+        <f>B1537</f>
+        <v>CH</v>
+      </c>
+      <c r="D1544" s="53" t="str">
+        <f>B1541</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1544" s="53"/>
+      <c r="F1544" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1544" s="53" t="str">
+        <f>B1539</f>
+        <v>heat</v>
+      </c>
+      <c r="I1544" s="53"/>
+      <c r="J1544" s="53"/>
+      <c r="K1544" s="53"/>
+      <c r="L1544" s="53"/>
+    </row>
+    <row r="1545" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1545" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1545">
+        <f>1/(0.0705467372134039*19.1)</f>
+        <v>0.74214659685863837</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1546"/>
+    </row>
+    <row r="1547" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1547" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1547" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1547" s="53"/>
+      <c r="D1547" s="53"/>
+      <c r="E1547" s="53"/>
+      <c r="F1547" s="53"/>
+      <c r="H1547" s="53"/>
+    </row>
+    <row r="1548" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1548" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1548" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1548" s="53"/>
+      <c r="D1548" s="53"/>
+      <c r="E1548" s="53"/>
+      <c r="F1548" s="53"/>
+      <c r="H1548" s="53"/>
+      <c r="I1548" s="53"/>
+      <c r="J1548" s="53"/>
+      <c r="K1548" s="53"/>
+      <c r="L1548" s="53"/>
+    </row>
+    <row r="1549" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1549" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1549" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1549" s="53"/>
+      <c r="D1549" s="53"/>
+      <c r="E1549" s="53"/>
+      <c r="F1549" s="53"/>
+      <c r="H1549" s="53"/>
+      <c r="I1549" s="53"/>
+      <c r="J1549" s="53"/>
+      <c r="K1549" s="53"/>
+      <c r="L1549" s="53"/>
+    </row>
+    <row r="1550" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1550" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1550" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1550" s="53"/>
+      <c r="D1550" s="53"/>
+      <c r="E1550" s="53"/>
+      <c r="F1550" s="53"/>
+      <c r="H1550" s="53"/>
+      <c r="I1550" s="53"/>
+      <c r="J1550" s="53"/>
+    </row>
+    <row r="1551" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1551" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1551" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1551" s="53"/>
+      <c r="D1551" s="53"/>
+      <c r="E1551" s="53"/>
+      <c r="F1551" s="53"/>
+      <c r="H1551" s="53"/>
+      <c r="I1551" s="53"/>
+      <c r="J1551" s="53"/>
+      <c r="K1551" s="53"/>
+      <c r="L1551" s="53"/>
+    </row>
+    <row r="1552" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1552" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1552" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1552" s="53"/>
+      <c r="D1552" s="53"/>
+      <c r="E1552" s="53"/>
+      <c r="F1552" s="53"/>
+      <c r="H1552" s="53"/>
+      <c r="I1552" s="53"/>
+      <c r="J1552" s="53"/>
+      <c r="K1552" s="53"/>
+      <c r="L1552" s="53"/>
+    </row>
+    <row r="1553" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1553" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1553" s="53"/>
+      <c r="C1553" s="53"/>
+      <c r="D1553" s="53"/>
+      <c r="E1553" s="53"/>
+      <c r="F1553" s="53"/>
+      <c r="H1553" s="53"/>
+      <c r="I1553" s="53"/>
+      <c r="J1553" s="53"/>
+      <c r="K1553" s="53"/>
+      <c r="L1553" s="53"/>
+    </row>
+    <row r="1554" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1554" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1554" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1554" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1554" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1554" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1554" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1554" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1554" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1554" s="53"/>
+      <c r="J1554" s="53"/>
+      <c r="K1554" s="53"/>
+    </row>
+    <row r="1555" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1555" s="53" t="str">
+        <f>B1547</f>
+        <v>pellet, burned in pellet industrial furnace 300kW</v>
+      </c>
+      <c r="B1555" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1555" s="53" t="str">
+        <f>B1548</f>
+        <v>CH</v>
+      </c>
+      <c r="D1555" s="53" t="str">
+        <f>B1552</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1555" s="53"/>
+      <c r="F1555" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1555" s="53" t="str">
+        <f>B1550</f>
+        <v>heat</v>
+      </c>
+      <c r="I1555" s="53"/>
+      <c r="J1555" s="53"/>
+      <c r="K1555" s="53"/>
+      <c r="L1555" s="53"/>
+    </row>
+    <row r="1556" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1556" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1556">
+        <f>1/(0.0711533333333334*19.1)</f>
+        <v>0.73581965158448881</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1556" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1558" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1558" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1558" s="53"/>
+      <c r="D1558" s="53"/>
+      <c r="E1558" s="53"/>
+      <c r="F1558" s="53"/>
+      <c r="H1558" s="53"/>
+    </row>
+    <row r="1559" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1559" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1559" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1559" s="53"/>
+      <c r="D1559" s="53"/>
+      <c r="E1559" s="53"/>
+      <c r="F1559" s="53"/>
+      <c r="H1559" s="53"/>
+      <c r="I1559" s="53"/>
+      <c r="J1559" s="53"/>
+      <c r="K1559" s="53"/>
+      <c r="L1559" s="53"/>
+    </row>
+    <row r="1560" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1560" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1560" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1560" s="53"/>
+      <c r="D1560" s="53"/>
+      <c r="E1560" s="53"/>
+      <c r="F1560" s="53"/>
+      <c r="H1560" s="53"/>
+      <c r="I1560" s="53"/>
+      <c r="J1560" s="53"/>
+      <c r="K1560" s="53"/>
+      <c r="L1560" s="53"/>
+    </row>
+    <row r="1561" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1561" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1561" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1561" s="53"/>
+      <c r="D1561" s="53"/>
+      <c r="E1561" s="53"/>
+      <c r="F1561" s="53"/>
+      <c r="H1561" s="53"/>
+      <c r="I1561" s="53"/>
+      <c r="J1561" s="53"/>
+    </row>
+    <row r="1562" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1562" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1562" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1562" s="53"/>
+      <c r="D1562" s="53"/>
+      <c r="E1562" s="53"/>
+      <c r="F1562" s="53"/>
+      <c r="H1562" s="53"/>
+      <c r="I1562" s="53"/>
+      <c r="J1562" s="53"/>
+      <c r="K1562" s="53"/>
+      <c r="L1562" s="53"/>
+    </row>
+    <row r="1563" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1563" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1563" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1563" s="53"/>
+      <c r="D1563" s="53"/>
+      <c r="E1563" s="53"/>
+      <c r="F1563" s="53"/>
+      <c r="H1563" s="53"/>
+      <c r="I1563" s="53"/>
+      <c r="J1563" s="53"/>
+      <c r="K1563" s="53"/>
+      <c r="L1563" s="53"/>
+    </row>
+    <row r="1564" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1564" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1564" s="53"/>
+      <c r="C1564" s="53"/>
+      <c r="D1564" s="53"/>
+      <c r="E1564" s="53"/>
+      <c r="F1564" s="53"/>
+      <c r="H1564" s="53"/>
+      <c r="I1564" s="53"/>
+      <c r="J1564" s="53"/>
+      <c r="K1564" s="53"/>
+      <c r="L1564" s="53"/>
+    </row>
+    <row r="1565" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1565" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1565" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1565" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1565" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1565" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1565" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1565" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1565" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1565" s="53"/>
+      <c r="J1565" s="53"/>
+      <c r="K1565" s="53"/>
+    </row>
+    <row r="1566" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1566" s="53" t="str">
+        <f>B1558</f>
+        <v>non-renewable waste, burned in industrial furnace</v>
+      </c>
+      <c r="B1566" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1566" s="53" t="str">
+        <f>B1559</f>
+        <v>CH</v>
+      </c>
+      <c r="D1566" s="53" t="str">
+        <f>B1563</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1566" s="53"/>
+      <c r="F1566" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1566" s="53" t="str">
+        <f>B1561</f>
+        <v>heat</v>
+      </c>
+      <c r="I1566" s="53"/>
+      <c r="J1566" s="53"/>
+      <c r="K1566" s="53"/>
+      <c r="L1566" s="53"/>
+    </row>
+    <row r="1567" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1567" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1567">
+        <f>1/(1/7.66*0.66*16)</f>
+        <v>0.72537878787878785</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1568"/>
+    </row>
+    <row r="1569" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1569" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1569" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1569" s="53"/>
+      <c r="D1569" s="53"/>
+      <c r="E1569" s="53"/>
+      <c r="F1569" s="53"/>
+      <c r="H1569" s="53"/>
+    </row>
+    <row r="1570" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1570" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1570" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1570" s="53"/>
+      <c r="D1570" s="53"/>
+      <c r="E1570" s="53"/>
+      <c r="F1570" s="53"/>
+      <c r="H1570" s="53"/>
+      <c r="I1570" s="53"/>
+      <c r="J1570" s="53"/>
+      <c r="K1570" s="53"/>
+      <c r="L1570" s="53"/>
+    </row>
+    <row r="1571" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1571" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1571" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1571" s="53"/>
+      <c r="D1571" s="53"/>
+      <c r="E1571" s="53"/>
+      <c r="F1571" s="53"/>
+      <c r="H1571" s="53"/>
+      <c r="I1571" s="53"/>
+      <c r="J1571" s="53"/>
+      <c r="K1571" s="53"/>
+      <c r="L1571" s="53"/>
+    </row>
+    <row r="1572" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1572" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1572" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1572" s="53"/>
+      <c r="D1572" s="53"/>
+      <c r="E1572" s="53"/>
+      <c r="F1572" s="53"/>
+      <c r="H1572" s="53"/>
+      <c r="I1572" s="53"/>
+      <c r="J1572" s="53"/>
+    </row>
+    <row r="1573" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1573" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1573" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1573" s="53"/>
+      <c r="D1573" s="53"/>
+      <c r="E1573" s="53"/>
+      <c r="F1573" s="53"/>
+      <c r="H1573" s="53"/>
+      <c r="I1573" s="53"/>
+      <c r="J1573" s="53"/>
+      <c r="K1573" s="53"/>
+      <c r="L1573" s="53"/>
+    </row>
+    <row r="1574" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1574" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1574" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1574" s="53"/>
+      <c r="D1574" s="53"/>
+      <c r="E1574" s="53"/>
+      <c r="F1574" s="53"/>
+      <c r="H1574" s="53"/>
+      <c r="I1574" s="53"/>
+      <c r="J1574" s="53"/>
+      <c r="K1574" s="53"/>
+      <c r="L1574" s="53"/>
+    </row>
+    <row r="1575" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1575" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1575" s="53"/>
+      <c r="C1575" s="53"/>
+      <c r="D1575" s="53"/>
+      <c r="E1575" s="53"/>
+      <c r="F1575" s="53"/>
+      <c r="H1575" s="53"/>
+      <c r="I1575" s="53"/>
+      <c r="J1575" s="53"/>
+      <c r="K1575" s="53"/>
+      <c r="L1575" s="53"/>
+    </row>
+    <row r="1576" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1576" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1576" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1576" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1576" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1576" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1576" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1576" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1576" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1576" s="53"/>
+      <c r="J1576" s="53"/>
+      <c r="K1576" s="53"/>
+    </row>
+    <row r="1577" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1577" s="53" t="str">
+        <f>B1569</f>
+        <v>renewable waste, burned in industrial furnace</v>
+      </c>
+      <c r="B1577" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1577" s="53" t="str">
+        <f>B1570</f>
+        <v>CH</v>
+      </c>
+      <c r="D1577" s="53" t="str">
+        <f>B1574</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1577" s="53"/>
+      <c r="F1577" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1577" s="53" t="str">
+        <f>B1572</f>
+        <v>heat</v>
+      </c>
+      <c r="I1577" s="53"/>
+      <c r="J1577" s="53"/>
+      <c r="K1577" s="53"/>
+      <c r="L1577" s="53"/>
+    </row>
+    <row r="1578" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1578" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1578">
+        <f>1/(1/1.01 * 71%*8)</f>
+        <v>0.17781690140845072</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1578" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1579"/>
+    </row>
+    <row r="1580" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1580" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1580" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1580" s="53"/>
+      <c r="D1580" s="53"/>
+      <c r="E1580" s="53"/>
+      <c r="F1580" s="53"/>
+      <c r="H1580" s="53"/>
+    </row>
+    <row r="1581" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1581" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1581" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1581" s="53"/>
+      <c r="D1581" s="53"/>
+      <c r="E1581" s="53"/>
+      <c r="F1581" s="53"/>
+      <c r="H1581" s="53"/>
+      <c r="I1581" s="53"/>
+      <c r="J1581" s="53"/>
+      <c r="K1581" s="53"/>
+      <c r="L1581" s="53"/>
+    </row>
+    <row r="1582" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1582" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1582" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1582" s="53"/>
+      <c r="D1582" s="53"/>
+      <c r="E1582" s="53"/>
+      <c r="F1582" s="53"/>
+      <c r="H1582" s="53"/>
+      <c r="I1582" s="53"/>
+      <c r="J1582" s="53"/>
+      <c r="K1582" s="53"/>
+      <c r="L1582" s="53"/>
+    </row>
+    <row r="1583" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1583" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1583" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1583" s="53"/>
+      <c r="D1583" s="53"/>
+      <c r="E1583" s="53"/>
+      <c r="F1583" s="53"/>
+      <c r="H1583" s="53"/>
+      <c r="I1583" s="53"/>
+      <c r="J1583" s="53"/>
+    </row>
+    <row r="1584" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1584" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1584" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1584" s="53"/>
+      <c r="D1584" s="53"/>
+      <c r="E1584" s="53"/>
+      <c r="F1584" s="53"/>
+      <c r="H1584" s="53"/>
+      <c r="I1584" s="53"/>
+      <c r="J1584" s="53"/>
+      <c r="K1584" s="53"/>
+      <c r="L1584" s="53"/>
+    </row>
+    <row r="1585" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1585" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1585" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1585" s="53"/>
+      <c r="D1585" s="53"/>
+      <c r="E1585" s="53"/>
+      <c r="F1585" s="53"/>
+      <c r="H1585" s="53"/>
+      <c r="I1585" s="53"/>
+      <c r="J1585" s="53"/>
+      <c r="K1585" s="53"/>
+      <c r="L1585" s="53"/>
+    </row>
+    <row r="1586" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1586" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1586" s="53"/>
+      <c r="C1586" s="53"/>
+      <c r="D1586" s="53"/>
+      <c r="E1586" s="53"/>
+      <c r="F1586" s="53"/>
+      <c r="H1586" s="53"/>
+      <c r="I1586" s="53"/>
+      <c r="J1586" s="53"/>
+      <c r="K1586" s="53"/>
+      <c r="L1586" s="53"/>
+    </row>
+    <row r="1587" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1587" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1587" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1587" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1587" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1587" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1587" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1587" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1587" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1587" s="53"/>
+      <c r="J1587" s="53"/>
+      <c r="K1587" s="53"/>
+    </row>
+    <row r="1588" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1588" s="53" t="str">
+        <f>B1580</f>
+        <v>solar energy, from industrial hot water tank</v>
+      </c>
+      <c r="B1588" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1588" s="53" t="str">
+        <f>B1581</f>
+        <v>CH</v>
+      </c>
+      <c r="D1588" s="53" t="str">
+        <f>B1585</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1588" s="53"/>
+      <c r="F1588" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1588" s="53" t="str">
+        <f>B1583</f>
+        <v>heat</v>
+      </c>
+      <c r="I1588" s="53"/>
+      <c r="J1588" s="53"/>
+      <c r="K1588" s="53"/>
+      <c r="L1588" s="53"/>
+    </row>
+    <row r="1589" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1589" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1589">
+        <f>1/0.28851</f>
+        <v>3.4660843644934318</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1590"/>
+    </row>
+    <row r="1591" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1591" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1591" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1591" s="53"/>
+      <c r="D1591" s="53"/>
+      <c r="E1591" s="53"/>
+      <c r="F1591" s="53"/>
+      <c r="H1591" s="53"/>
+    </row>
+    <row r="1592" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1592" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1592" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1592" s="53"/>
+      <c r="D1592" s="53"/>
+      <c r="E1592" s="53"/>
+      <c r="F1592" s="53"/>
+      <c r="H1592" s="53"/>
+      <c r="I1592" s="53"/>
+      <c r="J1592" s="53"/>
+      <c r="K1592" s="53"/>
+      <c r="L1592" s="53"/>
+    </row>
+    <row r="1593" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1593" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1593" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1593" s="53"/>
+      <c r="D1593" s="53"/>
+      <c r="E1593" s="53"/>
+      <c r="F1593" s="53"/>
+      <c r="H1593" s="53"/>
+      <c r="I1593" s="53"/>
+      <c r="J1593" s="53"/>
+      <c r="K1593" s="53"/>
+      <c r="L1593" s="53"/>
+    </row>
+    <row r="1594" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1594" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1594" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1594" s="53"/>
+      <c r="D1594" s="53"/>
+      <c r="E1594" s="53"/>
+      <c r="F1594" s="53"/>
+      <c r="H1594" s="53"/>
+      <c r="I1594" s="53"/>
+      <c r="J1594" s="53"/>
+    </row>
+    <row r="1595" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1595" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1595" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1595" s="53"/>
+      <c r="D1595" s="53"/>
+      <c r="E1595" s="53"/>
+      <c r="F1595" s="53"/>
+      <c r="H1595" s="53"/>
+      <c r="I1595" s="53"/>
+      <c r="J1595" s="53"/>
+      <c r="K1595" s="53"/>
+      <c r="L1595" s="53"/>
+    </row>
+    <row r="1596" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1596" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1596" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1596" s="53"/>
+      <c r="D1596" s="53"/>
+      <c r="E1596" s="53"/>
+      <c r="F1596" s="53"/>
+      <c r="H1596" s="53"/>
+      <c r="I1596" s="53"/>
+      <c r="J1596" s="53"/>
+      <c r="K1596" s="53"/>
+      <c r="L1596" s="53"/>
+    </row>
+    <row r="1597" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1597" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1597" s="53"/>
+      <c r="C1597" s="53"/>
+      <c r="D1597" s="53"/>
+      <c r="E1597" s="53"/>
+      <c r="F1597" s="53"/>
+      <c r="H1597" s="53"/>
+      <c r="I1597" s="53"/>
+      <c r="J1597" s="53"/>
+      <c r="K1597" s="53"/>
+      <c r="L1597" s="53"/>
+    </row>
+    <row r="1598" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1598" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1598" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1598" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1598" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1598" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1598" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1598" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1598" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1598" s="53"/>
+      <c r="J1598" s="53"/>
+      <c r="K1598" s="53"/>
+    </row>
+    <row r="1599" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1599" s="53" t="str">
+        <f>B1591</f>
+        <v>heat production, from hydrogen-fired one gigawatt gas turbine</v>
+      </c>
+      <c r="B1599" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1599" s="53" t="str">
+        <f>B1592</f>
+        <v>CH</v>
+      </c>
+      <c r="D1599" s="53" t="str">
+        <f>B1596</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1599" s="53"/>
+      <c r="F1599" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1599" s="53" t="str">
+        <f>B1594</f>
+        <v>heat</v>
+      </c>
+      <c r="I1599" s="53"/>
+      <c r="J1599" s="53"/>
+      <c r="K1599" s="53"/>
+      <c r="L1599" s="53"/>
+    </row>
+    <row r="1600" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1600" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1600" s="3">
+        <v>3.8580555555555498E-12</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1600" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1600" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1600" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1601" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1601">
+        <v>8.7719298245613996E-3</v>
+      </c>
+      <c r="C1601" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1601" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1601" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1603" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1603" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1603" s="53"/>
+      <c r="D1603" s="53"/>
+      <c r="E1603" s="53"/>
+      <c r="F1603" s="53"/>
+      <c r="H1603" s="53"/>
+    </row>
+    <row r="1604" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1604" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1604" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1604" s="53"/>
+      <c r="D1604" s="53"/>
+      <c r="E1604" s="53"/>
+      <c r="F1604" s="53"/>
+      <c r="H1604" s="53"/>
+      <c r="I1604" s="53"/>
+      <c r="J1604" s="53"/>
+      <c r="K1604" s="53"/>
+      <c r="L1604" s="53"/>
+    </row>
+    <row r="1605" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1605" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1605" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1605" s="53"/>
+      <c r="D1605" s="53"/>
+      <c r="E1605" s="53"/>
+      <c r="F1605" s="53"/>
+      <c r="H1605" s="53"/>
+      <c r="I1605" s="53"/>
+      <c r="J1605" s="53"/>
+      <c r="K1605" s="53"/>
+      <c r="L1605" s="53"/>
+    </row>
+    <row r="1606" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1606" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1606" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1606" s="53"/>
+      <c r="D1606" s="53"/>
+      <c r="E1606" s="53"/>
+      <c r="F1606" s="53"/>
+      <c r="H1606" s="53"/>
+      <c r="I1606" s="53"/>
+      <c r="J1606" s="53"/>
+    </row>
+    <row r="1607" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1607" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1607" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1607" s="53"/>
+      <c r="D1607" s="53"/>
+      <c r="E1607" s="53"/>
+      <c r="F1607" s="53"/>
+      <c r="H1607" s="53"/>
+      <c r="I1607" s="53"/>
+      <c r="J1607" s="53"/>
+      <c r="K1607" s="53"/>
+      <c r="L1607" s="53"/>
+    </row>
+    <row r="1608" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1608" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1608" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1608" s="53"/>
+      <c r="D1608" s="53"/>
+      <c r="E1608" s="53"/>
+      <c r="F1608" s="53"/>
+      <c r="H1608" s="53"/>
+      <c r="I1608" s="53"/>
+      <c r="J1608" s="53"/>
+      <c r="K1608" s="53"/>
+      <c r="L1608" s="53"/>
+    </row>
+    <row r="1609" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1609" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1609" s="53"/>
+      <c r="C1609" s="53"/>
+      <c r="D1609" s="53"/>
+      <c r="E1609" s="53"/>
+      <c r="F1609" s="53"/>
+      <c r="H1609" s="53"/>
+      <c r="I1609" s="53"/>
+      <c r="J1609" s="53"/>
+      <c r="K1609" s="53"/>
+      <c r="L1609" s="53"/>
+    </row>
+    <row r="1610" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1610" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1610" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1610" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1610" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1610" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1610" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1610" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1610" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1610" s="53"/>
+      <c r="J1610" s="53"/>
+      <c r="K1610" s="53"/>
+    </row>
+    <row r="1611" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1611" s="53" t="str">
+        <f>B1603</f>
+        <v>hydrogen, burned in industrial gas turbine 1GW</v>
+      </c>
+      <c r="B1611" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1611" s="53" t="str">
+        <f>B1604</f>
+        <v>CH</v>
+      </c>
+      <c r="D1611" s="53" t="str">
+        <f>B1608</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1611" s="53"/>
+      <c r="F1611" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1611" s="53" t="str">
+        <f>B1606</f>
+        <v>heat</v>
+      </c>
+      <c r="I1611" s="53"/>
+      <c r="J1611" s="53"/>
+      <c r="K1611" s="53"/>
+      <c r="L1611" s="53"/>
+    </row>
+    <row r="1612" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1612" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1612">
+        <f>1/(0.00877*120)</f>
+        <v>0.9502090459901178</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1612" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1613"/>
+    </row>
+    <row r="1614" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1614" s="1"/>
+      <c r="B1614" s="1"/>
+      <c r="C1614" s="53"/>
+      <c r="D1614" s="53"/>
+      <c r="E1614" s="53"/>
+      <c r="F1614" s="53"/>
+      <c r="G1614" s="53"/>
+      <c r="H1614" s="53"/>
+    </row>
+    <row r="1615" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1615" s="53"/>
+      <c r="B1615" s="53"/>
+      <c r="C1615" s="53"/>
+      <c r="D1615" s="53"/>
+      <c r="E1615" s="53"/>
+      <c r="F1615" s="53"/>
+      <c r="G1615" s="53"/>
+      <c r="H1615" s="53"/>
+      <c r="I1615" s="53"/>
+      <c r="J1615" s="53"/>
+      <c r="K1615" s="53"/>
+      <c r="L1615" s="53"/>
+    </row>
+    <row r="1616" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1616" s="53"/>
+      <c r="B1616" s="53"/>
+      <c r="C1616" s="53"/>
+      <c r="D1616" s="53"/>
+      <c r="E1616" s="53"/>
+      <c r="F1616" s="53"/>
+      <c r="G1616" s="53"/>
+      <c r="H1616" s="53"/>
+      <c r="I1616" s="53"/>
+      <c r="J1616" s="53"/>
+      <c r="K1616" s="53"/>
+      <c r="L1616" s="53"/>
+    </row>
+    <row r="1617" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1617" s="53"/>
+      <c r="B1617" s="53"/>
+      <c r="C1617" s="53"/>
+      <c r="D1617" s="53"/>
+      <c r="E1617" s="53"/>
+      <c r="F1617" s="53"/>
+      <c r="G1617" s="53"/>
+      <c r="H1617" s="53"/>
+      <c r="I1617" s="53"/>
+      <c r="J1617" s="53"/>
+    </row>
+    <row r="1618" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1618" s="53"/>
+      <c r="B1618" s="53"/>
+      <c r="C1618" s="53"/>
+      <c r="D1618" s="53"/>
+      <c r="E1618" s="53"/>
+      <c r="F1618" s="53"/>
+      <c r="G1618" s="53"/>
+      <c r="H1618" s="53"/>
+      <c r="I1618" s="53"/>
+      <c r="J1618" s="53"/>
+      <c r="K1618" s="53"/>
+      <c r="L1618" s="53"/>
+    </row>
+    <row r="1619" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1619" s="53"/>
+      <c r="B1619" s="53"/>
+      <c r="C1619" s="53"/>
+      <c r="D1619" s="53"/>
+      <c r="E1619" s="53"/>
+      <c r="F1619" s="53"/>
+      <c r="G1619" s="53"/>
+      <c r="H1619" s="53"/>
+      <c r="I1619" s="53"/>
+      <c r="J1619" s="53"/>
+      <c r="K1619" s="53"/>
+      <c r="L1619" s="53"/>
+    </row>
+    <row r="1620" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1620" s="1"/>
+      <c r="B1620" s="53"/>
+      <c r="C1620" s="53"/>
+      <c r="D1620" s="53"/>
+      <c r="E1620" s="53"/>
+      <c r="F1620" s="53"/>
+      <c r="G1620" s="53"/>
+      <c r="H1620" s="53"/>
+      <c r="I1620" s="53"/>
+      <c r="J1620" s="53"/>
+      <c r="K1620" s="53"/>
+      <c r="L1620" s="53"/>
+    </row>
+    <row r="1621" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1621" s="53"/>
+      <c r="B1621" s="53"/>
+      <c r="C1621" s="53"/>
+      <c r="D1621" s="53"/>
+      <c r="E1621" s="53"/>
+      <c r="F1621" s="53"/>
+      <c r="G1621" s="53"/>
+      <c r="H1621" s="53"/>
+      <c r="I1621" s="53"/>
+      <c r="J1621" s="53"/>
+      <c r="K1621" s="53"/>
+    </row>
+    <row r="1622" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1622" s="53"/>
+      <c r="B1622" s="53"/>
+      <c r="C1622" s="53"/>
+      <c r="D1622" s="53"/>
+      <c r="E1622" s="53"/>
+      <c r="F1622" s="53"/>
+      <c r="G1622" s="53"/>
+      <c r="H1622" s="53"/>
+      <c r="I1622" s="53"/>
+      <c r="J1622" s="53"/>
+      <c r="K1622" s="53"/>
+      <c r="L1622" s="53"/>
+    </row>
+    <row r="1623" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1623" s="53"/>
+      <c r="B1623"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/inventories/lci-sweet_sure.xlsx
+++ b/inventories/lci-sweet_sure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/sweet_sure-2050-switzerland/inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/sweet_sure-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D14CD6C-9D22-FA42-BFC9-E9400F257C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7009D7C-F3A6-684E-AE42-6C9FF43BB443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30460" yWindow="-1460" windowWidth="23460" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="15960" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biomass and waste" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5968" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6302" uniqueCount="366">
   <si>
     <t>Activity</t>
   </si>
@@ -1040,18 +1040,6 @@
     <t>heat, solar+electric, multiple-dwelling, for hot water</t>
   </si>
   <si>
-    <t>heat production, from hydrogen-fired one gigawatt gas turbine</t>
-  </si>
-  <si>
-    <t>hydrogen, burned in industrial gas turbine 1GW</t>
-  </si>
-  <si>
-    <t>gas power plant, combined cycle, 400MW electrical</t>
-  </si>
-  <si>
-    <t>gas power plant construction, combined cycle, 400MW electrical</t>
-  </si>
-  <si>
     <t>hydrogen, gaseous, 30 bar</t>
   </si>
   <si>
@@ -1065,6 +1053,87 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>gas boiler</t>
+  </si>
+  <si>
+    <t>market for gas boiler</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>chimney</t>
+  </si>
+  <si>
+    <t>market for chimney</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>hydrogen burned, in hydrogen boiler</t>
+  </si>
+  <si>
+    <t>heat, from on-site industrial biogas-fired CHP</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, biogas, gas engine</t>
+  </si>
+  <si>
+    <t>electricity, used in residential electric boiler</t>
+  </si>
+  <si>
+    <t>electricity, used in residential heat pump</t>
+  </si>
+  <si>
+    <t>heat, from on-site residential gas-fired CHP</t>
+  </si>
+  <si>
+    <t>heat, from on-site residential fuel cell CHP</t>
+  </si>
+  <si>
+    <t>heat, from on-site residential wood-fired CHP</t>
+  </si>
+  <si>
+    <t>solar energy, from residential hot water tank</t>
+  </si>
+  <si>
+    <t>heat production, light fuel oil, at boiler 10kW condensing, non-modulating</t>
+  </si>
+  <si>
+    <t>light fuel oil, burned in residential 10kW boiler</t>
+  </si>
+  <si>
+    <t>heat production, natural gas, at boiler condensing modulating &lt;100kW</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, natural gas</t>
+  </si>
+  <si>
+    <t>natural gas, burned in residential natural gas boiler &lt;100kW</t>
+  </si>
+  <si>
+    <t>heat production, hard coal briquette, stove 5-15kW</t>
+  </si>
+  <si>
+    <t>hard coal, burned in hard coal residential boiler 5-15kW</t>
+  </si>
+  <si>
+    <t>heat production, mixed logs, at wood heater 6kW</t>
+  </si>
+  <si>
+    <t>wood, burned in residential wood stove 5-15kW</t>
+  </si>
+  <si>
+    <t>pellet, burned in residential pellet stove 5-15kW</t>
+  </si>
+  <si>
+    <t>heat production, wood pellet, at furnace 9kW</t>
+  </si>
+  <si>
+    <t>electricity, used in residential electric appliances</t>
   </si>
 </sst>
 </file>
@@ -1077,9 +1146,16 @@
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1264,14 +1340,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1288,11 +1364,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1303,9 +1379,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1318,7 +1394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1330,17 +1406,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1618,15 +1698,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L1623"/>
+  <dimension ref="A1:L1749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1431" workbookViewId="0">
-      <selection activeCell="B1462" sqref="B1462"/>
+    <sheetView tabSelected="1" topLeftCell="A1655" workbookViewId="0">
+      <selection activeCell="A1687" sqref="A1687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="81.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
@@ -25764,7 +25844,7 @@
         <v>0</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C1370" s="53"/>
       <c r="D1370" s="53"/>
@@ -26910,7 +26990,7 @@
         <v>0.70057447106627435</v>
       </c>
       <c r="C1434" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D1434" t="s">
         <v>17</v>
@@ -26925,25 +27005,42 @@
     <row r="1435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1435"/>
     </row>
-    <row r="1437" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1437" s="1" t="s">
+    <row r="1436" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1436" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1437" s="1" t="s">
-        <v>309</v>
+      <c r="B1436" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1436" s="53"/>
+      <c r="D1436" s="53"/>
+      <c r="E1436" s="53"/>
+      <c r="F1436" s="53"/>
+      <c r="H1436" s="53"/>
+    </row>
+    <row r="1437" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1437" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1437" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="C1437" s="53"/>
       <c r="D1437" s="53"/>
       <c r="E1437" s="53"/>
       <c r="F1437" s="53"/>
       <c r="H1437" s="53"/>
+      <c r="I1437" s="53"/>
+      <c r="J1437" s="53"/>
+      <c r="K1437" s="53"/>
+      <c r="L1437" s="53"/>
     </row>
     <row r="1438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1438" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1438" s="53">
         <v>1</v>
-      </c>
-      <c r="B1438" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1438" s="53"/>
       <c r="D1438" s="53"/>
@@ -26957,10 +27054,10 @@
     </row>
     <row r="1439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1439" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1439" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1439" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1439" s="53"/>
       <c r="D1439" s="53"/>
@@ -26969,15 +27066,13 @@
       <c r="H1439" s="53"/>
       <c r="I1439" s="53"/>
       <c r="J1439" s="53"/>
-      <c r="K1439" s="53"/>
-      <c r="L1439" s="53"/>
     </row>
     <row r="1440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1440" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1440" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1440" s="53"/>
       <c r="D1440" s="53"/>
@@ -26986,13 +27081,15 @@
       <c r="H1440" s="53"/>
       <c r="I1440" s="53"/>
       <c r="J1440" s="53"/>
+      <c r="K1440" s="53"/>
+      <c r="L1440" s="53"/>
     </row>
     <row r="1441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1441" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1441" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1441" s="53"/>
       <c r="D1441" s="53"/>
@@ -27004,13 +27101,11 @@
       <c r="K1441" s="53"/>
       <c r="L1441" s="53"/>
     </row>
-    <row r="1442" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1442" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1442" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1442" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1442" s="53"/>
       <c r="C1442" s="53"/>
       <c r="D1442" s="53"/>
       <c r="E1442" s="53"/>
@@ -27021,122 +27116,124 @@
       <c r="K1442" s="53"/>
       <c r="L1442" s="53"/>
     </row>
-    <row r="1443" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1443" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1443" s="53"/>
-      <c r="C1443" s="53"/>
-      <c r="D1443" s="53"/>
-      <c r="E1443" s="53"/>
-      <c r="F1443" s="53"/>
-      <c r="H1443" s="53"/>
+    <row r="1443" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1443" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1443" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1443" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1443" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1443" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1443" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1443" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1443" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1443" s="53"/>
       <c r="J1443" s="53"/>
       <c r="K1443" s="53"/>
-      <c r="L1443" s="53"/>
     </row>
     <row r="1444" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1444" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1444" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1444" s="53" t="s">
+      <c r="A1444" s="53" t="str">
+        <f>B1436</f>
+        <v>heat, from on-site industrial biogas-fired CHP</v>
+      </c>
+      <c r="B1444" s="53">
         <v>1</v>
       </c>
-      <c r="D1444" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1444" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1444" s="53" t="str">
+        <f>B1437</f>
+        <v>CH</v>
+      </c>
+      <c r="D1444" s="53" t="str">
+        <f>B1441</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1444" s="53"/>
       <c r="F1444" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1444" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1444" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1444" s="53" t="str">
+        <f>B1439</f>
+        <v>heat</v>
       </c>
       <c r="I1444" s="53"/>
       <c r="J1444" s="53"/>
       <c r="K1444" s="53"/>
+      <c r="L1444" s="53"/>
     </row>
     <row r="1445" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1445" s="53" t="str">
-        <f>B1437</f>
-        <v>heat, from on-site industrial gas-fired CHP</v>
-      </c>
-      <c r="B1445" s="53">
+      <c r="A1445" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1445">
+        <f>1/(0.016231*22.73)</f>
+        <v>2.7105366664730441</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1446"/>
+    </row>
+    <row r="1447" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1447" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1447" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1447" s="53"/>
+      <c r="D1447" s="53"/>
+      <c r="E1447" s="53"/>
+      <c r="F1447" s="53"/>
+      <c r="H1447" s="53"/>
+    </row>
+    <row r="1448" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1448" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1445" s="53" t="str">
-        <f>B1438</f>
-        <v>CH</v>
-      </c>
-      <c r="D1445" s="53" t="str">
-        <f>B1442</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1445" s="53"/>
-      <c r="F1445" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1445" s="53" t="str">
-        <f>B1440</f>
-        <v>heat</v>
-      </c>
-      <c r="I1445" s="53"/>
-      <c r="J1445" s="53"/>
-      <c r="K1445" s="53"/>
-      <c r="L1445" s="53"/>
-    </row>
-    <row r="1446" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1446" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1446">
-        <f>1/(0.0095*36)</f>
-        <v>2.9239766081871346</v>
-      </c>
-      <c r="C1446" t="s">
+      <c r="B1448" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1446" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1446" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1446" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1447"/>
-    </row>
-    <row r="1448" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1448" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1448" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C1448" s="53"/>
       <c r="D1448" s="53"/>
       <c r="E1448" s="53"/>
       <c r="F1448" s="53"/>
       <c r="H1448" s="53"/>
+      <c r="I1448" s="53"/>
+      <c r="J1448" s="53"/>
+      <c r="K1448" s="53"/>
+      <c r="L1448" s="53"/>
     </row>
     <row r="1449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1449" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1449" s="53">
         <v>1</v>
-      </c>
-      <c r="B1449" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1449" s="53"/>
       <c r="D1449" s="53"/>
@@ -27150,10 +27247,10 @@
     </row>
     <row r="1450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1450" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1450" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1450" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1450" s="53"/>
       <c r="D1450" s="53"/>
@@ -27162,15 +27259,13 @@
       <c r="H1450" s="53"/>
       <c r="I1450" s="53"/>
       <c r="J1450" s="53"/>
-      <c r="K1450" s="53"/>
-      <c r="L1450" s="53"/>
     </row>
     <row r="1451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1451" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1451" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1451" s="53"/>
       <c r="D1451" s="53"/>
@@ -27179,13 +27274,15 @@
       <c r="H1451" s="53"/>
       <c r="I1451" s="53"/>
       <c r="J1451" s="53"/>
+      <c r="K1451" s="53"/>
+      <c r="L1451" s="53"/>
     </row>
     <row r="1452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1452" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1452" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1452" s="53"/>
       <c r="D1452" s="53"/>
@@ -27197,13 +27294,11 @@
       <c r="K1452" s="53"/>
       <c r="L1452" s="53"/>
     </row>
-    <row r="1453" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1453" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1453" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1453" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1453" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1453" s="53"/>
       <c r="C1453" s="53"/>
       <c r="D1453" s="53"/>
       <c r="E1453" s="53"/>
@@ -27214,122 +27309,124 @@
       <c r="K1453" s="53"/>
       <c r="L1453" s="53"/>
     </row>
-    <row r="1454" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1454" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1454" s="53"/>
-      <c r="C1454" s="53"/>
-      <c r="D1454" s="53"/>
-      <c r="E1454" s="53"/>
-      <c r="F1454" s="53"/>
-      <c r="H1454" s="53"/>
+    <row r="1454" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1454" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1454" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1454" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1454" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1454" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1454" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1454" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1454" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1454" s="53"/>
       <c r="J1454" s="53"/>
       <c r="K1454" s="53"/>
-      <c r="L1454" s="53"/>
     </row>
     <row r="1455" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1455" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1455" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1455" s="53" t="s">
+      <c r="A1455" s="53" t="str">
+        <f>B1447</f>
+        <v>heat, from on-site industrial gas-fired CHP</v>
+      </c>
+      <c r="B1455" s="53">
         <v>1</v>
       </c>
-      <c r="D1455" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1455" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1455" s="53" t="str">
+        <f>B1448</f>
+        <v>CH</v>
+      </c>
+      <c r="D1455" s="53" t="str">
+        <f>B1452</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1455" s="53"/>
       <c r="F1455" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1455" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1455" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1455" s="53" t="str">
+        <f>B1450</f>
+        <v>heat</v>
       </c>
       <c r="I1455" s="53"/>
       <c r="J1455" s="53"/>
       <c r="K1455" s="53"/>
+      <c r="L1455" s="53"/>
     </row>
     <row r="1456" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1456" s="53" t="str">
-        <f>B1448</f>
-        <v>heat, from on-site industrial gas-fired CHP with CCS</v>
-      </c>
-      <c r="B1456" s="53">
+      <c r="A1456" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1456">
+        <f>1/(0.0095*36)</f>
+        <v>2.9239766081871346</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1457"/>
+    </row>
+    <row r="1458" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1458" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1458" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1458" s="53"/>
+      <c r="D1458" s="53"/>
+      <c r="E1458" s="53"/>
+      <c r="F1458" s="53"/>
+      <c r="H1458" s="53"/>
+    </row>
+    <row r="1459" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1459" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1456" s="53" t="str">
-        <f>B1449</f>
-        <v>CH</v>
-      </c>
-      <c r="D1456" s="53" t="str">
-        <f>B1453</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1456" s="53"/>
-      <c r="F1456" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1456" s="53" t="str">
-        <f>B1451</f>
-        <v>heat</v>
-      </c>
-      <c r="I1456" s="53"/>
-      <c r="J1456" s="53"/>
-      <c r="K1456" s="53"/>
-      <c r="L1456" s="53"/>
-    </row>
-    <row r="1457" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1457" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1457">
-        <f>1/(0.011726*1.08*36)</f>
-        <v>2.1934303777122204</v>
-      </c>
-      <c r="C1457" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1457" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1457" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1457" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1458"/>
-    </row>
-    <row r="1459" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1459" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1459" s="1" t="s">
-        <v>313</v>
+      <c r="B1459" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="C1459" s="53"/>
       <c r="D1459" s="53"/>
       <c r="E1459" s="53"/>
       <c r="F1459" s="53"/>
       <c r="H1459" s="53"/>
+      <c r="I1459" s="53"/>
+      <c r="J1459" s="53"/>
+      <c r="K1459" s="53"/>
+      <c r="L1459" s="53"/>
     </row>
     <row r="1460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1460" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1460" s="53">
         <v>1</v>
-      </c>
-      <c r="B1460" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1460" s="53"/>
       <c r="D1460" s="53"/>
@@ -27343,10 +27440,10 @@
     </row>
     <row r="1461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1461" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1461" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1461" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1461" s="53"/>
       <c r="D1461" s="53"/>
@@ -27355,15 +27452,13 @@
       <c r="H1461" s="53"/>
       <c r="I1461" s="53"/>
       <c r="J1461" s="53"/>
-      <c r="K1461" s="53"/>
-      <c r="L1461" s="53"/>
     </row>
     <row r="1462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1462" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1462" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1462" s="53"/>
       <c r="D1462" s="53"/>
@@ -27372,13 +27467,15 @@
       <c r="H1462" s="53"/>
       <c r="I1462" s="53"/>
       <c r="J1462" s="53"/>
+      <c r="K1462" s="53"/>
+      <c r="L1462" s="53"/>
     </row>
     <row r="1463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1463" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1463" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1463" s="53"/>
       <c r="D1463" s="53"/>
@@ -27390,13 +27487,11 @@
       <c r="K1463" s="53"/>
       <c r="L1463" s="53"/>
     </row>
-    <row r="1464" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1464" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1464" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1464" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1464" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1464" s="53"/>
       <c r="C1464" s="53"/>
       <c r="D1464" s="53"/>
       <c r="E1464" s="53"/>
@@ -27407,122 +27502,124 @@
       <c r="K1464" s="53"/>
       <c r="L1464" s="53"/>
     </row>
-    <row r="1465" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1465" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1465" s="53"/>
-      <c r="C1465" s="53"/>
-      <c r="D1465" s="53"/>
-      <c r="E1465" s="53"/>
-      <c r="F1465" s="53"/>
-      <c r="H1465" s="53"/>
+    <row r="1465" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1465" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1465" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1465" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1465" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1465" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1465" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1465" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1465" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1465" s="53"/>
       <c r="J1465" s="53"/>
       <c r="K1465" s="53"/>
-      <c r="L1465" s="53"/>
     </row>
     <row r="1466" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1466" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1466" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1466" s="53" t="s">
+      <c r="A1466" s="53" t="str">
+        <f>B1458</f>
+        <v>heat, from on-site industrial gas-fired CHP with CCS</v>
+      </c>
+      <c r="B1466" s="53">
         <v>1</v>
       </c>
-      <c r="D1466" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1466" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1466" s="53" t="str">
+        <f>B1459</f>
+        <v>CH</v>
+      </c>
+      <c r="D1466" s="53" t="str">
+        <f>B1463</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1466" s="53"/>
       <c r="F1466" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1466" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1466" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1466" s="53" t="str">
+        <f>B1461</f>
+        <v>heat</v>
       </c>
       <c r="I1466" s="53"/>
       <c r="J1466" s="53"/>
       <c r="K1466" s="53"/>
+      <c r="L1466" s="53"/>
     </row>
     <row r="1467" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1467" s="53" t="str">
-        <f>B1459</f>
-        <v>heat, from on-site industrial fuel cell CHP</v>
-      </c>
-      <c r="B1467" s="53">
-        <v>1</v>
-      </c>
-      <c r="C1467" s="53" t="str">
-        <f>B1460</f>
-        <v>CH</v>
-      </c>
-      <c r="D1467" s="53" t="str">
-        <f>B1464</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1467" s="53"/>
-      <c r="F1467" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1467" s="53" t="str">
-        <f>B1462</f>
-        <v>heat</v>
-      </c>
-      <c r="I1467" s="53"/>
-      <c r="J1467" s="53"/>
-      <c r="K1467" s="53"/>
-      <c r="L1467" s="53"/>
-    </row>
-    <row r="1468" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1468" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1468">
+      <c r="A1467" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1467">
         <f>1/(0.011726*1.08*36)</f>
         <v>2.1934303777122204</v>
       </c>
-      <c r="C1468" t="s">
+      <c r="C1467" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1468"/>
+    </row>
+    <row r="1469" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1469" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1469" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1469" s="53"/>
+      <c r="D1469" s="53"/>
+      <c r="E1469" s="53"/>
+      <c r="F1469" s="53"/>
+      <c r="H1469" s="53"/>
+    </row>
+    <row r="1470" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1470" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1470" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1468" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1468" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1468" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1469"/>
-    </row>
-    <row r="1470" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1470" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1470" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C1470" s="53"/>
       <c r="D1470" s="53"/>
       <c r="E1470" s="53"/>
       <c r="F1470" s="53"/>
       <c r="H1470" s="53"/>
+      <c r="I1470" s="53"/>
+      <c r="J1470" s="53"/>
+      <c r="K1470" s="53"/>
+      <c r="L1470" s="53"/>
     </row>
     <row r="1471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1471" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1471" s="53">
         <v>1</v>
-      </c>
-      <c r="B1471" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1471" s="53"/>
       <c r="D1471" s="53"/>
@@ -27536,10 +27633,10 @@
     </row>
     <row r="1472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1472" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1472" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1472" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1472" s="53"/>
       <c r="D1472" s="53"/>
@@ -27548,15 +27645,13 @@
       <c r="H1472" s="53"/>
       <c r="I1472" s="53"/>
       <c r="J1472" s="53"/>
-      <c r="K1472" s="53"/>
-      <c r="L1472" s="53"/>
     </row>
     <row r="1473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1473" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1473" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1473" s="53"/>
       <c r="D1473" s="53"/>
@@ -27565,13 +27660,15 @@
       <c r="H1473" s="53"/>
       <c r="I1473" s="53"/>
       <c r="J1473" s="53"/>
+      <c r="K1473" s="53"/>
+      <c r="L1473" s="53"/>
     </row>
     <row r="1474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1474" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1474" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1474" s="53"/>
       <c r="D1474" s="53"/>
@@ -27583,13 +27680,11 @@
       <c r="K1474" s="53"/>
       <c r="L1474" s="53"/>
     </row>
-    <row r="1475" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1475" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1475" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1475" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1475" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1475" s="53"/>
       <c r="C1475" s="53"/>
       <c r="D1475" s="53"/>
       <c r="E1475" s="53"/>
@@ -27600,121 +27695,124 @@
       <c r="K1475" s="53"/>
       <c r="L1475" s="53"/>
     </row>
-    <row r="1476" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1476" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1476" s="53"/>
-      <c r="C1476" s="53"/>
-      <c r="D1476" s="53"/>
-      <c r="E1476" s="53"/>
-      <c r="F1476" s="53"/>
-      <c r="H1476" s="53"/>
+    <row r="1476" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1476" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1476" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1476" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1476" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1476" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1476" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1476" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1476" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1476" s="53"/>
       <c r="J1476" s="53"/>
       <c r="K1476" s="53"/>
-      <c r="L1476" s="53"/>
     </row>
     <row r="1477" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1477" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1477" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1477" s="53" t="s">
+      <c r="A1477" s="53" t="str">
+        <f>B1469</f>
+        <v>heat, from on-site industrial fuel cell CHP</v>
+      </c>
+      <c r="B1477" s="53">
         <v>1</v>
       </c>
-      <c r="D1477" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1477" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1477" s="53" t="str">
+        <f>B1470</f>
+        <v>CH</v>
+      </c>
+      <c r="D1477" s="53" t="str">
+        <f>B1474</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1477" s="53"/>
       <c r="F1477" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1477" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1477" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1477" s="53" t="str">
+        <f>B1472</f>
+        <v>heat</v>
       </c>
       <c r="I1477" s="53"/>
       <c r="J1477" s="53"/>
       <c r="K1477" s="53"/>
+      <c r="L1477" s="53"/>
     </row>
     <row r="1478" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1478" s="53" t="str">
-        <f>B1470</f>
-        <v>heat, from on-site industrial non-renewable waste-fired CHP</v>
-      </c>
-      <c r="B1478" s="53">
+      <c r="A1478" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1478">
+        <f>1/(0.011726*1.08*36)</f>
+        <v>2.1934303777122204</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1479"/>
+    </row>
+    <row r="1480" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1480" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1480" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1480" s="53"/>
+      <c r="D1480" s="53"/>
+      <c r="E1480" s="53"/>
+      <c r="F1480" s="53"/>
+      <c r="H1480" s="53"/>
+    </row>
+    <row r="1481" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1481" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1478" s="53" t="str">
-        <f>B1471</f>
-        <v>CH</v>
-      </c>
-      <c r="D1478" s="53" t="str">
-        <f>B1475</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1478" s="53"/>
-      <c r="F1478" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1478" s="53" t="str">
-        <f>B1473</f>
-        <v>heat</v>
-      </c>
-      <c r="I1478" s="53"/>
-      <c r="J1478" s="53"/>
-      <c r="K1478" s="53"/>
-      <c r="L1478" s="53"/>
-    </row>
-    <row r="1479" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1479" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1479">
-        <v>0.4</v>
-      </c>
-      <c r="C1479" t="s">
+      <c r="B1481" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1479" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1479" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1479" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1480"/>
-    </row>
-    <row r="1481" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1481" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1481" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="C1481" s="53"/>
       <c r="D1481" s="53"/>
       <c r="E1481" s="53"/>
       <c r="F1481" s="53"/>
       <c r="H1481" s="53"/>
+      <c r="I1481" s="53"/>
+      <c r="J1481" s="53"/>
+      <c r="K1481" s="53"/>
+      <c r="L1481" s="53"/>
     </row>
     <row r="1482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1482" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1482" s="53">
         <v>1</v>
-      </c>
-      <c r="B1482" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1482" s="53"/>
       <c r="D1482" s="53"/>
@@ -27728,10 +27826,10 @@
     </row>
     <row r="1483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1483" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1483" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1483" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1483" s="53"/>
       <c r="D1483" s="53"/>
@@ -27740,15 +27838,13 @@
       <c r="H1483" s="53"/>
       <c r="I1483" s="53"/>
       <c r="J1483" s="53"/>
-      <c r="K1483" s="53"/>
-      <c r="L1483" s="53"/>
     </row>
     <row r="1484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1484" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1484" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1484" s="53"/>
       <c r="D1484" s="53"/>
@@ -27757,13 +27853,15 @@
       <c r="H1484" s="53"/>
       <c r="I1484" s="53"/>
       <c r="J1484" s="53"/>
+      <c r="K1484" s="53"/>
+      <c r="L1484" s="53"/>
     </row>
     <row r="1485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1485" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1485" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1485" s="53"/>
       <c r="D1485" s="53"/>
@@ -27775,13 +27873,11 @@
       <c r="K1485" s="53"/>
       <c r="L1485" s="53"/>
     </row>
-    <row r="1486" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1486" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1486" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1486" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1486" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1486" s="53"/>
       <c r="C1486" s="53"/>
       <c r="D1486" s="53"/>
       <c r="E1486" s="53"/>
@@ -27792,121 +27888,123 @@
       <c r="K1486" s="53"/>
       <c r="L1486" s="53"/>
     </row>
-    <row r="1487" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1487" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1487" s="53"/>
-      <c r="C1487" s="53"/>
-      <c r="D1487" s="53"/>
-      <c r="E1487" s="53"/>
-      <c r="F1487" s="53"/>
-      <c r="H1487" s="53"/>
+    <row r="1487" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1487" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1487" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1487" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1487" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1487" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1487" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1487" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1487" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1487" s="53"/>
       <c r="J1487" s="53"/>
       <c r="K1487" s="53"/>
-      <c r="L1487" s="53"/>
     </row>
     <row r="1488" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1488" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1488" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1488" s="53" t="s">
+      <c r="A1488" s="53" t="str">
+        <f>B1480</f>
+        <v>heat, from on-site industrial non-renewable waste-fired CHP</v>
+      </c>
+      <c r="B1488" s="53">
         <v>1</v>
       </c>
-      <c r="D1488" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1488" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1488" s="53" t="str">
+        <f>B1481</f>
+        <v>CH</v>
+      </c>
+      <c r="D1488" s="53" t="str">
+        <f>B1485</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1488" s="53"/>
       <c r="F1488" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1488" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1488" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1488" s="53" t="str">
+        <f>B1483</f>
+        <v>heat</v>
       </c>
       <c r="I1488" s="53"/>
       <c r="J1488" s="53"/>
       <c r="K1488" s="53"/>
+      <c r="L1488" s="53"/>
     </row>
     <row r="1489" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1489" s="53" t="str">
-        <f>B1481</f>
-        <v>heat, from on-site industrial non-renewable waste-fired CHP with CCS</v>
-      </c>
-      <c r="B1489" s="53">
+      <c r="A1489" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1489">
+        <v>0.4</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1490"/>
+    </row>
+    <row r="1491" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1491" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1491" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1491" s="53"/>
+      <c r="D1491" s="53"/>
+      <c r="E1491" s="53"/>
+      <c r="F1491" s="53"/>
+      <c r="H1491" s="53"/>
+    </row>
+    <row r="1492" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1492" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1489" s="53" t="str">
-        <f>B1482</f>
-        <v>CH</v>
-      </c>
-      <c r="D1489" s="53" t="str">
-        <f>B1486</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1489" s="53"/>
-      <c r="F1489" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1489" s="53" t="str">
-        <f>B1484</f>
-        <v>heat</v>
-      </c>
-      <c r="I1489" s="53"/>
-      <c r="J1489" s="53"/>
-      <c r="K1489" s="53"/>
-      <c r="L1489" s="53"/>
-    </row>
-    <row r="1490" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1490" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1490">
-        <v>0.5</v>
-      </c>
-      <c r="C1490" t="s">
+      <c r="B1492" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1490" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1490" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1490" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1491"/>
-    </row>
-    <row r="1492" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1492" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1492" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C1492" s="53"/>
       <c r="D1492" s="53"/>
       <c r="E1492" s="53"/>
       <c r="F1492" s="53"/>
       <c r="H1492" s="53"/>
+      <c r="I1492" s="53"/>
+      <c r="J1492" s="53"/>
+      <c r="K1492" s="53"/>
+      <c r="L1492" s="53"/>
     </row>
     <row r="1493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1493" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1493" s="53">
         <v>1</v>
-      </c>
-      <c r="B1493" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1493" s="53"/>
       <c r="D1493" s="53"/>
@@ -27920,10 +28018,10 @@
     </row>
     <row r="1494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1494" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1494" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1494" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1494" s="53"/>
       <c r="D1494" s="53"/>
@@ -27932,15 +28030,13 @@
       <c r="H1494" s="53"/>
       <c r="I1494" s="53"/>
       <c r="J1494" s="53"/>
-      <c r="K1494" s="53"/>
-      <c r="L1494" s="53"/>
     </row>
     <row r="1495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1495" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1495" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1495" s="53"/>
       <c r="D1495" s="53"/>
@@ -27949,13 +28045,15 @@
       <c r="H1495" s="53"/>
       <c r="I1495" s="53"/>
       <c r="J1495" s="53"/>
+      <c r="K1495" s="53"/>
+      <c r="L1495" s="53"/>
     </row>
     <row r="1496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1496" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1496" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1496" s="53"/>
       <c r="D1496" s="53"/>
@@ -27967,13 +28065,11 @@
       <c r="K1496" s="53"/>
       <c r="L1496" s="53"/>
     </row>
-    <row r="1497" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1497" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1497" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1497" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1497" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1497" s="53"/>
       <c r="C1497" s="53"/>
       <c r="D1497" s="53"/>
       <c r="E1497" s="53"/>
@@ -27984,119 +28080,123 @@
       <c r="K1497" s="53"/>
       <c r="L1497" s="53"/>
     </row>
-    <row r="1498" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1498" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1498" s="53"/>
-      <c r="C1498" s="53"/>
-      <c r="D1498" s="53"/>
-      <c r="E1498" s="53"/>
-      <c r="F1498" s="53"/>
-      <c r="H1498" s="53"/>
+    <row r="1498" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1498" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1498" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1498" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1498" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1498" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1498" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1498" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1498" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1498" s="53"/>
       <c r="J1498" s="53"/>
       <c r="K1498" s="53"/>
-      <c r="L1498" s="53"/>
     </row>
     <row r="1499" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1499" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1499" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1499" s="53" t="s">
+      <c r="A1499" s="53" t="str">
+        <f>B1491</f>
+        <v>heat, from on-site industrial non-renewable waste-fired CHP with CCS</v>
+      </c>
+      <c r="B1499" s="53">
         <v>1</v>
       </c>
-      <c r="D1499" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1499" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1499" s="53" t="str">
+        <f>B1492</f>
+        <v>CH</v>
+      </c>
+      <c r="D1499" s="53" t="str">
+        <f>B1496</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1499" s="53"/>
       <c r="F1499" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1499" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1499" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1499" s="53" t="str">
+        <f>B1494</f>
+        <v>heat</v>
       </c>
       <c r="I1499" s="53"/>
       <c r="J1499" s="53"/>
       <c r="K1499" s="53"/>
+      <c r="L1499" s="53"/>
     </row>
     <row r="1500" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1500" s="53" t="str">
-        <f>B1492</f>
-        <v>heat, from on-site industrial wood-fired CHP</v>
-      </c>
-      <c r="B1500" s="53">
+      <c r="A1500" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1500">
+        <v>0.5</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1501"/>
+    </row>
+    <row r="1502" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1502" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1502" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1502" s="53"/>
+      <c r="D1502" s="53"/>
+      <c r="E1502" s="53"/>
+      <c r="F1502" s="53"/>
+      <c r="H1502" s="53"/>
+    </row>
+    <row r="1503" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1503" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1500" s="53" t="str">
-        <f>B1493</f>
-        <v>CH</v>
-      </c>
-      <c r="D1500" s="53" t="str">
-        <f>B1497</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1500" s="53"/>
-      <c r="F1500" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1500" s="53" t="str">
-        <f>B1495</f>
-        <v>heat</v>
-      </c>
-      <c r="I1500" s="53"/>
-      <c r="J1500" s="53"/>
-      <c r="K1500" s="53"/>
-      <c r="L1500" s="53"/>
-    </row>
-    <row r="1501" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1501" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1501">
-        <f>1/(0.0396618169378429*19.1)</f>
-        <v>1.3200610810256006</v>
-      </c>
-      <c r="C1501" t="s">
+      <c r="B1503" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1501" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1501" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1501" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1503" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1503" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C1503" s="53"/>
       <c r="D1503" s="53"/>
       <c r="E1503" s="53"/>
       <c r="F1503" s="53"/>
       <c r="H1503" s="53"/>
+      <c r="I1503" s="53"/>
+      <c r="J1503" s="53"/>
+      <c r="K1503" s="53"/>
+      <c r="L1503" s="53"/>
     </row>
     <row r="1504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1504" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1504" s="53">
         <v>1</v>
-      </c>
-      <c r="B1504" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1504" s="53"/>
       <c r="D1504" s="53"/>
@@ -28110,10 +28210,10 @@
     </row>
     <row r="1505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1505" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1505" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1505" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1505" s="53"/>
       <c r="D1505" s="53"/>
@@ -28122,15 +28222,13 @@
       <c r="H1505" s="53"/>
       <c r="I1505" s="53"/>
       <c r="J1505" s="53"/>
-      <c r="K1505" s="53"/>
-      <c r="L1505" s="53"/>
     </row>
     <row r="1506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1506" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1506" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1506" s="53"/>
       <c r="D1506" s="53"/>
@@ -28139,13 +28237,15 @@
       <c r="H1506" s="53"/>
       <c r="I1506" s="53"/>
       <c r="J1506" s="53"/>
+      <c r="K1506" s="53"/>
+      <c r="L1506" s="53"/>
     </row>
     <row r="1507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1507" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1507" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1507" s="53"/>
       <c r="D1507" s="53"/>
@@ -28157,13 +28257,11 @@
       <c r="K1507" s="53"/>
       <c r="L1507" s="53"/>
     </row>
-    <row r="1508" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1508" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1508" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1508" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1508" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1508" s="53"/>
       <c r="C1508" s="53"/>
       <c r="D1508" s="53"/>
       <c r="E1508" s="53"/>
@@ -28174,119 +28272,121 @@
       <c r="K1508" s="53"/>
       <c r="L1508" s="53"/>
     </row>
-    <row r="1509" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1509" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1509" s="53"/>
-      <c r="C1509" s="53"/>
-      <c r="D1509" s="53"/>
-      <c r="E1509" s="53"/>
-      <c r="F1509" s="53"/>
-      <c r="H1509" s="53"/>
+    <row r="1509" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1509" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1509" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1509" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1509" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1509" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1509" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1509" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1509" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1509" s="53"/>
       <c r="J1509" s="53"/>
       <c r="K1509" s="53"/>
-      <c r="L1509" s="53"/>
     </row>
     <row r="1510" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1510" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1510" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1510" s="53" t="s">
+      <c r="A1510" s="53" t="str">
+        <f>B1502</f>
+        <v>heat, from on-site industrial wood-fired CHP</v>
+      </c>
+      <c r="B1510" s="53">
         <v>1</v>
       </c>
-      <c r="D1510" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1510" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1510" s="53" t="str">
+        <f>B1503</f>
+        <v>CH</v>
+      </c>
+      <c r="D1510" s="53" t="str">
+        <f>B1507</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1510" s="53"/>
       <c r="F1510" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1510" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1510" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1510" s="53" t="str">
+        <f>B1505</f>
+        <v>heat</v>
       </c>
       <c r="I1510" s="53"/>
       <c r="J1510" s="53"/>
       <c r="K1510" s="53"/>
+      <c r="L1510" s="53"/>
     </row>
     <row r="1511" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1511" s="53" t="str">
-        <f>B1503</f>
-        <v>heat, from on-site industrial wood-fired CHP with CCS</v>
-      </c>
-      <c r="B1511" s="53">
+      <c r="A1511" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1511">
+        <f>1/(0.0396618169378429*19.1)</f>
+        <v>1.3200610810256006</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1511" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1513" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1513" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1513" s="53"/>
+      <c r="D1513" s="53"/>
+      <c r="E1513" s="53"/>
+      <c r="F1513" s="53"/>
+      <c r="H1513" s="53"/>
+    </row>
+    <row r="1514" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1514" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1511" s="53" t="str">
-        <f>B1504</f>
-        <v>CH</v>
-      </c>
-      <c r="D1511" s="53" t="str">
-        <f>B1508</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1511" s="53"/>
-      <c r="F1511" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1511" s="53" t="str">
-        <f>B1506</f>
-        <v>heat</v>
-      </c>
-      <c r="I1511" s="53"/>
-      <c r="J1511" s="53"/>
-      <c r="K1511" s="53"/>
-      <c r="L1511" s="53"/>
-    </row>
-    <row r="1512" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1512" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1512">
-        <f>1/(0.0396618169378429*19.1*1.1)</f>
-        <v>1.2000555282050913</v>
-      </c>
-      <c r="C1512" t="s">
+      <c r="B1514" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1512" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1512" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1512" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1514" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1514" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C1514" s="53"/>
       <c r="D1514" s="53"/>
       <c r="E1514" s="53"/>
       <c r="F1514" s="53"/>
       <c r="H1514" s="53"/>
+      <c r="I1514" s="53"/>
+      <c r="J1514" s="53"/>
+      <c r="K1514" s="53"/>
+      <c r="L1514" s="53"/>
     </row>
     <row r="1515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1515" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1515" s="53">
         <v>1</v>
-      </c>
-      <c r="B1515" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1515" s="53"/>
       <c r="D1515" s="53"/>
@@ -28300,10 +28400,10 @@
     </row>
     <row r="1516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1516" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1516" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1516" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1516" s="53"/>
       <c r="D1516" s="53"/>
@@ -28312,15 +28412,13 @@
       <c r="H1516" s="53"/>
       <c r="I1516" s="53"/>
       <c r="J1516" s="53"/>
-      <c r="K1516" s="53"/>
-      <c r="L1516" s="53"/>
     </row>
     <row r="1517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1517" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1517" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1517" s="53"/>
       <c r="D1517" s="53"/>
@@ -28329,13 +28427,15 @@
       <c r="H1517" s="53"/>
       <c r="I1517" s="53"/>
       <c r="J1517" s="53"/>
+      <c r="K1517" s="53"/>
+      <c r="L1517" s="53"/>
     </row>
     <row r="1518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1518" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1518" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1518" s="53"/>
       <c r="D1518" s="53"/>
@@ -28347,13 +28447,11 @@
       <c r="K1518" s="53"/>
       <c r="L1518" s="53"/>
     </row>
-    <row r="1519" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1519" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1519" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1519" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1519" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1519" s="53"/>
       <c r="C1519" s="53"/>
       <c r="D1519" s="53"/>
       <c r="E1519" s="53"/>
@@ -28364,119 +28462,121 @@
       <c r="K1519" s="53"/>
       <c r="L1519" s="53"/>
     </row>
-    <row r="1520" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1520" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1520" s="53"/>
-      <c r="C1520" s="53"/>
-      <c r="D1520" s="53"/>
-      <c r="E1520" s="53"/>
-      <c r="F1520" s="53"/>
-      <c r="H1520" s="53"/>
+    <row r="1520" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1520" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1520" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1520" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1520" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1520" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1520" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1520" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1520" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1520" s="53"/>
       <c r="J1520" s="53"/>
       <c r="K1520" s="53"/>
-      <c r="L1520" s="53"/>
     </row>
     <row r="1521" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1521" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1521" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1521" s="53" t="s">
+      <c r="A1521" s="53" t="str">
+        <f>B1513</f>
+        <v>heat, from on-site industrial wood-fired CHP with CCS</v>
+      </c>
+      <c r="B1521" s="53">
         <v>1</v>
       </c>
-      <c r="D1521" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1521" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1521" s="53" t="str">
+        <f>B1514</f>
+        <v>CH</v>
+      </c>
+      <c r="D1521" s="53" t="str">
+        <f>B1518</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1521" s="53"/>
       <c r="F1521" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1521" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1521" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1521" s="53" t="str">
+        <f>B1516</f>
+        <v>heat</v>
       </c>
       <c r="I1521" s="53"/>
       <c r="J1521" s="53"/>
       <c r="K1521" s="53"/>
+      <c r="L1521" s="53"/>
     </row>
     <row r="1522" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1522" s="53" t="str">
-        <f>B1514</f>
-        <v>heat, from on-site industrial hydrogen-fired CHP</v>
-      </c>
-      <c r="B1522" s="53">
+      <c r="A1522" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1522">
+        <f>1/(0.0396618169378429*19.1*1.1)</f>
+        <v>1.2000555282050913</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1524" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1524" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1524" s="53"/>
+      <c r="D1524" s="53"/>
+      <c r="E1524" s="53"/>
+      <c r="F1524" s="53"/>
+      <c r="H1524" s="53"/>
+    </row>
+    <row r="1525" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1525" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1522" s="53" t="str">
-        <f>B1515</f>
-        <v>CH</v>
-      </c>
-      <c r="D1522" s="53" t="str">
-        <f>B1519</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1522" s="53"/>
-      <c r="F1522" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1522" s="53" t="str">
-        <f>B1517</f>
-        <v>heat</v>
-      </c>
-      <c r="I1522" s="53"/>
-      <c r="J1522" s="53"/>
-      <c r="K1522" s="53"/>
-      <c r="L1522" s="53"/>
-    </row>
-    <row r="1523" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1523" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1523">
-        <f>1/(0.00167*120)</f>
-        <v>4.9900199600798407</v>
-      </c>
-      <c r="C1523" t="s">
+      <c r="B1525" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1523" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1523" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1523" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1525" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1525" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="C1525" s="53"/>
       <c r="D1525" s="53"/>
       <c r="E1525" s="53"/>
       <c r="F1525" s="53"/>
       <c r="H1525" s="53"/>
+      <c r="I1525" s="53"/>
+      <c r="J1525" s="53"/>
+      <c r="K1525" s="53"/>
+      <c r="L1525" s="53"/>
     </row>
     <row r="1526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1526" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1526" s="53">
         <v>1</v>
-      </c>
-      <c r="B1526" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1526" s="53"/>
       <c r="D1526" s="53"/>
@@ -28490,10 +28590,10 @@
     </row>
     <row r="1527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1527" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1527" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1527" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1527" s="53"/>
       <c r="D1527" s="53"/>
@@ -28502,15 +28602,13 @@
       <c r="H1527" s="53"/>
       <c r="I1527" s="53"/>
       <c r="J1527" s="53"/>
-      <c r="K1527" s="53"/>
-      <c r="L1527" s="53"/>
     </row>
     <row r="1528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1528" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1528" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1528" s="53"/>
       <c r="D1528" s="53"/>
@@ -28519,13 +28617,15 @@
       <c r="H1528" s="53"/>
       <c r="I1528" s="53"/>
       <c r="J1528" s="53"/>
+      <c r="K1528" s="53"/>
+      <c r="L1528" s="53"/>
     </row>
     <row r="1529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1529" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1529" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1529" s="53"/>
       <c r="D1529" s="53"/>
@@ -28537,13 +28637,11 @@
       <c r="K1529" s="53"/>
       <c r="L1529" s="53"/>
     </row>
-    <row r="1530" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1530" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1530" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1530" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1530" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1530" s="53"/>
       <c r="C1530" s="53"/>
       <c r="D1530" s="53"/>
       <c r="E1530" s="53"/>
@@ -28554,118 +28652,121 @@
       <c r="K1530" s="53"/>
       <c r="L1530" s="53"/>
     </row>
-    <row r="1531" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1531" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1531" s="53"/>
-      <c r="C1531" s="53"/>
-      <c r="D1531" s="53"/>
-      <c r="E1531" s="53"/>
-      <c r="F1531" s="53"/>
-      <c r="H1531" s="53"/>
+    <row r="1531" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1531" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1531" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1531" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1531" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1531" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1531" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1531" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1531" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1531" s="53"/>
       <c r="J1531" s="53"/>
       <c r="K1531" s="53"/>
-      <c r="L1531" s="53"/>
     </row>
     <row r="1532" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1532" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1532" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1532" s="53" t="s">
+      <c r="A1532" s="53" t="str">
+        <f>B1524</f>
+        <v>heat, from on-site industrial hydrogen-fired CHP</v>
+      </c>
+      <c r="B1532" s="53">
         <v>1</v>
       </c>
-      <c r="D1532" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1532" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1532" s="53" t="str">
+        <f>B1525</f>
+        <v>CH</v>
+      </c>
+      <c r="D1532" s="53" t="str">
+        <f>B1529</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1532" s="53"/>
       <c r="F1532" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1532" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1532" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1532" s="53" t="str">
+        <f>B1527</f>
+        <v>heat</v>
       </c>
       <c r="I1532" s="53"/>
       <c r="J1532" s="53"/>
       <c r="K1532" s="53"/>
+      <c r="L1532" s="53"/>
     </row>
     <row r="1533" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1533" s="53" t="str">
-        <f>B1525</f>
-        <v>heat, from district heating</v>
-      </c>
-      <c r="B1533" s="53">
+      <c r="A1533" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1533">
+        <f>1/(0.00167*120)</f>
+        <v>4.9900199600798407</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1533" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1535" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1535" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1535" s="53"/>
+      <c r="D1535" s="53"/>
+      <c r="E1535" s="53"/>
+      <c r="F1535" s="53"/>
+      <c r="H1535" s="53"/>
+    </row>
+    <row r="1536" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1536" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1533" s="53" t="str">
-        <f>B1526</f>
-        <v>CH</v>
-      </c>
-      <c r="D1533" s="53" t="str">
-        <f>B1530</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1533" s="53"/>
-      <c r="F1533" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1533" s="53" t="str">
-        <f>B1528</f>
-        <v>heat</v>
-      </c>
-      <c r="I1533" s="53"/>
-      <c r="J1533" s="53"/>
-      <c r="K1533" s="53"/>
-      <c r="L1533" s="53"/>
-    </row>
-    <row r="1534" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1534" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1534">
-        <v>1</v>
-      </c>
-      <c r="C1534" t="s">
+      <c r="B1536" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1534" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1534" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1534" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="1536" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1536" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1536" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="C1536" s="53"/>
       <c r="D1536" s="53"/>
       <c r="E1536" s="53"/>
       <c r="F1536" s="53"/>
       <c r="H1536" s="53"/>
+      <c r="I1536" s="53"/>
+      <c r="J1536" s="53"/>
+      <c r="K1536" s="53"/>
+      <c r="L1536" s="53"/>
     </row>
     <row r="1537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1537" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1537" s="53">
         <v>1</v>
-      </c>
-      <c r="B1537" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1537" s="53"/>
       <c r="D1537" s="53"/>
@@ -28679,10 +28780,10 @@
     </row>
     <row r="1538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1538" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1538" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1538" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1538" s="53"/>
       <c r="D1538" s="53"/>
@@ -28691,15 +28792,13 @@
       <c r="H1538" s="53"/>
       <c r="I1538" s="53"/>
       <c r="J1538" s="53"/>
-      <c r="K1538" s="53"/>
-      <c r="L1538" s="53"/>
     </row>
     <row r="1539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1539" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1539" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1539" s="53"/>
       <c r="D1539" s="53"/>
@@ -28708,13 +28807,15 @@
       <c r="H1539" s="53"/>
       <c r="I1539" s="53"/>
       <c r="J1539" s="53"/>
+      <c r="K1539" s="53"/>
+      <c r="L1539" s="53"/>
     </row>
     <row r="1540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1540" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1540" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1540" s="53"/>
       <c r="D1540" s="53"/>
@@ -28726,13 +28827,11 @@
       <c r="K1540" s="53"/>
       <c r="L1540" s="53"/>
     </row>
-    <row r="1541" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1541" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1541" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1541" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1541" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1541" s="53"/>
       <c r="C1541" s="53"/>
       <c r="D1541" s="53"/>
       <c r="E1541" s="53"/>
@@ -28743,122 +28842,120 @@
       <c r="K1541" s="53"/>
       <c r="L1541" s="53"/>
     </row>
-    <row r="1542" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1542" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1542" s="53"/>
-      <c r="C1542" s="53"/>
-      <c r="D1542" s="53"/>
-      <c r="E1542" s="53"/>
-      <c r="F1542" s="53"/>
-      <c r="H1542" s="53"/>
+    <row r="1542" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1542" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1542" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1542" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1542" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1542" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1542" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1542" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1542" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1542" s="53"/>
       <c r="J1542" s="53"/>
       <c r="K1542" s="53"/>
-      <c r="L1542" s="53"/>
     </row>
     <row r="1543" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1543" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1543" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1543" s="53" t="s">
+      <c r="A1543" s="53" t="str">
+        <f>B1535</f>
+        <v>heat, from district heating</v>
+      </c>
+      <c r="B1543" s="53">
         <v>1</v>
       </c>
-      <c r="D1543" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1543" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1543" s="53" t="str">
+        <f>B1536</f>
+        <v>CH</v>
+      </c>
+      <c r="D1543" s="53" t="str">
+        <f>B1540</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1543" s="53"/>
       <c r="F1543" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1543" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1543" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1543" s="53" t="str">
+        <f>B1538</f>
+        <v>heat</v>
       </c>
       <c r="I1543" s="53"/>
       <c r="J1543" s="53"/>
       <c r="K1543" s="53"/>
+      <c r="L1543" s="53"/>
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1544" s="53" t="str">
-        <f>B1536</f>
-        <v>wood, burned in wood industrial furnace 1-10MW</v>
-      </c>
-      <c r="B1544" s="53">
+      <c r="A1544" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1544">
         <v>1</v>
       </c>
-      <c r="C1544" s="53" t="str">
-        <f>B1537</f>
-        <v>CH</v>
-      </c>
-      <c r="D1544" s="53" t="str">
-        <f>B1541</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1544" s="53"/>
-      <c r="F1544" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1544" s="53" t="str">
-        <f>B1539</f>
-        <v>heat</v>
-      </c>
-      <c r="I1544" s="53"/>
-      <c r="J1544" s="53"/>
-      <c r="K1544" s="53"/>
-      <c r="L1544" s="53"/>
-    </row>
-    <row r="1545" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1545" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1545">
-        <f>1/(0.0705467372134039*19.1)</f>
-        <v>0.74214659685863837</v>
-      </c>
-      <c r="C1545" t="s">
+      <c r="C1544" t="s">
         <v>104</v>
       </c>
-      <c r="D1545" t="s">
+      <c r="D1544" t="s">
         <v>17</v>
       </c>
-      <c r="F1545" t="s">
+      <c r="F1544" t="s">
         <v>18</v>
       </c>
-      <c r="H1545" t="s">
+      <c r="H1544" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="1546" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1546"/>
-    </row>
-    <row r="1547" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1547" s="1" t="s">
+    <row r="1546" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1546" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1547" s="1" t="s">
-        <v>324</v>
+      <c r="B1546" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1546" s="53"/>
+      <c r="D1546" s="53"/>
+      <c r="E1546" s="53"/>
+      <c r="F1546" s="53"/>
+      <c r="H1546" s="53"/>
+    </row>
+    <row r="1547" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1547" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1547" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="C1547" s="53"/>
       <c r="D1547" s="53"/>
       <c r="E1547" s="53"/>
       <c r="F1547" s="53"/>
       <c r="H1547" s="53"/>
+      <c r="I1547" s="53"/>
+      <c r="J1547" s="53"/>
+      <c r="K1547" s="53"/>
+      <c r="L1547" s="53"/>
     </row>
     <row r="1548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1548" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1548" s="53">
         <v>1</v>
-      </c>
-      <c r="B1548" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1548" s="53"/>
       <c r="D1548" s="53"/>
@@ -28872,10 +28969,10 @@
     </row>
     <row r="1549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1549" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1549" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1549" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1549" s="53"/>
       <c r="D1549" s="53"/>
@@ -28884,15 +28981,13 @@
       <c r="H1549" s="53"/>
       <c r="I1549" s="53"/>
       <c r="J1549" s="53"/>
-      <c r="K1549" s="53"/>
-      <c r="L1549" s="53"/>
     </row>
     <row r="1550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1550" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1550" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1550" s="53"/>
       <c r="D1550" s="53"/>
@@ -28901,13 +28996,15 @@
       <c r="H1550" s="53"/>
       <c r="I1550" s="53"/>
       <c r="J1550" s="53"/>
+      <c r="K1550" s="53"/>
+      <c r="L1550" s="53"/>
     </row>
     <row r="1551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1551" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1551" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1551" s="53"/>
       <c r="D1551" s="53"/>
@@ -28919,13 +29016,11 @@
       <c r="K1551" s="53"/>
       <c r="L1551" s="53"/>
     </row>
-    <row r="1552" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1552" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1552" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1552" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1552" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1552" s="53"/>
       <c r="C1552" s="53"/>
       <c r="D1552" s="53"/>
       <c r="E1552" s="53"/>
@@ -28936,119 +29031,124 @@
       <c r="K1552" s="53"/>
       <c r="L1552" s="53"/>
     </row>
-    <row r="1553" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1553" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1553" s="53"/>
-      <c r="C1553" s="53"/>
-      <c r="D1553" s="53"/>
-      <c r="E1553" s="53"/>
-      <c r="F1553" s="53"/>
-      <c r="H1553" s="53"/>
+    <row r="1553" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1553" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1553" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1553" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1553" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1553" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1553" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1553" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1553" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1553" s="53"/>
       <c r="J1553" s="53"/>
       <c r="K1553" s="53"/>
-      <c r="L1553" s="53"/>
     </row>
     <row r="1554" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1554" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1554" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1554" s="53" t="s">
+      <c r="A1554" s="53" t="str">
+        <f>B1546</f>
+        <v>wood, burned in wood industrial furnace 1-10MW</v>
+      </c>
+      <c r="B1554" s="53">
         <v>1</v>
       </c>
-      <c r="D1554" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1554" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1554" s="53" t="str">
+        <f>B1547</f>
+        <v>CH</v>
+      </c>
+      <c r="D1554" s="53" t="str">
+        <f>B1551</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1554" s="53"/>
       <c r="F1554" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1554" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1554" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1554" s="53" t="str">
+        <f>B1549</f>
+        <v>heat</v>
       </c>
       <c r="I1554" s="53"/>
       <c r="J1554" s="53"/>
       <c r="K1554" s="53"/>
+      <c r="L1554" s="53"/>
     </row>
     <row r="1555" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1555" s="53" t="str">
-        <f>B1547</f>
-        <v>pellet, burned in pellet industrial furnace 300kW</v>
-      </c>
-      <c r="B1555" s="53">
+      <c r="A1555" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1555">
+        <f>1/(0.0705467372134039*19.1)</f>
+        <v>0.74214659685863837</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1555" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1556"/>
+    </row>
+    <row r="1557" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1557" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1557" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1557" s="53"/>
+      <c r="D1557" s="53"/>
+      <c r="E1557" s="53"/>
+      <c r="F1557" s="53"/>
+      <c r="H1557" s="53"/>
+    </row>
+    <row r="1558" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1558" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1555" s="53" t="str">
-        <f>B1548</f>
-        <v>CH</v>
-      </c>
-      <c r="D1555" s="53" t="str">
-        <f>B1552</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1555" s="53"/>
-      <c r="F1555" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1555" s="53" t="str">
-        <f>B1550</f>
-        <v>heat</v>
-      </c>
-      <c r="I1555" s="53"/>
-      <c r="J1555" s="53"/>
-      <c r="K1555" s="53"/>
-      <c r="L1555" s="53"/>
-    </row>
-    <row r="1556" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1556" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1556">
-        <f>1/(0.0711533333333334*19.1)</f>
-        <v>0.73581965158448881</v>
-      </c>
-      <c r="C1556" t="s">
+      <c r="B1558" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1556" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1556" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1556" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1558" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1558" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C1558" s="53"/>
       <c r="D1558" s="53"/>
       <c r="E1558" s="53"/>
       <c r="F1558" s="53"/>
       <c r="H1558" s="53"/>
+      <c r="I1558" s="53"/>
+      <c r="J1558" s="53"/>
+      <c r="K1558" s="53"/>
+      <c r="L1558" s="53"/>
     </row>
     <row r="1559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1559" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1559" s="53">
         <v>1</v>
-      </c>
-      <c r="B1559" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1559" s="53"/>
       <c r="D1559" s="53"/>
@@ -29062,10 +29162,10 @@
     </row>
     <row r="1560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1560" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1560" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1560" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1560" s="53"/>
       <c r="D1560" s="53"/>
@@ -29074,15 +29174,13 @@
       <c r="H1560" s="53"/>
       <c r="I1560" s="53"/>
       <c r="J1560" s="53"/>
-      <c r="K1560" s="53"/>
-      <c r="L1560" s="53"/>
     </row>
     <row r="1561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1561" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1561" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1561" s="53"/>
       <c r="D1561" s="53"/>
@@ -29091,13 +29189,15 @@
       <c r="H1561" s="53"/>
       <c r="I1561" s="53"/>
       <c r="J1561" s="53"/>
+      <c r="K1561" s="53"/>
+      <c r="L1561" s="53"/>
     </row>
     <row r="1562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1562" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1562" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1562" s="53"/>
       <c r="D1562" s="53"/>
@@ -29109,13 +29209,11 @@
       <c r="K1562" s="53"/>
       <c r="L1562" s="53"/>
     </row>
-    <row r="1563" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1563" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1563" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1563" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1563" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1563" s="53"/>
       <c r="C1563" s="53"/>
       <c r="D1563" s="53"/>
       <c r="E1563" s="53"/>
@@ -29126,122 +29224,121 @@
       <c r="K1563" s="53"/>
       <c r="L1563" s="53"/>
     </row>
-    <row r="1564" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1564" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1564" s="53"/>
-      <c r="C1564" s="53"/>
-      <c r="D1564" s="53"/>
-      <c r="E1564" s="53"/>
-      <c r="F1564" s="53"/>
-      <c r="H1564" s="53"/>
+    <row r="1564" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1564" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1564" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1564" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1564" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1564" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1564" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1564" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1564" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1564" s="53"/>
       <c r="J1564" s="53"/>
       <c r="K1564" s="53"/>
-      <c r="L1564" s="53"/>
     </row>
     <row r="1565" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1565" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1565" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1565" s="53" t="s">
+      <c r="A1565" s="53" t="str">
+        <f>B1557</f>
+        <v>pellet, burned in pellet industrial furnace 300kW</v>
+      </c>
+      <c r="B1565" s="53">
         <v>1</v>
       </c>
-      <c r="D1565" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1565" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1565" s="53" t="str">
+        <f>B1558</f>
+        <v>CH</v>
+      </c>
+      <c r="D1565" s="53" t="str">
+        <f>B1562</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1565" s="53"/>
       <c r="F1565" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1565" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1565" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1565" s="53" t="str">
+        <f>B1560</f>
+        <v>heat</v>
       </c>
       <c r="I1565" s="53"/>
       <c r="J1565" s="53"/>
       <c r="K1565" s="53"/>
+      <c r="L1565" s="53"/>
     </row>
     <row r="1566" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1566" s="53" t="str">
-        <f>B1558</f>
-        <v>non-renewable waste, burned in industrial furnace</v>
-      </c>
-      <c r="B1566" s="53">
+      <c r="A1566" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1566">
+        <f>1/(0.0711533333333334*19.1)</f>
+        <v>0.73581965158448881</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1566" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1568" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1568" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1568" s="53"/>
+      <c r="D1568" s="53"/>
+      <c r="E1568" s="53"/>
+      <c r="F1568" s="53"/>
+      <c r="H1568" s="53"/>
+    </row>
+    <row r="1569" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1569" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1566" s="53" t="str">
-        <f>B1559</f>
-        <v>CH</v>
-      </c>
-      <c r="D1566" s="53" t="str">
-        <f>B1563</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1566" s="53"/>
-      <c r="F1566" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1566" s="53" t="str">
-        <f>B1561</f>
-        <v>heat</v>
-      </c>
-      <c r="I1566" s="53"/>
-      <c r="J1566" s="53"/>
-      <c r="K1566" s="53"/>
-      <c r="L1566" s="53"/>
-    </row>
-    <row r="1567" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1567" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1567">
-        <f>1/(1/7.66*0.66*16)</f>
-        <v>0.72537878787878785</v>
-      </c>
-      <c r="C1567" t="s">
+      <c r="B1569" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1567" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1567" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1567" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1568"/>
-    </row>
-    <row r="1569" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1569" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1569" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C1569" s="53"/>
       <c r="D1569" s="53"/>
       <c r="E1569" s="53"/>
       <c r="F1569" s="53"/>
       <c r="H1569" s="53"/>
+      <c r="I1569" s="53"/>
+      <c r="J1569" s="53"/>
+      <c r="K1569" s="53"/>
+      <c r="L1569" s="53"/>
     </row>
     <row r="1570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1570" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1570" s="53">
         <v>1</v>
-      </c>
-      <c r="B1570" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1570" s="53"/>
       <c r="D1570" s="53"/>
@@ -29255,10 +29352,10 @@
     </row>
     <row r="1571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1571" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1571" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1571" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1571" s="53"/>
       <c r="D1571" s="53"/>
@@ -29267,15 +29364,13 @@
       <c r="H1571" s="53"/>
       <c r="I1571" s="53"/>
       <c r="J1571" s="53"/>
-      <c r="K1571" s="53"/>
-      <c r="L1571" s="53"/>
     </row>
     <row r="1572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1572" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1572" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1572" s="53"/>
       <c r="D1572" s="53"/>
@@ -29284,13 +29379,15 @@
       <c r="H1572" s="53"/>
       <c r="I1572" s="53"/>
       <c r="J1572" s="53"/>
+      <c r="K1572" s="53"/>
+      <c r="L1572" s="53"/>
     </row>
     <row r="1573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1573" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1573" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1573" s="53"/>
       <c r="D1573" s="53"/>
@@ -29302,13 +29399,11 @@
       <c r="K1573" s="53"/>
       <c r="L1573" s="53"/>
     </row>
-    <row r="1574" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1574" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1574" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1574" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1574" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1574" s="53"/>
       <c r="C1574" s="53"/>
       <c r="D1574" s="53"/>
       <c r="E1574" s="53"/>
@@ -29319,122 +29414,124 @@
       <c r="K1574" s="53"/>
       <c r="L1574" s="53"/>
     </row>
-    <row r="1575" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1575" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1575" s="53"/>
-      <c r="C1575" s="53"/>
-      <c r="D1575" s="53"/>
-      <c r="E1575" s="53"/>
-      <c r="F1575" s="53"/>
-      <c r="H1575" s="53"/>
+    <row r="1575" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1575" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1575" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1575" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1575" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1575" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1575" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1575" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1575" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1575" s="53"/>
       <c r="J1575" s="53"/>
       <c r="K1575" s="53"/>
-      <c r="L1575" s="53"/>
     </row>
     <row r="1576" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1576" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1576" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1576" s="53" t="s">
+      <c r="A1576" s="53" t="str">
+        <f>B1568</f>
+        <v>non-renewable waste, burned in industrial furnace</v>
+      </c>
+      <c r="B1576" s="53">
         <v>1</v>
       </c>
-      <c r="D1576" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1576" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1576" s="53" t="str">
+        <f>B1569</f>
+        <v>CH</v>
+      </c>
+      <c r="D1576" s="53" t="str">
+        <f>B1573</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1576" s="53"/>
       <c r="F1576" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1576" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1576" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1576" s="53" t="str">
+        <f>B1571</f>
+        <v>heat</v>
       </c>
       <c r="I1576" s="53"/>
       <c r="J1576" s="53"/>
       <c r="K1576" s="53"/>
+      <c r="L1576" s="53"/>
     </row>
     <row r="1577" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1577" s="53" t="str">
-        <f>B1569</f>
-        <v>renewable waste, burned in industrial furnace</v>
-      </c>
-      <c r="B1577" s="53">
+      <c r="A1577" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1577">
+        <f>1/(1/7.66*0.66*16)</f>
+        <v>0.72537878787878785</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1577" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1578"/>
+    </row>
+    <row r="1579" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1579" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1579" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1579" s="53"/>
+      <c r="D1579" s="53"/>
+      <c r="E1579" s="53"/>
+      <c r="F1579" s="53"/>
+      <c r="H1579" s="53"/>
+    </row>
+    <row r="1580" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1580" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1577" s="53" t="str">
-        <f>B1570</f>
-        <v>CH</v>
-      </c>
-      <c r="D1577" s="53" t="str">
-        <f>B1574</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1577" s="53"/>
-      <c r="F1577" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1577" s="53" t="str">
-        <f>B1572</f>
-        <v>heat</v>
-      </c>
-      <c r="I1577" s="53"/>
-      <c r="J1577" s="53"/>
-      <c r="K1577" s="53"/>
-      <c r="L1577" s="53"/>
-    </row>
-    <row r="1578" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1578" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1578">
-        <f>1/(1/1.01 * 71%*8)</f>
-        <v>0.17781690140845072</v>
-      </c>
-      <c r="C1578" t="s">
+      <c r="B1580" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1578" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1578" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1578" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1579"/>
-    </row>
-    <row r="1580" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1580" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1580" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C1580" s="53"/>
       <c r="D1580" s="53"/>
       <c r="E1580" s="53"/>
       <c r="F1580" s="53"/>
       <c r="H1580" s="53"/>
+      <c r="I1580" s="53"/>
+      <c r="J1580" s="53"/>
+      <c r="K1580" s="53"/>
+      <c r="L1580" s="53"/>
     </row>
     <row r="1581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1581" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1581" s="53">
         <v>1</v>
-      </c>
-      <c r="B1581" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1581" s="53"/>
       <c r="D1581" s="53"/>
@@ -29448,10 +29545,10 @@
     </row>
     <row r="1582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1582" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1582" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1582" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1582" s="53"/>
       <c r="D1582" s="53"/>
@@ -29460,15 +29557,13 @@
       <c r="H1582" s="53"/>
       <c r="I1582" s="53"/>
       <c r="J1582" s="53"/>
-      <c r="K1582" s="53"/>
-      <c r="L1582" s="53"/>
     </row>
     <row r="1583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1583" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1583" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1583" s="53"/>
       <c r="D1583" s="53"/>
@@ -29477,13 +29572,15 @@
       <c r="H1583" s="53"/>
       <c r="I1583" s="53"/>
       <c r="J1583" s="53"/>
+      <c r="K1583" s="53"/>
+      <c r="L1583" s="53"/>
     </row>
     <row r="1584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1584" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1584" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1584" s="53"/>
       <c r="D1584" s="53"/>
@@ -29495,13 +29592,11 @@
       <c r="K1584" s="53"/>
       <c r="L1584" s="53"/>
     </row>
-    <row r="1585" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1585" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1585" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1585" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1585" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1585" s="53"/>
       <c r="C1585" s="53"/>
       <c r="D1585" s="53"/>
       <c r="E1585" s="53"/>
@@ -29512,122 +29607,124 @@
       <c r="K1585" s="53"/>
       <c r="L1585" s="53"/>
     </row>
-    <row r="1586" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1586" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1586" s="53"/>
-      <c r="C1586" s="53"/>
-      <c r="D1586" s="53"/>
-      <c r="E1586" s="53"/>
-      <c r="F1586" s="53"/>
-      <c r="H1586" s="53"/>
+    <row r="1586" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1586" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1586" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1586" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1586" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1586" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1586" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1586" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1586" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1586" s="53"/>
       <c r="J1586" s="53"/>
       <c r="K1586" s="53"/>
-      <c r="L1586" s="53"/>
     </row>
     <row r="1587" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1587" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1587" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1587" s="53" t="s">
+      <c r="A1587" s="53" t="str">
+        <f>B1579</f>
+        <v>renewable waste, burned in industrial furnace</v>
+      </c>
+      <c r="B1587" s="53">
         <v>1</v>
       </c>
-      <c r="D1587" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1587" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1587" s="53" t="str">
+        <f>B1580</f>
+        <v>CH</v>
+      </c>
+      <c r="D1587" s="53" t="str">
+        <f>B1584</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1587" s="53"/>
       <c r="F1587" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1587" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1587" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1587" s="53" t="str">
+        <f>B1582</f>
+        <v>heat</v>
       </c>
       <c r="I1587" s="53"/>
       <c r="J1587" s="53"/>
       <c r="K1587" s="53"/>
+      <c r="L1587" s="53"/>
     </row>
     <row r="1588" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1588" s="53" t="str">
-        <f>B1580</f>
-        <v>solar energy, from industrial hot water tank</v>
-      </c>
-      <c r="B1588" s="53">
+      <c r="A1588" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1588">
+        <f>1/(1/1.01 * 71%*8)</f>
+        <v>0.17781690140845072</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1588" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1589"/>
+    </row>
+    <row r="1590" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1590" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1590" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1590" s="53"/>
+      <c r="D1590" s="53"/>
+      <c r="E1590" s="53"/>
+      <c r="F1590" s="53"/>
+      <c r="H1590" s="53"/>
+    </row>
+    <row r="1591" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1591" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1588" s="53" t="str">
-        <f>B1581</f>
-        <v>CH</v>
-      </c>
-      <c r="D1588" s="53" t="str">
-        <f>B1585</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1588" s="53"/>
-      <c r="F1588" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1588" s="53" t="str">
-        <f>B1583</f>
-        <v>heat</v>
-      </c>
-      <c r="I1588" s="53"/>
-      <c r="J1588" s="53"/>
-      <c r="K1588" s="53"/>
-      <c r="L1588" s="53"/>
-    </row>
-    <row r="1589" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1589" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1589">
-        <f>1/0.28851</f>
-        <v>3.4660843644934318</v>
-      </c>
-      <c r="C1589" t="s">
+      <c r="B1591" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="D1589" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1589" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1589" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1590"/>
-    </row>
-    <row r="1591" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1591" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1591" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C1591" s="53"/>
       <c r="D1591" s="53"/>
       <c r="E1591" s="53"/>
       <c r="F1591" s="53"/>
       <c r="H1591" s="53"/>
+      <c r="I1591" s="53"/>
+      <c r="J1591" s="53"/>
+      <c r="K1591" s="53"/>
+      <c r="L1591" s="53"/>
     </row>
     <row r="1592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1592" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1592" s="53">
         <v>1</v>
-      </c>
-      <c r="B1592" s="53" t="s">
-        <v>104</v>
       </c>
       <c r="C1592" s="53"/>
       <c r="D1592" s="53"/>
@@ -29641,10 +29738,10 @@
     </row>
     <row r="1593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1593" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1593" s="53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B1593" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="C1593" s="53"/>
       <c r="D1593" s="53"/>
@@ -29653,15 +29750,13 @@
       <c r="H1593" s="53"/>
       <c r="I1593" s="53"/>
       <c r="J1593" s="53"/>
-      <c r="K1593" s="53"/>
-      <c r="L1593" s="53"/>
     </row>
     <row r="1594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1594" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1594" s="53" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C1594" s="53"/>
       <c r="D1594" s="53"/>
@@ -29670,13 +29765,15 @@
       <c r="H1594" s="53"/>
       <c r="I1594" s="53"/>
       <c r="J1594" s="53"/>
+      <c r="K1594" s="53"/>
+      <c r="L1594" s="53"/>
     </row>
     <row r="1595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1595" s="53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1595" s="53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1595" s="53"/>
       <c r="D1595" s="53"/>
@@ -29688,13 +29785,11 @@
       <c r="K1595" s="53"/>
       <c r="L1595" s="53"/>
     </row>
-    <row r="1596" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1596" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1596" s="53" t="s">
-        <v>17</v>
-      </c>
+    <row r="1596" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1596" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1596" s="53"/>
       <c r="C1596" s="53"/>
       <c r="D1596" s="53"/>
       <c r="E1596" s="53"/>
@@ -29705,138 +29800,141 @@
       <c r="K1596" s="53"/>
       <c r="L1596" s="53"/>
     </row>
-    <row r="1597" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1597" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1597" s="53"/>
-      <c r="C1597" s="53"/>
-      <c r="D1597" s="53"/>
-      <c r="E1597" s="53"/>
-      <c r="F1597" s="53"/>
-      <c r="H1597" s="53"/>
+    <row r="1597" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1597" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1597" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1597" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1597" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1597" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1597" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1597" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1597" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1597" s="53"/>
       <c r="J1597" s="53"/>
       <c r="K1597" s="53"/>
-      <c r="L1597" s="53"/>
     </row>
     <row r="1598" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1598" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1598" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1598" s="53" t="s">
+      <c r="A1598" s="53" t="str">
+        <f>B1590</f>
+        <v>solar energy, from industrial hot water tank</v>
+      </c>
+      <c r="B1598" s="53">
         <v>1</v>
       </c>
-      <c r="D1598" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1598" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="C1598" s="53" t="str">
+        <f>B1591</f>
+        <v>CH</v>
+      </c>
+      <c r="D1598" s="53" t="str">
+        <f>B1595</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1598" s="53"/>
       <c r="F1598" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1598" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1598" s="53" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H1598" s="53" t="str">
+        <f>B1593</f>
+        <v>heat</v>
       </c>
       <c r="I1598" s="53"/>
       <c r="J1598" s="53"/>
       <c r="K1598" s="53"/>
+      <c r="L1598" s="53"/>
     </row>
     <row r="1599" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1599" s="53" t="str">
-        <f>B1591</f>
-        <v>heat production, from hydrogen-fired one gigawatt gas turbine</v>
-      </c>
-      <c r="B1599" s="53">
+      <c r="A1599" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1599">
+        <f>1/0.28851</f>
+        <v>3.4660843644934318</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1599" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1599" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1600"/>
+    </row>
+    <row r="1601" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1601" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1601" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1601" s="53"/>
+      <c r="D1601" s="53"/>
+      <c r="E1601" s="53"/>
+      <c r="F1601" s="53"/>
+      <c r="H1601" s="53"/>
+    </row>
+    <row r="1602" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1602" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1599" s="53" t="str">
-        <f>B1592</f>
-        <v>CH</v>
-      </c>
-      <c r="D1599" s="53" t="str">
-        <f>B1596</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1599" s="53"/>
-      <c r="F1599" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1599" s="53" t="str">
-        <f>B1594</f>
-        <v>heat</v>
-      </c>
-      <c r="I1599" s="53"/>
-      <c r="J1599" s="53"/>
-      <c r="K1599" s="53"/>
-      <c r="L1599" s="53"/>
-    </row>
-    <row r="1600" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1600" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1600" s="3">
-        <v>3.8580555555555498E-12</v>
-      </c>
-      <c r="C1600" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1600" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1600" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1600" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1601" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1601">
-        <v>8.7719298245613996E-3</v>
-      </c>
-      <c r="C1601" s="53" t="s">
+      <c r="B1602" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D1601" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1601" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1601" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1603" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1603" s="1" t="s">
-        <v>335</v>
+      <c r="C1602" s="53"/>
+      <c r="D1602" s="53"/>
+      <c r="E1602" s="53"/>
+      <c r="F1602" s="53"/>
+      <c r="H1602" s="53"/>
+      <c r="I1602" s="53"/>
+      <c r="J1602" s="53"/>
+      <c r="K1602" s="53"/>
+      <c r="L1602" s="53"/>
+    </row>
+    <row r="1603" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1603" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1603" s="53">
+        <v>1</v>
       </c>
       <c r="C1603" s="53"/>
       <c r="D1603" s="53"/>
       <c r="E1603" s="53"/>
       <c r="F1603" s="53"/>
       <c r="H1603" s="53"/>
+      <c r="I1603" s="53"/>
+      <c r="J1603" s="53"/>
+      <c r="K1603" s="53"/>
+      <c r="L1603" s="53"/>
     </row>
     <row r="1604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1604" s="53" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1604" s="53" t="s">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="C1604" s="53"/>
       <c r="D1604" s="53"/>
@@ -29845,15 +29943,13 @@
       <c r="H1604" s="53"/>
       <c r="I1604" s="53"/>
       <c r="J1604" s="53"/>
-      <c r="K1604" s="53"/>
-      <c r="L1604" s="53"/>
     </row>
     <row r="1605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1605" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1605" s="53">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B1605" s="53" t="s">
+        <v>5</v>
       </c>
       <c r="C1605" s="53"/>
       <c r="D1605" s="53"/>
@@ -29867,10 +29963,10 @@
     </row>
     <row r="1606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1606" s="53" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1606" s="53" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="C1606" s="53"/>
       <c r="D1606" s="53"/>
@@ -29879,14 +29975,14 @@
       <c r="H1606" s="53"/>
       <c r="I1606" s="53"/>
       <c r="J1606" s="53"/>
-    </row>
-    <row r="1607" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1607" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1607" s="53" t="s">
-        <v>5</v>
-      </c>
+      <c r="K1606" s="53"/>
+      <c r="L1606" s="53"/>
+    </row>
+    <row r="1607" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1607" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1607" s="53"/>
       <c r="C1607" s="53"/>
       <c r="D1607" s="53"/>
       <c r="E1607" s="53"/>
@@ -29899,136 +29995,183 @@
     </row>
     <row r="1608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1608" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1608" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1608" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1608" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1608" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1608" s="53"/>
-      <c r="D1608" s="53"/>
-      <c r="E1608" s="53"/>
-      <c r="F1608" s="53"/>
-      <c r="H1608" s="53"/>
+      <c r="E1608" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1608" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1608" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1608" s="53" t="s">
+        <v>3</v>
+      </c>
       <c r="I1608" s="53"/>
       <c r="J1608" s="53"/>
       <c r="K1608" s="53"/>
-      <c r="L1608" s="53"/>
-    </row>
-    <row r="1609" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1609" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1609" s="53"/>
-      <c r="C1609" s="53"/>
-      <c r="D1609" s="53"/>
+    </row>
+    <row r="1609" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1609" s="53" t="str">
+        <f>B1601</f>
+        <v>hydrogen burned, in hydrogen boiler</v>
+      </c>
+      <c r="B1609" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1609" s="53" t="str">
+        <f>B1602</f>
+        <v>CH</v>
+      </c>
+      <c r="D1609" s="53" t="str">
+        <f>B1606</f>
+        <v>megajoule</v>
+      </c>
       <c r="E1609" s="53"/>
-      <c r="F1609" s="53"/>
-      <c r="H1609" s="53"/>
+      <c r="F1609" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1609" s="53" t="str">
+        <f>B1604</f>
+        <v>heat</v>
+      </c>
       <c r="I1609" s="53"/>
       <c r="J1609" s="53"/>
       <c r="K1609" s="53"/>
       <c r="L1609" s="53"/>
     </row>
     <row r="1610" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1610" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1610" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1610" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1610" s="53" t="s">
+      <c r="A1610" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1610" s="55">
+        <v>4.4004494642869032E-7</v>
+      </c>
+      <c r="C1610" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1610" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E1610" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1610" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1610" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1610" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1610" s="53"/>
-      <c r="J1610" s="53"/>
-      <c r="K1610" s="53"/>
+      <c r="F1610" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1610" s="56" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="1611" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1611" s="53" t="str">
-        <f>B1603</f>
-        <v>hydrogen, burned in industrial gas turbine 1GW</v>
-      </c>
-      <c r="B1611" s="53">
-        <v>1</v>
-      </c>
-      <c r="C1611" s="53" t="str">
-        <f>B1604</f>
-        <v>CH</v>
-      </c>
-      <c r="D1611" s="53" t="str">
-        <f>B1608</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1611" s="53"/>
-      <c r="F1611" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1611" s="53" t="str">
-        <f>B1606</f>
-        <v>heat</v>
-      </c>
-      <c r="I1611" s="53"/>
-      <c r="J1611" s="53"/>
-      <c r="K1611" s="53"/>
-      <c r="L1611" s="53"/>
+      <c r="A1611" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1611" s="55">
+        <v>8.8008989285738064E-7</v>
+      </c>
+      <c r="C1611" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1611" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1611" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1611" s="56" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="1612" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1612" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1612">
-        <f>1/(0.00877*120)</f>
-        <v>0.9502090459901178</v>
-      </c>
-      <c r="C1612" t="s">
+      <c r="A1612" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1612" s="56">
+        <v>8.1068656716417958E-4</v>
+      </c>
+      <c r="C1612" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D1612" t="s">
-        <v>17</v>
+      <c r="D1612" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="F1612" t="s">
         <v>18</v>
       </c>
-      <c r="H1612" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1613"/>
-    </row>
-    <row r="1614" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1614" s="1"/>
-      <c r="B1614" s="1"/>
+      <c r="H1612" s="56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1613" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1613" s="57">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C1613" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1613" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1613" s="53"/>
+      <c r="F1613" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1613" s="56" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1614" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1614" s="54">
+        <v>7.4626865671641873E-5</v>
+      </c>
       <c r="C1614" s="53"/>
-      <c r="D1614" s="53"/>
-      <c r="E1614" s="53"/>
-      <c r="F1614" s="53"/>
-      <c r="G1614" s="53"/>
+      <c r="D1614" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1614" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1614" s="56" t="s">
+        <v>27</v>
+      </c>
       <c r="H1614" s="53"/>
+      <c r="I1614" s="53"/>
+      <c r="J1614" s="53"/>
+      <c r="K1614" s="53"/>
+      <c r="L1614" s="53"/>
     </row>
     <row r="1615" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1615" s="53"/>
-      <c r="B1615" s="53"/>
+      <c r="A1615" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1615" s="54">
+        <v>7.669983416252073E-6</v>
+      </c>
       <c r="C1615" s="53"/>
-      <c r="D1615" s="53"/>
-      <c r="E1615" s="53"/>
-      <c r="F1615" s="53"/>
-      <c r="G1615" s="53"/>
+      <c r="D1615" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1615" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1615" s="56" t="s">
+        <v>27</v>
+      </c>
       <c r="H1615" s="53"/>
       <c r="I1615" s="53"/>
       <c r="J1615" s="53"/>
@@ -30036,18 +30179,25 @@
       <c r="L1615" s="53"/>
     </row>
     <row r="1616" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1616" s="53"/>
-      <c r="B1616" s="53"/>
+      <c r="A1616" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1616" s="54">
+        <v>4.1459369817577878E-5</v>
+      </c>
       <c r="C1616" s="53"/>
-      <c r="D1616" s="53"/>
-      <c r="E1616" s="53"/>
-      <c r="F1616" s="53"/>
-      <c r="G1616" s="53"/>
+      <c r="D1616" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1616" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1616" s="56" t="s">
+        <v>27</v>
+      </c>
       <c r="H1616" s="53"/>
       <c r="I1616" s="53"/>
       <c r="J1616" s="53"/>
-      <c r="K1616" s="53"/>
-      <c r="L1616" s="53"/>
     </row>
     <row r="1617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1617" s="53"/>
@@ -30056,28 +30206,33 @@
       <c r="D1617" s="53"/>
       <c r="E1617" s="53"/>
       <c r="F1617" s="53"/>
-      <c r="G1617" s="53"/>
       <c r="H1617" s="53"/>
       <c r="I1617" s="53"/>
       <c r="J1617" s="53"/>
-    </row>
-    <row r="1618" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1618" s="53"/>
-      <c r="B1618" s="53"/>
+      <c r="K1617" s="53"/>
+      <c r="L1617" s="53"/>
+    </row>
+    <row r="1618" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1618" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1618" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C1618" s="53"/>
       <c r="D1618" s="53"/>
       <c r="E1618" s="53"/>
       <c r="F1618" s="53"/>
       <c r="G1618" s="53"/>
       <c r="H1618" s="53"/>
-      <c r="I1618" s="53"/>
-      <c r="J1618" s="53"/>
-      <c r="K1618" s="53"/>
-      <c r="L1618" s="53"/>
     </row>
     <row r="1619" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1619" s="53"/>
-      <c r="B1619" s="53"/>
+      <c r="A1619" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1619" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="C1619" s="53"/>
       <c r="D1619" s="53"/>
       <c r="E1619" s="53"/>
@@ -30089,9 +30244,13 @@
       <c r="K1619" s="53"/>
       <c r="L1619" s="53"/>
     </row>
-    <row r="1620" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1620" s="1"/>
-      <c r="B1620" s="53"/>
+    <row r="1620" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1620" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1620" s="53">
+        <v>1</v>
+      </c>
       <c r="C1620" s="53"/>
       <c r="D1620" s="53"/>
       <c r="E1620" s="53"/>
@@ -30104,8 +30263,12 @@
       <c r="L1620" s="53"/>
     </row>
     <row r="1621" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1621" s="53"/>
-      <c r="B1621" s="53"/>
+      <c r="A1621" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1621" s="53" t="s">
+        <v>292</v>
+      </c>
       <c r="C1621" s="53"/>
       <c r="D1621" s="53"/>
       <c r="E1621" s="53"/>
@@ -30114,11 +30277,14 @@
       <c r="H1621" s="53"/>
       <c r="I1621" s="53"/>
       <c r="J1621" s="53"/>
-      <c r="K1621" s="53"/>
     </row>
     <row r="1622" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1622" s="53"/>
-      <c r="B1622" s="53"/>
+      <c r="A1622" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1622" s="53" t="s">
+        <v>5</v>
+      </c>
       <c r="C1622" s="53"/>
       <c r="D1622" s="53"/>
       <c r="E1622" s="53"/>
@@ -30131,8 +30297,2261 @@
       <c r="L1622" s="53"/>
     </row>
     <row r="1623" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1623" s="53"/>
-      <c r="B1623"/>
+      <c r="A1623" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1623" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1623" s="53"/>
+      <c r="D1623" s="53"/>
+      <c r="E1623" s="53"/>
+      <c r="F1623" s="53"/>
+      <c r="G1623" s="53"/>
+      <c r="H1623" s="53"/>
+      <c r="I1623" s="53"/>
+      <c r="J1623" s="53"/>
+      <c r="K1623" s="53"/>
+      <c r="L1623" s="53"/>
+    </row>
+    <row r="1624" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1624" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1624" s="53"/>
+      <c r="C1624" s="53"/>
+      <c r="D1624" s="53"/>
+      <c r="E1624" s="53"/>
+      <c r="F1624" s="53"/>
+      <c r="G1624" s="53"/>
+      <c r="H1624" s="53"/>
+      <c r="I1624" s="53"/>
+      <c r="J1624" s="53"/>
+      <c r="K1624" s="53"/>
+      <c r="L1624" s="53"/>
+    </row>
+    <row r="1625" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1625" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1625" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1625" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1625" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1625" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1625" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1625" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1625" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1625" s="53"/>
+      <c r="J1625" s="53"/>
+      <c r="K1625" s="53"/>
+    </row>
+    <row r="1626" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1626" s="53" t="str">
+        <f>B1618</f>
+        <v>electricity, used in residential electric boiler</v>
+      </c>
+      <c r="B1626" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1626" s="53" t="str">
+        <f>B1619</f>
+        <v>CH</v>
+      </c>
+      <c r="D1626" s="53" t="str">
+        <f>B1623</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1626" s="53"/>
+      <c r="F1626" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1626" s="53" t="str">
+        <f>B1621</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="I1626" s="53"/>
+      <c r="J1626" s="53"/>
+      <c r="K1626" s="53"/>
+      <c r="L1626" s="53"/>
+    </row>
+    <row r="1627" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1627" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1627">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1627" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1627" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1628" s="53"/>
+      <c r="B1628"/>
+    </row>
+    <row r="1629" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1629" s="53"/>
+    </row>
+    <row r="1630" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1630" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1630" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1630" s="53"/>
+      <c r="D1630" s="53"/>
+      <c r="E1630" s="53"/>
+      <c r="F1630" s="53"/>
+      <c r="G1630" s="53"/>
+      <c r="H1630" s="53"/>
+    </row>
+    <row r="1631" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1631" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1631" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1631" s="53"/>
+      <c r="D1631" s="53"/>
+      <c r="E1631" s="53"/>
+      <c r="F1631" s="53"/>
+      <c r="G1631" s="53"/>
+      <c r="H1631" s="53"/>
+      <c r="I1631" s="53"/>
+      <c r="J1631" s="53"/>
+      <c r="K1631" s="53"/>
+      <c r="L1631" s="53"/>
+    </row>
+    <row r="1632" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1632" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1632" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1632" s="53"/>
+      <c r="D1632" s="53"/>
+      <c r="E1632" s="53"/>
+      <c r="F1632" s="53"/>
+      <c r="G1632" s="53"/>
+      <c r="H1632" s="53"/>
+      <c r="I1632" s="53"/>
+      <c r="J1632" s="53"/>
+      <c r="K1632" s="53"/>
+      <c r="L1632" s="53"/>
+    </row>
+    <row r="1633" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1633" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1633" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1633" s="53"/>
+      <c r="D1633" s="53"/>
+      <c r="E1633" s="53"/>
+      <c r="F1633" s="53"/>
+      <c r="G1633" s="53"/>
+      <c r="H1633" s="53"/>
+      <c r="I1633" s="53"/>
+      <c r="J1633" s="53"/>
+    </row>
+    <row r="1634" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1634" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1634" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1634" s="53"/>
+      <c r="D1634" s="53"/>
+      <c r="E1634" s="53"/>
+      <c r="F1634" s="53"/>
+      <c r="G1634" s="53"/>
+      <c r="H1634" s="53"/>
+      <c r="I1634" s="53"/>
+      <c r="J1634" s="53"/>
+      <c r="K1634" s="53"/>
+      <c r="L1634" s="53"/>
+    </row>
+    <row r="1635" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1635" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1635" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1635" s="53"/>
+      <c r="D1635" s="53"/>
+      <c r="E1635" s="53"/>
+      <c r="F1635" s="53"/>
+      <c r="G1635" s="53"/>
+      <c r="H1635" s="53"/>
+      <c r="I1635" s="53"/>
+      <c r="J1635" s="53"/>
+      <c r="K1635" s="53"/>
+      <c r="L1635" s="53"/>
+    </row>
+    <row r="1636" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1636" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1636" s="53"/>
+      <c r="C1636" s="53"/>
+      <c r="D1636" s="53"/>
+      <c r="E1636" s="53"/>
+      <c r="F1636" s="53"/>
+      <c r="G1636" s="53"/>
+      <c r="H1636" s="53"/>
+      <c r="I1636" s="53"/>
+      <c r="J1636" s="53"/>
+      <c r="K1636" s="53"/>
+      <c r="L1636" s="53"/>
+    </row>
+    <row r="1637" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1637" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1637" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1637" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1637" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1637" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1637" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1637" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1637" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1637" s="53"/>
+      <c r="J1637" s="53"/>
+      <c r="K1637" s="53"/>
+    </row>
+    <row r="1638" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1638" s="53" t="str">
+        <f>B1630</f>
+        <v>electricity, used in residential heat pump</v>
+      </c>
+      <c r="B1638" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1638" s="53" t="str">
+        <f>B1631</f>
+        <v>CH</v>
+      </c>
+      <c r="D1638" s="53" t="str">
+        <f>B1635</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1638" s="53"/>
+      <c r="F1638" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1638" s="53" t="str">
+        <f>B1633</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="I1638" s="53"/>
+      <c r="J1638" s="53"/>
+      <c r="K1638" s="53"/>
+      <c r="L1638" s="53"/>
+    </row>
+    <row r="1639" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1639" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1639" s="2">
+        <f>1/0.0925925925925926/3.6</f>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1639" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1639" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1640" s="53"/>
+      <c r="B1640"/>
+    </row>
+    <row r="1641" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1641" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1641" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1641" s="53"/>
+      <c r="D1641" s="53"/>
+      <c r="E1641" s="53"/>
+      <c r="F1641" s="53"/>
+      <c r="G1641" s="53"/>
+      <c r="H1641" s="53"/>
+    </row>
+    <row r="1642" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1642" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1642" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1642" s="53"/>
+      <c r="D1642" s="53"/>
+      <c r="E1642" s="53"/>
+      <c r="F1642" s="53"/>
+      <c r="G1642" s="53"/>
+      <c r="H1642" s="53"/>
+      <c r="I1642" s="53"/>
+      <c r="J1642" s="53"/>
+      <c r="K1642" s="53"/>
+      <c r="L1642" s="53"/>
+    </row>
+    <row r="1643" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1643" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1643" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1643" s="53"/>
+      <c r="D1643" s="53"/>
+      <c r="E1643" s="53"/>
+      <c r="F1643" s="53"/>
+      <c r="G1643" s="53"/>
+      <c r="H1643" s="53"/>
+      <c r="I1643" s="53"/>
+      <c r="J1643" s="53"/>
+      <c r="K1643" s="53"/>
+      <c r="L1643" s="53"/>
+    </row>
+    <row r="1644" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1644" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1644" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1644" s="53"/>
+      <c r="D1644" s="53"/>
+      <c r="E1644" s="53"/>
+      <c r="F1644" s="53"/>
+      <c r="G1644" s="53"/>
+      <c r="H1644" s="53"/>
+      <c r="I1644" s="53"/>
+      <c r="J1644" s="53"/>
+    </row>
+    <row r="1645" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1645" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1645" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1645" s="53"/>
+      <c r="D1645" s="53"/>
+      <c r="E1645" s="53"/>
+      <c r="F1645" s="53"/>
+      <c r="G1645" s="53"/>
+      <c r="H1645" s="53"/>
+      <c r="I1645" s="53"/>
+      <c r="J1645" s="53"/>
+      <c r="K1645" s="53"/>
+      <c r="L1645" s="53"/>
+    </row>
+    <row r="1646" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1646" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1646" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1646" s="53"/>
+      <c r="D1646" s="53"/>
+      <c r="E1646" s="53"/>
+      <c r="F1646" s="53"/>
+      <c r="G1646" s="53"/>
+      <c r="H1646" s="53"/>
+      <c r="I1646" s="53"/>
+      <c r="J1646" s="53"/>
+      <c r="K1646" s="53"/>
+      <c r="L1646" s="53"/>
+    </row>
+    <row r="1647" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1647" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1647" s="53"/>
+      <c r="C1647" s="53"/>
+      <c r="D1647" s="53"/>
+      <c r="E1647" s="53"/>
+      <c r="F1647" s="53"/>
+      <c r="G1647" s="53"/>
+      <c r="H1647" s="53"/>
+      <c r="I1647" s="53"/>
+      <c r="J1647" s="53"/>
+      <c r="K1647" s="53"/>
+      <c r="L1647" s="53"/>
+    </row>
+    <row r="1648" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1648" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1648" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1648" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1648" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1648" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1648" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1648" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1648" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1648" s="53"/>
+      <c r="J1648" s="53"/>
+      <c r="K1648" s="53"/>
+    </row>
+    <row r="1649" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1649" s="53" t="str">
+        <f>B1641</f>
+        <v>electricity, used in residential electric appliances</v>
+      </c>
+      <c r="B1649" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1649" s="53" t="str">
+        <f>B1642</f>
+        <v>CH</v>
+      </c>
+      <c r="D1649" s="53" t="str">
+        <f>B1646</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1649" s="53"/>
+      <c r="F1649" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1649" s="53" t="str">
+        <f>B1644</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="I1649" s="53"/>
+      <c r="J1649" s="53"/>
+      <c r="K1649" s="53"/>
+      <c r="L1649" s="53"/>
+    </row>
+    <row r="1650" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1650" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1650">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1650" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1650" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1651" s="53"/>
+      <c r="B1651"/>
+    </row>
+    <row r="1652" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1652" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1652" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1652" s="53"/>
+      <c r="D1652" s="53"/>
+      <c r="E1652" s="53"/>
+      <c r="F1652" s="53"/>
+      <c r="G1652" s="53"/>
+      <c r="H1652" s="53"/>
+    </row>
+    <row r="1653" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1653" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1653" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1653" s="53"/>
+      <c r="D1653" s="53"/>
+      <c r="E1653" s="53"/>
+      <c r="F1653" s="53"/>
+      <c r="G1653" s="53"/>
+      <c r="H1653" s="53"/>
+      <c r="I1653" s="53"/>
+      <c r="J1653" s="53"/>
+      <c r="K1653" s="53"/>
+      <c r="L1653" s="53"/>
+    </row>
+    <row r="1654" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1654" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1654" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1654" s="53"/>
+      <c r="D1654" s="53"/>
+      <c r="E1654" s="53"/>
+      <c r="F1654" s="53"/>
+      <c r="G1654" s="53"/>
+      <c r="H1654" s="53"/>
+      <c r="I1654" s="53"/>
+      <c r="J1654" s="53"/>
+      <c r="K1654" s="53"/>
+      <c r="L1654" s="53"/>
+    </row>
+    <row r="1655" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1655" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1655" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1655" s="53"/>
+      <c r="D1655" s="53"/>
+      <c r="E1655" s="53"/>
+      <c r="F1655" s="53"/>
+      <c r="G1655" s="53"/>
+      <c r="H1655" s="53"/>
+      <c r="I1655" s="53"/>
+      <c r="J1655" s="53"/>
+    </row>
+    <row r="1656" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1656" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1656" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1656" s="53"/>
+      <c r="D1656" s="53"/>
+      <c r="E1656" s="53"/>
+      <c r="F1656" s="53"/>
+      <c r="G1656" s="53"/>
+      <c r="H1656" s="53"/>
+      <c r="I1656" s="53"/>
+      <c r="J1656" s="53"/>
+      <c r="K1656" s="53"/>
+      <c r="L1656" s="53"/>
+    </row>
+    <row r="1657" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1657" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1657" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1657" s="53"/>
+      <c r="D1657" s="53"/>
+      <c r="E1657" s="53"/>
+      <c r="F1657" s="53"/>
+      <c r="G1657" s="53"/>
+      <c r="H1657" s="53"/>
+      <c r="I1657" s="53"/>
+      <c r="J1657" s="53"/>
+      <c r="K1657" s="53"/>
+      <c r="L1657" s="53"/>
+    </row>
+    <row r="1658" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1658" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1658" s="53"/>
+      <c r="C1658" s="53"/>
+      <c r="D1658" s="53"/>
+      <c r="E1658" s="53"/>
+      <c r="F1658" s="53"/>
+      <c r="G1658" s="53"/>
+      <c r="H1658" s="53"/>
+      <c r="I1658" s="53"/>
+      <c r="J1658" s="53"/>
+      <c r="K1658" s="53"/>
+      <c r="L1658" s="53"/>
+    </row>
+    <row r="1659" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1659" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1659" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1659" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1659" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1659" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1659" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1659" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1659" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1659" s="53"/>
+      <c r="J1659" s="53"/>
+      <c r="K1659" s="53"/>
+    </row>
+    <row r="1660" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1660" s="53" t="str">
+        <f>B1652</f>
+        <v>light fuel oil, burned in residential 10kW boiler</v>
+      </c>
+      <c r="B1660" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1660" s="53" t="str">
+        <f>B1653</f>
+        <v>CH</v>
+      </c>
+      <c r="D1660" s="53" t="str">
+        <f>B1657</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1660" s="53"/>
+      <c r="F1660" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1660" s="53" t="str">
+        <f>B1655</f>
+        <v>heat</v>
+      </c>
+      <c r="I1660" s="53"/>
+      <c r="J1660" s="53"/>
+      <c r="K1660" s="53"/>
+      <c r="L1660" s="53"/>
+    </row>
+    <row r="1661" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1661" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1661">
+        <f>1/(0.02342*40.1)</f>
+        <v>1.0648017019790403</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1661" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1661" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1663" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1663" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1663" s="53"/>
+      <c r="D1663" s="53"/>
+      <c r="E1663" s="53"/>
+      <c r="F1663" s="53"/>
+      <c r="H1663" s="53"/>
+    </row>
+    <row r="1664" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1664" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1664" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1664" s="53"/>
+      <c r="D1664" s="53"/>
+      <c r="E1664" s="53"/>
+      <c r="F1664" s="53"/>
+      <c r="H1664" s="53"/>
+      <c r="I1664" s="53"/>
+      <c r="J1664" s="53"/>
+      <c r="K1664" s="53"/>
+      <c r="L1664" s="53"/>
+    </row>
+    <row r="1665" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1665" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1665" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1665" s="53"/>
+      <c r="D1665" s="53"/>
+      <c r="E1665" s="53"/>
+      <c r="F1665" s="53"/>
+      <c r="H1665" s="53"/>
+      <c r="I1665" s="53"/>
+      <c r="J1665" s="53"/>
+      <c r="K1665" s="53"/>
+      <c r="L1665" s="53"/>
+    </row>
+    <row r="1666" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1666" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1666" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1666" s="53"/>
+      <c r="D1666" s="53"/>
+      <c r="E1666" s="53"/>
+      <c r="F1666" s="53"/>
+      <c r="H1666" s="53"/>
+      <c r="I1666" s="53"/>
+      <c r="J1666" s="53"/>
+    </row>
+    <row r="1667" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1667" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1667" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1667" s="53"/>
+      <c r="D1667" s="53"/>
+      <c r="E1667" s="53"/>
+      <c r="F1667" s="53"/>
+      <c r="H1667" s="53"/>
+      <c r="I1667" s="53"/>
+      <c r="J1667" s="53"/>
+      <c r="K1667" s="53"/>
+      <c r="L1667" s="53"/>
+    </row>
+    <row r="1668" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1668" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1668" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1668" s="53"/>
+      <c r="D1668" s="53"/>
+      <c r="E1668" s="53"/>
+      <c r="F1668" s="53"/>
+      <c r="H1668" s="53"/>
+      <c r="I1668" s="53"/>
+      <c r="J1668" s="53"/>
+      <c r="K1668" s="53"/>
+      <c r="L1668" s="53"/>
+    </row>
+    <row r="1669" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1669" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1669" s="53"/>
+      <c r="C1669" s="53"/>
+      <c r="D1669" s="53"/>
+      <c r="E1669" s="53"/>
+      <c r="F1669" s="53"/>
+      <c r="H1669" s="53"/>
+      <c r="I1669" s="53"/>
+      <c r="J1669" s="53"/>
+      <c r="K1669" s="53"/>
+      <c r="L1669" s="53"/>
+    </row>
+    <row r="1670" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1670" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1670" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1670" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1670" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1670" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1670" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1670" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1670" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1670" s="53"/>
+      <c r="J1670" s="53"/>
+      <c r="K1670" s="53"/>
+    </row>
+    <row r="1671" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1671" s="53" t="str">
+        <f>B1663</f>
+        <v>natural gas, burned in residential natural gas boiler &lt;100kW</v>
+      </c>
+      <c r="B1671" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1671" s="53" t="str">
+        <f>B1664</f>
+        <v>CH</v>
+      </c>
+      <c r="D1671" s="53" t="str">
+        <f>B1668</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1671" s="53"/>
+      <c r="F1671" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1671" s="53" t="str">
+        <f>B1666</f>
+        <v>heat</v>
+      </c>
+      <c r="I1671" s="53"/>
+      <c r="J1671" s="53"/>
+      <c r="K1671" s="53"/>
+      <c r="L1671" s="53"/>
+    </row>
+    <row r="1672" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1672" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1672">
+        <f>1/(0.025337607*36)</f>
+        <v>1.0963062840850668</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1672" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1672" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1673"/>
+    </row>
+    <row r="1674" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1674" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1674" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1674" s="53"/>
+      <c r="D1674" s="53"/>
+      <c r="E1674" s="53"/>
+      <c r="F1674" s="53"/>
+      <c r="H1674" s="53"/>
+    </row>
+    <row r="1675" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1675" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1675" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1675" s="53"/>
+      <c r="D1675" s="53"/>
+      <c r="E1675" s="53"/>
+      <c r="F1675" s="53"/>
+      <c r="H1675" s="53"/>
+      <c r="I1675" s="53"/>
+      <c r="J1675" s="53"/>
+      <c r="K1675" s="53"/>
+      <c r="L1675" s="53"/>
+    </row>
+    <row r="1676" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1676" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1676" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1676" s="53"/>
+      <c r="D1676" s="53"/>
+      <c r="E1676" s="53"/>
+      <c r="F1676" s="53"/>
+      <c r="H1676" s="53"/>
+      <c r="I1676" s="53"/>
+      <c r="J1676" s="53"/>
+      <c r="K1676" s="53"/>
+      <c r="L1676" s="53"/>
+    </row>
+    <row r="1677" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1677" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1677" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1677" s="53"/>
+      <c r="D1677" s="53"/>
+      <c r="E1677" s="53"/>
+      <c r="F1677" s="53"/>
+      <c r="H1677" s="53"/>
+      <c r="I1677" s="53"/>
+      <c r="J1677" s="53"/>
+    </row>
+    <row r="1678" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1678" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1678" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1678" s="53"/>
+      <c r="D1678" s="53"/>
+      <c r="E1678" s="53"/>
+      <c r="F1678" s="53"/>
+      <c r="H1678" s="53"/>
+      <c r="I1678" s="53"/>
+      <c r="J1678" s="53"/>
+      <c r="K1678" s="53"/>
+      <c r="L1678" s="53"/>
+    </row>
+    <row r="1679" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1679" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1679" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1679" s="53"/>
+      <c r="D1679" s="53"/>
+      <c r="E1679" s="53"/>
+      <c r="F1679" s="53"/>
+      <c r="H1679" s="53"/>
+      <c r="I1679" s="53"/>
+      <c r="J1679" s="53"/>
+      <c r="K1679" s="53"/>
+      <c r="L1679" s="53"/>
+    </row>
+    <row r="1680" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1680" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1680" s="53"/>
+      <c r="C1680" s="53"/>
+      <c r="D1680" s="53"/>
+      <c r="E1680" s="53"/>
+      <c r="F1680" s="53"/>
+      <c r="H1680" s="53"/>
+      <c r="I1680" s="53"/>
+      <c r="J1680" s="53"/>
+      <c r="K1680" s="53"/>
+      <c r="L1680" s="53"/>
+    </row>
+    <row r="1681" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1681" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1681" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1681" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1681" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1681" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1681" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1681" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1681" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1681" s="53"/>
+      <c r="J1681" s="53"/>
+      <c r="K1681" s="53"/>
+    </row>
+    <row r="1682" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1682" s="53" t="str">
+        <f>B1674</f>
+        <v>hard coal, burned in hard coal residential boiler 5-15kW</v>
+      </c>
+      <c r="B1682" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1682" s="53" t="str">
+        <f>B1675</f>
+        <v>CH</v>
+      </c>
+      <c r="D1682" s="53" t="str">
+        <f>B1679</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1682" s="53"/>
+      <c r="F1682" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1682" s="53" t="str">
+        <f>B1677</f>
+        <v>heat</v>
+      </c>
+      <c r="I1682" s="53"/>
+      <c r="J1682" s="53"/>
+      <c r="K1682" s="53"/>
+      <c r="L1682" s="53"/>
+    </row>
+    <row r="1683" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1683" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1683">
+        <f>1/1.43</f>
+        <v>0.69930069930069938</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1683" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1683" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1684"/>
+    </row>
+    <row r="1685" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1685" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1685" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1685" s="53"/>
+      <c r="D1685" s="53"/>
+      <c r="E1685" s="53"/>
+      <c r="F1685" s="53"/>
+      <c r="H1685" s="53"/>
+    </row>
+    <row r="1686" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1686" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1686" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1686" s="53"/>
+      <c r="D1686" s="53"/>
+      <c r="E1686" s="53"/>
+      <c r="F1686" s="53"/>
+      <c r="H1686" s="53"/>
+      <c r="I1686" s="53"/>
+      <c r="J1686" s="53"/>
+      <c r="K1686" s="53"/>
+      <c r="L1686" s="53"/>
+    </row>
+    <row r="1687" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1687" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1687" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1687" s="53"/>
+      <c r="D1687" s="53"/>
+      <c r="E1687" s="53"/>
+      <c r="F1687" s="53"/>
+      <c r="H1687" s="53"/>
+      <c r="I1687" s="53"/>
+      <c r="J1687" s="53"/>
+      <c r="K1687" s="53"/>
+      <c r="L1687" s="53"/>
+    </row>
+    <row r="1688" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1688" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1688" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1688" s="53"/>
+      <c r="D1688" s="53"/>
+      <c r="E1688" s="53"/>
+      <c r="F1688" s="53"/>
+      <c r="H1688" s="53"/>
+      <c r="I1688" s="53"/>
+      <c r="J1688" s="53"/>
+    </row>
+    <row r="1689" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1689" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1689" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1689" s="53"/>
+      <c r="D1689" s="53"/>
+      <c r="E1689" s="53"/>
+      <c r="F1689" s="53"/>
+      <c r="H1689" s="53"/>
+      <c r="I1689" s="53"/>
+      <c r="J1689" s="53"/>
+      <c r="K1689" s="53"/>
+      <c r="L1689" s="53"/>
+    </row>
+    <row r="1690" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1690" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1690" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1690" s="53"/>
+      <c r="D1690" s="53"/>
+      <c r="E1690" s="53"/>
+      <c r="F1690" s="53"/>
+      <c r="H1690" s="53"/>
+      <c r="I1690" s="53"/>
+      <c r="J1690" s="53"/>
+      <c r="K1690" s="53"/>
+      <c r="L1690" s="53"/>
+    </row>
+    <row r="1691" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1691" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1691" s="53"/>
+      <c r="C1691" s="53"/>
+      <c r="D1691" s="53"/>
+      <c r="E1691" s="53"/>
+      <c r="F1691" s="53"/>
+      <c r="H1691" s="53"/>
+      <c r="I1691" s="53"/>
+      <c r="J1691" s="53"/>
+      <c r="K1691" s="53"/>
+      <c r="L1691" s="53"/>
+    </row>
+    <row r="1692" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1692" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1692" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1692" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1692" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1692" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1692" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1692" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1692" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1692" s="53"/>
+      <c r="J1692" s="53"/>
+      <c r="K1692" s="53"/>
+    </row>
+    <row r="1693" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1693" s="53" t="str">
+        <f>B1685</f>
+        <v>wood, burned in residential wood stove 5-15kW</v>
+      </c>
+      <c r="B1693" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1693" s="53" t="str">
+        <f>B1686</f>
+        <v>CH</v>
+      </c>
+      <c r="D1693" s="53" t="str">
+        <f>B1690</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1693" s="53"/>
+      <c r="F1693" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1693" s="53" t="str">
+        <f>B1688</f>
+        <v>heat</v>
+      </c>
+      <c r="I1693" s="53"/>
+      <c r="J1693" s="53"/>
+      <c r="K1693" s="53"/>
+      <c r="L1693" s="53"/>
+    </row>
+    <row r="1694" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1694" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1694">
+        <f>1/(0.1078*19.1)</f>
+        <v>0.48567737423384383</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1694" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1694" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1695"/>
+    </row>
+    <row r="1696" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1696" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1696" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1696" s="53"/>
+      <c r="D1696" s="53"/>
+      <c r="E1696" s="53"/>
+      <c r="F1696" s="53"/>
+      <c r="H1696" s="53"/>
+    </row>
+    <row r="1697" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1697" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1697" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1697" s="53"/>
+      <c r="D1697" s="53"/>
+      <c r="E1697" s="53"/>
+      <c r="F1697" s="53"/>
+      <c r="H1697" s="53"/>
+      <c r="I1697" s="53"/>
+      <c r="J1697" s="53"/>
+      <c r="K1697" s="53"/>
+      <c r="L1697" s="53"/>
+    </row>
+    <row r="1698" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1698" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1698" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1698" s="53"/>
+      <c r="D1698" s="53"/>
+      <c r="E1698" s="53"/>
+      <c r="F1698" s="53"/>
+      <c r="H1698" s="53"/>
+      <c r="I1698" s="53"/>
+      <c r="J1698" s="53"/>
+      <c r="K1698" s="53"/>
+      <c r="L1698" s="53"/>
+    </row>
+    <row r="1699" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1699" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1699" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1699" s="53"/>
+      <c r="D1699" s="53"/>
+      <c r="E1699" s="53"/>
+      <c r="F1699" s="53"/>
+      <c r="H1699" s="53"/>
+      <c r="I1699" s="53"/>
+      <c r="J1699" s="53"/>
+    </row>
+    <row r="1700" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1700" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1700" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1700" s="53"/>
+      <c r="D1700" s="53"/>
+      <c r="E1700" s="53"/>
+      <c r="F1700" s="53"/>
+      <c r="H1700" s="53"/>
+      <c r="I1700" s="53"/>
+      <c r="J1700" s="53"/>
+      <c r="K1700" s="53"/>
+      <c r="L1700" s="53"/>
+    </row>
+    <row r="1701" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1701" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1701" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1701" s="53"/>
+      <c r="D1701" s="53"/>
+      <c r="E1701" s="53"/>
+      <c r="F1701" s="53"/>
+      <c r="H1701" s="53"/>
+      <c r="I1701" s="53"/>
+      <c r="J1701" s="53"/>
+      <c r="K1701" s="53"/>
+      <c r="L1701" s="53"/>
+    </row>
+    <row r="1702" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1702" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1702" s="53"/>
+      <c r="C1702" s="53"/>
+      <c r="D1702" s="53"/>
+      <c r="E1702" s="53"/>
+      <c r="F1702" s="53"/>
+      <c r="H1702" s="53"/>
+      <c r="I1702" s="53"/>
+      <c r="J1702" s="53"/>
+      <c r="K1702" s="53"/>
+      <c r="L1702" s="53"/>
+    </row>
+    <row r="1703" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1703" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1703" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1703" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1703" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1703" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1703" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1703" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1703" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1703" s="53"/>
+      <c r="J1703" s="53"/>
+      <c r="K1703" s="53"/>
+    </row>
+    <row r="1704" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1704" s="53" t="str">
+        <f>B1696</f>
+        <v>pellet, burned in residential pellet stove 5-15kW</v>
+      </c>
+      <c r="B1704" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1704" s="53" t="str">
+        <f>B1697</f>
+        <v>CH</v>
+      </c>
+      <c r="D1704" s="53" t="str">
+        <f>B1701</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1704" s="53"/>
+      <c r="F1704" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1704" s="53" t="str">
+        <f>B1699</f>
+        <v>heat</v>
+      </c>
+      <c r="I1704" s="53"/>
+      <c r="J1704" s="53"/>
+      <c r="K1704" s="53"/>
+      <c r="L1704" s="53"/>
+    </row>
+    <row r="1705" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1705" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1705">
+        <f>1/(0.0762357142857144*19.1)</f>
+        <v>0.68676500814552244</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1705" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1705" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1707" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1707" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1707" s="53"/>
+      <c r="D1707" s="53"/>
+      <c r="E1707" s="53"/>
+      <c r="F1707" s="53"/>
+      <c r="H1707" s="53"/>
+    </row>
+    <row r="1708" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1708" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1708" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1708" s="53"/>
+      <c r="D1708" s="53"/>
+      <c r="E1708" s="53"/>
+      <c r="F1708" s="53"/>
+      <c r="H1708" s="53"/>
+      <c r="I1708" s="53"/>
+      <c r="J1708" s="53"/>
+      <c r="K1708" s="53"/>
+      <c r="L1708" s="53"/>
+    </row>
+    <row r="1709" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1709" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1709" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1709" s="53"/>
+      <c r="D1709" s="53"/>
+      <c r="E1709" s="53"/>
+      <c r="F1709" s="53"/>
+      <c r="H1709" s="53"/>
+      <c r="I1709" s="53"/>
+      <c r="J1709" s="53"/>
+      <c r="K1709" s="53"/>
+      <c r="L1709" s="53"/>
+    </row>
+    <row r="1710" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1710" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1710" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1710" s="53"/>
+      <c r="D1710" s="53"/>
+      <c r="E1710" s="53"/>
+      <c r="F1710" s="53"/>
+      <c r="H1710" s="53"/>
+      <c r="I1710" s="53"/>
+      <c r="J1710" s="53"/>
+    </row>
+    <row r="1711" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1711" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1711" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1711" s="53"/>
+      <c r="D1711" s="53"/>
+      <c r="E1711" s="53"/>
+      <c r="F1711" s="53"/>
+      <c r="H1711" s="53"/>
+      <c r="I1711" s="53"/>
+      <c r="J1711" s="53"/>
+      <c r="K1711" s="53"/>
+      <c r="L1711" s="53"/>
+    </row>
+    <row r="1712" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1712" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1712" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1712" s="53"/>
+      <c r="D1712" s="53"/>
+      <c r="E1712" s="53"/>
+      <c r="F1712" s="53"/>
+      <c r="H1712" s="53"/>
+      <c r="I1712" s="53"/>
+      <c r="J1712" s="53"/>
+      <c r="K1712" s="53"/>
+      <c r="L1712" s="53"/>
+    </row>
+    <row r="1713" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1713" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1713" s="53"/>
+      <c r="C1713" s="53"/>
+      <c r="D1713" s="53"/>
+      <c r="E1713" s="53"/>
+      <c r="F1713" s="53"/>
+      <c r="H1713" s="53"/>
+      <c r="I1713" s="53"/>
+      <c r="J1713" s="53"/>
+      <c r="K1713" s="53"/>
+      <c r="L1713" s="53"/>
+    </row>
+    <row r="1714" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1714" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1714" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1714" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1714" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1714" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1714" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1714" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1714" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1714" s="53"/>
+      <c r="J1714" s="53"/>
+      <c r="K1714" s="53"/>
+    </row>
+    <row r="1715" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1715" s="53" t="str">
+        <f>B1707</f>
+        <v>solar energy, from residential hot water tank</v>
+      </c>
+      <c r="B1715" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1715" s="53" t="str">
+        <f>B1708</f>
+        <v>CH</v>
+      </c>
+      <c r="D1715" s="53" t="str">
+        <f>B1712</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1715" s="53"/>
+      <c r="F1715" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1715" s="53" t="str">
+        <f>B1710</f>
+        <v>heat</v>
+      </c>
+      <c r="I1715" s="53"/>
+      <c r="J1715" s="53"/>
+      <c r="K1715" s="53"/>
+      <c r="L1715" s="53"/>
+    </row>
+    <row r="1716" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1716" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1716">
+        <f>1/0.28851</f>
+        <v>3.4660843644934318</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1716" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1716" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1717"/>
+    </row>
+    <row r="1718" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1718" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1718" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1718" s="53"/>
+      <c r="D1718" s="53"/>
+      <c r="E1718" s="53"/>
+      <c r="F1718" s="53"/>
+      <c r="H1718" s="53"/>
+    </row>
+    <row r="1719" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1719" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1719" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1719" s="53"/>
+      <c r="D1719" s="53"/>
+      <c r="E1719" s="53"/>
+      <c r="F1719" s="53"/>
+      <c r="H1719" s="53"/>
+      <c r="I1719" s="53"/>
+      <c r="J1719" s="53"/>
+      <c r="K1719" s="53"/>
+      <c r="L1719" s="53"/>
+    </row>
+    <row r="1720" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1720" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1720" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1720" s="53"/>
+      <c r="D1720" s="53"/>
+      <c r="E1720" s="53"/>
+      <c r="F1720" s="53"/>
+      <c r="H1720" s="53"/>
+      <c r="I1720" s="53"/>
+      <c r="J1720" s="53"/>
+      <c r="K1720" s="53"/>
+      <c r="L1720" s="53"/>
+    </row>
+    <row r="1721" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1721" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1721" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1721" s="53"/>
+      <c r="D1721" s="53"/>
+      <c r="E1721" s="53"/>
+      <c r="F1721" s="53"/>
+      <c r="H1721" s="53"/>
+      <c r="I1721" s="53"/>
+      <c r="J1721" s="53"/>
+    </row>
+    <row r="1722" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1722" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1722" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1722" s="53"/>
+      <c r="D1722" s="53"/>
+      <c r="E1722" s="53"/>
+      <c r="F1722" s="53"/>
+      <c r="H1722" s="53"/>
+      <c r="I1722" s="53"/>
+      <c r="J1722" s="53"/>
+      <c r="K1722" s="53"/>
+      <c r="L1722" s="53"/>
+    </row>
+    <row r="1723" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1723" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1723" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1723" s="53"/>
+      <c r="D1723" s="53"/>
+      <c r="E1723" s="53"/>
+      <c r="F1723" s="53"/>
+      <c r="H1723" s="53"/>
+      <c r="I1723" s="53"/>
+      <c r="J1723" s="53"/>
+      <c r="K1723" s="53"/>
+      <c r="L1723" s="53"/>
+    </row>
+    <row r="1724" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1724" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1724" s="53"/>
+      <c r="C1724" s="53"/>
+      <c r="D1724" s="53"/>
+      <c r="E1724" s="53"/>
+      <c r="F1724" s="53"/>
+      <c r="H1724" s="53"/>
+      <c r="I1724" s="53"/>
+      <c r="J1724" s="53"/>
+      <c r="K1724" s="53"/>
+      <c r="L1724" s="53"/>
+    </row>
+    <row r="1725" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1725" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1725" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1725" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1725" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1725" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1725" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1725" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1725" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1725" s="53"/>
+      <c r="J1725" s="53"/>
+      <c r="K1725" s="53"/>
+    </row>
+    <row r="1726" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1726" s="53" t="str">
+        <f>B1718</f>
+        <v>heat, from on-site residential gas-fired CHP</v>
+      </c>
+      <c r="B1726" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1726" s="53" t="str">
+        <f>B1719</f>
+        <v>CH</v>
+      </c>
+      <c r="D1726" s="53" t="str">
+        <f>B1723</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1726" s="53"/>
+      <c r="F1726" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1726" s="53" t="str">
+        <f>B1721</f>
+        <v>heat</v>
+      </c>
+      <c r="I1726" s="53"/>
+      <c r="J1726" s="53"/>
+      <c r="K1726" s="53"/>
+      <c r="L1726" s="53"/>
+    </row>
+    <row r="1727" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1727" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1727">
+        <f>1/(0.0095*36)</f>
+        <v>2.9239766081871346</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1727" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1728"/>
+    </row>
+    <row r="1729" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1729" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1729" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1729" s="53"/>
+      <c r="D1729" s="53"/>
+      <c r="E1729" s="53"/>
+      <c r="F1729" s="53"/>
+      <c r="H1729" s="53"/>
+    </row>
+    <row r="1730" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1730" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1730" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1730" s="53"/>
+      <c r="D1730" s="53"/>
+      <c r="E1730" s="53"/>
+      <c r="F1730" s="53"/>
+      <c r="H1730" s="53"/>
+      <c r="I1730" s="53"/>
+      <c r="J1730" s="53"/>
+      <c r="K1730" s="53"/>
+      <c r="L1730" s="53"/>
+    </row>
+    <row r="1731" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1731" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1731" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1731" s="53"/>
+      <c r="D1731" s="53"/>
+      <c r="E1731" s="53"/>
+      <c r="F1731" s="53"/>
+      <c r="H1731" s="53"/>
+      <c r="I1731" s="53"/>
+      <c r="J1731" s="53"/>
+      <c r="K1731" s="53"/>
+      <c r="L1731" s="53"/>
+    </row>
+    <row r="1732" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1732" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1732" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1732" s="53"/>
+      <c r="D1732" s="53"/>
+      <c r="E1732" s="53"/>
+      <c r="F1732" s="53"/>
+      <c r="H1732" s="53"/>
+      <c r="I1732" s="53"/>
+      <c r="J1732" s="53"/>
+    </row>
+    <row r="1733" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1733" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1733" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1733" s="53"/>
+      <c r="D1733" s="53"/>
+      <c r="E1733" s="53"/>
+      <c r="F1733" s="53"/>
+      <c r="H1733" s="53"/>
+      <c r="I1733" s="53"/>
+      <c r="J1733" s="53"/>
+      <c r="K1733" s="53"/>
+      <c r="L1733" s="53"/>
+    </row>
+    <row r="1734" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1734" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1734" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1734" s="53"/>
+      <c r="D1734" s="53"/>
+      <c r="E1734" s="53"/>
+      <c r="F1734" s="53"/>
+      <c r="H1734" s="53"/>
+      <c r="I1734" s="53"/>
+      <c r="J1734" s="53"/>
+      <c r="K1734" s="53"/>
+      <c r="L1734" s="53"/>
+    </row>
+    <row r="1735" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1735" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1735" s="53"/>
+      <c r="C1735" s="53"/>
+      <c r="D1735" s="53"/>
+      <c r="E1735" s="53"/>
+      <c r="F1735" s="53"/>
+      <c r="H1735" s="53"/>
+      <c r="I1735" s="53"/>
+      <c r="J1735" s="53"/>
+      <c r="K1735" s="53"/>
+      <c r="L1735" s="53"/>
+    </row>
+    <row r="1736" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1736" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1736" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1736" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1736" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1736" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1736" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1736" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1736" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1736" s="53"/>
+      <c r="J1736" s="53"/>
+      <c r="K1736" s="53"/>
+    </row>
+    <row r="1737" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1737" s="53" t="str">
+        <f>B1729</f>
+        <v>heat, from on-site residential fuel cell CHP</v>
+      </c>
+      <c r="B1737" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1737" s="53" t="str">
+        <f>B1730</f>
+        <v>CH</v>
+      </c>
+      <c r="D1737" s="53" t="str">
+        <f>B1734</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1737" s="53"/>
+      <c r="F1737" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1737" s="53" t="str">
+        <f>B1732</f>
+        <v>heat</v>
+      </c>
+      <c r="I1737" s="53"/>
+      <c r="J1737" s="53"/>
+      <c r="K1737" s="53"/>
+      <c r="L1737" s="53"/>
+    </row>
+    <row r="1738" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1738" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1738">
+        <f>1/(0.011726*1.08*36)</f>
+        <v>2.1934303777122204</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1738" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1739"/>
+    </row>
+    <row r="1740" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1740" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1740" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1740" s="53"/>
+      <c r="D1740" s="53"/>
+      <c r="E1740" s="53"/>
+      <c r="F1740" s="53"/>
+      <c r="H1740" s="53"/>
+    </row>
+    <row r="1741" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1741" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1741" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1741" s="53"/>
+      <c r="D1741" s="53"/>
+      <c r="E1741" s="53"/>
+      <c r="F1741" s="53"/>
+      <c r="H1741" s="53"/>
+      <c r="I1741" s="53"/>
+      <c r="J1741" s="53"/>
+      <c r="K1741" s="53"/>
+      <c r="L1741" s="53"/>
+    </row>
+    <row r="1742" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1742" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1742" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1742" s="53"/>
+      <c r="D1742" s="53"/>
+      <c r="E1742" s="53"/>
+      <c r="F1742" s="53"/>
+      <c r="H1742" s="53"/>
+      <c r="I1742" s="53"/>
+      <c r="J1742" s="53"/>
+      <c r="K1742" s="53"/>
+      <c r="L1742" s="53"/>
+    </row>
+    <row r="1743" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1743" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1743" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1743" s="53"/>
+      <c r="D1743" s="53"/>
+      <c r="E1743" s="53"/>
+      <c r="F1743" s="53"/>
+      <c r="H1743" s="53"/>
+      <c r="I1743" s="53"/>
+      <c r="J1743" s="53"/>
+    </row>
+    <row r="1744" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1744" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1744" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1744" s="53"/>
+      <c r="D1744" s="53"/>
+      <c r="E1744" s="53"/>
+      <c r="F1744" s="53"/>
+      <c r="H1744" s="53"/>
+      <c r="I1744" s="53"/>
+      <c r="J1744" s="53"/>
+      <c r="K1744" s="53"/>
+      <c r="L1744" s="53"/>
+    </row>
+    <row r="1745" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1745" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1745" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1745" s="53"/>
+      <c r="D1745" s="53"/>
+      <c r="E1745" s="53"/>
+      <c r="F1745" s="53"/>
+      <c r="H1745" s="53"/>
+      <c r="I1745" s="53"/>
+      <c r="J1745" s="53"/>
+      <c r="K1745" s="53"/>
+      <c r="L1745" s="53"/>
+    </row>
+    <row r="1746" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1746" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1746" s="53"/>
+      <c r="C1746" s="53"/>
+      <c r="D1746" s="53"/>
+      <c r="E1746" s="53"/>
+      <c r="F1746" s="53"/>
+      <c r="H1746" s="53"/>
+      <c r="I1746" s="53"/>
+      <c r="J1746" s="53"/>
+      <c r="K1746" s="53"/>
+      <c r="L1746" s="53"/>
+    </row>
+    <row r="1747" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1747" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1747" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1747" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1747" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1747" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1747" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1747" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1747" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1747" s="53"/>
+      <c r="J1747" s="53"/>
+      <c r="K1747" s="53"/>
+    </row>
+    <row r="1748" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1748" s="53" t="str">
+        <f>B1740</f>
+        <v>heat, from on-site residential wood-fired CHP</v>
+      </c>
+      <c r="B1748" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1748" s="53" t="str">
+        <f>B1741</f>
+        <v>CH</v>
+      </c>
+      <c r="D1748" s="53" t="str">
+        <f>B1745</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1748" s="53"/>
+      <c r="F1748" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1748" s="53" t="str">
+        <f>B1743</f>
+        <v>heat</v>
+      </c>
+      <c r="I1748" s="53"/>
+      <c r="J1748" s="53"/>
+      <c r="K1748" s="53"/>
+      <c r="L1748" s="53"/>
+    </row>
+    <row r="1749" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1749" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1749">
+        <f>1/(0.0396618169378429*19.1)</f>
+        <v>1.3200610810256006</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1749" t="s">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inventories/lci-sweet_sure.xlsx
+++ b/inventories/lci-sweet_sure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/sweet_sure-2050-switzerland/inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/sweet_sure-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7009D7C-F3A6-684E-AE42-6C9FF43BB443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BD29D2-1350-3C45-B71A-AB6D5E822B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="15960" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-1040" windowWidth="15960" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biomass and waste" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6302" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7030" uniqueCount="446">
   <si>
     <t>Activity</t>
   </si>
@@ -1134,19 +1134,260 @@
   </si>
   <si>
     <t>electricity, used in residential electric appliances</t>
+  </si>
+  <si>
+    <t>diesel, burned in passenger car</t>
+  </si>
+  <si>
+    <t>diesel, low-sulfur</t>
+  </si>
+  <si>
+    <t>market for internal combustion engine, passenger car</t>
+  </si>
+  <si>
+    <t>internal combustion engine, passenger car</t>
+  </si>
+  <si>
+    <t>Acetaldehyde</t>
+  </si>
+  <si>
+    <t>Acetone</t>
+  </si>
+  <si>
+    <t>Acrolein</t>
+  </si>
+  <si>
+    <t>Benzaldehyde</t>
+  </si>
+  <si>
+    <t>Butane</t>
+  </si>
+  <si>
+    <t>Cyclohexane (for all cycloalkanes)</t>
+  </si>
+  <si>
+    <t>Ethane</t>
+  </si>
+  <si>
+    <t>Ethylene oxide</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>Heptane</t>
+  </si>
+  <si>
+    <t>Methyl ethyl ketone</t>
+  </si>
+  <si>
+    <t>PAH, polycyclic aromatic hydrocarbons</t>
+  </si>
+  <si>
+    <t>Pentane</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Propylene oxide</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>m-Xylene</t>
+  </si>
+  <si>
+    <t>o-Xylene</t>
+  </si>
+  <si>
+    <t>market for diesel, low-sulfur</t>
+  </si>
+  <si>
+    <t>petrol, burned in passenger car</t>
+  </si>
+  <si>
+    <t>petrol, low-sulfur</t>
+  </si>
+  <si>
+    <t>1-Pentene</t>
+  </si>
+  <si>
+    <t>2-Methylpentane</t>
+  </si>
+  <si>
+    <t>Ethylene</t>
+  </si>
+  <si>
+    <t>Hexane</t>
+  </si>
+  <si>
+    <t>Propene</t>
+  </si>
+  <si>
+    <t>market for petrol, low-sulfur</t>
+  </si>
+  <si>
+    <t>compressed gas, burned in passenger car</t>
+  </si>
+  <si>
+    <t>natural gas, high pressure</t>
+  </si>
+  <si>
+    <t>market for natural gas, high pressure</t>
+  </si>
+  <si>
+    <t>electricity, used in passenger car</t>
+  </si>
+  <si>
+    <t>market group for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>market for electric motor, electric passenger car</t>
+  </si>
+  <si>
+    <t>electric motor, electric passenger car</t>
+  </si>
+  <si>
+    <t>fuel cell system assembly, 1 kWe, proton exchange membrane (PEM)</t>
+  </si>
+  <si>
+    <t>fuel cell system, 1 kWe, proton exchange membrane (PEM)</t>
+  </si>
+  <si>
+    <t>hydrogen, used in passenger car</t>
+  </si>
+  <si>
+    <t>market for hydrogen, gaseous</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous</t>
+  </si>
+  <si>
+    <t>market for converter, for electric passenger car</t>
+  </si>
+  <si>
+    <t>converter, for electric passenger car</t>
+  </si>
+  <si>
+    <t>market for inverter, for electric passenger car</t>
+  </si>
+  <si>
+    <t>inverter, for electric passenger car</t>
+  </si>
+  <si>
+    <t>market for power distribution unit, for electric passenger car</t>
+  </si>
+  <si>
+    <t>power distribution unit, for electric passenger car</t>
+  </si>
+  <si>
+    <t>market for used Li-ion battery</t>
+  </si>
+  <si>
+    <t>used Li-ion battery</t>
+  </si>
+  <si>
+    <t>worksheet name</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Boureima et al. 2009</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>a Type IV fuel tank for automobile applications. It is an aluminium tank reinforced with carbon fibre. Fittings are stainless steel. Weight compoistion by material fraction from Argonne National Labs 2010 assessment.</t>
+  </si>
+  <si>
+    <t>special remark</t>
+  </si>
+  <si>
+    <t>carbon fiber production, weaved, at factory</t>
+  </si>
+  <si>
+    <t>carbon fiber, weaved</t>
+  </si>
+  <si>
+    <t>epoxy resin production, liquid</t>
+  </si>
+  <si>
+    <t>epoxy resin, liquid</t>
+  </si>
+  <si>
+    <t>market for compressed air, 1000 kPa gauge</t>
+  </si>
+  <si>
+    <t>compressed air, 1000 kPa gauge</t>
+  </si>
+  <si>
+    <t>ENTSO-E</t>
+  </si>
+  <si>
+    <t>Assumed vehicle's lifetime: 200'000 km. Assumed vehicle energy consumption: 1.8 MJ/vkm.</t>
+  </si>
+  <si>
+    <t>fuel tank, compressed hydrogen gas, 700bar</t>
+  </si>
+  <si>
+    <t>fuel tank assembly, compressed hydrogen gas, 700bar</t>
+  </si>
+  <si>
+    <t>market for battery cell, Li-ion, NMC811</t>
+  </si>
+  <si>
+    <t>market for battery management system, for Li-ion battery</t>
+  </si>
+  <si>
+    <t>battery management system, for Li-ion battery</t>
+  </si>
+  <si>
+    <t>battery cell, Li-ion, NMC811</t>
+  </si>
+  <si>
+    <t>Daniele Candelaresi, Antonio Valente, Diego Iribarren, Javier Dufour, Giuseppe Spazzafumo, Comparative life cycle assessment of hydrogen-fuelled passenger cars, International Journal of Hydrogen Energy, 2021, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2021.01.034.</t>
+  </si>
+  <si>
+    <t>market for glass fibre</t>
+  </si>
+  <si>
+    <t>glass fibre</t>
+  </si>
+  <si>
+    <t>market for steel, chromium steel 18/8</t>
+  </si>
+  <si>
+    <t>steel, chromium steel 18/8</t>
+  </si>
+  <si>
+    <t>metal working, average for chromium steel product manufacturing</t>
+  </si>
+  <si>
+    <t>fuel tank assembly, compressed natural gas, 200 bar</t>
+  </si>
+  <si>
+    <t>fuel tank, compressed natural gas, 200 bar</t>
+  </si>
+  <si>
+    <t>Assumed vehicle's lifetime: 200'000 km. Assumed vehicle energy consumption: 3.7 MJ/vkm.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +1441,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1342,7 +1589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1414,13 +1661,24 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1698,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L1749"/>
+  <dimension ref="A1:O1959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1655" workbookViewId="0">
-      <selection activeCell="A1687" sqref="A1687"/>
+    <sheetView tabSelected="1" topLeftCell="A1928" workbookViewId="0">
+      <selection activeCell="C1949" sqref="C1949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30052,83 +30310,83 @@
       <c r="L1609" s="53"/>
     </row>
     <row r="1610" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1610" s="56" t="s">
+      <c r="A1610" t="s">
         <v>340</v>
       </c>
-      <c r="B1610" s="55">
+      <c r="B1610" s="3">
         <v>4.4004494642869032E-7</v>
       </c>
-      <c r="C1610" s="56" t="s">
+      <c r="C1610" t="s">
         <v>24</v>
       </c>
-      <c r="D1610" s="56" t="s">
+      <c r="D1610" t="s">
         <v>6</v>
       </c>
       <c r="F1610" t="s">
         <v>18</v>
       </c>
-      <c r="H1610" s="56" t="s">
+      <c r="H1610" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="1611" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1611" s="56" t="s">
+      <c r="A1611" t="s">
         <v>343</v>
       </c>
-      <c r="B1611" s="55">
+      <c r="B1611" s="3">
         <v>8.8008989285738064E-7</v>
       </c>
-      <c r="C1611" s="56" t="s">
+      <c r="C1611" t="s">
         <v>24</v>
       </c>
-      <c r="D1611" s="56" t="s">
+      <c r="D1611" t="s">
         <v>341</v>
       </c>
       <c r="F1611" t="s">
         <v>18</v>
       </c>
-      <c r="H1611" s="56" t="s">
+      <c r="H1611" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="1612" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1612" s="56" t="s">
+      <c r="A1612" t="s">
         <v>293</v>
       </c>
-      <c r="B1612" s="56">
+      <c r="B1612">
         <v>8.1068656716417958E-4</v>
       </c>
-      <c r="C1612" s="56" t="s">
+      <c r="C1612" t="s">
         <v>104</v>
       </c>
-      <c r="D1612" s="56" t="s">
+      <c r="D1612" t="s">
         <v>126</v>
       </c>
       <c r="F1612" t="s">
         <v>18</v>
       </c>
-      <c r="H1612" s="56" t="s">
+      <c r="H1612" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="1613" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1613" s="56" t="s">
+      <c r="A1613" t="s">
         <v>335</v>
       </c>
-      <c r="B1613" s="57">
+      <c r="B1613" s="55">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="C1613" s="56" t="s">
+      <c r="C1613" t="s">
         <v>104</v>
       </c>
-      <c r="D1613" s="57" t="s">
+      <c r="D1613" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E1613" s="53"/>
       <c r="F1613" t="s">
         <v>18</v>
       </c>
-      <c r="H1613" s="56" t="s">
+      <c r="H1613" t="s">
         <v>334</v>
       </c>
     </row>
@@ -30146,7 +30404,7 @@
       <c r="E1614" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="F1614" s="56" t="s">
+      <c r="F1614" t="s">
         <v>27</v>
       </c>
       <c r="H1614" s="53"/>
@@ -30169,7 +30427,7 @@
       <c r="E1615" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="F1615" s="56" t="s">
+      <c r="F1615" t="s">
         <v>27</v>
       </c>
       <c r="H1615" s="53"/>
@@ -30192,7 +30450,7 @@
       <c r="E1616" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="F1616" s="56" t="s">
+      <c r="F1616" t="s">
         <v>27</v>
       </c>
       <c r="H1616" s="53"/>
@@ -32551,6 +32809,3633 @@
       </c>
       <c r="H1749" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1751" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1751" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1751" s="53"/>
+      <c r="D1751" s="53"/>
+      <c r="E1751" s="53"/>
+      <c r="F1751" s="53"/>
+      <c r="G1751" s="53"/>
+      <c r="H1751" s="53"/>
+    </row>
+    <row r="1752" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1752" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1752" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1752" s="53"/>
+      <c r="D1752" s="53"/>
+      <c r="E1752" s="53"/>
+      <c r="F1752" s="53"/>
+      <c r="G1752" s="53"/>
+      <c r="H1752" s="53"/>
+      <c r="I1752" s="53"/>
+      <c r="J1752" s="53"/>
+      <c r="K1752" s="53"/>
+      <c r="L1752" s="53"/>
+    </row>
+    <row r="1753" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1753" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1753" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1753" s="53"/>
+      <c r="D1753" s="53"/>
+      <c r="E1753" s="53"/>
+      <c r="F1753" s="53"/>
+      <c r="G1753" s="53"/>
+      <c r="H1753" s="53"/>
+      <c r="I1753" s="53"/>
+      <c r="J1753" s="53"/>
+      <c r="K1753" s="53"/>
+      <c r="L1753" s="53"/>
+    </row>
+    <row r="1754" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1754" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1754" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1754" s="53"/>
+      <c r="D1754" s="53"/>
+      <c r="E1754" s="53"/>
+      <c r="F1754" s="53"/>
+      <c r="G1754" s="53"/>
+      <c r="H1754" s="53"/>
+      <c r="I1754" s="53"/>
+      <c r="J1754" s="53"/>
+    </row>
+    <row r="1755" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1755" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1755" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1755" s="53"/>
+      <c r="D1755" s="53"/>
+      <c r="E1755" s="53"/>
+      <c r="F1755" s="53"/>
+      <c r="G1755" s="53"/>
+      <c r="H1755" s="53"/>
+      <c r="I1755" s="53"/>
+      <c r="J1755" s="53"/>
+      <c r="K1755" s="53"/>
+      <c r="L1755" s="53"/>
+    </row>
+    <row r="1756" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1756" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1756" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1756" s="53"/>
+      <c r="D1756" s="53"/>
+      <c r="E1756" s="53"/>
+      <c r="F1756" s="53"/>
+      <c r="G1756" s="53"/>
+      <c r="H1756" s="53"/>
+      <c r="I1756" s="53"/>
+      <c r="J1756" s="53"/>
+      <c r="K1756" s="53"/>
+      <c r="L1756" s="53"/>
+    </row>
+    <row r="1757" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1757" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1757" s="53"/>
+      <c r="C1757" s="53"/>
+      <c r="D1757" s="53"/>
+      <c r="E1757" s="53"/>
+      <c r="F1757" s="53"/>
+      <c r="G1757" s="53"/>
+      <c r="H1757" s="53"/>
+      <c r="I1757" s="53"/>
+      <c r="J1757" s="53"/>
+      <c r="K1757" s="53"/>
+      <c r="L1757" s="53"/>
+    </row>
+    <row r="1758" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1758" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1758" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1758" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1758" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1758" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1758" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1758" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1758" s="53"/>
+      <c r="I1758" s="53"/>
+      <c r="J1758" s="53"/>
+      <c r="K1758" s="53"/>
+    </row>
+    <row r="1759" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1759" s="53" t="str">
+        <f>B1751</f>
+        <v>diesel, burned in passenger car</v>
+      </c>
+      <c r="B1759" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1759" s="53" t="str">
+        <f>B1752</f>
+        <v>CH</v>
+      </c>
+      <c r="D1759" s="53" t="str">
+        <f>B1756</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1759" s="53"/>
+      <c r="F1759" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1759" s="53" t="str">
+        <f>B1754</f>
+        <v>heat</v>
+      </c>
+      <c r="H1759" s="53"/>
+      <c r="I1759" s="53"/>
+      <c r="J1759" s="53"/>
+      <c r="K1759" s="53"/>
+      <c r="L1759" s="53"/>
+    </row>
+    <row r="1760" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1760" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1760">
+        <f>1/43</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1760" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1761" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1761">
+        <f>150/200000/2.15</f>
+        <v>3.4883720930232559E-4</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1761" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1762" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1762" s="3">
+        <v>7.1455665432553858E-7</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1762" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1762" s="3"/>
+    </row>
+    <row r="1763" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1763" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1763" s="3">
+        <v>3.2468920124586623E-7</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1763" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1763" s="3"/>
+    </row>
+    <row r="1764" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1764" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1764" s="3">
+        <v>3.9534349472964383E-7</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1764" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1764" s="3"/>
+    </row>
+    <row r="1765" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1765" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1765" s="3">
+        <v>3.7209280955662761E-7</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1765" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1765" s="3"/>
+    </row>
+    <row r="1766" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1766" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1766" s="3">
+        <v>9.4995966427857817E-8</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1766" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1766" s="3"/>
+    </row>
+    <row r="1767" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1767" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1767" s="3">
+        <v>2.186743705223342E-7</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1767" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1767" s="3"/>
+    </row>
+    <row r="1768" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1768" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1768" s="3">
+        <v>1.2147463123534157E-8</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1768" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1768" s="3"/>
+    </row>
+    <row r="1769" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1769" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1769" s="3">
+        <v>2.3255800597289225E-10</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1769" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1769" s="3"/>
+    </row>
+    <row r="1770" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1770" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1770">
+        <f>B1760*3.15</f>
+        <v>7.3255813953488375E-2</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1770" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1770" s="3"/>
+    </row>
+    <row r="1771" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1771" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1771" s="3">
+        <v>2.1069404153243686E-5</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1771" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1771" s="3"/>
+    </row>
+    <row r="1772" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1772" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1772" s="3">
+        <v>1.1627900298644613E-9</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1772" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1772" s="3"/>
+    </row>
+    <row r="1773" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1773" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1773" s="3">
+        <v>2.3255800597289222E-12</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1773" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1773" s="3"/>
+    </row>
+    <row r="1774" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1774" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1774" s="3">
+        <v>3.9534861015391682E-8</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1774" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1774" s="3"/>
+    </row>
+    <row r="1775" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1775" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1775" s="3">
+        <v>7.1789570411210658E-8</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1775" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1775" s="3"/>
+    </row>
+    <row r="1776" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1776" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1776" s="3">
+        <v>1.1627900298644611E-6</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1776" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1776" s="3"/>
+    </row>
+    <row r="1777" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1777" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1777" s="3">
+        <v>3.646242366932188E-8</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1777" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1777" s="3"/>
+    </row>
+    <row r="1778" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1778" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1778" s="3">
+        <v>1.2114072625668476E-6</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1778" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1778" s="3"/>
+    </row>
+    <row r="1779" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1779" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1779" s="3">
+        <v>1.3252688602888143E-6</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1779" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1779" s="3"/>
+    </row>
+    <row r="1780" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1780" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1780" s="3">
+        <v>2.2087814338146904E-8</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1780" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1780" s="3"/>
+    </row>
+    <row r="1781" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1781" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1781" s="3">
+        <v>1.9186035492763611E-15</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1781" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1781" s="3"/>
+    </row>
+    <row r="1782" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1782" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1782" s="3">
+        <v>4.6511601194578451E-13</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1782" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1782" s="3"/>
+    </row>
+    <row r="1783" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1783" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1783" s="3">
+        <v>6.6447090752701953E-7</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1783" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1783" s="3"/>
+    </row>
+    <row r="1784" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1784" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1784" s="3">
+        <v>1.3252688602888143E-7</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1784" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1784" s="3"/>
+    </row>
+    <row r="1785" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1785" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1785" s="3">
+        <v>5.8566933256401625E-6</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1785" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1785" s="3"/>
+    </row>
+    <row r="1786" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1786" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1786" s="3">
+        <v>1.6279060418102458E-9</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1786" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1786" s="3"/>
+    </row>
+    <row r="1787" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1787" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1787">
+        <v>2.2614048584510013E-4</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1787" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1787" s="3"/>
+    </row>
+    <row r="1788" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1788" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1788" s="3">
+        <v>4.2883696301401334E-9</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1788" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1788" s="3"/>
+    </row>
+    <row r="1789" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1789" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1789" s="3">
+        <v>6.3929447213629726E-7</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1789" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1789" s="3"/>
+    </row>
+    <row r="1790" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1790" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1790" s="3">
+        <v>4.417562867629381E-9</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1790" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1790" s="3"/>
+    </row>
+    <row r="1791" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1791" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1791" s="3">
+        <v>1.2147463123534157E-8</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1791" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1791" s="3"/>
+    </row>
+    <row r="1792" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1792" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1792" s="3">
+        <v>3.9768082958024133E-7</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1792" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1792" s="3"/>
+    </row>
+    <row r="1793" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1793" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1793" s="3">
+        <v>2.3255800597289225E-10</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1793" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1793" s="3"/>
+    </row>
+    <row r="1794" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1794" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1794" s="3">
+        <v>4.0869969387591558E-8</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1794" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1794" s="3"/>
+    </row>
+    <row r="1795" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1795" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1795" s="3">
+        <v>4.651160119457845E-7</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1795" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1795" s="3"/>
+    </row>
+    <row r="1796" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1796" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1796" s="3">
+        <v>7.619711612948033E-8</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1796" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1796" s="3"/>
+    </row>
+    <row r="1797" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1797" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1797" s="3">
+        <v>2.3255800597289226E-8</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1797" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1797" s="3"/>
+    </row>
+    <row r="1798" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1798" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1798" s="3">
+        <v>6.7382024692940973E-8</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1798" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1798" s="3"/>
+    </row>
+    <row r="1799" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1799" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1799" s="3">
+        <v>2.9821053643838246E-8</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1799" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1799" s="3"/>
+    </row>
+    <row r="1800" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1800"/>
+      <c r="F1800" s="53"/>
+      <c r="H1800" s="3"/>
+    </row>
+    <row r="1801" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1801" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1801" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1801" s="53"/>
+      <c r="D1801" s="53"/>
+      <c r="E1801" s="53"/>
+      <c r="F1801" s="53"/>
+      <c r="G1801" s="53"/>
+      <c r="H1801" s="53"/>
+    </row>
+    <row r="1802" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1802" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1802" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1802" s="53"/>
+      <c r="D1802" s="53"/>
+      <c r="E1802" s="53"/>
+      <c r="F1802" s="53"/>
+      <c r="G1802" s="53"/>
+      <c r="H1802" s="53"/>
+      <c r="I1802" s="53"/>
+      <c r="J1802" s="53"/>
+      <c r="K1802" s="53"/>
+      <c r="L1802" s="53"/>
+    </row>
+    <row r="1803" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1803" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1803" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1803" s="53"/>
+      <c r="D1803" s="53"/>
+      <c r="E1803" s="53"/>
+      <c r="F1803" s="53"/>
+      <c r="G1803" s="53"/>
+      <c r="H1803" s="53"/>
+      <c r="I1803" s="53"/>
+      <c r="J1803" s="53"/>
+      <c r="K1803" s="53"/>
+      <c r="L1803" s="53"/>
+    </row>
+    <row r="1804" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1804" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1804" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1804" s="53"/>
+      <c r="D1804" s="53"/>
+      <c r="E1804" s="53"/>
+      <c r="F1804" s="53"/>
+      <c r="G1804" s="53"/>
+      <c r="H1804" s="53"/>
+      <c r="I1804" s="53"/>
+      <c r="J1804" s="53"/>
+    </row>
+    <row r="1805" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1805" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1805" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1805" s="53"/>
+      <c r="D1805" s="53"/>
+      <c r="E1805" s="53"/>
+      <c r="F1805" s="53"/>
+      <c r="G1805" s="53"/>
+      <c r="H1805" s="53"/>
+      <c r="I1805" s="53"/>
+      <c r="J1805" s="53"/>
+      <c r="K1805" s="53"/>
+      <c r="L1805" s="53"/>
+    </row>
+    <row r="1806" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1806" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1806" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1806" s="53"/>
+      <c r="D1806" s="53"/>
+      <c r="E1806" s="53"/>
+      <c r="F1806" s="53"/>
+      <c r="G1806" s="53"/>
+      <c r="H1806" s="53"/>
+      <c r="I1806" s="53"/>
+      <c r="J1806" s="53"/>
+      <c r="K1806" s="53"/>
+      <c r="L1806" s="53"/>
+    </row>
+    <row r="1807" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1807" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1807" s="53"/>
+      <c r="C1807" s="53"/>
+      <c r="D1807" s="53"/>
+      <c r="E1807" s="53"/>
+      <c r="F1807" s="53"/>
+      <c r="G1807" s="53"/>
+      <c r="H1807" s="53"/>
+      <c r="I1807" s="53"/>
+      <c r="J1807" s="53"/>
+      <c r="K1807" s="53"/>
+      <c r="L1807" s="53"/>
+    </row>
+    <row r="1808" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1808" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1808" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1808" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1808" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1808" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1808" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1808" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1808" s="53"/>
+      <c r="I1808" s="53"/>
+      <c r="J1808" s="53"/>
+      <c r="K1808" s="53"/>
+    </row>
+    <row r="1809" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1809" s="53" t="str">
+        <f>B1801</f>
+        <v>petrol, burned in passenger car</v>
+      </c>
+      <c r="B1809" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1809" s="53" t="str">
+        <f>B1802</f>
+        <v>CH</v>
+      </c>
+      <c r="D1809" s="53" t="str">
+        <f>B1806</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1809" s="53"/>
+      <c r="F1809" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1809" s="53" t="str">
+        <f>B1804</f>
+        <v>heat</v>
+      </c>
+      <c r="H1809" s="53"/>
+      <c r="I1809" s="53"/>
+      <c r="J1809" s="53"/>
+      <c r="K1809" s="53"/>
+      <c r="L1809" s="53"/>
+    </row>
+    <row r="1810" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1810" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1810">
+        <f>1/42.6</f>
+        <v>2.3474178403755867E-2</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1811" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1811">
+        <f>150/200000/2.15</f>
+        <v>3.4883720930232559E-4</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1812" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1812" s="3">
+        <v>1.4547114129662022E-7</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1812" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1812" s="3"/>
+    </row>
+    <row r="1813" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1813" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1813" s="3">
+        <v>2.3599288167039204E-6</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1813" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1813" s="3"/>
+    </row>
+    <row r="1814" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1814" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1814" s="3">
+        <v>6.4176573052336623E-8</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1814" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1814" s="3"/>
+    </row>
+    <row r="1815" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1815" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1815" s="3">
+        <v>5.2181249284002014E-8</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1815" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1815" s="3"/>
+    </row>
+    <row r="1816" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1816" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1816" s="3">
+        <v>1.6258913648856724E-8</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1816" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1816" s="3"/>
+    </row>
+    <row r="1817" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1817" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1817" s="3">
+        <v>7.0422535211267627E-7</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1817" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1817" s="3"/>
+    </row>
+    <row r="1818" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1818" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1818" s="3">
+        <v>1.8823431144155847E-8</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1818" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1818" s="3"/>
+    </row>
+    <row r="1819" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1819" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1819" s="3">
+        <v>1.2876677795875375E-6</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1819" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1819" s="3"/>
+    </row>
+    <row r="1820" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1820" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1820" s="3">
+        <v>2.4210190597681178E-6</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1820" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1820" s="3"/>
+    </row>
+    <row r="1821" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1821" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1821" s="3">
+        <v>2.3474178403755876E-10</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1821" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1821" s="3"/>
+    </row>
+    <row r="1822" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1822" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1822">
+        <v>7.4647887323943687E-2</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1822" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1822" s="3"/>
+    </row>
+    <row r="1823" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1823" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1823">
+        <v>1.2822587476495615E-4</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1823" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1823" s="3"/>
+    </row>
+    <row r="1824" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1824" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1824" s="3">
+        <v>1.173708920187794E-9</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1824" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1824" s="3"/>
+    </row>
+    <row r="1825" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1825" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1825" s="3">
+        <v>2.3474178403755881E-12</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1825" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1825" s="3"/>
+    </row>
+    <row r="1826" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1826" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1826" s="3">
+        <v>3.9906103286384993E-8</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1826" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1826" s="3"/>
+    </row>
+    <row r="1827" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1827" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1827" s="3">
+        <v>9.7553481893140337E-8</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1827" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1827" s="3"/>
+    </row>
+    <row r="1828" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1828" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1828" s="3">
+        <v>3.0516431924882642E-6</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1828" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1828" s="3"/>
+    </row>
+    <row r="1829" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1829" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1829" s="3">
+        <v>3.738595604189168E-7</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1829" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1829" s="3"/>
+    </row>
+    <row r="1830" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1830" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1830" s="3">
+        <v>8.4158173387917866E-9</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1830" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1830" s="3"/>
+    </row>
+    <row r="1831" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1831" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1831" s="3">
+        <v>6.2458409966156062E-7</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1831" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1831" s="3"/>
+    </row>
+    <row r="1832" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1832" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1832" s="3">
+        <v>1.4547114129662022E-7</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1832" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1832" s="3"/>
+    </row>
+    <row r="1833" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1833" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1833" s="3">
+        <v>6.3317491509246337E-8</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1833" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1833" s="3"/>
+    </row>
+    <row r="1834" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1834" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1834" s="3">
+        <v>1.3777122524373701E-7</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1834" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1834" s="3"/>
+    </row>
+    <row r="1835" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1835" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1835" s="3">
+        <v>3.5211267605633819E-11</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1835" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1835" s="3"/>
+    </row>
+    <row r="1836" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1836" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1836" s="3">
+        <v>1.6431924882629114E-12</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1836" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1836" s="3"/>
+    </row>
+    <row r="1837" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1837" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1837" s="3">
+        <v>5.7558463387048561E-6</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1837" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1837" s="3"/>
+    </row>
+    <row r="1838" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1838" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1838" s="3">
+        <v>4.2794987979867499E-9</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1838" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1838" s="3"/>
+    </row>
+    <row r="1839" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1839" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1839" s="3">
+        <v>2.1817489411000107E-5</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1839" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1839" s="3"/>
+    </row>
+    <row r="1840" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1840" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1840" s="3">
+        <v>1.6431924882629115E-9</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1840" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1840" s="3"/>
+    </row>
+    <row r="1841" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1841" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1841" s="3">
+        <v>1.0423522722828692E-5</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1841" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1841" s="3"/>
+    </row>
+    <row r="1842" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1842" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1842" s="3">
+        <v>8.1690140845070448E-10</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1842" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1842" s="3"/>
+    </row>
+    <row r="1843" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1843" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1843" s="3">
+        <v>3.3122366161369572E-7</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1843" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1843" s="3"/>
+    </row>
+    <row r="1844" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1844" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1844" s="3">
+        <v>2.7827878429139121E-6</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1844" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1844" s="3"/>
+    </row>
+    <row r="1845" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1845" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1845" s="3">
+        <v>1.789116858072825E-6</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1845" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1845" s="3"/>
+    </row>
+    <row r="1846" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1846" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1846" s="3">
+        <v>4.7122213530248159E-8</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1846" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1846" s="3"/>
+    </row>
+    <row r="1847" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1847" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1847" s="3">
+        <v>3.2676916472359795E-7</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1847" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1847" s="3"/>
+    </row>
+    <row r="1848" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1848" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1848" s="3">
+        <v>2.3474178403755876E-10</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1848" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1848" s="3"/>
+    </row>
+    <row r="1849" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1849" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1849" s="3">
+        <v>8.6417239667896019E-8</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1849" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1849" s="3"/>
+    </row>
+    <row r="1850" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1850" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1850" s="3">
+        <v>4.6948356807511755E-7</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1850" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1850" s="3"/>
+    </row>
+    <row r="1851" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1851" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1851" s="3">
+        <v>2.4137009577343855E-6</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1851" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1851" s="3"/>
+    </row>
+    <row r="1852" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1852" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1852" s="3">
+        <v>2.3474178403755879E-8</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1852" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1852" s="3"/>
+    </row>
+    <row r="1853" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1853" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1853" s="3">
+        <v>1.0417159155842839E-6</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1853" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1853" s="3"/>
+    </row>
+    <row r="1854" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1854" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1854" s="3">
+        <v>2.4967455068997787E-7</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1854" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1854" s="3"/>
+    </row>
+    <row r="1855" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1855"/>
+    </row>
+    <row r="1856" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1856" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1856" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1857" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1858" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1859" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1860" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1861" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1862" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1863" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1864" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1865" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1866" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1867" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1867"/>
+    </row>
+    <row r="1868" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1868" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1869" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1869">
+        <v>1</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1869" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1870" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1870">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1870" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1870" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1871" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1871">
+        <v>0.05</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1871" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1871" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1872" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1872">
+        <v>0.875</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1872" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1873" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1873">
+        <v>0.875</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1873" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1873" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1874"/>
+    </row>
+    <row r="1875" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1875" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1875" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1875" s="53"/>
+      <c r="D1875" s="53"/>
+      <c r="E1875" s="53"/>
+      <c r="F1875" s="53"/>
+      <c r="G1875" s="53"/>
+      <c r="H1875" s="53"/>
+    </row>
+    <row r="1876" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1876" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1876" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1876" s="53"/>
+      <c r="D1876" s="53"/>
+      <c r="E1876" s="53"/>
+      <c r="F1876" s="53"/>
+      <c r="G1876" s="53"/>
+      <c r="H1876" s="53"/>
+      <c r="I1876" s="53"/>
+      <c r="J1876" s="53"/>
+      <c r="K1876" s="53"/>
+      <c r="L1876" s="53"/>
+    </row>
+    <row r="1877" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1877" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1877" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1877" s="53"/>
+      <c r="D1877" s="53"/>
+      <c r="E1877" s="53"/>
+      <c r="F1877" s="53"/>
+      <c r="G1877" s="53"/>
+      <c r="H1877" s="53"/>
+      <c r="I1877" s="53"/>
+      <c r="J1877" s="53"/>
+      <c r="K1877" s="53"/>
+      <c r="L1877" s="53"/>
+    </row>
+    <row r="1878" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1878" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1878" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1878" s="53"/>
+      <c r="D1878" s="53"/>
+      <c r="E1878" s="53"/>
+      <c r="F1878" s="53"/>
+      <c r="G1878" s="53"/>
+      <c r="H1878" s="53"/>
+      <c r="I1878" s="53"/>
+      <c r="J1878" s="53"/>
+    </row>
+    <row r="1879" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1879" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1879" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1879" s="53"/>
+      <c r="D1879" s="53"/>
+      <c r="E1879" s="53"/>
+      <c r="F1879" s="53"/>
+      <c r="G1879" s="53"/>
+      <c r="H1879" s="53"/>
+      <c r="I1879" s="53"/>
+      <c r="J1879" s="53"/>
+    </row>
+    <row r="1880" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1880" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1880" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1880" s="53"/>
+      <c r="D1880" s="53"/>
+      <c r="E1880" s="53"/>
+      <c r="F1880" s="53"/>
+      <c r="G1880" s="53"/>
+      <c r="H1880" s="53"/>
+      <c r="I1880" s="53"/>
+      <c r="J1880" s="53"/>
+      <c r="K1880" s="53"/>
+      <c r="L1880" s="53"/>
+    </row>
+    <row r="1881" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1881" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1881" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1881" s="53"/>
+      <c r="D1881" s="53"/>
+      <c r="E1881" s="53"/>
+      <c r="F1881" s="53"/>
+      <c r="G1881" s="53"/>
+      <c r="H1881" s="53"/>
+      <c r="I1881" s="53"/>
+      <c r="J1881" s="53"/>
+      <c r="K1881" s="53"/>
+      <c r="L1881" s="53"/>
+    </row>
+    <row r="1882" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1882" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1882" s="53"/>
+      <c r="C1882" s="53"/>
+      <c r="D1882" s="53"/>
+      <c r="E1882" s="53"/>
+      <c r="F1882" s="53"/>
+      <c r="G1882" s="53"/>
+      <c r="H1882" s="53"/>
+      <c r="I1882" s="53"/>
+      <c r="J1882" s="53"/>
+      <c r="K1882" s="53"/>
+      <c r="L1882" s="53"/>
+    </row>
+    <row r="1883" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1883" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1883" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1883" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1883" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1883" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1883" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1883" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1883" s="53"/>
+      <c r="I1883" s="53"/>
+      <c r="J1883" s="53"/>
+      <c r="K1883" s="53"/>
+    </row>
+    <row r="1884" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1884" s="53" t="str">
+        <f>B1875</f>
+        <v>compressed gas, burned in passenger car</v>
+      </c>
+      <c r="B1884" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1884" s="53" t="str">
+        <f>B1876</f>
+        <v>CH</v>
+      </c>
+      <c r="D1884" s="53" t="str">
+        <f>B1881</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1884" s="53"/>
+      <c r="F1884" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1884" s="53" t="str">
+        <f>B1878</f>
+        <v>heat</v>
+      </c>
+      <c r="H1884" s="53"/>
+      <c r="I1884" s="53"/>
+      <c r="J1884" s="53"/>
+      <c r="K1884" s="53"/>
+      <c r="L1884" s="53"/>
+    </row>
+    <row r="1885" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1885" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1885">
+        <f>1/36</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1885" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1885" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1886" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1886">
+        <f>150/200000/2.15</f>
+        <v>3.4883720930232559E-4</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1886" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1887" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1887">
+        <f>133/200000/3.7</f>
+        <v>1.7972972972972971E-4</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1887" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1887" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1888" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1888" s="3">
+        <v>4.4166666666666577E-6</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1888" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1888" s="3"/>
+    </row>
+    <row r="1889" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1889" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1889" s="3">
+        <v>7.5082705379565517E-7</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1889" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1889" s="3"/>
+    </row>
+    <row r="1890" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1890" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1890">
+        <v>5.5944444444444442E-2</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1890" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1890" s="3"/>
+    </row>
+    <row r="1891" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1891" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1891">
+        <v>2.6360440412565261E-4</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1891" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1891" s="3"/>
+    </row>
+    <row r="1892" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1892" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1892" s="3">
+        <v>9.6666666666666532E-7</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1892" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1892" s="3"/>
+    </row>
+    <row r="1893" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1893" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1893" s="3">
+        <v>2.7750000000000002E-10</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1893" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1893" s="3"/>
+    </row>
+    <row r="1894" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1894" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1894" s="3">
+        <v>1.606690212560312E-5</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1894" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1894" s="3"/>
+    </row>
+    <row r="1895" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1895" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1895" s="3">
+        <v>6.8382126269474045E-6</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1895" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1895" s="3"/>
+    </row>
+    <row r="1896" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1896" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1896" s="3">
+        <v>2.9605693862641999E-6</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1896" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1896" s="3"/>
+    </row>
+    <row r="1897" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1897" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1897" s="3">
+        <v>1.4636237937232238E-7</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1897" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1897" s="3"/>
+    </row>
+    <row r="1898" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1898" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1898" s="3">
+        <v>5.6430000000000142E-7</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1898" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1898" s="3"/>
+    </row>
+    <row r="1899" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1899" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1899" s="3">
+        <v>2.2336471011856279E-6</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1899" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1899" s="3"/>
+    </row>
+    <row r="1900" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1900"/>
+    </row>
+    <row r="1901" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1901" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1901" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1901" s="53"/>
+      <c r="D1901" s="53"/>
+      <c r="E1901" s="53"/>
+      <c r="F1901" s="53"/>
+      <c r="G1901" s="53"/>
+      <c r="H1901" s="53"/>
+    </row>
+    <row r="1902" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1902" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1902" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1902" s="53"/>
+      <c r="D1902" s="53"/>
+      <c r="E1902" s="53"/>
+      <c r="F1902" s="53"/>
+      <c r="G1902" s="53"/>
+      <c r="H1902" s="53"/>
+      <c r="I1902" s="53"/>
+      <c r="J1902" s="53"/>
+      <c r="K1902" s="53"/>
+      <c r="L1902" s="53"/>
+    </row>
+    <row r="1903" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1903" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1903" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1903" s="53"/>
+      <c r="D1903" s="53"/>
+      <c r="E1903" s="53"/>
+      <c r="F1903" s="53"/>
+      <c r="G1903" s="53"/>
+      <c r="H1903" s="53"/>
+      <c r="I1903" s="53"/>
+      <c r="J1903" s="53"/>
+      <c r="K1903" s="53"/>
+      <c r="L1903" s="53"/>
+    </row>
+    <row r="1904" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1904" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1904" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1904" s="53"/>
+      <c r="D1904" s="53"/>
+      <c r="E1904" s="53"/>
+      <c r="F1904" s="53"/>
+      <c r="G1904" s="53"/>
+      <c r="H1904" s="53"/>
+      <c r="I1904" s="53"/>
+      <c r="J1904" s="53"/>
+    </row>
+    <row r="1905" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1905" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1905" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1905" s="53"/>
+      <c r="D1905" s="53"/>
+      <c r="E1905" s="53"/>
+      <c r="F1905" s="53"/>
+      <c r="G1905" s="53"/>
+      <c r="H1905" s="53"/>
+      <c r="I1905" s="53"/>
+      <c r="J1905" s="53"/>
+      <c r="K1905" s="53"/>
+      <c r="L1905" s="53"/>
+    </row>
+    <row r="1906" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1906" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1906" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1906" s="53"/>
+      <c r="D1906" s="53"/>
+      <c r="E1906" s="53"/>
+      <c r="F1906" s="53"/>
+      <c r="G1906" s="53"/>
+      <c r="H1906" s="53"/>
+      <c r="I1906" s="53"/>
+      <c r="J1906" s="53"/>
+      <c r="K1906" s="53"/>
+      <c r="L1906" s="53"/>
+    </row>
+    <row r="1907" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1907" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1907" s="53"/>
+      <c r="C1907" s="53"/>
+      <c r="D1907" s="53"/>
+      <c r="E1907" s="53"/>
+      <c r="F1907" s="53"/>
+      <c r="G1907" s="53"/>
+      <c r="H1907" s="53"/>
+      <c r="I1907" s="53"/>
+      <c r="J1907" s="53"/>
+      <c r="K1907" s="53"/>
+      <c r="L1907" s="53"/>
+    </row>
+    <row r="1908" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1908" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1908" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1908" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1908" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1908" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1908" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1908" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1908" s="53"/>
+      <c r="I1908" s="53"/>
+      <c r="J1908" s="53"/>
+      <c r="K1908" s="53"/>
+    </row>
+    <row r="1909" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1909" s="53" t="str">
+        <f>B1901</f>
+        <v>electricity, used in passenger car</v>
+      </c>
+      <c r="B1909" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1909" s="53" t="str">
+        <f>B1902</f>
+        <v>CH</v>
+      </c>
+      <c r="D1909" s="53" t="str">
+        <f>B1906</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="E1909" s="53"/>
+      <c r="F1909" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1909" s="53" t="str">
+        <f>B1904</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="H1909" s="53"/>
+      <c r="I1909" s="53"/>
+      <c r="J1909" s="53"/>
+      <c r="K1909" s="53"/>
+      <c r="L1909" s="53"/>
+    </row>
+    <row r="1910" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1910" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1910">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1910" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1910" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1911" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1911">
+        <f>100/200000/0.2</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1911" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1911" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1912" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1912" s="3">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1912" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1912" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1912" s="3"/>
+    </row>
+    <row r="1913" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1913" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1913">
+        <v>1.0714285714285715E-4</v>
+      </c>
+      <c r="C1913" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1913" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1913" t="s">
+        <v>435</v>
+      </c>
+      <c r="I1913" s="30"/>
+    </row>
+    <row r="1914" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1914" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1914">
+        <v>1.2282608695652171E-5</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1914" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1914" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1915" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1915">
+        <v>2.4565217391304346E-5</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1915" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1915" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1916" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1916">
+        <v>1.0917874396135266E-5</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1916" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1916" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1917" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1917" s="3">
+        <f>-1*SUM(B1912:B1913)</f>
+        <v>-3.5714285714285714E-4</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1917" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1917" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1918"/>
+    </row>
+    <row r="1919" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1919" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1919" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1920" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1921" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1922" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1923" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1924" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1925" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1926" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1927" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1928" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1929" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1930" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1930"/>
+    </row>
+    <row r="1931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1931" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1931" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1931" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1931" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1932" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1932">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1932" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1932" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1932" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1933" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1933">
+        <v>1</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1933" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1933" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1933" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1934" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1934">
+        <v>0.2555</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1934" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1934" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1934" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1935" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1935">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1935" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1935" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1935" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1936" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1936">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1936" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1936" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1936" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1937"/>
+    </row>
+    <row r="1938" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1938" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1938" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1938" s="53"/>
+      <c r="D1938" s="53"/>
+      <c r="E1938" s="53"/>
+      <c r="F1938" s="53"/>
+      <c r="G1938" s="53"/>
+      <c r="H1938" s="53"/>
+    </row>
+    <row r="1939" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1939" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1939" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1939" s="53"/>
+      <c r="D1939" s="53"/>
+      <c r="E1939" s="53"/>
+      <c r="F1939" s="53"/>
+      <c r="G1939" s="53"/>
+      <c r="H1939" s="53"/>
+      <c r="I1939" s="53"/>
+      <c r="J1939" s="53"/>
+      <c r="K1939" s="53"/>
+      <c r="L1939" s="53"/>
+    </row>
+    <row r="1940" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1940" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1940" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1940" s="53"/>
+      <c r="D1940" s="53"/>
+      <c r="E1940" s="53"/>
+      <c r="F1940" s="53"/>
+      <c r="G1940" s="53"/>
+      <c r="H1940" s="53"/>
+      <c r="I1940" s="53"/>
+      <c r="J1940" s="53"/>
+      <c r="K1940" s="53"/>
+      <c r="L1940" s="53"/>
+    </row>
+    <row r="1941" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1941" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1941" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1941" s="53"/>
+      <c r="D1941" s="53"/>
+      <c r="E1941" s="53"/>
+      <c r="F1941" s="53"/>
+      <c r="G1941" s="53"/>
+      <c r="H1941" s="53"/>
+      <c r="I1941" s="53"/>
+      <c r="J1941" s="53"/>
+    </row>
+    <row r="1942" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1942" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1942" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1942" s="53"/>
+      <c r="D1942" s="53"/>
+      <c r="E1942" s="53"/>
+      <c r="F1942" s="53"/>
+      <c r="G1942" s="53"/>
+      <c r="H1942" s="53"/>
+      <c r="I1942" s="53"/>
+      <c r="J1942" s="53"/>
+      <c r="K1942" s="53"/>
+      <c r="L1942" s="53"/>
+    </row>
+    <row r="1943" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1943" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1943" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1943" s="53"/>
+      <c r="D1943" s="53"/>
+      <c r="E1943" s="53"/>
+      <c r="F1943" s="53"/>
+      <c r="G1943" s="53"/>
+      <c r="H1943" s="53"/>
+      <c r="I1943" s="53"/>
+      <c r="J1943" s="53"/>
+      <c r="K1943" s="53"/>
+      <c r="L1943" s="53"/>
+    </row>
+    <row r="1944" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1944" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1944" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1944" s="53"/>
+      <c r="D1944" s="53"/>
+      <c r="E1944" s="53"/>
+      <c r="F1944" s="53"/>
+      <c r="G1944" s="53"/>
+      <c r="H1944" s="53"/>
+      <c r="I1944" s="53"/>
+      <c r="J1944" s="53"/>
+      <c r="K1944" s="53"/>
+      <c r="L1944" s="53"/>
+    </row>
+    <row r="1945" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1945" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1945" s="53"/>
+      <c r="C1945" s="53"/>
+      <c r="D1945" s="53"/>
+      <c r="E1945" s="53"/>
+      <c r="F1945" s="53"/>
+      <c r="G1945" s="53"/>
+      <c r="H1945" s="53"/>
+      <c r="I1945" s="53"/>
+      <c r="J1945" s="53"/>
+      <c r="K1945" s="53"/>
+      <c r="L1945" s="53"/>
+    </row>
+    <row r="1946" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1946" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1946" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1946" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1946" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1946" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1946" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1946" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1946" s="53"/>
+      <c r="I1946" s="53"/>
+      <c r="J1946" s="53"/>
+      <c r="K1946" s="53"/>
+    </row>
+    <row r="1947" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1947" s="53" t="str">
+        <f>B1938</f>
+        <v>hydrogen, used in passenger car</v>
+      </c>
+      <c r="B1947" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1947" s="53" t="str">
+        <f>B1939</f>
+        <v>CH</v>
+      </c>
+      <c r="D1947" s="53" t="str">
+        <f>B1944</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1947" s="53"/>
+      <c r="F1947" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1947" s="53" t="str">
+        <f>B1941</f>
+        <v>heat</v>
+      </c>
+      <c r="H1947" s="53"/>
+      <c r="I1947" s="53"/>
+      <c r="J1947" s="53"/>
+      <c r="K1947" s="53"/>
+      <c r="L1947" s="53"/>
+    </row>
+    <row r="1948" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1948" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1948" s="57">
+        <f>0.00000507/2</f>
+        <v>2.5349999999999999E-6</v>
+      </c>
+      <c r="C1948" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1948" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1948" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1948" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1948" s="58"/>
+    </row>
+    <row r="1949" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1949" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1949" s="59">
+        <f>0.01676/2</f>
+        <v>8.3800000000000003E-3</v>
+      </c>
+      <c r="C1949" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1949" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1949" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1949" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1949" s="60"/>
+      <c r="O1949" s="58"/>
+    </row>
+    <row r="1950" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1950" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1950" s="57">
+        <f>0.56%*B1949</f>
+        <v>4.6928000000000009E-5</v>
+      </c>
+      <c r="D1950" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1950" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1950" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1950" s="60"/>
+      <c r="O1950" s="58"/>
+    </row>
+    <row r="1951" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1951" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1951" s="61">
+        <f>B1949*9/1000</f>
+        <v>7.5420000000000006E-5</v>
+      </c>
+      <c r="D1951" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1951" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1951" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1951" s="58"/>
+    </row>
+    <row r="1952" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1952" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1952">
+        <v>1.2282608695652171E-5</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1952" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1952" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1953" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1953">
+        <v>2.3890980215666521E-4</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1953" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1953" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1954" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1954">
+        <v>2.4565217391304346E-5</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1954" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1954" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1955" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1955">
+        <v>1.0917874396135266E-5</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1955" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1955" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1956" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1956">
+        <v>-5.1028073570343861E-5</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1956" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1956" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1957" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1957">
+        <v>1.6723486296163113E-5</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1957" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1957" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1958" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1958">
+        <v>6.8609174548361503E-5</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1958" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1958" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1959" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1959">
+        <v>2.6167471819645726E-4</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1959" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1959" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/inventories/lci-sweet_sure.xlsx
+++ b/inventories/lci-sweet_sure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/sweet_sure-2050-switzerland/inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/sweet_sure-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BD29D2-1350-3C45-B71A-AB6D5E822B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8C06E0-0B7B-1849-9F97-0FFA7405404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1040" windowWidth="15960" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24320" yWindow="500" windowWidth="20480" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biomass and waste" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7030" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7035" uniqueCount="448">
   <si>
     <t>Activity</t>
   </si>
@@ -872,9 +872,6 @@
     <t>diesel</t>
   </si>
   <si>
-    <t>market for diesel</t>
-  </si>
-  <si>
     <t>synthetic kerosene import, from neighboring countries</t>
   </si>
   <si>
@@ -1374,6 +1371,15 @@
   </si>
   <si>
     <t>Assumed vehicle's lifetime: 200'000 km. Assumed vehicle energy consumption: 3.7 MJ/vkm.</t>
+  </si>
+  <si>
+    <t>market for charger, electric passenger car</t>
+  </si>
+  <si>
+    <t>charger, electric passenger car</t>
+  </si>
+  <si>
+    <t>diesel, low-sulfur, import from Europe</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1674,11 +1680,10 @@
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1956,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1959"/>
+  <dimension ref="A1:O1960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1928" workbookViewId="0">
-      <selection activeCell="C1949" sqref="C1949"/>
+    <sheetView tabSelected="1" topLeftCell="A1507" workbookViewId="0">
+      <selection activeCell="C1534" sqref="C1534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25012,7 +25017,7 @@
         <v>0</v>
       </c>
       <c r="B1286" s="49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1287" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -25036,7 +25041,7 @@
         <v>3</v>
       </c>
       <c r="B1289" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1290" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -25123,7 +25128,7 @@
     </row>
     <row r="1296" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1296" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1296" s="50">
         <v>1</v>
@@ -25141,7 +25146,7 @@
         <v>16</v>
       </c>
       <c r="H1296" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1297" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25261,13 +25266,13 @@
     </row>
     <row r="1308" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1308" s="50" t="s">
-        <v>278</v>
+        <v>447</v>
       </c>
       <c r="B1308" s="50">
         <v>1</v>
       </c>
       <c r="C1308" s="50" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="D1308" s="50" t="s">
         <v>7</v>
@@ -25279,7 +25284,7 @@
         <v>16</v>
       </c>
       <c r="H1308" s="50" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1309" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25288,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="B1310" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1311" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -25312,7 +25317,7 @@
         <v>3</v>
       </c>
       <c r="B1313" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1314" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -25399,7 +25404,7 @@
     </row>
     <row r="1320" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1320" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1320" s="50">
         <v>1</v>
@@ -25417,7 +25422,7 @@
         <v>16</v>
       </c>
       <c r="H1320" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1321" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25426,7 +25431,7 @@
         <v>0</v>
       </c>
       <c r="B1322" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1323" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -25450,7 +25455,7 @@
         <v>3</v>
       </c>
       <c r="B1325" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1326" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -25537,7 +25542,7 @@
     </row>
     <row r="1332" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1332" s="50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1332" s="50">
         <v>1</v>
@@ -25555,7 +25560,7 @@
         <v>16</v>
       </c>
       <c r="H1332" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1335" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -25563,7 +25568,7 @@
         <v>0</v>
       </c>
       <c r="B1335" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1336" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -25587,7 +25592,7 @@
         <v>3</v>
       </c>
       <c r="B1338" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1339" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -25611,7 +25616,7 @@
         <v>9</v>
       </c>
       <c r="B1341" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1342" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -25697,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1347" s="53"/>
       <c r="D1347" s="53"/>
@@ -25747,7 +25752,7 @@
         <v>3</v>
       </c>
       <c r="B1350" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1350" s="53"/>
       <c r="D1350" s="53"/>
@@ -25870,7 +25875,7 @@
     </row>
     <row r="1356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1356" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1356">
         <f>1/3.6</f>
@@ -25886,7 +25891,7 @@
         <v>18</v>
       </c>
       <c r="H1356" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1357" spans="1:12" x14ac:dyDescent="0.2">
@@ -25901,7 +25906,7 @@
         <v>0</v>
       </c>
       <c r="B1359" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1359" s="53"/>
       <c r="D1359" s="53"/>
@@ -25951,7 +25956,7 @@
         <v>3</v>
       </c>
       <c r="B1362" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1362" s="53"/>
       <c r="D1362" s="53"/>
@@ -26074,7 +26079,7 @@
     </row>
     <row r="1368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1368" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B1368" s="2">
         <f>1/0.0925925925925926/3.6</f>
@@ -26090,7 +26095,7 @@
         <v>18</v>
       </c>
       <c r="H1368" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1369" spans="1:12" x14ac:dyDescent="0.2">
@@ -26102,7 +26107,7 @@
         <v>0</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1370" s="53"/>
       <c r="D1370" s="53"/>
@@ -26152,7 +26157,7 @@
         <v>3</v>
       </c>
       <c r="B1373" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1373" s="53"/>
       <c r="D1373" s="53"/>
@@ -26275,7 +26280,7 @@
     </row>
     <row r="1379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1379" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1379">
         <f>1/3.6</f>
@@ -26291,7 +26296,7 @@
         <v>18</v>
       </c>
       <c r="H1379" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1380" spans="1:12" x14ac:dyDescent="0.2">
@@ -26303,7 +26308,7 @@
         <v>0</v>
       </c>
       <c r="B1381" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C1381" s="53"/>
       <c r="D1381" s="53"/>
@@ -26353,7 +26358,7 @@
         <v>3</v>
       </c>
       <c r="B1384" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1384" s="53"/>
       <c r="D1384" s="53"/>
@@ -26476,7 +26481,7 @@
     </row>
     <row r="1390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1390" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1390">
         <f>1/(0.0274*40.1)</f>
@@ -26492,7 +26497,7 @@
         <v>18</v>
       </c>
       <c r="H1390" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1392" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -26500,7 +26505,7 @@
         <v>0</v>
       </c>
       <c r="B1392" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C1392" s="53"/>
       <c r="D1392" s="53"/>
@@ -26547,7 +26552,7 @@
         <v>3</v>
       </c>
       <c r="B1395" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1395" s="53"/>
       <c r="D1395" s="53"/>
@@ -26666,7 +26671,7 @@
     </row>
     <row r="1401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1401" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1401">
         <f>1/(0.0259*39)</f>
@@ -26682,7 +26687,7 @@
         <v>18</v>
       </c>
       <c r="H1401" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1403" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -26690,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="B1403" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C1403" s="53"/>
       <c r="D1403" s="53"/>
@@ -26737,7 +26742,7 @@
         <v>3</v>
       </c>
       <c r="B1406" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1406" s="53"/>
       <c r="D1406" s="53"/>
@@ -26856,14 +26861,14 @@
     </row>
     <row r="1412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1412" s="53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1412">
         <f>1/(0.046347*36)</f>
         <v>0.59934359889049504</v>
       </c>
       <c r="C1412" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="D1412" t="s">
         <v>17</v>
@@ -26883,7 +26888,7 @@
         <v>0</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C1414" s="53"/>
       <c r="D1414" s="53"/>
@@ -26930,7 +26935,7 @@
         <v>3</v>
       </c>
       <c r="B1417" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1417" s="53"/>
       <c r="D1417" s="53"/>
@@ -27049,7 +27054,7 @@
     </row>
     <row r="1423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1423" s="53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1423">
         <v>0.8</v>
@@ -27064,7 +27069,7 @@
         <v>18</v>
       </c>
       <c r="H1423" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1424" spans="1:12" x14ac:dyDescent="0.2">
@@ -27075,7 +27080,7 @@
         <v>0</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C1425" s="53"/>
       <c r="D1425" s="53"/>
@@ -27122,7 +27127,7 @@
         <v>3</v>
       </c>
       <c r="B1428" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1428" s="53"/>
       <c r="D1428" s="53"/>
@@ -27241,14 +27246,14 @@
     </row>
     <row r="1434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1434" s="53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1434">
         <f>1/(0.0366*39)</f>
         <v>0.70057447106627435</v>
       </c>
       <c r="C1434" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D1434" t="s">
         <v>17</v>
@@ -27257,7 +27262,7 @@
         <v>18</v>
       </c>
       <c r="H1434" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1435" spans="1:12" x14ac:dyDescent="0.2">
@@ -27268,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1436" s="53"/>
       <c r="D1436" s="53"/>
@@ -27315,7 +27320,7 @@
         <v>3</v>
       </c>
       <c r="B1439" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1439" s="53"/>
       <c r="D1439" s="53"/>
@@ -27434,7 +27439,7 @@
     </row>
     <row r="1445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1445" s="53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B1445">
         <f>1/(0.016231*22.73)</f>
@@ -27450,7 +27455,7 @@
         <v>18</v>
       </c>
       <c r="H1445" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1446" spans="1:12" x14ac:dyDescent="0.2">
@@ -27461,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C1447" s="53"/>
       <c r="D1447" s="53"/>
@@ -27508,7 +27513,7 @@
         <v>3</v>
       </c>
       <c r="B1450" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1450" s="53"/>
       <c r="D1450" s="53"/>
@@ -27627,7 +27632,7 @@
     </row>
     <row r="1456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1456" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1456">
         <f>1/(0.0095*36)</f>
@@ -27654,7 +27659,7 @@
         <v>0</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C1458" s="53"/>
       <c r="D1458" s="53"/>
@@ -27701,7 +27706,7 @@
         <v>3</v>
       </c>
       <c r="B1461" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1461" s="53"/>
       <c r="D1461" s="53"/>
@@ -27820,7 +27825,7 @@
     </row>
     <row r="1467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1467" s="53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1467">
         <f>1/(0.011726*1.08*36)</f>
@@ -27847,7 +27852,7 @@
         <v>0</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1469" s="53"/>
       <c r="D1469" s="53"/>
@@ -27894,7 +27899,7 @@
         <v>3</v>
       </c>
       <c r="B1472" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1472" s="53"/>
       <c r="D1472" s="53"/>
@@ -28013,7 +28018,7 @@
     </row>
     <row r="1478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1478" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1478">
         <f>1/(0.011726*1.08*36)</f>
@@ -28040,7 +28045,7 @@
         <v>0</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C1480" s="53"/>
       <c r="D1480" s="53"/>
@@ -28087,7 +28092,7 @@
         <v>3</v>
       </c>
       <c r="B1483" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1483" s="53"/>
       <c r="D1483" s="53"/>
@@ -28232,7 +28237,7 @@
         <v>0</v>
       </c>
       <c r="B1491" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1491" s="53"/>
       <c r="D1491" s="53"/>
@@ -28279,7 +28284,7 @@
         <v>3</v>
       </c>
       <c r="B1494" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1494" s="53"/>
       <c r="D1494" s="53"/>
@@ -28424,7 +28429,7 @@
         <v>0</v>
       </c>
       <c r="B1502" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C1502" s="53"/>
       <c r="D1502" s="53"/>
@@ -28471,7 +28476,7 @@
         <v>3</v>
       </c>
       <c r="B1505" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1505" s="53"/>
       <c r="D1505" s="53"/>
@@ -28590,7 +28595,7 @@
     </row>
     <row r="1511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1511" s="53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1511">
         <f>1/(0.0396618169378429*19.1)</f>
@@ -28606,7 +28611,7 @@
         <v>18</v>
       </c>
       <c r="H1511" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1513" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28614,7 +28619,7 @@
         <v>0</v>
       </c>
       <c r="B1513" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1513" s="53"/>
       <c r="D1513" s="53"/>
@@ -28661,7 +28666,7 @@
         <v>3</v>
       </c>
       <c r="B1516" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1516" s="53"/>
       <c r="D1516" s="53"/>
@@ -28780,7 +28785,7 @@
     </row>
     <row r="1522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1522" s="53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1522">
         <f>1/(0.0396618169378429*19.1*1.1)</f>
@@ -28796,7 +28801,7 @@
         <v>18</v>
       </c>
       <c r="H1522" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1524" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28804,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1524" s="53"/>
       <c r="D1524" s="53"/>
@@ -28851,7 +28856,7 @@
         <v>3</v>
       </c>
       <c r="B1527" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1527" s="53"/>
       <c r="D1527" s="53"/>
@@ -28970,14 +28975,14 @@
     </row>
     <row r="1533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1533" s="53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B1533">
         <f>1/(0.00167*120)</f>
         <v>4.9900199600798407</v>
       </c>
       <c r="C1533" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1533" t="s">
         <v>17</v>
@@ -28986,7 +28991,7 @@
         <v>18</v>
       </c>
       <c r="H1533" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1535" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28994,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1535" s="53"/>
       <c r="D1535" s="53"/>
@@ -29041,7 +29046,7 @@
         <v>3</v>
       </c>
       <c r="B1538" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1538" s="53"/>
       <c r="D1538" s="53"/>
@@ -29160,7 +29165,7 @@
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1544" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1544">
         <v>1</v>
@@ -29175,7 +29180,7 @@
         <v>18</v>
       </c>
       <c r="H1544" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1546" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -29183,7 +29188,7 @@
         <v>0</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1546" s="53"/>
       <c r="D1546" s="53"/>
@@ -29230,7 +29235,7 @@
         <v>3</v>
       </c>
       <c r="B1549" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1549" s="53"/>
       <c r="D1549" s="53"/>
@@ -29349,7 +29354,7 @@
     </row>
     <row r="1555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1555" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B1555">
         <f>1/(0.0705467372134039*19.1)</f>
@@ -29365,7 +29370,7 @@
         <v>18</v>
       </c>
       <c r="H1555" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1556" spans="1:12" x14ac:dyDescent="0.2">
@@ -29376,7 +29381,7 @@
         <v>0</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1557" s="53"/>
       <c r="D1557" s="53"/>
@@ -29423,7 +29428,7 @@
         <v>3</v>
       </c>
       <c r="B1560" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1560" s="53"/>
       <c r="D1560" s="53"/>
@@ -29542,7 +29547,7 @@
     </row>
     <row r="1566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1566" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1566">
         <f>1/(0.0711533333333334*19.1)</f>
@@ -29558,7 +29563,7 @@
         <v>18</v>
       </c>
       <c r="H1566" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1568" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -29566,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C1568" s="53"/>
       <c r="D1568" s="53"/>
@@ -29613,7 +29618,7 @@
         <v>3</v>
       </c>
       <c r="B1571" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1571" s="53"/>
       <c r="D1571" s="53"/>
@@ -29759,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1579" s="53"/>
       <c r="D1579" s="53"/>
@@ -29806,7 +29811,7 @@
         <v>3</v>
       </c>
       <c r="B1582" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1582" s="53"/>
       <c r="D1582" s="53"/>
@@ -29952,7 +29957,7 @@
         <v>0</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1590" s="53"/>
       <c r="D1590" s="53"/>
@@ -29999,7 +30004,7 @@
         <v>3</v>
       </c>
       <c r="B1593" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1593" s="53"/>
       <c r="D1593" s="53"/>
@@ -30118,7 +30123,7 @@
     </row>
     <row r="1599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1599" s="53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1599">
         <f>1/0.28851</f>
@@ -30134,7 +30139,7 @@
         <v>18</v>
       </c>
       <c r="H1599" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1600" spans="1:12" x14ac:dyDescent="0.2">
@@ -30145,7 +30150,7 @@
         <v>0</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1601" s="53"/>
       <c r="D1601" s="53"/>
@@ -30192,7 +30197,7 @@
         <v>3</v>
       </c>
       <c r="B1604" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1604" s="53"/>
       <c r="D1604" s="53"/>
@@ -30311,7 +30316,7 @@
     </row>
     <row r="1610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1610" s="3">
         <v>4.4004494642869032E-7</v>
@@ -30326,12 +30331,12 @@
         <v>18</v>
       </c>
       <c r="H1610" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="1611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B1611" s="3">
         <v>8.8008989285738064E-7</v>
@@ -30340,18 +30345,18 @@
         <v>24</v>
       </c>
       <c r="D1611" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F1611" t="s">
         <v>18</v>
       </c>
       <c r="H1611" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="1612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1612">
         <v>8.1068656716417958E-4</v>
@@ -30366,12 +30371,12 @@
         <v>18</v>
       </c>
       <c r="H1612" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1613" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B1613" s="55">
         <v>8.3333333333333332E-3</v>
@@ -30387,7 +30392,7 @@
         <v>18</v>
       </c>
       <c r="H1613" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1614" spans="1:12" x14ac:dyDescent="0.2">
@@ -30438,7 +30443,7 @@
     </row>
     <row r="1616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1616" s="53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1616" s="54">
         <v>4.1459369817577878E-5</v>
@@ -30475,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1618" s="53"/>
       <c r="D1618" s="53"/>
@@ -30525,7 +30530,7 @@
         <v>3</v>
       </c>
       <c r="B1621" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1621" s="53"/>
       <c r="D1621" s="53"/>
@@ -30648,7 +30653,7 @@
     </row>
     <row r="1627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1627" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1627">
         <f>1/3.6</f>
@@ -30664,7 +30669,7 @@
         <v>18</v>
       </c>
       <c r="H1627" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1628" spans="1:12" x14ac:dyDescent="0.2">
@@ -30679,7 +30684,7 @@
         <v>0</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1630" s="53"/>
       <c r="D1630" s="53"/>
@@ -30729,7 +30734,7 @@
         <v>3</v>
       </c>
       <c r="B1633" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1633" s="53"/>
       <c r="D1633" s="53"/>
@@ -30852,7 +30857,7 @@
     </row>
     <row r="1639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1639" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B1639" s="2">
         <f>1/0.0925925925925926/3.6</f>
@@ -30868,7 +30873,7 @@
         <v>18</v>
       </c>
       <c r="H1639" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1640" spans="1:12" x14ac:dyDescent="0.2">
@@ -30880,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1641" s="53"/>
       <c r="D1641" s="53"/>
@@ -30930,7 +30935,7 @@
         <v>3</v>
       </c>
       <c r="B1644" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1644" s="53"/>
       <c r="D1644" s="53"/>
@@ -31053,7 +31058,7 @@
     </row>
     <row r="1650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1650" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1650">
         <f>1/3.6</f>
@@ -31069,7 +31074,7 @@
         <v>18</v>
       </c>
       <c r="H1650" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1651" spans="1:12" x14ac:dyDescent="0.2">
@@ -31081,7 +31086,7 @@
         <v>0</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1652" s="53"/>
       <c r="D1652" s="53"/>
@@ -31131,7 +31136,7 @@
         <v>3</v>
       </c>
       <c r="B1655" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1655" s="53"/>
       <c r="D1655" s="53"/>
@@ -31254,7 +31259,7 @@
     </row>
     <row r="1661" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1661" s="53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1661">
         <f>1/(0.02342*40.1)</f>
@@ -31270,7 +31275,7 @@
         <v>18</v>
       </c>
       <c r="H1661" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1663" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -31278,7 +31283,7 @@
         <v>0</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1663" s="53"/>
       <c r="D1663" s="53"/>
@@ -31325,7 +31330,7 @@
         <v>3</v>
       </c>
       <c r="B1666" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1666" s="53"/>
       <c r="D1666" s="53"/>
@@ -31444,7 +31449,7 @@
     </row>
     <row r="1672" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1672" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B1672">
         <f>1/(0.025337607*36)</f>
@@ -31460,7 +31465,7 @@
         <v>18</v>
       </c>
       <c r="H1672" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="1673" spans="1:12" x14ac:dyDescent="0.2">
@@ -31471,7 +31476,7 @@
         <v>0</v>
       </c>
       <c r="B1674" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1674" s="53"/>
       <c r="D1674" s="53"/>
@@ -31518,7 +31523,7 @@
         <v>3</v>
       </c>
       <c r="B1677" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1677" s="53"/>
       <c r="D1677" s="53"/>
@@ -31637,7 +31642,7 @@
     </row>
     <row r="1683" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1683" s="53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1683">
         <f>1/1.43</f>
@@ -31653,7 +31658,7 @@
         <v>18</v>
       </c>
       <c r="H1683" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1684" spans="1:12" x14ac:dyDescent="0.2">
@@ -31664,7 +31669,7 @@
         <v>0</v>
       </c>
       <c r="B1685" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C1685" s="53"/>
       <c r="D1685" s="53"/>
@@ -31711,7 +31716,7 @@
         <v>3</v>
       </c>
       <c r="B1688" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1688" s="53"/>
       <c r="D1688" s="53"/>
@@ -31830,7 +31835,7 @@
     </row>
     <row r="1694" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1694" s="53" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B1694">
         <f>1/(0.1078*19.1)</f>
@@ -31846,7 +31851,7 @@
         <v>18</v>
       </c>
       <c r="H1694" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1695" spans="1:12" x14ac:dyDescent="0.2">
@@ -31857,7 +31862,7 @@
         <v>0</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C1696" s="53"/>
       <c r="D1696" s="53"/>
@@ -31904,7 +31909,7 @@
         <v>3</v>
       </c>
       <c r="B1699" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1699" s="53"/>
       <c r="D1699" s="53"/>
@@ -32023,7 +32028,7 @@
     </row>
     <row r="1705" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1705" s="53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B1705">
         <f>1/(0.0762357142857144*19.1)</f>
@@ -32039,7 +32044,7 @@
         <v>18</v>
       </c>
       <c r="H1705" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1707" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -32047,7 +32052,7 @@
         <v>0</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1707" s="53"/>
       <c r="D1707" s="53"/>
@@ -32094,7 +32099,7 @@
         <v>3</v>
       </c>
       <c r="B1710" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1710" s="53"/>
       <c r="D1710" s="53"/>
@@ -32213,7 +32218,7 @@
     </row>
     <row r="1716" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1716" s="53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1716">
         <f>1/0.28851</f>
@@ -32229,7 +32234,7 @@
         <v>18</v>
       </c>
       <c r="H1716" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1717" spans="1:12" x14ac:dyDescent="0.2">
@@ -32240,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C1718" s="53"/>
       <c r="D1718" s="53"/>
@@ -32287,7 +32292,7 @@
         <v>3</v>
       </c>
       <c r="B1721" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1721" s="53"/>
       <c r="D1721" s="53"/>
@@ -32406,7 +32411,7 @@
     </row>
     <row r="1727" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1727" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1727">
         <f>1/(0.0095*36)</f>
@@ -32433,7 +32438,7 @@
         <v>0</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1729" s="53"/>
       <c r="D1729" s="53"/>
@@ -32480,7 +32485,7 @@
         <v>3</v>
       </c>
       <c r="B1732" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1732" s="53"/>
       <c r="D1732" s="53"/>
@@ -32599,7 +32604,7 @@
     </row>
     <row r="1738" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1738" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1738">
         <f>1/(0.011726*1.08*36)</f>
@@ -32626,7 +32631,7 @@
         <v>0</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1740" s="53"/>
       <c r="D1740" s="53"/>
@@ -32673,7 +32678,7 @@
         <v>3</v>
       </c>
       <c r="B1743" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1743" s="53"/>
       <c r="D1743" s="53"/>
@@ -32792,7 +32797,7 @@
     </row>
     <row r="1749" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1749" s="53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1749">
         <f>1/(0.0396618169378429*19.1)</f>
@@ -32808,7 +32813,7 @@
         <v>18</v>
       </c>
       <c r="H1749" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1751" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -32816,7 +32821,7 @@
         <v>0</v>
       </c>
       <c r="B1751" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C1751" s="53"/>
       <c r="D1751" s="53"/>
@@ -32866,7 +32871,7 @@
         <v>3</v>
       </c>
       <c r="B1754" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1754" s="53"/>
       <c r="D1754" s="53"/>
@@ -32988,7 +32993,7 @@
     </row>
     <row r="1760" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1760" s="53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1760">
         <f>1/43</f>
@@ -33004,12 +33009,12 @@
         <v>18</v>
       </c>
       <c r="G1760" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1761" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1761" s="53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1761">
         <f>150/200000/2.15</f>
@@ -33025,12 +33030,12 @@
         <v>18</v>
       </c>
       <c r="G1761" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1762" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1762" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1762" s="3">
         <v>7.1455665432553858E-7</v>
@@ -33048,7 +33053,7 @@
     </row>
     <row r="1763" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1763" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1763" s="3">
         <v>3.2468920124586623E-7</v>
@@ -33066,7 +33071,7 @@
     </row>
     <row r="1764" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1764" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1764" s="3">
         <v>3.9534349472964383E-7</v>
@@ -33102,7 +33107,7 @@
     </row>
     <row r="1766" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1766" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B1766" s="3">
         <v>9.4995966427857817E-8</v>
@@ -33138,7 +33143,7 @@
     </row>
     <row r="1768" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1768" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B1768" s="3">
         <v>1.2147463123534157E-8</v>
@@ -33265,7 +33270,7 @@
     </row>
     <row r="1775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1775" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1775" s="3">
         <v>7.1789570411210658E-8</v>
@@ -33301,7 +33306,7 @@
     </row>
     <row r="1777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1777" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1777" s="3">
         <v>3.646242366932188E-8</v>
@@ -33319,7 +33324,7 @@
     </row>
     <row r="1778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1778" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B1778" s="3">
         <v>1.2114072625668476E-6</v>
@@ -33337,7 +33342,7 @@
     </row>
     <row r="1779" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1779" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B1779" s="3">
         <v>1.3252688602888143E-6</v>
@@ -33355,7 +33360,7 @@
     </row>
     <row r="1780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1780" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1780" s="3">
         <v>2.2087814338146904E-8</v>
@@ -33427,7 +33432,7 @@
     </row>
     <row r="1784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1784" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1784" s="3">
         <v>1.3252688602888143E-7</v>
@@ -33499,7 +33504,7 @@
     </row>
     <row r="1788" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1788" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1788" s="3">
         <v>4.2883696301401334E-9</v>
@@ -33535,7 +33540,7 @@
     </row>
     <row r="1790" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1790" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1790" s="3">
         <v>4.417562867629381E-9</v>
@@ -33553,7 +33558,7 @@
     </row>
     <row r="1791" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1791" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B1791" s="3">
         <v>1.2147463123534157E-8</v>
@@ -33571,7 +33576,7 @@
     </row>
     <row r="1792" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1792" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B1792" s="3">
         <v>3.9768082958024133E-7</v>
@@ -33607,7 +33612,7 @@
     </row>
     <row r="1794" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1794" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B1794" s="3">
         <v>4.0869969387591558E-8</v>
@@ -33679,7 +33684,7 @@
     </row>
     <row r="1798" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1798" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B1798" s="3">
         <v>6.7382024692940973E-8</v>
@@ -33697,7 +33702,7 @@
     </row>
     <row r="1799" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1799" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1799" s="3">
         <v>2.9821053643838246E-8</v>
@@ -33723,7 +33728,7 @@
         <v>0</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1801" s="53"/>
       <c r="D1801" s="53"/>
@@ -33773,7 +33778,7 @@
         <v>3</v>
       </c>
       <c r="B1804" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1804" s="53"/>
       <c r="D1804" s="53"/>
@@ -33895,7 +33900,7 @@
     </row>
     <row r="1810" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1810" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B1810">
         <f>1/42.6</f>
@@ -33911,12 +33916,12 @@
         <v>18</v>
       </c>
       <c r="G1810" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1811" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1811" s="53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1811">
         <f>150/200000/2.15</f>
@@ -33932,12 +33937,12 @@
         <v>18</v>
       </c>
       <c r="G1811" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1812" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1812" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1812" s="3">
         <v>1.4547114129662022E-7</v>
@@ -33955,7 +33960,7 @@
     </row>
     <row r="1813" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1813" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B1813" s="3">
         <v>2.3599288167039204E-6</v>
@@ -33973,7 +33978,7 @@
     </row>
     <row r="1814" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1814" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1814" s="3">
         <v>6.4176573052336623E-8</v>
@@ -33991,7 +33996,7 @@
     </row>
     <row r="1815" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1815" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1815" s="3">
         <v>5.2181249284002014E-8</v>
@@ -34009,7 +34014,7 @@
     </row>
     <row r="1816" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1816" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1816" s="3">
         <v>1.6258913648856724E-8</v>
@@ -34045,7 +34050,7 @@
     </row>
     <row r="1818" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1818" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B1818" s="3">
         <v>1.8823431144155847E-8</v>
@@ -34081,7 +34086,7 @@
     </row>
     <row r="1820" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1820" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B1820" s="3">
         <v>2.4210190597681178E-6</v>
@@ -34207,7 +34212,7 @@
     </row>
     <row r="1827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1827" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1827" s="3">
         <v>9.7553481893140337E-8</v>
@@ -34243,7 +34248,7 @@
     </row>
     <row r="1829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1829" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1829" s="3">
         <v>3.738595604189168E-7</v>
@@ -34261,7 +34266,7 @@
     </row>
     <row r="1830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1830" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B1830" s="3">
         <v>8.4158173387917866E-9</v>
@@ -34279,7 +34284,7 @@
     </row>
     <row r="1831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1831" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B1831" s="3">
         <v>6.2458409966156062E-7</v>
@@ -34297,7 +34302,7 @@
     </row>
     <row r="1832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1832" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B1832" s="3">
         <v>1.4547114129662022E-7</v>
@@ -34315,7 +34320,7 @@
     </row>
     <row r="1833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1833" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1833" s="3">
         <v>6.3317491509246337E-8</v>
@@ -34333,7 +34338,7 @@
     </row>
     <row r="1834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1834" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B1834" s="3">
         <v>1.3777122524373701E-7</v>
@@ -34405,7 +34410,7 @@
     </row>
     <row r="1838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1838" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1838" s="3">
         <v>4.2794987979867499E-9</v>
@@ -34477,7 +34482,7 @@
     </row>
     <row r="1842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1842" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1842" s="3">
         <v>8.1690140845070448E-10</v>
@@ -34513,7 +34518,7 @@
     </row>
     <row r="1844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1844" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1844" s="3">
         <v>2.7827878429139121E-6</v>
@@ -34531,7 +34536,7 @@
     </row>
     <row r="1845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1845" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B1845" s="3">
         <v>1.789116858072825E-6</v>
@@ -34549,7 +34554,7 @@
     </row>
     <row r="1846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1846" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B1846" s="3">
         <v>4.7122213530248159E-8</v>
@@ -34567,7 +34572,7 @@
     </row>
     <row r="1847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1847" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B1847" s="3">
         <v>3.2676916472359795E-7</v>
@@ -34603,7 +34608,7 @@
     </row>
     <row r="1849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1849" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B1849" s="3">
         <v>8.6417239667896019E-8</v>
@@ -34675,7 +34680,7 @@
     </row>
     <row r="1853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1853" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B1853" s="3">
         <v>1.0417159155842839E-6</v>
@@ -34693,7 +34698,7 @@
     </row>
     <row r="1854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1854" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1854" s="3">
         <v>2.4967455068997787E-7</v>
@@ -34717,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="B1856" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1857" spans="1:7" x14ac:dyDescent="0.2">
@@ -34741,7 +34746,7 @@
         <v>3</v>
       </c>
       <c r="B1859" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1860" spans="1:7" x14ac:dyDescent="0.2">
@@ -34762,10 +34767,10 @@
     </row>
     <row r="1862" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1862" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1862" t="s">
         <v>417</v>
-      </c>
-      <c r="B1862" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="1863" spans="1:7" x14ac:dyDescent="0.2">
@@ -34773,12 +34778,12 @@
         <v>8</v>
       </c>
       <c r="B1863" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1864" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1864" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1864" t="s">
         <v>16</v>
@@ -34786,7 +34791,7 @@
     </row>
     <row r="1865" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1865" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B1865" t="s">
         <v>16</v>
@@ -34831,7 +34836,7 @@
     </row>
     <row r="1869" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1869" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B1869">
         <v>1</v>
@@ -34849,12 +34854,12 @@
         <v>15</v>
       </c>
       <c r="G1869" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1870" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1870" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B1870">
         <v>7.4999999999999997E-2</v>
@@ -34872,12 +34877,12 @@
         <v>18</v>
       </c>
       <c r="G1870" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1871" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1871" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B1871">
         <v>0.05</v>
@@ -34895,12 +34900,12 @@
         <v>18</v>
       </c>
       <c r="G1871" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1872" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1872" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1872">
         <v>0.875</v>
@@ -34918,12 +34923,12 @@
         <v>18</v>
       </c>
       <c r="G1872" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1873" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1873" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B1873">
         <v>0.875</v>
@@ -34941,7 +34946,7 @@
         <v>18</v>
       </c>
       <c r="G1873" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1874" spans="1:12" x14ac:dyDescent="0.2">
@@ -34952,7 +34957,7 @@
         <v>0</v>
       </c>
       <c r="B1875" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C1875" s="53"/>
       <c r="D1875" s="53"/>
@@ -35002,7 +35007,7 @@
         <v>3</v>
       </c>
       <c r="B1878" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1878" s="53"/>
       <c r="D1878" s="53"/>
@@ -35014,11 +35019,11 @@
       <c r="J1878" s="53"/>
     </row>
     <row r="1879" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1879" s="62" t="s">
+      <c r="A1879" t="s">
         <v>9</v>
       </c>
-      <c r="B1879" s="62" t="s">
-        <v>445</v>
+      <c r="B1879" t="s">
+        <v>444</v>
       </c>
       <c r="C1879" s="53"/>
       <c r="D1879" s="53"/>
@@ -35140,7 +35145,7 @@
     </row>
     <row r="1885" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1885" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B1885">
         <f>1/36</f>
@@ -35156,12 +35161,12 @@
         <v>18</v>
       </c>
       <c r="G1885" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="1886" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1886" s="53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1886">
         <f>150/200000/2.15</f>
@@ -35177,12 +35182,12 @@
         <v>18</v>
       </c>
       <c r="G1886" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1887" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1887" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B1887">
         <f>133/200000/3.7</f>
@@ -35198,10 +35203,10 @@
         <v>16</v>
       </c>
       <c r="F1887" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1887" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1888" spans="1:12" x14ac:dyDescent="0.2">
@@ -35428,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="B1901" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1901" s="53"/>
       <c r="D1901" s="53"/>
@@ -35478,7 +35483,7 @@
         <v>3</v>
       </c>
       <c r="B1904" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1904" s="53"/>
       <c r="D1904" s="53"/>
@@ -35512,7 +35517,7 @@
         <v>6</v>
       </c>
       <c r="B1906" s="53" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="C1906" s="53"/>
       <c r="D1906" s="53"/>
@@ -35582,7 +35587,7 @@
       </c>
       <c r="D1909" s="53" t="str">
         <f>B1906</f>
-        <v>kilowatt hour</v>
+        <v>megajoule</v>
       </c>
       <c r="E1909" s="53"/>
       <c r="F1909" s="53" t="s">
@@ -35600,11 +35605,11 @@
     </row>
     <row r="1910" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1910" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1910">
-        <f>1</f>
-        <v>1</v>
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C1910" t="s">
         <v>104</v>
@@ -35616,16 +35621,15 @@
         <v>18</v>
       </c>
       <c r="G1910" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1911" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1911" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B1911">
-        <f>100/200000/0.2</f>
-        <v>2.5000000000000001E-3</v>
+        <v>6.3818879937582967E-4</v>
       </c>
       <c r="C1911" t="s">
         <v>24</v>
@@ -35637,15 +35641,15 @@
         <v>18</v>
       </c>
       <c r="G1911" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1912" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1912" t="s">
-        <v>433</v>
-      </c>
-      <c r="B1912" s="3">
-        <v>2.5000000000000001E-4</v>
+        <v>432</v>
+      </c>
+      <c r="B1912">
+        <v>2.32E-3</v>
       </c>
       <c r="C1912" t="s">
         <v>24</v>
@@ -35657,16 +35661,16 @@
         <v>18</v>
       </c>
       <c r="G1912" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1912" s="3"/>
     </row>
     <row r="1913" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1913" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B1913">
-        <v>1.0714285714285715E-4</v>
+        <v>1.5466666666666667E-3</v>
       </c>
       <c r="C1913" s="53" t="s">
         <v>24</v>
@@ -35678,16 +35682,16 @@
         <v>18</v>
       </c>
       <c r="G1913" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I1913" s="30"/>
     </row>
     <row r="1914" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1914" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1914">
-        <v>1.2282608695652171E-5</v>
+        <v>2.9804347826086958E-5</v>
       </c>
       <c r="C1914" t="s">
         <v>24</v>
@@ -35699,15 +35703,15 @@
         <v>18</v>
       </c>
       <c r="G1914" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1915" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1915" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1915">
-        <v>2.4565217391304346E-5</v>
+        <v>5.9608695652173916E-5</v>
       </c>
       <c r="C1915" t="s">
         <v>24</v>
@@ -35719,15 +35723,15 @@
         <v>18</v>
       </c>
       <c r="G1915" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1916" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1916" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B1916">
-        <v>1.0917874396135266E-5</v>
+        <v>2.6492753623188407E-5</v>
       </c>
       <c r="C1916" t="s">
         <v>24</v>
@@ -35739,16 +35743,15 @@
         <v>18</v>
       </c>
       <c r="G1916" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="1917" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1917" t="s">
-        <v>415</v>
-      </c>
-      <c r="B1917" s="3">
-        <f>-1*SUM(B1912:B1913)</f>
-        <v>-3.5714285714285714E-4</v>
+        <v>414</v>
+      </c>
+      <c r="B1917">
+        <v>-3.8666666666666663E-3</v>
       </c>
       <c r="C1917" t="s">
         <v>24</v>
@@ -35760,161 +35763,158 @@
         <v>18</v>
       </c>
       <c r="G1917" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1918" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1918"/>
-    </row>
-    <row r="1919" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1919" s="1" t="s">
+      <c r="A1918" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1918">
+        <v>3.9739130434782611E-5</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1918" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1918" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1919"/>
+    </row>
+    <row r="1920" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1920" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1919" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1920" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1920" t="s">
-        <v>24</v>
+      <c r="B1920" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="1921" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1921" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1921">
         <v>1</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="1922" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1922" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1922" t="s">
-        <v>431</v>
+        <v>2</v>
+      </c>
+      <c r="B1922">
+        <v>1</v>
       </c>
     </row>
     <row r="1923" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1923" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1923" t="s">
-        <v>5</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1924" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1924" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1924" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1925" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1925" t="s">
-        <v>417</v>
+        <v>6</v>
       </c>
       <c r="B1925" t="s">
-        <v>418</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1926" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1926" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="B1926" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="1927" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1927" t="s">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="B1927" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1928" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1928" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B1928" t="s">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1929" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1929" t="s">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="B1929" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1930" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1930" s="1" t="s">
+    <row r="1930" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1930" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1931" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1930"/>
-    </row>
-    <row r="1931" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1931" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1931" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1931" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1931" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1931" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1931" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1931" t="s">
-        <v>3</v>
-      </c>
+      <c r="B1931"/>
     </row>
     <row r="1932" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1932" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1932">
-        <v>0.74439999999999995</v>
+        <v>11</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>12</v>
       </c>
       <c r="C1932" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D1932" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1932" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1932" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G1932" t="s">
-        <v>424</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1933" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1933" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B1933">
-        <v>1</v>
+        <v>0.74439999999999995</v>
       </c>
       <c r="C1933" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D1933" t="s">
         <v>7</v>
@@ -35923,21 +35923,21 @@
         <v>16</v>
       </c>
       <c r="F1933" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1933" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="1934" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1934" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B1934">
-        <v>0.2555</v>
+        <v>1</v>
       </c>
       <c r="C1934" t="s">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c r="D1934" t="s">
         <v>7</v>
@@ -35946,24 +35946,24 @@
         <v>16</v>
       </c>
       <c r="F1934" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1935" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1935" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B1935">
-        <v>1.4599999999999999E-3</v>
+        <v>0.2555</v>
       </c>
       <c r="C1935" t="s">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="D1935" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E1935" t="s">
         <v>16</v>
@@ -35972,21 +35972,21 @@
         <v>18</v>
       </c>
       <c r="G1935" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1936" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1936" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="B1936">
-        <v>2.3199999999999998</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="C1936" t="s">
-        <v>429</v>
+        <v>103</v>
       </c>
       <c r="D1936" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E1936" t="s">
         <v>16</v>
@@ -35995,32 +35995,41 @@
         <v>18</v>
       </c>
       <c r="G1936" t="s">
-        <v>292</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1937" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1937"/>
-    </row>
-    <row r="1938" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1938" s="1" t="s">
+      <c r="A1937" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1937">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1937" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1937" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1937" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1938"/>
+    </row>
+    <row r="1939" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1939" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1938" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1938" s="53"/>
-      <c r="D1938" s="53"/>
-      <c r="E1938" s="53"/>
-      <c r="F1938" s="53"/>
-      <c r="G1938" s="53"/>
-      <c r="H1938" s="53"/>
-    </row>
-    <row r="1939" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1939" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1939" s="53" t="s">
-        <v>104</v>
+      <c r="B1939" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="C1939" s="53"/>
       <c r="D1939" s="53"/>
@@ -36028,17 +36037,13 @@
       <c r="F1939" s="53"/>
       <c r="G1939" s="53"/>
       <c r="H1939" s="53"/>
-      <c r="I1939" s="53"/>
-      <c r="J1939" s="53"/>
-      <c r="K1939" s="53"/>
-      <c r="L1939" s="53"/>
     </row>
     <row r="1940" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1940" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1940" s="53">
         <v>1</v>
+      </c>
+      <c r="B1940" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="C1940" s="53"/>
       <c r="D1940" s="53"/>
@@ -36053,10 +36058,10 @@
     </row>
     <row r="1941" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1941" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1941" s="53" t="s">
-        <v>290</v>
+        <v>2</v>
+      </c>
+      <c r="B1941" s="53">
+        <v>1</v>
       </c>
       <c r="C1941" s="53"/>
       <c r="D1941" s="53"/>
@@ -36066,13 +36071,15 @@
       <c r="H1941" s="53"/>
       <c r="I1941" s="53"/>
       <c r="J1941" s="53"/>
+      <c r="K1941" s="53"/>
+      <c r="L1941" s="53"/>
     </row>
     <row r="1942" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1942" s="53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1942" s="53" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="C1942" s="53"/>
       <c r="D1942" s="53"/>
@@ -36082,15 +36089,13 @@
       <c r="H1942" s="53"/>
       <c r="I1942" s="53"/>
       <c r="J1942" s="53"/>
-      <c r="K1942" s="53"/>
-      <c r="L1942" s="53"/>
     </row>
     <row r="1943" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1943" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1943" s="62" t="s">
-        <v>430</v>
+      <c r="A1943" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1943" s="53" t="s">
+        <v>5</v>
       </c>
       <c r="C1943" s="53"/>
       <c r="D1943" s="53"/>
@@ -36104,11 +36109,11 @@
       <c r="L1943" s="53"/>
     </row>
     <row r="1944" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1944" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1944" s="53" t="s">
-        <v>17</v>
+      <c r="A1944" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>429</v>
       </c>
       <c r="C1944" s="53"/>
       <c r="D1944" s="53"/>
@@ -36121,11 +36126,13 @@
       <c r="K1944" s="53"/>
       <c r="L1944" s="53"/>
     </row>
-    <row r="1945" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1945" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1945" s="53"/>
+    <row r="1945" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1945" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1945" s="53" t="s">
+        <v>17</v>
+      </c>
       <c r="C1945" s="53"/>
       <c r="D1945" s="53"/>
       <c r="E1945" s="53"/>
@@ -36137,138 +36144,134 @@
       <c r="K1945" s="53"/>
       <c r="L1945" s="53"/>
     </row>
-    <row r="1946" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1946" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1946" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1946" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1946" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1946" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1946" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1946" s="53" t="s">
-        <v>3</v>
-      </c>
+    <row r="1946" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1946" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1946" s="53"/>
+      <c r="C1946" s="53"/>
+      <c r="D1946" s="53"/>
+      <c r="E1946" s="53"/>
+      <c r="F1946" s="53"/>
+      <c r="G1946" s="53"/>
       <c r="H1946" s="53"/>
       <c r="I1946" s="53"/>
       <c r="J1946" s="53"/>
       <c r="K1946" s="53"/>
+      <c r="L1946" s="53"/>
     </row>
     <row r="1947" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1947" s="53" t="str">
-        <f>B1938</f>
-        <v>hydrogen, used in passenger car</v>
-      </c>
-      <c r="B1947" s="53">
+      <c r="A1947" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1947" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1947" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1947" s="53" t="str">
-        <f>B1939</f>
-        <v>CH</v>
-      </c>
-      <c r="D1947" s="53" t="str">
-        <f>B1944</f>
-        <v>megajoule</v>
-      </c>
-      <c r="E1947" s="53"/>
+      <c r="D1947" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1947" s="53" t="s">
+        <v>13</v>
+      </c>
       <c r="F1947" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1947" s="53" t="str">
-        <f>B1941</f>
-        <v>heat</v>
+        <v>4</v>
+      </c>
+      <c r="G1947" s="53" t="s">
+        <v>3</v>
       </c>
       <c r="H1947" s="53"/>
       <c r="I1947" s="53"/>
       <c r="J1947" s="53"/>
       <c r="K1947" s="53"/>
-      <c r="L1947" s="53"/>
-    </row>
-    <row r="1948" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1948" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1948" s="57">
+    </row>
+    <row r="1948" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1948" s="53" t="str">
+        <f>B1939</f>
+        <v>hydrogen, used in passenger car</v>
+      </c>
+      <c r="B1948" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1948" s="53" t="str">
+        <f>B1940</f>
+        <v>CH</v>
+      </c>
+      <c r="D1948" s="53" t="str">
+        <f>B1945</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E1948" s="53"/>
+      <c r="F1948" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1948" s="53" t="str">
+        <f>B1942</f>
+        <v>heat</v>
+      </c>
+      <c r="H1948" s="53"/>
+      <c r="I1948" s="53"/>
+      <c r="J1948" s="53"/>
+      <c r="K1948" s="53"/>
+      <c r="L1948" s="53"/>
+    </row>
+    <row r="1949" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1949" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1949" s="57">
         <f>0.00000507/2</f>
         <v>2.5349999999999999E-6</v>
       </c>
-      <c r="C1948" s="56" t="s">
+      <c r="C1949" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D1948" s="56" t="s">
+      <c r="D1949" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F1948" s="56" t="s">
+      <c r="F1949" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G1948" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1948" s="58"/>
-    </row>
-    <row r="1949" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1949" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="B1949" s="59">
+      <c r="G1949" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="O1949" s="58"/>
+    </row>
+    <row r="1950" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1950" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1950" s="59">
         <f>0.01676/2</f>
         <v>8.3800000000000003E-3</v>
       </c>
-      <c r="C1949" s="56" t="s">
+      <c r="C1950" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D1949" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1949" s="56" t="s">
+      <c r="D1950" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1950" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G1949" s="53" t="s">
-        <v>408</v>
-      </c>
-      <c r="J1949" s="60"/>
-      <c r="O1949" s="58"/>
-    </row>
-    <row r="1950" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1950" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1950" s="57">
-        <f>0.56%*B1949</f>
-        <v>4.6928000000000009E-5</v>
-      </c>
-      <c r="D1950" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1950" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1950" s="53" t="s">
-        <v>27</v>
+      <c r="G1950" s="53" t="s">
+        <v>407</v>
       </c>
       <c r="J1950" s="60"/>
       <c r="O1950" s="58"/>
     </row>
     <row r="1951" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1951" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1951" s="61">
-        <f>B1949*9/1000</f>
-        <v>7.5420000000000006E-5</v>
-      </c>
-      <c r="D1951" s="53" t="s">
-        <v>37</v>
+        <v>343</v>
+      </c>
+      <c r="B1951" s="57">
+        <f>0.56%*B1950</f>
+        <v>4.6928000000000009E-5</v>
+      </c>
+      <c r="D1951" s="56" t="s">
+        <v>7</v>
       </c>
       <c r="E1951" s="56" t="s">
         <v>136</v>
@@ -36276,34 +36279,34 @@
       <c r="F1951" s="53" t="s">
         <v>27</v>
       </c>
+      <c r="J1951" s="60"/>
       <c r="O1951" s="58"/>
     </row>
-    <row r="1952" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1952" t="s">
-        <v>409</v>
-      </c>
-      <c r="B1952">
-        <v>1.2282608695652171E-5</v>
-      </c>
-      <c r="C1952" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1952" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1952" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1952" t="s">
-        <v>410</v>
-      </c>
+    <row r="1952" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1952" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1952" s="61">
+        <f>B1950*9/1000</f>
+        <v>7.5420000000000006E-5</v>
+      </c>
+      <c r="D1952" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1952" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1952" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1952" s="58"/>
     </row>
     <row r="1953" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1953" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B1953">
-        <v>2.3890980215666521E-4</v>
+        <v>1.2282608695652171E-5</v>
       </c>
       <c r="C1953" t="s">
         <v>24</v>
@@ -36315,15 +36318,15 @@
         <v>18</v>
       </c>
       <c r="G1953" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1954" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1954" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B1954">
-        <v>2.4565217391304346E-5</v>
+        <v>2.3890980215666521E-4</v>
       </c>
       <c r="C1954" t="s">
         <v>24</v>
@@ -36335,15 +36338,15 @@
         <v>18</v>
       </c>
       <c r="G1954" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1955" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1955" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B1955">
-        <v>1.0917874396135266E-5</v>
+        <v>2.4565217391304346E-5</v>
       </c>
       <c r="C1955" t="s">
         <v>24</v>
@@ -36355,15 +36358,15 @@
         <v>18</v>
       </c>
       <c r="G1955" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1956" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1956" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1956">
-        <v>-5.1028073570343861E-5</v>
+        <v>1.0917874396135266E-5</v>
       </c>
       <c r="C1956" t="s">
         <v>24</v>
@@ -36375,15 +36378,15 @@
         <v>18</v>
       </c>
       <c r="G1956" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="1957" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1957" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="B1957">
-        <v>1.6723486296163113E-5</v>
+        <v>-5.1028073570343861E-5</v>
       </c>
       <c r="C1957" t="s">
         <v>24</v>
@@ -36395,7 +36398,7 @@
         <v>18</v>
       </c>
       <c r="G1957" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1958" spans="1:7" x14ac:dyDescent="0.2">
@@ -36403,7 +36406,7 @@
         <v>433</v>
       </c>
       <c r="B1958">
-        <v>6.8609174548361503E-5</v>
+        <v>1.6723486296163113E-5</v>
       </c>
       <c r="C1958" t="s">
         <v>24</v>
@@ -36415,7 +36418,7 @@
         <v>18</v>
       </c>
       <c r="G1958" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1959" spans="1:7" x14ac:dyDescent="0.2">
@@ -36423,7 +36426,7 @@
         <v>432</v>
       </c>
       <c r="B1959">
-        <v>2.6167471819645726E-4</v>
+        <v>6.8609174548361503E-5</v>
       </c>
       <c r="C1959" t="s">
         <v>24</v>
@@ -36435,7 +36438,27 @@
         <v>18</v>
       </c>
       <c r="G1959" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1960" t="s">
         <v>431</v>
+      </c>
+      <c r="B1960">
+        <v>2.6167471819645726E-4</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1960" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1960" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/inventories/lci-sweet_sure.xlsx
+++ b/inventories/lci-sweet_sure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/sweet_sure-2050-switzerland/inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/sweet_sure-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EE2563-8A7A-7044-8B3D-08AB9B706FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A4C94A-8707-3A4D-8E4F-FB6D84816881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="18600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1933,7 +1933,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O2362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1880" workbookViewId="0">
-      <selection activeCell="B1902" sqref="B1902"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2455,8 +2455,8 @@
         <v>110</v>
       </c>
       <c r="B19" s="3">
-        <f>0.496*(44/12)*(1-B11)</f>
-        <v>1.8186666666666667</v>
+        <f>0.55*(44/12)*(1-B11)</f>
+        <v>2.0166666666666666</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>

--- a/inventories/lci-sweet_sure.xlsx
+++ b/inventories/lci-sweet_sure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/sweet_sure-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB22BE5-245B-8C4A-94EC-9869C710463C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DE1669-F063-D643-983D-5B29B0D8B8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12820" yWindow="960" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8317" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8425" uniqueCount="513">
   <si>
     <t>Activity</t>
   </si>
@@ -1022,12 +1022,6 @@
     <t>heat, solar+electric, multiple-dwelling, for hot water</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 30 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
-  </si>
-  <si>
     <t>heat and power co-generation, wood chips, 6667 kW</t>
   </si>
   <si>
@@ -1547,13 +1541,43 @@
     <t>market for battery capacity (MIX scenario)</t>
   </si>
   <si>
-    <t>battery capacity</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-ion, LTO</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, LTO</t>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>electricity storage capacity</t>
+  </si>
+  <si>
+    <t>Photovoltaic electricity production.</t>
+  </si>
+  <si>
+    <t>electricity production, photovoltaic, photovoltaic slanted-roof installation, 3 kWp, multi-Si, laminated, integrated</t>
+  </si>
+  <si>
+    <t>electricity production, wind</t>
+  </si>
+  <si>
+    <t>electricity production, wind, 1-3MW turbine, onshore</t>
+  </si>
+  <si>
+    <t>electricity production, from hydrogen fuel cell</t>
+  </si>
+  <si>
+    <t>Wind turbine electricity production.</t>
+  </si>
+  <si>
+    <t>Electricity from hydrogen fuel cell.</t>
+  </si>
+  <si>
+    <t>electricity, residential, by conversion of hydrogen using fuel cell, PEM, allocated by exergy, distributed by pipeline, produced by Electrolysis, PEM using electricity from grid</t>
+  </si>
+  <si>
+    <t>electricity, from residential heating system</t>
+  </si>
+  <si>
+    <t>electricity production, from photovoltaic panels</t>
   </si>
 </sst>
 </file>
@@ -1569,16 +1593,9 @@
     <numFmt numFmtId="169" formatCode="0.0E+00"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1795,14 +1812,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1819,11 +1836,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1834,9 +1851,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1849,7 +1866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1861,38 +1878,38 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2174,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O2320"/>
+  <dimension ref="A1:O2356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2272" sqref="A2272"/>
+    <sheetView tabSelected="1" topLeftCell="A1914" workbookViewId="0">
+      <selection activeCell="A1946" sqref="A1946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2187,7 +2204,7 @@
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
@@ -2697,7 +2714,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B39" s="3">
         <v>1.623727351164797E-7</v>
@@ -2713,7 +2730,7 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2797,7 +2814,7 @@
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3208,7 +3225,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B64" s="3">
         <v>6.8457290767903355E-12</v>
@@ -5241,7 +5258,7 @@
     </row>
     <row r="171" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="50" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B171" s="51">
         <f>6.1/43.4</f>
@@ -5251,13 +5268,13 @@
         <v>7</v>
       </c>
       <c r="E171" s="50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F171" s="50" t="s">
         <v>27</v>
       </c>
       <c r="G171" s="50" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J171" s="51"/>
     </row>
@@ -5499,7 +5516,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B190" s="3">
         <v>5.8454184641932699E-7</v>
@@ -5515,7 +5532,7 @@
       </c>
       <c r="G190" s="2"/>
       <c r="H190" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5599,7 +5616,7 @@
       </c>
       <c r="G194" s="2"/>
       <c r="H194" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -6010,7 +6027,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B215" s="3">
         <v>2.464462467644521E-11</v>
@@ -8043,7 +8060,7 @@
     </row>
     <row r="322" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="50" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B322" s="51">
         <f>9.3/43.4</f>
@@ -8053,13 +8070,13 @@
         <v>7</v>
       </c>
       <c r="E322" s="50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F322" s="50" t="s">
         <v>27</v>
       </c>
       <c r="G322" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="324" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -8291,7 +8308,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B340" s="3">
         <v>6.4299603106125978E-7</v>
@@ -8307,7 +8324,7 @@
       </c>
       <c r="G340" s="2"/>
       <c r="H340" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -8391,7 +8408,7 @@
       </c>
       <c r="G344" s="2"/>
       <c r="H344" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -8802,7 +8819,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B365" s="3">
         <v>2.7109087144089735E-11</v>
@@ -10858,7 +10875,7 @@
     </row>
     <row r="473" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="50" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B473" s="51">
         <f>(9.3/43.4)*1.1</f>
@@ -10868,13 +10885,13 @@
         <v>7</v>
       </c>
       <c r="E473" s="50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F473" s="50" t="s">
         <v>27</v>
       </c>
       <c r="G473" s="50" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="474" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11107,7 +11124,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B491" s="3">
         <v>1.7861000862812767E-7</v>
@@ -11123,7 +11140,7 @@
       </c>
       <c r="G491" s="3"/>
       <c r="H491" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
@@ -11207,7 +11224,7 @@
       </c>
       <c r="G495" s="3"/>
       <c r="H495" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
@@ -11618,7 +11635,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B516" s="3">
         <v>7.5303019844693692E-12</v>
@@ -13669,12 +13686,12 @@
         <v>27</v>
       </c>
       <c r="G623" s="50" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="624" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" s="50" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B624" s="51">
         <f>6.1/43.4*1.1</f>
@@ -13684,13 +13701,13 @@
         <v>7</v>
       </c>
       <c r="E624" s="50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F624" s="50" t="s">
         <v>27</v>
       </c>
       <c r="G624" s="50" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="625" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -13953,7 +13970,7 @@
     </row>
     <row r="644" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B644" s="51">
         <v>4.796993006993007E-7</v>
@@ -13969,7 +13986,7 @@
       </c>
       <c r="G644" s="51"/>
       <c r="H644" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="645" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -14053,7 +14070,7 @@
       </c>
       <c r="G648" s="51"/>
       <c r="H648" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="649" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -14421,7 +14438,7 @@
     </row>
     <row r="667" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B667" s="51">
         <v>1.5376223776223777E-10</v>
@@ -16767,7 +16784,7 @@
     </row>
     <row r="802" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B802" s="51">
         <v>1.7269174825174825E-6</v>
@@ -16783,7 +16800,7 @@
       </c>
       <c r="G802" s="51"/>
       <c r="H802" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="803" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -16867,7 +16884,7 @@
       </c>
       <c r="G806" s="51"/>
       <c r="H806" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="807" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -17235,7 +17252,7 @@
     </row>
     <row r="825" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B825" s="51">
         <v>5.5354405594405596E-10</v>
@@ -19593,7 +19610,7 @@
     </row>
     <row r="960" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B960" s="51">
         <v>1.8996092307692309E-6</v>
@@ -19609,7 +19626,7 @@
       </c>
       <c r="G960" s="51"/>
       <c r="H960" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="961" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -19693,7 +19710,7 @@
       </c>
       <c r="G964" s="51"/>
       <c r="H964" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="965" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -20061,7 +20078,7 @@
     </row>
     <row r="983" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B983" s="51">
         <v>6.0889846153846164E-10</v>
@@ -22418,7 +22435,7 @@
     </row>
     <row r="1118" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1118" s="51">
         <v>5.2766923076923077E-7</v>
@@ -22434,7 +22451,7 @@
       </c>
       <c r="G1118" s="51"/>
       <c r="H1118" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1119" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -22518,7 +22535,7 @@
       </c>
       <c r="G1122" s="51"/>
       <c r="H1122" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1123" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -22886,7 +22903,7 @@
     </row>
     <row r="1141" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1141" s="51">
         <v>1.6913846153846155E-10</v>
@@ -25643,7 +25660,7 @@
     </row>
     <row r="1316" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1316" s="50" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B1316" s="50">
         <v>1</v>
@@ -25661,7 +25678,7 @@
         <v>16</v>
       </c>
       <c r="H1316" s="50" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1317" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -26076,7 +26093,7 @@
     </row>
     <row r="1354" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1354" s="50" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1354" s="50">
         <f>1/560000</f>
@@ -26086,7 +26103,7 @@
         <v>7</v>
       </c>
       <c r="E1354" s="50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F1354" s="50" t="s">
         <v>27</v>
@@ -26495,7 +26512,7 @@
     </row>
     <row r="1378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1378" s="2">
         <v>2</v>
@@ -26504,7 +26521,7 @@
         <v>17</v>
       </c>
       <c r="E1378" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F1378" t="s">
         <v>27</v>
@@ -26519,7 +26536,7 @@
         <v>0</v>
       </c>
       <c r="B1380" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C1380" s="53"/>
       <c r="D1380" s="53"/>
@@ -27665,7 +27682,7 @@
         <v>0.70057447106627435</v>
       </c>
       <c r="C1444" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D1444" t="s">
         <v>17</v>
@@ -27685,7 +27702,7 @@
         <v>0</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C1446" s="53"/>
       <c r="D1446" s="53"/>
@@ -27851,7 +27868,7 @@
     </row>
     <row r="1455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1455" s="53" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B1455">
         <f>1/(0.016231*22.73)</f>
@@ -29009,7 +29026,7 @@
     </row>
     <row r="1521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1521" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1521">
         <f>1/(0.0396618169378429*19.1)</f>
@@ -30387,12 +30404,12 @@
     <row r="1600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1600"/>
     </row>
-    <row r="1601" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1601" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1601" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C1601" s="53"/>
       <c r="D1601" s="53"/>
@@ -30400,7 +30417,7 @@
       <c r="F1601" s="53"/>
       <c r="H1601" s="53"/>
     </row>
-    <row r="1602" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1602" s="53" t="s">
         <v>1</v>
       </c>
@@ -30417,7 +30434,7 @@
       <c r="K1602" s="53"/>
       <c r="L1602" s="53"/>
     </row>
-    <row r="1603" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1603" s="53" t="s">
         <v>2</v>
       </c>
@@ -30434,7 +30451,7 @@
       <c r="K1603" s="53"/>
       <c r="L1603" s="53"/>
     </row>
-    <row r="1604" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1604" s="53" t="s">
         <v>3</v>
       </c>
@@ -30449,7 +30466,7 @@
       <c r="I1604" s="53"/>
       <c r="J1604" s="53"/>
     </row>
-    <row r="1605" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1605" s="53" t="s">
         <v>4</v>
       </c>
@@ -30466,7 +30483,7 @@
       <c r="K1605" s="53"/>
       <c r="L1605" s="53"/>
     </row>
-    <row r="1606" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1606" s="53" t="s">
         <v>6</v>
       </c>
@@ -30483,7 +30500,7 @@
       <c r="K1606" s="53"/>
       <c r="L1606" s="53"/>
     </row>
-    <row r="1607" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1607" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1607" s="1" t="s">
         <v>10</v>
       </c>
@@ -30498,7 +30515,7 @@
       <c r="K1607" s="53"/>
       <c r="L1607" s="53"/>
     </row>
-    <row r="1608" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1608" s="53" t="s">
         <v>11</v>
       </c>
@@ -30527,7 +30544,7 @@
       <c r="J1608" s="53"/>
       <c r="K1608" s="53"/>
     </row>
-    <row r="1609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1609" s="53" t="str">
         <f>B1601</f>
         <v>hydrogen burned, in hydrogen boiler</v>
@@ -30556,9 +30573,9 @@
       <c r="K1609" s="53"/>
       <c r="L1609" s="53"/>
     </row>
-    <row r="1610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B1610" s="3">
         <v>4.4004494642869032E-7</v>
@@ -30573,12 +30590,12 @@
         <v>18</v>
       </c>
       <c r="H1610" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:12" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B1611" s="3">
         <v>8.8008989285738064E-7</v>
@@ -30587,16 +30604,16 @@
         <v>24</v>
       </c>
       <c r="D1611" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F1611" t="s">
         <v>18</v>
       </c>
       <c r="H1611" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:12" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
         <v>288</v>
       </c>
@@ -30616,28 +30633,32 @@
         <v>287</v>
       </c>
     </row>
-    <row r="1613" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1613" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1613" s="55">
+    <row r="1613" spans="1:15" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1613" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1613" s="59">
+        <f>1/120</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="C1613" t="s">
+      <c r="C1613" s="55" t="s">
         <v>103</v>
       </c>
       <c r="D1613" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E1613" s="53"/>
-      <c r="F1613" t="s">
+      <c r="F1613" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H1613" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H1613" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="K1613" s="57"/>
+      <c r="L1613"/>
+      <c r="M1613"/>
+      <c r="O1613" s="56"/>
+    </row>
+    <row r="1614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1614" s="53" t="s">
         <v>228</v>
       </c>
@@ -30660,7 +30681,7 @@
       <c r="K1614" s="53"/>
       <c r="L1614" s="53"/>
     </row>
-    <row r="1615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1615" s="53" t="s">
         <v>215</v>
       </c>
@@ -30683,9 +30704,9 @@
       <c r="K1615" s="53"/>
       <c r="L1615" s="53"/>
     </row>
-    <row r="1616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1616" s="53" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B1616" s="54">
         <v>4.1459369817577878E-5</v>
@@ -30722,7 +30743,7 @@
         <v>0</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C1618" s="53"/>
       <c r="D1618" s="53"/>
@@ -30926,7 +30947,7 @@
         <v>0</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1630" s="53"/>
       <c r="D1630" s="53"/>
@@ -31120,7 +31141,7 @@
     </row>
     <row r="1640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1640" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1640" s="2">
         <v>2</v>
@@ -31129,7 +31150,7 @@
         <v>17</v>
       </c>
       <c r="E1640" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F1640" t="s">
         <v>27</v>
@@ -31144,7 +31165,7 @@
         <v>0</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C1642" s="53"/>
       <c r="D1642" s="53"/>
@@ -31345,7 +31366,7 @@
         <v>0</v>
       </c>
       <c r="B1653" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C1653" s="53"/>
       <c r="D1653" s="53"/>
@@ -31518,7 +31539,7 @@
     </row>
     <row r="1662" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1662" s="53" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1662">
         <f>1/(0.02342*40.1)</f>
@@ -31542,7 +31563,7 @@
         <v>0</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C1664" s="53"/>
       <c r="D1664" s="53"/>
@@ -31708,7 +31729,7 @@
     </row>
     <row r="1673" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1673" s="53" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B1673">
         <f>1/(0.025337607*36)</f>
@@ -31724,7 +31745,7 @@
         <v>18</v>
       </c>
       <c r="H1673" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="1674" spans="1:12" x14ac:dyDescent="0.2">
@@ -31735,7 +31756,7 @@
         <v>0</v>
       </c>
       <c r="B1675" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C1675" s="53"/>
       <c r="D1675" s="53"/>
@@ -31901,7 +31922,7 @@
     </row>
     <row r="1684" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1684" s="53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B1684">
         <v>0.8</v>
@@ -31927,7 +31948,7 @@
         <v>0</v>
       </c>
       <c r="B1686" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C1686" s="53"/>
       <c r="D1686" s="53"/>
@@ -32093,7 +32114,7 @@
     </row>
     <row r="1695" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1695" s="53" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B1695">
         <f>1/(0.1078*19.1)</f>
@@ -32120,7 +32141,7 @@
         <v>0</v>
       </c>
       <c r="B1697" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C1697" s="53"/>
       <c r="D1697" s="53"/>
@@ -32286,7 +32307,7 @@
     </row>
     <row r="1706" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1706" s="53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B1706">
         <f>1/(0.0762357142857144*19.1)</f>
@@ -32327,7 +32348,7 @@
         <v>0</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C1709" s="53"/>
       <c r="D1709" s="53"/>
@@ -32520,7 +32541,7 @@
         <v>0</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C1720" s="53"/>
       <c r="D1720" s="53"/>
@@ -32713,7 +32734,7 @@
         <v>0</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C1731" s="53"/>
       <c r="D1731" s="53"/>
@@ -32906,7 +32927,7 @@
         <v>0</v>
       </c>
       <c r="B1742" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1742" s="53"/>
       <c r="D1742" s="53"/>
@@ -33072,7 +33093,7 @@
     </row>
     <row r="1751" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1751" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1751">
         <f>1/(0.0396618169378429*19)</f>
@@ -33099,7 +33120,7 @@
         <v>0</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C1754" s="53"/>
       <c r="D1754" s="53"/>
@@ -33271,7 +33292,7 @@
     </row>
     <row r="1763" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1763" s="53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1763">
         <f>1/43</f>
@@ -33287,12 +33308,12 @@
         <v>18</v>
       </c>
       <c r="G1763" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1764" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1764" s="53" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1764">
         <f>150/200000/2.15</f>
@@ -33308,12 +33329,12 @@
         <v>18</v>
       </c>
       <c r="G1764" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1765" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1765" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B1765" s="3">
         <v>7.1455665432553858E-7</v>
@@ -33331,7 +33352,7 @@
     </row>
     <row r="1766" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1766" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1766" s="3">
         <v>3.2468920124586623E-7</v>
@@ -33349,7 +33370,7 @@
     </row>
     <row r="1767" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1767" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B1767" s="3">
         <v>3.9534349472964383E-7</v>
@@ -33385,7 +33406,7 @@
     </row>
     <row r="1769" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1769" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1769" s="3">
         <v>9.4995966427857817E-8</v>
@@ -33421,7 +33442,7 @@
     </row>
     <row r="1771" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1771" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1771" s="3">
         <v>1.2147463123534157E-8</v>
@@ -33548,7 +33569,7 @@
     </row>
     <row r="1778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1778" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B1778" s="3">
         <v>7.1789570411210658E-8</v>
@@ -33584,7 +33605,7 @@
     </row>
     <row r="1780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1780" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1780" s="3">
         <v>3.646242366932188E-8</v>
@@ -33602,7 +33623,7 @@
     </row>
     <row r="1781" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1781" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B1781" s="3">
         <v>1.2114072625668476E-6</v>
@@ -33620,7 +33641,7 @@
     </row>
     <row r="1782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1782" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B1782" s="3">
         <v>1.3252688602888143E-6</v>
@@ -33638,7 +33659,7 @@
     </row>
     <row r="1783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1783" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B1783" s="3">
         <v>2.2087814338146904E-8</v>
@@ -33710,7 +33731,7 @@
     </row>
     <row r="1787" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1787" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1787" s="3">
         <v>1.3252688602888143E-7</v>
@@ -33782,7 +33803,7 @@
     </row>
     <row r="1791" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1791" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B1791" s="3">
         <v>4.2883696301401334E-9</v>
@@ -33818,7 +33839,7 @@
     </row>
     <row r="1793" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1793" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B1793" s="3">
         <v>4.417562867629381E-9</v>
@@ -33836,7 +33857,7 @@
     </row>
     <row r="1794" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1794" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1794" s="3">
         <v>1.2147463123534157E-8</v>
@@ -33854,7 +33875,7 @@
     </row>
     <row r="1795" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1795" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B1795" s="3">
         <v>3.9768082958024133E-7</v>
@@ -33890,7 +33911,7 @@
     </row>
     <row r="1797" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1797" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B1797" s="3">
         <v>4.0869969387591558E-8</v>
@@ -33962,7 +33983,7 @@
     </row>
     <row r="1801" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1801" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1801" s="3">
         <v>6.7382024692940973E-8</v>
@@ -33980,7 +34001,7 @@
     </row>
     <row r="1802" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1802" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1802" s="3">
         <v>2.9821053643838246E-8</v>
@@ -34006,7 +34027,7 @@
         <v>0</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C1804" s="53"/>
       <c r="D1804" s="53"/>
@@ -34178,7 +34199,7 @@
     </row>
     <row r="1813" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1813" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B1813">
         <f>1/42.6</f>
@@ -34194,12 +34215,12 @@
         <v>18</v>
       </c>
       <c r="G1813" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1814" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1814" s="53" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1814">
         <f>150/200000/2.15</f>
@@ -34215,12 +34236,12 @@
         <v>18</v>
       </c>
       <c r="G1814" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1815" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1815" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B1815" s="3">
         <v>1.4547114129662022E-7</v>
@@ -34238,7 +34259,7 @@
     </row>
     <row r="1816" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1816" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B1816" s="3">
         <v>2.3599288167039204E-6</v>
@@ -34256,7 +34277,7 @@
     </row>
     <row r="1817" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1817" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B1817" s="3">
         <v>6.4176573052336623E-8</v>
@@ -34274,7 +34295,7 @@
     </row>
     <row r="1818" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1818" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1818" s="3">
         <v>5.2181249284002014E-8</v>
@@ -34292,7 +34313,7 @@
     </row>
     <row r="1819" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1819" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B1819" s="3">
         <v>1.6258913648856724E-8</v>
@@ -34328,7 +34349,7 @@
     </row>
     <row r="1821" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1821" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1821" s="3">
         <v>1.8823431144155847E-8</v>
@@ -34364,7 +34385,7 @@
     </row>
     <row r="1823" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1823" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1823" s="3">
         <v>2.4210190597681178E-6</v>
@@ -34490,7 +34511,7 @@
     </row>
     <row r="1830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1830" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B1830" s="3">
         <v>9.7553481893140337E-8</v>
@@ -34526,7 +34547,7 @@
     </row>
     <row r="1832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1832" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1832" s="3">
         <v>3.738595604189168E-7</v>
@@ -34544,7 +34565,7 @@
     </row>
     <row r="1833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1833" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B1833" s="3">
         <v>8.4158173387917866E-9</v>
@@ -34562,7 +34583,7 @@
     </row>
     <row r="1834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1834" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B1834" s="3">
         <v>6.2458409966156062E-7</v>
@@ -34580,7 +34601,7 @@
     </row>
     <row r="1835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1835" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B1835" s="3">
         <v>1.4547114129662022E-7</v>
@@ -34598,7 +34619,7 @@
     </row>
     <row r="1836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1836" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B1836" s="3">
         <v>6.3317491509246337E-8</v>
@@ -34616,7 +34637,7 @@
     </row>
     <row r="1837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1837" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B1837" s="3">
         <v>1.3777122524373701E-7</v>
@@ -34688,7 +34709,7 @@
     </row>
     <row r="1841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1841" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1841" s="3">
         <v>4.2794987979867499E-9</v>
@@ -34760,7 +34781,7 @@
     </row>
     <row r="1845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1845" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B1845" s="3">
         <v>8.1690140845070448E-10</v>
@@ -34796,7 +34817,7 @@
     </row>
     <row r="1847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1847" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B1847" s="3">
         <v>2.7827878429139121E-6</v>
@@ -34814,7 +34835,7 @@
     </row>
     <row r="1848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1848" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1848" s="3">
         <v>1.789116858072825E-6</v>
@@ -34832,7 +34853,7 @@
     </row>
     <row r="1849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1849" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B1849" s="3">
         <v>4.7122213530248159E-8</v>
@@ -34850,7 +34871,7 @@
     </row>
     <row r="1850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1850" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B1850" s="3">
         <v>3.2676916472359795E-7</v>
@@ -34886,7 +34907,7 @@
     </row>
     <row r="1852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1852" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B1852" s="3">
         <v>8.6417239667896019E-8</v>
@@ -34958,7 +34979,7 @@
     </row>
     <row r="1856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1856" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1856" s="3">
         <v>1.0417159155842839E-6</v>
@@ -34976,7 +34997,7 @@
     </row>
     <row r="1857" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1857" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1857" s="3">
         <v>2.4967455068997787E-7</v>
@@ -35000,7 +35021,7 @@
         <v>0</v>
       </c>
       <c r="B1859" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C1859" s="53"/>
       <c r="D1859" s="53"/>
@@ -35066,7 +35087,7 @@
         <v>9</v>
       </c>
       <c r="B1863" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C1863" s="53"/>
       <c r="D1863" s="53"/>
@@ -35152,15 +35173,17 @@
         <v>3</v>
       </c>
       <c r="H1867" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1867" t="s">
+        <v>501</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>484</v>
+      </c>
+      <c r="K1867" t="s">
         <v>485</v>
       </c>
-      <c r="I1867" t="s">
-        <v>486</v>
-      </c>
-      <c r="J1867" t="s">
-        <v>487</v>
-      </c>
-      <c r="K1867" s="53"/>
     </row>
     <row r="1868" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1868" s="53" t="str">
@@ -35189,14 +35212,13 @@
       <c r="H1868" s="53">
         <v>0</v>
       </c>
-      <c r="I1868" s="53"/>
       <c r="J1868" s="53"/>
       <c r="K1868" s="53"/>
       <c r="L1868" s="53"/>
     </row>
     <row r="1869" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1869" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B1869">
         <f>1/36</f>
@@ -35212,7 +35234,7 @@
         <v>18</v>
       </c>
       <c r="G1869" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H1869">
         <v>0</v>
@@ -35220,7 +35242,7 @@
     </row>
     <row r="1870" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1870" s="53" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1870">
         <f>150/200000/2.15</f>
@@ -35236,7 +35258,7 @@
         <v>18</v>
       </c>
       <c r="G1870" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H1870">
         <v>0</v>
@@ -35244,7 +35266,7 @@
     </row>
     <row r="1871" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1871" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B1871">
         <f>102/200000/3.7</f>
@@ -35263,16 +35285,20 @@
         <v>18</v>
       </c>
       <c r="G1871" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H1871">
         <v>5</v>
       </c>
       <c r="I1871">
+        <f>B1871</f>
+        <v>1.3783783783783785E-4</v>
+      </c>
+      <c r="J1871">
         <f>90/200000/3.7</f>
         <v>1.2162162162162162E-4</v>
       </c>
-      <c r="J1871">
+      <c r="K1871">
         <f>130/200000/3.7</f>
         <v>1.7567567567567565E-4</v>
       </c>
@@ -35525,7 +35551,7 @@
         <v>0</v>
       </c>
       <c r="B1885" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C1885" s="53"/>
       <c r="D1885" s="53"/>
@@ -35557,7 +35583,7 @@
         <v>9</v>
       </c>
       <c r="B1887" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C1887" s="53"/>
       <c r="D1887" s="53"/>
@@ -35679,13 +35705,16 @@
         <v>3</v>
       </c>
       <c r="H1893" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1893" t="s">
+        <v>501</v>
+      </c>
+      <c r="J1893" t="s">
+        <v>484</v>
+      </c>
+      <c r="K1893" t="s">
         <v>485</v>
-      </c>
-      <c r="I1893" t="s">
-        <v>486</v>
-      </c>
-      <c r="J1893" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="1894" spans="1:12" x14ac:dyDescent="0.2">
@@ -35715,8 +35744,8 @@
       <c r="H1894" s="53">
         <v>0</v>
       </c>
-      <c r="I1894" s="53"/>
       <c r="J1894" s="53"/>
+      <c r="K1894" s="53"/>
     </row>
     <row r="1895" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1895" s="53" t="s">
@@ -35744,7 +35773,7 @@
     </row>
     <row r="1896" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1896" s="53" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B1896">
         <f>89.9/200000/0.75</f>
@@ -35760,7 +35789,7 @@
         <v>18</v>
       </c>
       <c r="G1896" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H1896">
         <v>0</v>
@@ -35768,7 +35797,7 @@
     </row>
     <row r="1897" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1897" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B1897">
         <v>2.9804347826086958E-5</v>
@@ -35783,7 +35812,7 @@
         <v>18</v>
       </c>
       <c r="G1897" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H1897">
         <v>0</v>
@@ -35791,7 +35820,7 @@
     </row>
     <row r="1898" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1898" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B1898">
         <f>8.94/200000/0.75</f>
@@ -35807,7 +35836,7 @@
         <v>18</v>
       </c>
       <c r="G1898" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H1898">
         <v>0</v>
@@ -35815,7 +35844,7 @@
     </row>
     <row r="1899" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1899" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B1899">
         <v>2.6492753623188407E-5</v>
@@ -35830,7 +35859,7 @@
         <v>18</v>
       </c>
       <c r="G1899" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H1899">
         <v>0</v>
@@ -35838,7 +35867,7 @@
     </row>
     <row r="1900" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1900" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1900">
         <f>48/200000/0.75</f>
@@ -35860,17 +35889,21 @@
         <v>5</v>
       </c>
       <c r="I1900">
+        <f>B1900</f>
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="J1900">
         <f>(72*0.2)/200000/0.75</f>
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="J1900">
+      <c r="K1900">
         <f>(396*0.2)/200000/0.75</f>
         <v>5.2800000000000004E-4</v>
       </c>
     </row>
     <row r="1901" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1901" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B1901">
         <f>5.96/200000/0.75</f>
@@ -35886,7 +35919,7 @@
         <v>18</v>
       </c>
       <c r="G1901" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H1901">
         <v>0</v>
@@ -35899,8 +35932,8 @@
       <c r="A1903" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1903" s="61" t="s">
-        <v>434</v>
+      <c r="B1903" s="60" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="1904" spans="1:12" x14ac:dyDescent="0.2">
@@ -35941,7 +35974,7 @@
         <v>8</v>
       </c>
       <c r="B1908" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1909" spans="1:12" x14ac:dyDescent="0.2">
@@ -35949,7 +35982,7 @@
         <v>9</v>
       </c>
       <c r="B1909" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1910" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -36012,10 +36045,10 @@
       </c>
     </row>
     <row r="1913" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1913" s="66" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1913" s="67">
+      <c r="A1913" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1913" s="66">
         <v>3</v>
       </c>
       <c r="C1913" t="s">
@@ -36028,14 +36061,14 @@
         <v>18</v>
       </c>
       <c r="H1913" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1914" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1914" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1914" s="67">
+      <c r="A1914" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1914" s="66">
         <f>15900*(B1913/1000)</f>
         <v>47.7</v>
       </c>
@@ -36049,14 +36082,14 @@
         <v>18</v>
       </c>
       <c r="H1914" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1915" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1915" s="66" t="s">
+      <c r="A1915" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B1915" s="67">
+      <c r="B1915" s="66">
         <f>1000*(B1913/1000)</f>
         <v>3</v>
       </c>
@@ -36075,9 +36108,9 @@
     </row>
     <row r="1916" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1916" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1916" s="67">
+        <v>466</v>
+      </c>
+      <c r="B1916" s="66">
         <f>-1*B1913</f>
         <v>-3</v>
       </c>
@@ -36091,7 +36124,7 @@
         <v>18</v>
       </c>
       <c r="H1916" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1917" spans="1:12" x14ac:dyDescent="0.2">
@@ -36102,7 +36135,7 @@
         <v>0</v>
       </c>
       <c r="B1918" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1918" s="53"/>
       <c r="D1918" s="53"/>
@@ -36186,7 +36219,7 @@
         <v>9</v>
       </c>
       <c r="B1923" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C1923" s="53"/>
       <c r="D1923" s="53"/>
@@ -36256,15 +36289,17 @@
         <v>3</v>
       </c>
       <c r="H1926" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1926" t="s">
+        <v>501</v>
+      </c>
+      <c r="J1926" t="s">
+        <v>484</v>
+      </c>
+      <c r="K1926" t="s">
         <v>485</v>
       </c>
-      <c r="I1926" t="s">
-        <v>486</v>
-      </c>
-      <c r="J1926" t="s">
-        <v>487</v>
-      </c>
-      <c r="K1926" s="53"/>
     </row>
     <row r="1927" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1927" s="53" t="str">
@@ -36291,69 +36326,68 @@
         <v>heat</v>
       </c>
       <c r="H1927" s="53"/>
-      <c r="I1927" s="53"/>
       <c r="J1927" s="53"/>
       <c r="K1927" s="53"/>
     </row>
-    <row r="1928" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1928" spans="1:15" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1928" s="53" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1928" s="60">
+        <v>495</v>
+      </c>
+      <c r="B1928" s="59">
         <f>1/120</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="C1928" s="56" t="s">
+      <c r="C1928" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D1928" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1928" s="56" t="s">
+      <c r="D1928" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1928" s="55" t="s">
         <v>18</v>
       </c>
       <c r="G1928" s="53" t="s">
-        <v>498</v>
-      </c>
-      <c r="J1928" s="58"/>
+        <v>496</v>
+      </c>
+      <c r="K1928" s="57"/>
       <c r="L1928"/>
       <c r="M1928"/>
-      <c r="O1928" s="57"/>
-    </row>
-    <row r="1929" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="O1928" s="56"/>
+    </row>
+    <row r="1929" spans="1:15" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1929" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1929" s="59">
+        <v>335</v>
+      </c>
+      <c r="B1929" s="58">
         <f>0.56%*B1928</f>
         <v>4.6666666666666672E-5</v>
       </c>
-      <c r="D1929" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1929" s="56" t="s">
+      <c r="D1929" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1929" s="55" t="s">
         <v>136</v>
       </c>
       <c r="F1929" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="J1929" s="58"/>
-      <c r="L1929" s="62"/>
+      <c r="K1929" s="57"/>
+      <c r="L1929" s="61"/>
       <c r="M1929"/>
-      <c r="O1929" s="57"/>
-    </row>
-    <row r="1930" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="O1929" s="56"/>
+    </row>
+    <row r="1930" spans="1:15" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1930" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B1930" s="59">
+      <c r="B1930" s="58">
         <f>B1928*9/1000</f>
         <v>7.4999999999999993E-5</v>
       </c>
       <c r="D1930" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E1930" s="56" t="s">
+      <c r="E1930" s="55" t="s">
         <v>136</v>
       </c>
       <c r="F1930" s="53" t="s">
@@ -36361,11 +36395,11 @@
       </c>
       <c r="L1930"/>
       <c r="M1930"/>
-      <c r="O1930" s="57"/>
+      <c r="O1930" s="56"/>
     </row>
     <row r="1931" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1931" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B1931" s="28">
         <f>4.47/200000/1.5</f>
@@ -36381,12 +36415,12 @@
         <v>18</v>
       </c>
       <c r="G1931" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="1932" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1932" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B1932" s="28">
         <v>2.3890980215666521E-4</v>
@@ -36401,12 +36435,12 @@
         <v>18</v>
       </c>
       <c r="G1932" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="1933" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1933" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B1933" s="28">
         <v>2.4565217391304346E-5</v>
@@ -36421,12 +36455,12 @@
         <v>18</v>
       </c>
       <c r="G1933" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="1934" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1934" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B1934" s="28">
         <v>1.0917874396135266E-5</v>
@@ -36441,12 +36475,12 @@
         <v>18</v>
       </c>
       <c r="G1934" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="1935" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1935" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1935" s="28">
         <f>(23.75*0.2)/1.8/200000</f>
@@ -36467,18 +36501,22 @@
       <c r="H1935">
         <v>5</v>
       </c>
-      <c r="I1935" s="68">
+      <c r="I1935">
+        <f>B1935</f>
+        <v>1.3194444444444444E-5</v>
+      </c>
+      <c r="J1935" s="67">
         <f>(11.7*0.2)/1.8/200000</f>
         <v>6.4999999999999988E-6</v>
       </c>
-      <c r="J1935" s="68">
+      <c r="K1935" s="67">
         <f>(36*0.2)/1.8/200000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="1936" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1936" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B1936" s="28">
         <f>102/1.8/200000</f>
@@ -36494,23 +36532,27 @@
         <v>18</v>
       </c>
       <c r="G1936" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H1936">
         <v>5</v>
       </c>
-      <c r="I1936" s="68">
+      <c r="I1936">
+        <f>B1936</f>
+        <v>2.833333333333333E-4</v>
+      </c>
+      <c r="J1936" s="67">
         <f>78/1.8/200000</f>
         <v>2.1666666666666668E-4</v>
       </c>
-      <c r="J1936" s="68">
+      <c r="K1936" s="67">
         <f>117/1.8/200000</f>
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="1937" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1937" s="62" t="s">
-        <v>390</v>
+    <row r="1937" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1937" s="61" t="s">
+        <v>388</v>
       </c>
       <c r="B1937" s="28">
         <f>45/1.8/200000</f>
@@ -36526,45 +36568,49 @@
         <v>18</v>
       </c>
       <c r="G1937" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H1937" s="28">
         <v>5</v>
       </c>
-      <c r="I1937" s="68">
+      <c r="I1937">
+        <f>B1937</f>
+        <v>1.25E-4</v>
+      </c>
+      <c r="J1937" s="67">
         <f>22/1.8/200000</f>
         <v>6.1111111111111107E-5</v>
       </c>
-      <c r="J1937" s="68">
+      <c r="K1937" s="67">
         <f>68/1.8/200000</f>
         <v>1.8888888888888888E-4</v>
       </c>
     </row>
-    <row r="1939" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1939" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1939" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1939" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="1940" spans="1:10" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1940" t="s">
         <v>9</v>
       </c>
       <c r="B1940" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:10" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1941" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B1941" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:10" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1942" t="s">
         <v>1</v>
       </c>
@@ -36572,7 +36618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="1943" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1943" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1943" t="s">
         <v>2</v>
       </c>
@@ -36580,7 +36626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1944" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1944" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1944" t="s">
         <v>3</v>
       </c>
@@ -36588,7 +36634,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1945" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1945" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1945" t="s">
         <v>4</v>
       </c>
@@ -36596,7 +36642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1946" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1946" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1946" t="s">
         <v>6</v>
       </c>
@@ -36604,13 +36650,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1947" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1947" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1947" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1947"/>
     </row>
-    <row r="1948" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1948" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1948" t="s">
         <v>11</v>
       </c>
@@ -36633,9 +36679,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1949" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1949" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1949" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B1949">
         <v>1</v>
@@ -36653,9 +36699,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1950" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1950" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1950" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B1950">
         <v>8.4039805756723712E-6</v>
@@ -36670,12 +36716,12 @@
         <v>18</v>
       </c>
       <c r="G1950" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:10" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1951" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B1951">
         <v>1.3427927506200167E-4</v>
@@ -36690,12 +36736,12 @@
         <v>18</v>
       </c>
       <c r="G1951" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1952" s="53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1952">
         <f>1/43</f>
@@ -36711,12 +36757,12 @@
         <v>18</v>
       </c>
       <c r="G1952" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1953" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B1953" s="3">
         <v>7.1455665432553858E-7</v>
@@ -36734,7 +36780,7 @@
     </row>
     <row r="1954" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1954" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1954" s="3">
         <v>3.2468920124586623E-7</v>
@@ -36752,7 +36798,7 @@
     </row>
     <row r="1955" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1955" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B1955" s="3">
         <v>3.9534349472964383E-7</v>
@@ -36788,7 +36834,7 @@
     </row>
     <row r="1957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1957" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1957" s="3">
         <v>9.4995966427857817E-8</v>
@@ -36824,7 +36870,7 @@
     </row>
     <row r="1959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1959" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1959" s="3">
         <v>1.2147463123534157E-8</v>
@@ -36951,7 +36997,7 @@
     </row>
     <row r="1966" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1966" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B1966" s="3">
         <v>7.1789570411210658E-8</v>
@@ -36987,7 +37033,7 @@
     </row>
     <row r="1968" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1968" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1968" s="3">
         <v>3.646242366932188E-8</v>
@@ -37005,7 +37051,7 @@
     </row>
     <row r="1969" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1969" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B1969" s="3">
         <v>1.2114072625668476E-6</v>
@@ -37023,7 +37069,7 @@
     </row>
     <row r="1970" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1970" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B1970" s="3">
         <v>1.3252688602888143E-6</v>
@@ -37041,7 +37087,7 @@
     </row>
     <row r="1971" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1971" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B1971" s="3">
         <v>2.2087814338146904E-8</v>
@@ -37113,7 +37159,7 @@
     </row>
     <row r="1975" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1975" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1975" s="3">
         <v>1.3252688602888143E-7</v>
@@ -37185,7 +37231,7 @@
     </row>
     <row r="1979" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1979" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B1979" s="3">
         <v>4.2883696301401334E-9</v>
@@ -37221,7 +37267,7 @@
     </row>
     <row r="1981" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1981" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B1981" s="3">
         <v>4.417562867629381E-9</v>
@@ -37239,7 +37285,7 @@
     </row>
     <row r="1982" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1982" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1982" s="3">
         <v>1.2147463123534157E-8</v>
@@ -37257,7 +37303,7 @@
     </row>
     <row r="1983" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1983" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B1983" s="3">
         <v>3.9768082958024133E-7</v>
@@ -37293,7 +37339,7 @@
     </row>
     <row r="1985" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1985" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B1985" s="3">
         <v>4.0869969387591558E-8</v>
@@ -37365,7 +37411,7 @@
     </row>
     <row r="1989" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1989" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1989" s="3">
         <v>6.7382024692940973E-8</v>
@@ -37383,7 +37429,7 @@
     </row>
     <row r="1990" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1990" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1990" s="3">
         <v>2.9821053643838246E-8</v>
@@ -37404,7 +37450,7 @@
         <v>0</v>
       </c>
       <c r="B1993" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1994" spans="1:8" x14ac:dyDescent="0.2">
@@ -37412,15 +37458,15 @@
         <v>9</v>
       </c>
       <c r="B1994" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="1995" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1995" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B1995" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1996" spans="1:8" x14ac:dyDescent="0.2">
@@ -37452,7 +37498,7 @@
         <v>8</v>
       </c>
       <c r="B1999" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2000" spans="1:8" x14ac:dyDescent="0.2">
@@ -37463,7 +37509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2001" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2001" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2001" t="s">
         <v>6</v>
       </c>
@@ -37471,13 +37517,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2002" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2002" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2002" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2002"/>
     </row>
-    <row r="2003" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2003" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2003" t="s">
         <v>11</v>
       </c>
@@ -37500,18 +37546,21 @@
         <v>3</v>
       </c>
       <c r="H2003" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2003" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2003" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2003" t="s">
         <v>485</v>
       </c>
-      <c r="I2003" t="s">
-        <v>486</v>
-      </c>
-      <c r="J2003" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2004" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2004" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2004" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B2004">
         <v>1</v>
@@ -37532,9 +37581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2005" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2005" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2005" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B2005">
         <f>1/36</f>
@@ -37550,15 +37599,15 @@
         <v>18</v>
       </c>
       <c r="G2005" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H2005">
         <v>0</v>
       </c>
     </row>
-    <row r="2006" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2006" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2006" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B2006">
         <f>232/700000/11.99</f>
@@ -37574,23 +37623,27 @@
         <v>18</v>
       </c>
       <c r="G2006" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H2006">
         <v>5</v>
       </c>
       <c r="I2006">
+        <f>B2006</f>
+        <v>2.7642082687954249E-5</v>
+      </c>
+      <c r="J2006">
         <f>155/700000/11.99</f>
         <v>1.8467770761348742E-5</v>
       </c>
-      <c r="J2006">
+      <c r="K2006">
         <f>309/700000/11.99</f>
         <v>3.6816394614559746E-5</v>
       </c>
     </row>
-    <row r="2007" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2007" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2007" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2007">
         <v>1.2763976504487801E-4</v>
@@ -37605,13 +37658,13 @@
         <v>18</v>
       </c>
       <c r="G2007" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H2007">
         <v>0</v>
       </c>
     </row>
-    <row r="2008" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2008" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2008" t="s">
         <v>189</v>
       </c>
@@ -37631,7 +37684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2009" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2009" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2009" t="s">
         <v>193</v>
       </c>
@@ -37651,7 +37704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2010" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2010" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2010" t="s">
         <v>144</v>
       </c>
@@ -37671,7 +37724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2011" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2011" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2011" t="s">
         <v>198</v>
       </c>
@@ -37691,7 +37744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2012" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2012" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2012" t="s">
         <v>203</v>
       </c>
@@ -37711,7 +37764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2013" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2013" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2013" t="s">
         <v>211</v>
       </c>
@@ -37731,7 +37784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2014" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2014" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2014" t="s">
         <v>212</v>
       </c>
@@ -37751,7 +37804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2015" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2015" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2015" t="s">
         <v>213</v>
       </c>
@@ -37771,7 +37824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2016" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2016" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2016" t="s">
         <v>215</v>
       </c>
@@ -37791,7 +37844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2017" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2017" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2017" t="s">
         <v>216</v>
       </c>
@@ -37811,7 +37864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2018" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2018" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2018" t="s">
         <v>222</v>
       </c>
@@ -37831,7 +37884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2019" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2019" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2019" t="s">
         <v>226</v>
       </c>
@@ -37851,31 +37904,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2022" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2022" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2022" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2022" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2023" spans="1:9" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2023" t="s">
         <v>9</v>
       </c>
       <c r="B2023" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2024" spans="1:9" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2024" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2024" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2025" spans="1:9" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2025" t="s">
         <v>1</v>
       </c>
@@ -37883,7 +37936,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2026" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2026" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2026" t="s">
         <v>2</v>
       </c>
@@ -37891,7 +37944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2027" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2027" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2027" t="s">
         <v>3</v>
       </c>
@@ -37899,15 +37952,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2028" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2028" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2028" t="s">
         <v>8</v>
       </c>
       <c r="B2028" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:9" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2029" t="s">
         <v>4</v>
       </c>
@@ -37915,7 +37968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2030" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2030" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2030" t="s">
         <v>6</v>
       </c>
@@ -37923,13 +37976,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2031" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2031" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2031" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2031"/>
     </row>
-    <row r="2032" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2032" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2032" t="s">
         <v>11</v>
       </c>
@@ -37949,18 +38002,21 @@
         <v>3</v>
       </c>
       <c r="G2032" t="s">
+        <v>483</v>
+      </c>
+      <c r="H2032" t="s">
+        <v>501</v>
+      </c>
+      <c r="I2032" t="s">
+        <v>484</v>
+      </c>
+      <c r="J2032" t="s">
         <v>485</v>
-      </c>
-      <c r="H2032" t="s">
-        <v>486</v>
-      </c>
-      <c r="I2032" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="2033" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2033" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B2033">
         <v>1</v>
@@ -38007,7 +38063,7 @@
     </row>
     <row r="2035" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2035" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B2035">
         <v>5.8548009367681507E-6</v>
@@ -38022,7 +38078,7 @@
         <v>18</v>
       </c>
       <c r="F2035" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G2035">
         <v>0</v>
@@ -38030,7 +38086,7 @@
     </row>
     <row r="2036" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2036" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2036">
         <v>2.0319944081098179E-5</v>
@@ -38045,7 +38101,7 @@
         <v>18</v>
       </c>
       <c r="F2036" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G2036">
         <v>0</v>
@@ -38053,7 +38109,7 @@
     </row>
     <row r="2037" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2037" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B2037">
         <v>2.9685693565181665E-6</v>
@@ -38068,7 +38124,7 @@
         <v>18</v>
       </c>
       <c r="F2037" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G2037">
         <v>0</v>
@@ -38076,7 +38132,7 @@
     </row>
     <row r="2038" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2038" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2038">
         <v>8.4309133489461356E-6</v>
@@ -38091,7 +38147,7 @@
         <v>18</v>
       </c>
       <c r="F2038" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G2038">
         <v>0</v>
@@ -38099,7 +38155,7 @@
     </row>
     <row r="2039" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2039" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2039">
         <f>399/700000/6.1</f>
@@ -38121,18 +38177,21 @@
         <v>5</v>
       </c>
       <c r="H2039">
+        <f>B2039</f>
+        <v>9.3442622950819676E-5</v>
+      </c>
+      <c r="I2039">
         <f>(266)/700000/6.1</f>
         <v>6.2295081967213127E-5</v>
       </c>
-      <c r="I2039">
+      <c r="J2039">
         <f>533/700000/6.1</f>
         <v>1.2482435597189697E-4</v>
       </c>
-      <c r="J2039" s="68"/>
     </row>
     <row r="2040" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2040" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B2040">
         <f>4.16666666666667E-08*10/6.1</f>
@@ -38148,16 +38207,20 @@
         <v>18</v>
       </c>
       <c r="F2040" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G2040">
         <v>5</v>
       </c>
       <c r="H2040">
+        <f>B2040</f>
+        <v>6.8306010928961812E-8</v>
+      </c>
+      <c r="I2040">
         <f>B2040/2</f>
         <v>3.4153005464480906E-8</v>
       </c>
-      <c r="I2040">
+      <c r="J2040">
         <f>B2040*2</f>
         <v>1.3661202185792362E-7</v>
       </c>
@@ -38167,7 +38230,7 @@
         <v>0</v>
       </c>
       <c r="B2042" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2043" spans="1:10" x14ac:dyDescent="0.2">
@@ -38180,10 +38243,10 @@
     </row>
     <row r="2044" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2044" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2044" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2045" spans="1:10" x14ac:dyDescent="0.2">
@@ -38207,7 +38270,7 @@
         <v>3</v>
       </c>
       <c r="B2047" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2048" spans="1:10" x14ac:dyDescent="0.2">
@@ -38215,12 +38278,12 @@
         <v>8</v>
       </c>
       <c r="B2048" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2049" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2049" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B2049" t="s">
         <v>16</v>
@@ -38271,18 +38334,18 @@
         <v>3</v>
       </c>
       <c r="H2053" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2054" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2054" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B2054">
         <v>1</v>
       </c>
       <c r="C2054" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D2054" t="s">
         <v>103</v>
@@ -38294,21 +38357,21 @@
         <v>15</v>
       </c>
       <c r="G2054" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H2054" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2055" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2055" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B2055">
         <v>4.3</v>
       </c>
       <c r="C2055" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D2055" t="s">
         <v>103</v>
@@ -38320,21 +38383,21 @@
         <v>18</v>
       </c>
       <c r="G2055" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H2055" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2056" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2056" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B2056">
         <v>1</v>
       </c>
       <c r="C2056" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D2056" t="s">
         <v>103</v>
@@ -38346,21 +38409,21 @@
         <v>18</v>
       </c>
       <c r="G2056" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H2056" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2057" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2057" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2057">
         <v>1</v>
       </c>
       <c r="C2057" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D2057" t="s">
         <v>103</v>
@@ -38372,10 +38435,10 @@
         <v>18</v>
       </c>
       <c r="G2057" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H2057" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2058" spans="1:8" x14ac:dyDescent="0.2">
@@ -38386,7 +38449,7 @@
         <v>0</v>
       </c>
       <c r="B2059" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2060" spans="1:8" x14ac:dyDescent="0.2">
@@ -38394,15 +38457,15 @@
         <v>9</v>
       </c>
       <c r="B2060" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2061" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2061" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2061" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2062" spans="1:8" x14ac:dyDescent="0.2">
@@ -38434,7 +38497,7 @@
         <v>8</v>
       </c>
       <c r="B2065" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2066" spans="1:10" x14ac:dyDescent="0.2">
@@ -38479,18 +38542,21 @@
         <v>3</v>
       </c>
       <c r="G2069" t="s">
+        <v>483</v>
+      </c>
+      <c r="H2069" t="s">
+        <v>501</v>
+      </c>
+      <c r="I2069" t="s">
+        <v>484</v>
+      </c>
+      <c r="J2069" t="s">
         <v>485</v>
-      </c>
-      <c r="H2069" t="s">
-        <v>486</v>
-      </c>
-      <c r="I2069" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="2070" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2070" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B2070">
         <v>1</v>
@@ -38513,23 +38579,23 @@
     </row>
     <row r="2071" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2071" s="53" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2071" s="60">
+        <v>495</v>
+      </c>
+      <c r="B2071" s="59">
         <f>1/120</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="C2071" s="56" t="s">
+      <c r="C2071" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D2071" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2071" s="56" t="s">
+      <c r="D2071" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2071" s="55" t="s">
         <v>18</v>
       </c>
       <c r="F2071" s="53" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G2071" s="53">
         <v>0</v>
@@ -38537,7 +38603,7 @@
     </row>
     <row r="2072" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2072" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B2072">
         <f>266/700000/6.3</f>
@@ -38553,23 +38619,27 @@
         <v>18</v>
       </c>
       <c r="F2072" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G2072">
         <v>5</v>
       </c>
       <c r="H2072">
+        <f>B2072</f>
+        <v>6.0317460317460322E-5</v>
+      </c>
+      <c r="I2072">
         <f>205/700000/6.3</f>
         <v>4.6485260770975065E-5</v>
       </c>
-      <c r="I2072">
+      <c r="J2072">
         <f>288/700000/6.3</f>
         <v>6.53061224489796E-5</v>
       </c>
     </row>
     <row r="2073" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2073" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B2073">
         <f>164/700000/6.3</f>
@@ -38585,23 +38655,27 @@
         <v>18</v>
       </c>
       <c r="F2073" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G2073">
         <v>5</v>
       </c>
       <c r="H2073">
+        <f>B2073</f>
+        <v>3.7188208616780044E-5</v>
+      </c>
+      <c r="I2073">
         <f>96/700000/6.3</f>
         <v>2.1768707482993196E-5</v>
       </c>
-      <c r="I2073">
+      <c r="J2073">
         <f>232/700000/6.3</f>
         <v>5.2607709750566898E-5</v>
       </c>
     </row>
     <row r="2074" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2074" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B2074">
         <v>5.6689342403628128E-6</v>
@@ -38616,7 +38690,7 @@
         <v>18</v>
       </c>
       <c r="F2074" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G2074">
         <v>0</v>
@@ -38624,7 +38698,7 @@
     </row>
     <row r="2075" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2075" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2075">
         <v>2.4040391954934648E-5</v>
@@ -38639,7 +38713,7 @@
         <v>18</v>
       </c>
       <c r="F2075" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G2075">
         <v>0</v>
@@ -38647,7 +38721,7 @@
     </row>
     <row r="2076" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2076" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B2076">
         <v>3.1830926606374987E-6</v>
@@ -38662,7 +38736,7 @@
         <v>18</v>
       </c>
       <c r="F2076" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G2076">
         <v>0</v>
@@ -38670,7 +38744,7 @@
     </row>
     <row r="2077" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2077" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2077">
         <v>8.16326530612245E-6</v>
@@ -38685,7 +38759,7 @@
         <v>18</v>
       </c>
       <c r="F2077" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G2077">
         <v>0</v>
@@ -38693,7 +38767,7 @@
     </row>
     <row r="2078" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2078" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2078">
         <f>80/700000/6.3</f>
@@ -38715,14 +38789,17 @@
         <v>5</v>
       </c>
       <c r="H2078">
+        <f>B2078</f>
+        <v>1.8140589569160997E-5</v>
+      </c>
+      <c r="I2078">
         <f>47/700000/6.3</f>
         <v>1.0657596371882086E-5</v>
       </c>
-      <c r="I2078">
+      <c r="J2078">
         <f>98/700000/6.3</f>
         <v>2.222222222222222E-5</v>
       </c>
-      <c r="J2078" s="68"/>
     </row>
     <row r="2079" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2079"/>
@@ -38732,26 +38809,26 @@
         <v>0</v>
       </c>
       <c r="B2080" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="2081" spans="1:9" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2081" t="s">
         <v>9</v>
       </c>
       <c r="B2081" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2082" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2082" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2082" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2083" spans="1:9" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2083" t="s">
         <v>1</v>
       </c>
@@ -38759,7 +38836,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2084" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2084" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2084" t="s">
         <v>2</v>
       </c>
@@ -38767,7 +38844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2085" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2085" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2085" t="s">
         <v>3</v>
       </c>
@@ -38775,15 +38852,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2086" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2086" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2086" t="s">
         <v>8</v>
       </c>
       <c r="B2086" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2087" spans="1:9" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2087" t="s">
         <v>4</v>
       </c>
@@ -38791,7 +38868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2088" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2088" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2088" t="s">
         <v>6</v>
       </c>
@@ -38799,13 +38876,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2089" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2089" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2089" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2089"/>
     </row>
-    <row r="2090" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2090" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2090" t="s">
         <v>11</v>
       </c>
@@ -38825,18 +38902,21 @@
         <v>3</v>
       </c>
       <c r="G2090" t="s">
+        <v>483</v>
+      </c>
+      <c r="H2090" t="s">
+        <v>501</v>
+      </c>
+      <c r="I2090" t="s">
+        <v>484</v>
+      </c>
+      <c r="J2090" t="s">
         <v>485</v>
       </c>
-      <c r="H2090" t="s">
-        <v>486</v>
-      </c>
-      <c r="I2090" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2091" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2091" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2091" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B2091">
         <v>1</v>
@@ -38857,7 +38937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2092" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2092" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2092" t="s">
         <v>288</v>
       </c>
@@ -38881,9 +38961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2093" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2093" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2093" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B2093">
         <v>4.3859649122807014E-6</v>
@@ -38898,15 +38978,15 @@
         <v>18</v>
       </c>
       <c r="F2093" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G2093">
         <v>0</v>
       </c>
     </row>
-    <row r="2094" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2094" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2094" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2094">
         <v>1.529271460518488E-5</v>
@@ -38921,15 +39001,15 @@
         <v>18</v>
       </c>
       <c r="F2094" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G2094">
         <v>0</v>
       </c>
     </row>
-    <row r="2095" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2095" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2095" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B2095">
         <v>2.2293376104859981E-6</v>
@@ -38944,15 +39024,15 @@
         <v>18</v>
       </c>
       <c r="F2095" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G2095">
         <v>0</v>
       </c>
     </row>
-    <row r="2096" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2096" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2096" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2096">
         <v>6.3157894736842103E-6</v>
@@ -38967,7 +39047,7 @@
         <v>18</v>
       </c>
       <c r="F2096" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G2096">
         <v>0</v>
@@ -38975,7 +39055,7 @@
     </row>
     <row r="2097" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2097" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B2097">
         <f>66/1000000/5.7</f>
@@ -38991,27 +39071,30 @@
         <v>18</v>
       </c>
       <c r="F2097" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G2097">
         <v>5</v>
       </c>
       <c r="H2097">
+        <f>B2097</f>
+        <v>1.1578947368421053E-5</v>
+      </c>
+      <c r="I2097">
         <f>33/1000000/5.7</f>
         <v>5.7894736842105267E-6</v>
       </c>
-      <c r="I2097">
+      <c r="J2097">
         <f>88/1000000/5.7</f>
         <v>1.5438596491228068E-5</v>
       </c>
-      <c r="J2097" s="68"/>
     </row>
     <row r="2099" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2099" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2099" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2100" spans="1:10" x14ac:dyDescent="0.2">
@@ -39074,7 +39157,7 @@
     </row>
     <row r="2106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2106" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B2106">
         <v>1</v>
@@ -39094,7 +39177,7 @@
     </row>
     <row r="2107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2107" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B2107" s="2">
         <f>1/(0.089775*3.6)</f>
@@ -39104,24 +39187,24 @@
         <v>104</v>
       </c>
       <c r="D2107" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E2107" t="s">
         <v>18</v>
       </c>
       <c r="F2107" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2108"/>
     </row>
     <row r="2109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2109" s="61" t="s">
+      <c r="A2109" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2109" s="61" t="s">
-        <v>437</v>
+      <c r="B2109" s="60" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="2110" spans="1:10" x14ac:dyDescent="0.2">
@@ -39148,7 +39231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2113" t="s">
         <v>6</v>
       </c>
@@ -39156,28 +39239,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2114" t="s">
         <v>8</v>
       </c>
       <c r="B2114" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2115" spans="1:11" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2115" t="s">
         <v>9</v>
       </c>
       <c r="B2115" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2116" spans="1:11" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2116" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2117" t="s">
         <v>11</v>
       </c>
@@ -39203,18 +39286,21 @@
         <v>3</v>
       </c>
       <c r="I2117" t="s">
+        <v>483</v>
+      </c>
+      <c r="J2117" t="s">
+        <v>501</v>
+      </c>
+      <c r="K2117" t="s">
+        <v>484</v>
+      </c>
+      <c r="L2117" t="s">
         <v>485</v>
       </c>
-      <c r="J2117" t="s">
-        <v>486</v>
-      </c>
-      <c r="K2117" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2118" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2118" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B2118" s="3">
         <v>1</v>
@@ -39238,7 +39324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2119" t="s">
         <v>288</v>
       </c>
@@ -39262,9 +39348,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2120" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B2120" s="3">
         <v>9.5816828884557961E-5</v>
@@ -39279,18 +39365,18 @@
         <v>18</v>
       </c>
       <c r="G2120" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H2120" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I2120">
         <v>0</v>
       </c>
     </row>
-    <row r="2121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2121" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2121">
         <f>8.1/38500/(0.0753*3.6)</f>
@@ -39312,23 +39398,27 @@
         <v>5</v>
       </c>
       <c r="J2121">
+        <f>B2121</f>
+        <v>7.7611631396491947E-4</v>
+      </c>
+      <c r="K2121">
         <f>2.4/38500/(0.0753*3.6)</f>
         <v>2.2996038932293907E-4</v>
       </c>
-      <c r="K2121">
+      <c r="L2121">
         <f>16.5/38500/(0.0753*3.6)</f>
         <v>1.5809776765952062E-3</v>
       </c>
     </row>
-    <row r="2123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2123" s="61" t="s">
+    <row r="2123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2123" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2123" s="61" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2123" s="60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2124" t="s">
         <v>1</v>
       </c>
@@ -39336,7 +39426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2125" t="s">
         <v>3</v>
       </c>
@@ -39344,7 +39434,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2126" t="s">
         <v>4</v>
       </c>
@@ -39352,7 +39442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2127" t="s">
         <v>6</v>
       </c>
@@ -39360,12 +39450,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2128" t="s">
         <v>8</v>
       </c>
       <c r="B2128" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2129" spans="1:15" x14ac:dyDescent="0.2">
@@ -39373,7 +39463,7 @@
         <v>9</v>
       </c>
       <c r="B2129" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2130" spans="1:15" x14ac:dyDescent="0.2">
@@ -39407,18 +39497,21 @@
         <v>3</v>
       </c>
       <c r="I2131" t="s">
+        <v>483</v>
+      </c>
+      <c r="J2131" t="s">
+        <v>501</v>
+      </c>
+      <c r="K2131" t="s">
+        <v>484</v>
+      </c>
+      <c r="L2131" t="s">
         <v>485</v>
-      </c>
-      <c r="J2131" t="s">
-        <v>486</v>
-      </c>
-      <c r="K2131" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="2132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2132" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B2132" s="3">
         <v>1</v>
@@ -39442,47 +39535,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2133" spans="1:15" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2133" s="56" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2133" s="63">
+    <row r="2133" spans="1:15" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2133" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2133" s="62">
         <f>B1937/10</f>
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="C2133" s="56" t="s">
+      <c r="C2133" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D2133" s="56" t="s">
+      <c r="D2133" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F2133" s="56" t="s">
+      <c r="F2133" s="55" t="s">
         <v>18</v>
       </c>
       <c r="G2133" t="s">
-        <v>439</v>
-      </c>
-      <c r="H2133" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="I2133" s="56">
+        <v>437</v>
+      </c>
+      <c r="H2133" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="I2133" s="55">
         <v>5</v>
       </c>
-      <c r="J2133" s="58">
+      <c r="J2133" s="68">
+        <f>B2133</f>
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="K2133" s="57">
         <f>B1937/15</f>
         <v>8.3333333333333337E-6</v>
       </c>
-      <c r="K2133" s="58">
+      <c r="L2133" s="57">
         <f>B1937/5</f>
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="O2133" s="57"/>
-    </row>
-    <row r="2134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2133" s="56"/>
+    </row>
+    <row r="2134" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2134" t="s">
-        <v>402</v>
-      </c>
-      <c r="B2134" s="64">
+        <v>400</v>
+      </c>
+      <c r="B2134" s="63">
         <f>B1936/10</f>
         <v>2.8333333333333329E-5</v>
       </c>
@@ -39496,50 +39593,54 @@
         <v>18</v>
       </c>
       <c r="G2134" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H2134" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I2134">
         <v>5</v>
       </c>
-      <c r="J2134" s="3">
+      <c r="J2134" s="68">
+        <f>B2134</f>
+        <v>2.8333333333333329E-5</v>
+      </c>
+      <c r="K2134" s="3">
         <f>B1936/15</f>
         <v>1.8888888888888886E-5</v>
       </c>
-      <c r="K2134" s="3">
+      <c r="L2134" s="3">
         <f>B1936/5</f>
         <v>5.6666666666666657E-5</v>
       </c>
     </row>
     <row r="2135" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2135" s="53" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2135" s="63">
+        <v>495</v>
+      </c>
+      <c r="B2135" s="62">
         <f>1/120</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="C2135" s="56" t="s">
+      <c r="C2135" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D2135" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2135" s="56" t="s">
+      <c r="D2135" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2135" s="55" t="s">
         <v>18</v>
       </c>
       <c r="H2135" s="53" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I2135">
         <v>0</v>
       </c>
     </row>
-    <row r="2136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2136" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2136" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2136">
         <f>(8.1/5)/38500/(0.0753*3.6)</f>
@@ -39560,11 +39661,15 @@
       <c r="I2136">
         <v>5</v>
       </c>
-      <c r="J2136">
+      <c r="J2136" s="68">
+        <f>B2136</f>
+        <v>1.5522326279298387E-4</v>
+      </c>
+      <c r="K2136">
         <f>(2.4/5)/38500/(0.0753*3.6)</f>
         <v>4.599207786458782E-5</v>
       </c>
-      <c r="K2136">
+      <c r="L2136">
         <f>(16.5/5)/38500/(0.0753*3.6)</f>
         <v>3.1619553531904123E-4</v>
       </c>
@@ -39574,7 +39679,7 @@
         <v>0</v>
       </c>
       <c r="B2138" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C2138" s="53"/>
       <c r="D2138" s="53"/>
@@ -39746,7 +39851,7 @@
     </row>
     <row r="2147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2147" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B2147">
         <f>1/42.6</f>
@@ -39762,7 +39867,7 @@
         <v>18</v>
       </c>
       <c r="G2147" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2148" spans="1:12" x14ac:dyDescent="0.2">
@@ -39786,7 +39891,7 @@
     </row>
     <row r="2149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2149" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B2149" s="3">
         <v>8.8450704225352119E-4</v>
@@ -39930,7 +40035,7 @@
     </row>
     <row r="2157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2157" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B2157" s="3">
         <v>1.4133139635978708E-6</v>
@@ -39948,7 +40053,7 @@
     </row>
     <row r="2158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2158" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B2158" s="3">
         <v>6.1476482081469075E-6</v>
@@ -39966,7 +40071,7 @@
     </row>
     <row r="2159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2159" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2159" s="3">
         <v>4.3348801467702544E-7</v>
@@ -39984,7 +40089,7 @@
     </row>
     <row r="2160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2160" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B2160" s="3">
         <v>8.8328278852685434E-8</v>
@@ -40002,7 +40107,7 @@
     </row>
     <row r="2161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2161" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B2161" s="3">
         <v>7.1206181721241788E-7</v>
@@ -40020,7 +40125,7 @@
     </row>
     <row r="2162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2162" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B2162" s="3">
         <v>2.9216276851272876E-7</v>
@@ -40038,7 +40143,7 @@
     </row>
     <row r="2163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2163" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B2163" s="3">
         <v>2.1878235223511317E-7</v>
@@ -40056,7 +40161,7 @@
     </row>
     <row r="2164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2164" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B2164" s="3">
         <v>1.5491421214163292E-7</v>
@@ -40074,7 +40179,7 @@
     </row>
     <row r="2165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2165" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B2165" s="3">
         <v>1.0055834823228804E-7</v>
@@ -40092,7 +40197,7 @@
     </row>
     <row r="2166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2166" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B2166" s="3">
         <v>9.9199451634554413E-7</v>
@@ -40110,7 +40215,7 @@
     </row>
     <row r="2167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2167" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B2167" s="3">
         <v>5.1909850033424364E-7</v>
@@ -40128,7 +40233,7 @@
     </row>
     <row r="2168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2168" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B2168" s="3">
         <v>1.4947862575069847E-8</v>
@@ -40164,7 +40269,7 @@
     </row>
     <row r="2170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2170" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B2170" s="3">
         <v>7.3788085256935697E-7</v>
@@ -40182,7 +40287,7 @@
     </row>
     <row r="2171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2171" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B2171" s="3">
         <v>3.0711063108779858E-7</v>
@@ -40200,7 +40305,7 @@
     </row>
     <row r="2172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2172" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2172" s="3">
         <v>2.3101242161471579E-7</v>
@@ -40218,7 +40323,7 @@
     </row>
     <row r="2173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2173" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2173" s="3">
         <v>1.0191724483002165E-7</v>
@@ -40236,7 +40341,7 @@
     </row>
     <row r="2174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2174" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B2174" s="3">
         <v>2.9895725150139694E-8</v>
@@ -40254,7 +40359,7 @@
     </row>
     <row r="2175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2175" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B2175" s="3">
         <v>8.2892692461750966E-8</v>
@@ -40272,7 +40377,7 @@
     </row>
     <row r="2176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2176" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B2176" s="3">
         <v>0</v>
@@ -40290,7 +40395,7 @@
     </row>
     <row r="2177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2177" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B2177" s="3">
         <v>2.5819035356938819E-8</v>
@@ -40308,7 +40413,7 @@
     </row>
     <row r="2178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2178" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B2178" s="3">
         <v>1.3724855637109585E-7</v>
@@ -40326,7 +40431,7 @@
     </row>
     <row r="2179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2179" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B2179" s="3">
         <v>8.1882352941176476E-10</v>
@@ -40344,7 +40449,7 @@
     </row>
     <row r="2180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2180" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2180" s="3">
         <v>7.0588235294117658E-12</v>
@@ -40362,7 +40467,7 @@
     </row>
     <row r="2181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2181" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B2181" s="3">
         <v>4.7058823529411767E-12</v>
@@ -40380,7 +40485,7 @@
     </row>
     <row r="2182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2182" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B2182" s="3">
         <v>5.082352941176471E-8</v>
@@ -40398,7 +40503,7 @@
     </row>
     <row r="2183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2183" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B2183" s="3">
         <v>9.8823529411764698E-10</v>
@@ -40416,7 +40521,7 @@
     </row>
     <row r="2184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2184" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B2184" s="3">
         <v>3.0588235294117649E-10</v>
@@ -40434,7 +40539,7 @@
     </row>
     <row r="2185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2185" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B2185" s="3">
         <v>3.7647058823529416E-10</v>
@@ -40470,7 +40575,7 @@
     </row>
     <row r="2187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2187" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B2187" s="3">
         <v>2.0470588235294119E-10</v>
@@ -40488,7 +40593,7 @@
     </row>
     <row r="2188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2188" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B2188" s="3">
         <v>2.5411764705882359E-10</v>
@@ -40509,7 +40614,7 @@
         <v>0</v>
       </c>
       <c r="B2190" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2191" spans="1:8" x14ac:dyDescent="0.2">
@@ -40557,15 +40662,15 @@
         <v>8</v>
       </c>
       <c r="B2196" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2197" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2197" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2198" spans="1:7" x14ac:dyDescent="0.2">
@@ -40573,7 +40678,7 @@
         <v>9</v>
       </c>
       <c r="B2198" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -40606,8 +40711,8 @@
       </c>
     </row>
     <row r="2201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2201" s="65" t="s">
-        <v>456</v>
+      <c r="A2201" s="64" t="s">
+        <v>454</v>
       </c>
       <c r="B2201">
         <v>1</v>
@@ -40630,7 +40735,7 @@
     </row>
     <row r="2202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2202" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2202">
         <v>1.1278940455009136E-4</v>
@@ -40648,12 +40753,12 @@
         <v>18</v>
       </c>
       <c r="G2202" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2203" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B2203">
         <v>3.8539996192328446E-6</v>
@@ -40671,12 +40776,12 @@
         <v>18</v>
       </c>
       <c r="G2203" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2204" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B2204">
         <f>1/43</f>
@@ -40692,12 +40797,12 @@
         <v>18</v>
       </c>
       <c r="G2204" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2205" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2205">
         <v>1.1906151495612746E-9</v>
@@ -40714,7 +40819,7 @@
     </row>
     <row r="2206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2206" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2206">
         <v>8.8352086295850824E-8</v>
@@ -40731,7 +40836,7 @@
     </row>
     <row r="2207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2207" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B2207">
         <v>3.8893428219001639E-8</v>
@@ -40748,7 +40853,7 @@
     </row>
     <row r="2208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2208" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B2208">
         <v>5.4371425163298209E-8</v>
@@ -40782,7 +40887,7 @@
     </row>
     <row r="2210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2210" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B2210">
         <v>7.024629382411521E-8</v>
@@ -40833,7 +40938,7 @@
     </row>
     <row r="2213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2213" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B2213">
         <v>2.2224816125143791E-8</v>
@@ -40867,7 +40972,7 @@
     </row>
     <row r="2215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2215" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B2215">
         <v>2.6338739709305827E-6</v>
@@ -40884,7 +40989,7 @@
     </row>
     <row r="2216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2216" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2216">
         <v>3.3337224187715699E-7</v>
@@ -40901,7 +41006,7 @@
     </row>
     <row r="2217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2217" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B2217">
         <v>1.229967209887436E-10</v>
@@ -40918,7 +41023,7 @@
     </row>
     <row r="2218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2218" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B2218">
         <v>2.0499453498123931E-10</v>
@@ -40935,7 +41040,7 @@
     </row>
     <row r="2219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2219" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B2219">
         <v>1.9486966093412831E-6</v>
@@ -40969,7 +41074,7 @@
     </row>
     <row r="2221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2221" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2221">
         <v>2.3299378853965246E-12</v>
@@ -41003,7 +41108,7 @@
     </row>
     <row r="2223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2223" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B2223">
         <v>2.0199461495712361E-10</v>
@@ -41020,7 +41125,7 @@
     </row>
     <row r="2224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2224" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B2224">
         <v>1.5874868660816998E-8</v>
@@ -41054,7 +41159,7 @@
     </row>
     <row r="2226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2226" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B2226">
         <v>3.3193620217056908E-6</v>
@@ -41071,7 +41176,7 @@
     </row>
     <row r="2227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2227" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B2227">
         <v>2.3812302991225493E-9</v>
@@ -41088,7 +41193,7 @@
     </row>
     <row r="2228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2228" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B2228">
         <v>2.3299378853965246E-12</v>
@@ -41122,7 +41227,7 @@
     </row>
     <row r="2230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2230" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B2230">
         <v>1.1906151495612748E-8</v>
@@ -41139,7 +41244,7 @@
     </row>
     <row r="2231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2231" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B2231">
         <v>5.9530757478063763E-9</v>
@@ -41173,7 +41278,7 @@
     </row>
     <row r="2233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2233" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B2233">
         <v>4.0498920325561916E-8</v>
@@ -41207,7 +41312,7 @@
     </row>
     <row r="2235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2235" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B2235">
         <v>3.9687171652042487E-9</v>
@@ -41224,7 +41329,7 @@
     </row>
     <row r="2236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2236" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B2236">
         <v>6.9798139227758525E-10</v>
@@ -41241,7 +41346,7 @@
     </row>
     <row r="2237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2237" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B2237">
         <v>1.8199514812968563E-9</v>
@@ -41258,7 +41363,7 @@
     </row>
     <row r="2238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2238" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B2238">
         <v>4.9298685729634615E-10</v>
@@ -41275,7 +41380,7 @@
     </row>
     <row r="2239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2239" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2239">
         <v>1.8137037444983413E-7</v>
@@ -41290,15 +41395,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2242" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2242" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2242" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2243" spans="1:10" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2243" t="s">
         <v>1</v>
       </c>
@@ -41306,7 +41411,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2244" t="s">
         <v>2</v>
       </c>
@@ -41314,7 +41419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2245" t="s">
         <v>3</v>
       </c>
@@ -41322,7 +41427,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2246" t="s">
         <v>4</v>
       </c>
@@ -41330,7 +41435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2247" t="s">
         <v>6</v>
       </c>
@@ -41338,37 +41443,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2248" t="s">
         <v>8</v>
       </c>
       <c r="B2248" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2249" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2249" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2249" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2250" spans="1:10" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2250" t="s">
         <v>9</v>
       </c>
       <c r="B2250" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2251" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2251" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2251"/>
     </row>
-    <row r="2252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2252" t="s">
         <v>11</v>
       </c>
@@ -41391,18 +41496,21 @@
         <v>3</v>
       </c>
       <c r="H2252" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2252" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2252" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2252" t="s">
         <v>485</v>
       </c>
-      <c r="I2252" t="s">
-        <v>486</v>
-      </c>
-      <c r="J2252" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2253" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2253" s="65" t="s">
-        <v>460</v>
+    </row>
+    <row r="2253" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2253" s="64" t="s">
+        <v>458</v>
       </c>
       <c r="B2253">
         <v>1</v>
@@ -41426,9 +41534,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2254" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2254">
         <v>1.0342946239951181E-6</v>
@@ -41446,15 +41554,15 @@
         <v>18</v>
       </c>
       <c r="G2254" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H2254">
         <v>0</v>
       </c>
     </row>
-    <row r="2255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2255" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B2255">
         <v>6.4643413999694885E-6</v>
@@ -41472,15 +41580,15 @@
         <v>18</v>
       </c>
       <c r="G2255" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H2255">
         <v>0</v>
       </c>
     </row>
-    <row r="2256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2256" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B2256">
         <v>7.7322091721143572E-6</v>
@@ -41498,15 +41606,15 @@
         <v>18</v>
       </c>
       <c r="G2256" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H2256">
         <v>0</v>
       </c>
     </row>
-    <row r="2257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2257" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2257">
         <v>1.5514419359926774E-4</v>
@@ -41524,15 +41632,15 @@
         <v>18</v>
       </c>
       <c r="G2257" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H2257">
         <v>0</v>
       </c>
     </row>
-    <row r="2258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2258" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2258">
         <f>283/710000/5.45</f>
@@ -41554,26 +41662,30 @@
         <v>5</v>
       </c>
       <c r="I2258">
+        <f>B2258</f>
+        <v>7.3136064090967829E-5</v>
+      </c>
+      <c r="J2258">
         <f>160/710000/5.45</f>
         <v>4.1349011500193823E-5</v>
       </c>
-      <c r="J2258">
+      <c r="K2258">
         <f>450/710000/5.45</f>
         <v>1.1629409484429512E-4</v>
       </c>
     </row>
-    <row r="2259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2259"/>
     </row>
-    <row r="2260" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2260" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2260" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2260" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2261" spans="1:10" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2261" t="s">
         <v>1</v>
       </c>
@@ -41581,7 +41693,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2262" t="s">
         <v>2</v>
       </c>
@@ -41589,7 +41701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2263" t="s">
         <v>3</v>
       </c>
@@ -41597,7 +41709,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2264" t="s">
         <v>4</v>
       </c>
@@ -41605,7 +41717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2265" t="s">
         <v>6</v>
       </c>
@@ -41613,37 +41725,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2266" t="s">
         <v>8</v>
       </c>
       <c r="B2266" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2267" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2267" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2267" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2268" spans="1:10" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2268" t="s">
         <v>9</v>
       </c>
       <c r="B2268" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2269" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2269" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2269"/>
     </row>
-    <row r="2270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2270" t="s">
         <v>11</v>
       </c>
@@ -41666,18 +41778,21 @@
         <v>3</v>
       </c>
       <c r="H2270" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2270" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2270" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2270" t="s">
         <v>485</v>
       </c>
-      <c r="I2270" t="s">
-        <v>486</v>
-      </c>
-      <c r="J2270" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2271" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2271" s="65" t="s">
-        <v>461</v>
+    </row>
+    <row r="2271" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2271" s="64" t="s">
+        <v>459</v>
       </c>
       <c r="B2271">
         <v>1</v>
@@ -41701,33 +41816,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2272" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2272" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2272" s="53" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2272" s="63">
+        <v>495</v>
+      </c>
+      <c r="B2272" s="62">
         <f>1/120</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="C2272" s="56" t="s">
+      <c r="C2272" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D2272" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2272" s="56" t="s">
+      <c r="D2272" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2272" s="55" t="s">
         <v>18</v>
       </c>
       <c r="G2272" s="53" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2272">
         <v>0</v>
       </c>
     </row>
-    <row r="2273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2273" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2273">
         <v>5.1450254035629309E-7</v>
@@ -41742,15 +41857,15 @@
         <v>18</v>
       </c>
       <c r="G2273" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H2273">
         <v>0</v>
       </c>
     </row>
-    <row r="2274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2274" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B2274">
         <v>3.2156408772268317E-6</v>
@@ -41765,15 +41880,15 @@
         <v>18</v>
       </c>
       <c r="G2274" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H2274">
         <v>0</v>
       </c>
     </row>
-    <row r="2275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2275" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B2275">
         <v>2.4884703939932923E-6</v>
@@ -41788,15 +41903,15 @@
         <v>18</v>
       </c>
       <c r="G2275" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H2275">
         <v>0</v>
       </c>
     </row>
-    <row r="2276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2276" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B2276">
         <f>802/1000000/10.95</f>
@@ -41812,23 +41927,27 @@
         <v>18</v>
       </c>
       <c r="G2276" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H2276">
         <v>5</v>
       </c>
       <c r="I2276">
+        <f>B2276</f>
+        <v>7.3242009132420095E-5</v>
+      </c>
+      <c r="J2276">
         <f>362/1000000/10.95</f>
         <v>3.3059360730593613E-5</v>
       </c>
-      <c r="J2276">
+      <c r="K2276">
         <f>1268/1000000/10.95</f>
         <v>1.1579908675799088E-4</v>
       </c>
     </row>
-    <row r="2277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2277" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2277">
         <v>2.9788164985196983E-5</v>
@@ -41843,15 +41962,15 @@
         <v>18</v>
       </c>
       <c r="G2277" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H2277">
         <v>0</v>
       </c>
     </row>
-    <row r="2278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2278" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B2278">
         <f>129/1000000/10.95</f>
@@ -41867,23 +41986,27 @@
         <v>18</v>
       </c>
       <c r="G2278" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H2278">
         <v>5</v>
       </c>
       <c r="I2278">
+        <f t="shared" ref="I2278:I2279" si="0">B2278</f>
+        <v>1.178082191780822E-5</v>
+      </c>
+      <c r="J2278">
         <f>26/1000000/10.95</f>
         <v>2.3744292237442924E-6</v>
       </c>
-      <c r="J2278">
+      <c r="K2278">
         <f>235/1000000/10.95</f>
         <v>2.1461187214611872E-5</v>
       </c>
     </row>
-    <row r="2279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2279" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2279">
         <f>47/710000/11</f>
@@ -41905,42 +42028,46 @@
         <v>5</v>
       </c>
       <c r="I2279">
+        <f t="shared" si="0"/>
+        <v>6.0179257362355952E-6</v>
+      </c>
+      <c r="J2279">
         <f>20.6/710000/11</f>
         <v>2.6376440460947507E-6</v>
       </c>
-      <c r="J2279">
+      <c r="K2279">
         <f>80.4/710000/11</f>
         <v>1.0294494238156211E-5</v>
       </c>
     </row>
-    <row r="2280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2280"/>
     </row>
-    <row r="2282" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2282" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2282" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2282" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="2283" spans="1:10" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2283" t="s">
         <v>9</v>
       </c>
       <c r="B2283" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="2284" spans="1:10" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2284" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2284" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2285" spans="1:10" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2285" t="s">
         <v>1</v>
       </c>
@@ -41948,7 +42075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2286" t="s">
         <v>2</v>
       </c>
@@ -41956,7 +42083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2287" t="s">
         <v>3</v>
       </c>
@@ -41964,15 +42091,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2288" t="s">
         <v>8</v>
       </c>
       <c r="B2288" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2289" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2289" t="s">
         <v>4</v>
       </c>
@@ -41980,7 +42107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2290" t="s">
         <v>6</v>
       </c>
@@ -41988,13 +42115,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2291" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2291" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2291" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2291"/>
     </row>
-    <row r="2292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2292" t="s">
         <v>11</v>
       </c>
@@ -42017,18 +42144,21 @@
         <v>3</v>
       </c>
       <c r="H2292" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2292" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2292" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2292" t="s">
         <v>485</v>
       </c>
-      <c r="I2292" t="s">
-        <v>486</v>
-      </c>
-      <c r="J2292" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2293" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2293" s="65" t="s">
-        <v>463</v>
+    </row>
+    <row r="2293" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2293" s="64" t="s">
+        <v>461</v>
       </c>
       <c r="B2293">
         <v>1</v>
@@ -42049,9 +42179,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2294" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B2294">
         <f>1/36</f>
@@ -42067,15 +42197,15 @@
         <v>18</v>
       </c>
       <c r="G2294" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H2294">
         <v>0</v>
       </c>
     </row>
-    <row r="2295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2295" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2295">
         <v>1.1510877524470435E-4</v>
@@ -42090,15 +42220,15 @@
         <v>18</v>
       </c>
       <c r="G2295" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H2295">
         <v>0</v>
       </c>
     </row>
-    <row r="2296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2296" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B2296">
         <f>271/1000000/16.7</f>
@@ -42114,23 +42244,27 @@
         <v>18</v>
       </c>
       <c r="G2296" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H2296">
         <v>5</v>
       </c>
       <c r="I2296">
+        <f>B2296</f>
+        <v>1.622754491017964E-5</v>
+      </c>
+      <c r="J2296">
         <f>77/1000000/16.7</f>
         <v>4.6107784431137724E-6</v>
       </c>
-      <c r="J2296">
+      <c r="K2296">
         <f>387/1000000/16.7</f>
         <v>2.3173652694610778E-5</v>
       </c>
     </row>
-    <row r="2297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2297" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2297">
         <v>8.6651209802368515E-11</v>
@@ -42148,9 +42282,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2298" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2298">
         <v>7.891795688303974E-8</v>
@@ -42168,9 +42302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2299" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B2299">
         <v>2.8306061868773727E-9</v>
@@ -42188,9 +42322,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2300" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B2300">
         <v>3.9570719143081625E-9</v>
@@ -42208,7 +42342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2301" t="s">
         <v>189</v>
       </c>
@@ -42228,9 +42362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2302" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B2302">
         <v>5.1124213783397438E-9</v>
@@ -42248,7 +42382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2303" t="s">
         <v>212</v>
       </c>
@@ -42268,7 +42402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2304" t="s">
         <v>212</v>
       </c>
@@ -42290,7 +42424,7 @@
     </row>
     <row r="2305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2305" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B2305">
         <v>1.6174892496442126E-9</v>
@@ -42330,7 +42464,7 @@
     </row>
     <row r="2307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2307" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B2307">
         <v>7.63619826432997E-7</v>
@@ -42350,7 +42484,7 @@
     </row>
     <row r="2308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2308" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2308">
         <v>2.4262338744663193E-8</v>
@@ -42370,7 +42504,7 @@
     </row>
     <row r="2309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2309" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B2309">
         <v>3.9657281817228329E-7</v>
@@ -42430,7 +42564,7 @@
     </row>
     <row r="2312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2312" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B2312">
         <v>1.1553494640315805E-9</v>
@@ -42450,7 +42584,7 @@
     </row>
     <row r="2313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2313" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B2313">
         <v>1.1740772587352886E-5</v>
@@ -42470,7 +42604,7 @@
     </row>
     <row r="2314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2314" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B2314">
         <v>1.7330241960473703E-10</v>
@@ -42510,7 +42644,7 @@
     </row>
     <row r="2316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2316" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B2316">
         <v>8.6651209802368528E-10</v>
@@ -42530,7 +42664,7 @@
     </row>
     <row r="2317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2317" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B2317">
         <v>4.3325604901184269E-10</v>
@@ -42570,7 +42704,7 @@
     </row>
     <row r="2319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2319" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B2319">
         <v>2.8883736600789513E-10</v>
@@ -42590,7 +42724,7 @@
     </row>
     <row r="2320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2320" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2320">
         <v>1.3199867626560807E-8</v>
@@ -42605,6 +42739,444 @@
         <v>27</v>
       </c>
       <c r="H2320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2322" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2322" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2324" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2325" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2326" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2328" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2329" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2329"/>
+    </row>
+    <row r="2330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2330" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2330" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2330" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2330" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2330" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2330" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2330" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2330" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2331" s="64" t="str">
+        <f>B2322</f>
+        <v>electricity production, from photovoltaic panels</v>
+      </c>
+      <c r="B2331">
+        <v>1</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2331" t="str">
+        <f>B2328</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="F2331" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2331" t="str">
+        <f>B2326</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="H2331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2332" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2332" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2332" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2332" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2332" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2334" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2334" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2336" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2337" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2338" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2340" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2341" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2341"/>
+    </row>
+    <row r="2342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2342" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2342" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2342" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2342" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2342" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2342" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2342" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2342" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2343" s="64" t="str">
+        <f>B2334</f>
+        <v>electricity production, wind</v>
+      </c>
+      <c r="B2343">
+        <v>1</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2343" t="str">
+        <f>B2340</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="F2343" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2343" t="str">
+        <f>B2338</f>
+        <v>electricity, high voltage</v>
+      </c>
+      <c r="H2343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2344" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2344" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2344" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2344" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2344" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2346" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2346" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2348" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2349" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2350" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2352" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2353" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2353"/>
+    </row>
+    <row r="2354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2354" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2354" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2354" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2354" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2354" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2354" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2354" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2354" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2355" s="64" t="str">
+        <f>B2346</f>
+        <v>electricity production, from hydrogen fuel cell</v>
+      </c>
+      <c r="B2355">
+        <v>1</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2355" t="str">
+        <f>B2352</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="F2355" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2355" t="str">
+        <f>B2350</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="H2355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2356" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2356" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2356" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2356" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2356" t="s">
+        <v>511</v>
+      </c>
+      <c r="H2356">
         <v>0</v>
       </c>
     </row>

--- a/inventories/lci-sweet_sure.xlsx
+++ b/inventories/lci-sweet_sure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/sweet_sure-2050-switzerland/inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/sweet_sure-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DE1669-F063-D643-983D-5B29B0D8B8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF103860-90D3-974C-B82B-3D59D2C1C84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="960" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8425" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8429" uniqueCount="513">
   <si>
     <t>Activity</t>
   </si>
@@ -1412,24 +1412,15 @@
     <t>Hydrocarbons, chlorinated</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric motor power: 486 [kW]. Km over lifetime: 710000 [km]. Yearly mileage: 60000 [km/year]. Autonomy on a full tank/battery: 150 [km]. Tank-to-wheel efficiency: 72 [%]. Tank-to-wheel energy consumption: 5447 [kj/km]. Battery capacity: 283 [kWh]. Mass of battery: 2364 [kg]. Available payload: 23696 [kg]. Payload: 8755 [kg]. Load factor: 36 [%]. Curb mass (excl. driver and cargo): 16228 [kg]. Driving mass (incl. driver and cargo): 25058 [kg]. </t>
-  </si>
-  <si>
     <t>electricity, used in heavy duty vehicle</t>
   </si>
   <si>
     <t>hydrogen, used in heavy duty vehicle</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric motor power: 287 [kW]. Km over lifetime: 710000 [km]. Yearly mileage: 60000 [km/year]. Autonomy on a full tank/battery: 150 [km]. Tank-to-wheel efficiency: 34 [%]. Tank-to-wheel energy consumption: 10954 [kj/km]. Fuel cell system efficiency: 46 [%]. Battery capacity: 47 [kWh]. Fuel tank capacity: 456 [kWh]. Mass of battery: 473 [kg]. Available payload: 25541 [kg]. Payload: 8755 [kg]. Load factor: 34 [%]. Curb mass (excl. driver and cargo): 14383 [kg]. Driving mass (incl. driver and cargo): 23213 [kg]. </t>
-  </si>
-  <si>
     <t>compressed gas, burned in heavy duty vehicle</t>
   </si>
   <si>
-    <t xml:space="preserve">Combustion engine power: 416 [kW]. Power share from combustion engine: 100 [%]. Km over lifetime: 710000 [km]. Yearly mileage: 60000 [km/year]. Autonomy on a full tank/battery: 150 [km]. Tank-to-wheel efficiency: 25 [%]. Tank-to-wheel energy consumption: 16709 [kj/km]. Fuel tank capacity: 696 [kWh]. Available payload: 25040 [kg]. Payload: 8755 [kg]. Load factor: 34 [%]. Curb mass (excl. driver and cargo): 14884 [kg]. Driving mass (incl. driver and cargo): 23714 [kg]. </t>
-  </si>
-  <si>
     <t>Uses an electric scooter charger from ecoinvent 3.7 as a proxy.</t>
   </si>
   <si>
@@ -1578,6 +1569,15 @@
   </si>
   <si>
     <t>electricity production, from photovoltaic panels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combustion engine power: 416 [kW]. Power share from combustion engine: 100 [%]. Km over lifetime: 1000000 [km]. Yearly mileage: 60000 [km/year]. Autonomy on a full tank/battery: 150 [km]. Tank-to-wheel efficiency: 25 [%]. Tank-to-wheel energy consumption: 16709 [kj/km]. Fuel tank capacity: 696 [kWh]. Available payload: 25040 [kg]. Payload: 8755 [kg]. Load factor: 34 [%]. Curb mass (excl. driver and cargo): 14884 [kg]. Driving mass (incl. driver and cargo): 23714 [kg]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric motor power: 287 [kW]. Km over lifetime: 1000000 [km]. Yearly mileage: 60000 [km/year]. Autonomy on a full tank/battery: 150 [km]. Tank-to-wheel efficiency: 34 [%]. Tank-to-wheel energy consumption: 10954 [kj/km]. Fuel cell system efficiency: 46 [%]. Battery capacity: 47 [kWh]. Fuel tank capacity: 456 [kWh]. Mass of battery: 473 [kg]. Available payload: 25541 [kg]. Payload: 8755 [kg]. Load factor: 34 [%]. Curb mass (excl. driver and cargo): 14383 [kg]. Driving mass (incl. driver and cargo): 23213 [kg]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric motor power: 486 [kW]. Km over lifetime: 1000000 [km]. Yearly mileage: 60000 [km/year]. Autonomy on a full tank/battery: 150 [km]. Tank-to-wheel efficiency: 72 [%]. Tank-to-wheel energy consumption: 5447 [kj/km]. Battery capacity: 283 [kWh]. Mass of battery: 2364 [kg]. Available payload: 23696 [kg]. Payload: 8755 [kg]. Load factor: 36 [%]. Curb mass (excl. driver and cargo): 16228 [kg]. Driving mass (incl. driver and cargo): 25058 [kg]. </t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1910,10 +1910,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2193,13 +2194,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O2356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1914" workbookViewId="0">
-      <selection activeCell="A1946" sqref="A1946"/>
+    <sheetView tabSelected="1" topLeftCell="A1343" workbookViewId="0">
+      <selection activeCell="E1360" sqref="E1360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
@@ -2714,7 +2715,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B39" s="3">
         <v>1.623727351164797E-7</v>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2814,7 +2815,7 @@
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3225,7 +3226,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B64" s="3">
         <v>6.8457290767903355E-12</v>
@@ -5258,7 +5259,7 @@
     </row>
     <row r="171" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="50" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B171" s="51">
         <f>6.1/43.4</f>
@@ -5268,13 +5269,13 @@
         <v>7</v>
       </c>
       <c r="E171" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="F171" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G171" s="50" t="s">
         <v>489</v>
-      </c>
-      <c r="F171" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G171" s="50" t="s">
-        <v>492</v>
       </c>
       <c r="J171" s="51"/>
     </row>
@@ -5516,7 +5517,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B190" s="3">
         <v>5.8454184641932699E-7</v>
@@ -5532,7 +5533,7 @@
       </c>
       <c r="G190" s="2"/>
       <c r="H190" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5616,7 +5617,7 @@
       </c>
       <c r="G194" s="2"/>
       <c r="H194" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -6027,7 +6028,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B215" s="3">
         <v>2.464462467644521E-11</v>
@@ -8060,7 +8061,7 @@
     </row>
     <row r="322" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="50" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B322" s="51">
         <f>9.3/43.4</f>
@@ -8070,13 +8071,13 @@
         <v>7</v>
       </c>
       <c r="E322" s="50" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F322" s="50" t="s">
         <v>27</v>
       </c>
       <c r="G322" s="50" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="324" spans="1:8" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -8308,7 +8309,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B340" s="3">
         <v>6.4299603106125978E-7</v>
@@ -8324,7 +8325,7 @@
       </c>
       <c r="G340" s="2"/>
       <c r="H340" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -8408,7 +8409,7 @@
       </c>
       <c r="G344" s="2"/>
       <c r="H344" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -8819,7 +8820,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B365" s="3">
         <v>2.7109087144089735E-11</v>
@@ -10875,7 +10876,7 @@
     </row>
     <row r="473" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="50" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B473" s="51">
         <f>(9.3/43.4)*1.1</f>
@@ -10885,13 +10886,13 @@
         <v>7</v>
       </c>
       <c r="E473" s="50" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F473" s="50" t="s">
         <v>27</v>
       </c>
       <c r="G473" s="50" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="474" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11124,7 +11125,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B491" s="3">
         <v>1.7861000862812767E-7</v>
@@ -11140,7 +11141,7 @@
       </c>
       <c r="G491" s="3"/>
       <c r="H491" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
@@ -11224,7 +11225,7 @@
       </c>
       <c r="G495" s="3"/>
       <c r="H495" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
@@ -11635,7 +11636,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B516" s="3">
         <v>7.5303019844693692E-12</v>
@@ -13686,12 +13687,12 @@
         <v>27</v>
       </c>
       <c r="G623" s="50" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="624" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" s="50" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B624" s="51">
         <f>6.1/43.4*1.1</f>
@@ -13701,13 +13702,13 @@
         <v>7</v>
       </c>
       <c r="E624" s="50" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F624" s="50" t="s">
         <v>27</v>
       </c>
       <c r="G624" s="50" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="625" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -13970,7 +13971,7 @@
     </row>
     <row r="644" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B644" s="51">
         <v>4.796993006993007E-7</v>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="G644" s="51"/>
       <c r="H644" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="645" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -14070,7 +14071,7 @@
       </c>
       <c r="G648" s="51"/>
       <c r="H648" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="649" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -14438,7 +14439,7 @@
     </row>
     <row r="667" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B667" s="51">
         <v>1.5376223776223777E-10</v>
@@ -16784,7 +16785,7 @@
     </row>
     <row r="802" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B802" s="51">
         <v>1.7269174825174825E-6</v>
@@ -16800,7 +16801,7 @@
       </c>
       <c r="G802" s="51"/>
       <c r="H802" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="803" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -16884,7 +16885,7 @@
       </c>
       <c r="G806" s="51"/>
       <c r="H806" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="807" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -17252,7 +17253,7 @@
     </row>
     <row r="825" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B825" s="51">
         <v>5.5354405594405596E-10</v>
@@ -19610,7 +19611,7 @@
     </row>
     <row r="960" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B960" s="51">
         <v>1.8996092307692309E-6</v>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="G960" s="51"/>
       <c r="H960" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="961" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -19710,7 +19711,7 @@
       </c>
       <c r="G964" s="51"/>
       <c r="H964" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="965" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -20078,7 +20079,7 @@
     </row>
     <row r="983" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B983" s="51">
         <v>6.0889846153846164E-10</v>
@@ -22435,7 +22436,7 @@
     </row>
     <row r="1118" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B1118" s="51">
         <v>5.2766923076923077E-7</v>
@@ -22451,7 +22452,7 @@
       </c>
       <c r="G1118" s="51"/>
       <c r="H1118" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1119" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -22535,7 +22536,7 @@
       </c>
       <c r="G1122" s="51"/>
       <c r="H1122" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1123" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -22903,7 +22904,7 @@
     </row>
     <row r="1141" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B1141" s="51">
         <v>1.6913846153846155E-10</v>
@@ -26093,7 +26094,7 @@
     </row>
     <row r="1354" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1354" s="50" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B1354" s="50">
         <f>1/560000</f>
@@ -26103,7 +26104,7 @@
         <v>7</v>
       </c>
       <c r="E1354" s="50" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F1354" s="50" t="s">
         <v>27</v>
@@ -26512,7 +26513,7 @@
     </row>
     <row r="1378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1378" s="2">
         <v>2</v>
@@ -26521,7 +26522,7 @@
         <v>17</v>
       </c>
       <c r="E1378" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F1378" t="s">
         <v>27</v>
@@ -30635,7 +30636,7 @@
     </row>
     <row r="1613" spans="1:15" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1613" s="53" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1613" s="59">
         <f>1/120</f>
@@ -30651,7 +30652,7 @@
         <v>18</v>
       </c>
       <c r="H1613" s="53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K1613" s="57"/>
       <c r="L1613"/>
@@ -31141,7 +31142,7 @@
     </row>
     <row r="1640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1640" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1640" s="2">
         <v>2</v>
@@ -31150,7 +31151,7 @@
         <v>17</v>
       </c>
       <c r="E1640" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F1640" t="s">
         <v>27</v>
@@ -33120,7 +33121,7 @@
         <v>0</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C1754" s="53"/>
       <c r="D1754" s="53"/>
@@ -33569,7 +33570,7 @@
     </row>
     <row r="1778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1778" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B1778" s="3">
         <v>7.1789570411210658E-8</v>
@@ -34027,7 +34028,7 @@
         <v>0</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C1804" s="53"/>
       <c r="D1804" s="53"/>
@@ -34259,7 +34260,7 @@
     </row>
     <row r="1816" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1816" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B1816" s="3">
         <v>2.3599288167039204E-6</v>
@@ -34511,7 +34512,7 @@
     </row>
     <row r="1830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1830" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B1830" s="3">
         <v>9.7553481893140337E-8</v>
@@ -35021,7 +35022,7 @@
         <v>0</v>
       </c>
       <c r="B1859" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C1859" s="53"/>
       <c r="D1859" s="53"/>
@@ -35173,16 +35174,16 @@
         <v>3</v>
       </c>
       <c r="H1867" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I1867" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J1867" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K1867" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1868" spans="1:12" x14ac:dyDescent="0.2">
@@ -35261,7 +35262,19 @@
         <v>359</v>
       </c>
       <c r="H1870">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I1870">
+        <f>B1870</f>
+        <v>3.4883720930232559E-4</v>
+      </c>
+      <c r="J1870">
+        <f>150/250000/2.15</f>
+        <v>2.7906976744186045E-4</v>
+      </c>
+      <c r="K1870">
+        <f>150/150000/2.15</f>
+        <v>4.6511627906976747E-4</v>
       </c>
     </row>
     <row r="1871" spans="1:12" x14ac:dyDescent="0.2">
@@ -35295,12 +35308,12 @@
         <v>1.3783783783783785E-4</v>
       </c>
       <c r="J1871">
-        <f>90/200000/3.7</f>
-        <v>1.2162162162162162E-4</v>
+        <f>90/250000/3.7</f>
+        <v>9.7297297297297295E-5</v>
       </c>
       <c r="K1871">
-        <f>130/200000/3.7</f>
-        <v>1.7567567567567565E-4</v>
+        <f>130/150000/3.7</f>
+        <v>2.3423423423423422E-4</v>
       </c>
     </row>
     <row r="1872" spans="1:12" x14ac:dyDescent="0.2">
@@ -35551,7 +35564,7 @@
         <v>0</v>
       </c>
       <c r="B1885" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C1885" s="53"/>
       <c r="D1885" s="53"/>
@@ -35583,7 +35596,7 @@
         <v>9</v>
       </c>
       <c r="B1887" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C1887" s="53"/>
       <c r="D1887" s="53"/>
@@ -35705,16 +35718,16 @@
         <v>3</v>
       </c>
       <c r="H1893" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I1893" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J1893" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K1893" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1894" spans="1:12" x14ac:dyDescent="0.2">
@@ -35792,7 +35805,19 @@
         <v>387</v>
       </c>
       <c r="H1896">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I1896">
+        <f>B1896</f>
+        <v>5.9933333333333334E-4</v>
+      </c>
+      <c r="J1896">
+        <f>60/250000/0.75</f>
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="K1896">
+        <f>120/150000/0.75</f>
+        <v>1.0666666666666667E-3</v>
       </c>
     </row>
     <row r="1897" spans="1:12" x14ac:dyDescent="0.2">
@@ -35815,7 +35840,19 @@
         <v>391</v>
       </c>
       <c r="H1897">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I1897">
+        <f>B1897</f>
+        <v>2.9804347826086958E-5</v>
+      </c>
+      <c r="J1897">
+        <f>(200000/250000)*B1897</f>
+        <v>2.3843478260869569E-5</v>
+      </c>
+      <c r="K1897">
+        <f>(200000/150000)*B1897</f>
+        <v>3.9739130434782611E-5</v>
       </c>
     </row>
     <row r="1898" spans="1:12" x14ac:dyDescent="0.2">
@@ -35839,7 +35876,19 @@
         <v>393</v>
       </c>
       <c r="H1898">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I1898">
+        <f>B1898</f>
+        <v>5.9599999999999992E-5</v>
+      </c>
+      <c r="J1898">
+        <f>8.94/250000/0.75</f>
+        <v>4.7679999999999998E-5</v>
+      </c>
+      <c r="K1898">
+        <f>8.94/150000/0.75</f>
+        <v>7.9466666666666669E-5</v>
       </c>
     </row>
     <row r="1899" spans="1:12" x14ac:dyDescent="0.2">
@@ -35862,12 +35911,24 @@
         <v>395</v>
       </c>
       <c r="H1899">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I1899">
+        <f>B1899</f>
+        <v>2.6492753623188407E-5</v>
+      </c>
+      <c r="J1899">
+        <f>(200000/250000)*B1899</f>
+        <v>2.1194202898550728E-5</v>
+      </c>
+      <c r="K1899">
+        <f>(200000/150000)*B1899</f>
+        <v>3.5323671497584541E-5</v>
       </c>
     </row>
     <row r="1900" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1900" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B1900">
         <f>48/200000/0.75</f>
@@ -35883,7 +35944,7 @@
         <v>18</v>
       </c>
       <c r="G1900" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H1900">
         <v>5</v>
@@ -35893,12 +35954,12 @@
         <v>3.2000000000000003E-4</v>
       </c>
       <c r="J1900">
-        <f>(72*0.2)/200000/0.75</f>
-        <v>9.6000000000000002E-5</v>
+        <f>30/250000/0.75</f>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="K1900">
-        <f>(396*0.2)/200000/0.75</f>
-        <v>5.2800000000000004E-4</v>
+        <f>80/150000/0.75</f>
+        <v>7.1111111111111115E-4</v>
       </c>
     </row>
     <row r="1901" spans="1:12" x14ac:dyDescent="0.2">
@@ -35922,7 +35983,19 @@
         <v>405</v>
       </c>
       <c r="H1901">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I1901">
+        <f>B1901</f>
+        <v>3.9733333333333335E-5</v>
+      </c>
+      <c r="J1901">
+        <f>5.96/250000/0.75</f>
+        <v>3.1786666666666665E-5</v>
+      </c>
+      <c r="K1901">
+        <f>5.96/150000/0.75</f>
+        <v>5.2977777777777782E-5</v>
       </c>
     </row>
     <row r="1902" spans="1:12" x14ac:dyDescent="0.2">
@@ -35982,7 +36055,7 @@
         <v>9</v>
       </c>
       <c r="B1909" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1910" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -36046,7 +36119,7 @@
     </row>
     <row r="1913" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1913" s="65" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B1913" s="66">
         <v>3</v>
@@ -36061,7 +36134,7 @@
         <v>18</v>
       </c>
       <c r="H1913" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1914" spans="1:12" x14ac:dyDescent="0.2">
@@ -36108,7 +36181,7 @@
     </row>
     <row r="1916" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1916" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B1916" s="66">
         <f>-1*B1913</f>
@@ -36124,7 +36197,7 @@
         <v>18</v>
       </c>
       <c r="H1916" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1917" spans="1:12" x14ac:dyDescent="0.2">
@@ -36135,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="B1918" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C1918" s="53"/>
       <c r="D1918" s="53"/>
@@ -36289,16 +36362,16 @@
         <v>3</v>
       </c>
       <c r="H1926" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I1926" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J1926" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K1926" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1927" spans="1:15" x14ac:dyDescent="0.2">
@@ -36331,7 +36404,7 @@
     </row>
     <row r="1928" spans="1:15" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1928" s="53" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1928" s="59">
         <f>1/120</f>
@@ -36347,7 +36420,7 @@
         <v>18</v>
       </c>
       <c r="G1928" s="53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K1928" s="57"/>
       <c r="L1928"/>
@@ -36417,6 +36490,21 @@
       <c r="G1931" t="s">
         <v>391</v>
       </c>
+      <c r="H1931">
+        <v>5</v>
+      </c>
+      <c r="I1931">
+        <f>B1931</f>
+        <v>1.4899999999999998E-5</v>
+      </c>
+      <c r="J1931">
+        <f>4.47/250000/1.5</f>
+        <v>1.1919999999999999E-5</v>
+      </c>
+      <c r="K1931">
+        <f>4.47/150000/1.5</f>
+        <v>1.9866666666666667E-5</v>
+      </c>
     </row>
     <row r="1932" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1932" t="s">
@@ -36437,6 +36525,21 @@
       <c r="G1932" t="s">
         <v>387</v>
       </c>
+      <c r="H1932">
+        <v>5</v>
+      </c>
+      <c r="I1932">
+        <f>B1932</f>
+        <v>2.3890980215666521E-4</v>
+      </c>
+      <c r="J1932">
+        <f>(200000/250000)*B1932</f>
+        <v>1.9112784172533218E-4</v>
+      </c>
+      <c r="K1932">
+        <f>(200000/150000)*B1932</f>
+        <v>3.1854640287555362E-4</v>
+      </c>
     </row>
     <row r="1933" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1933" t="s">
@@ -36477,10 +36580,25 @@
       <c r="G1934" t="s">
         <v>395</v>
       </c>
+      <c r="H1934">
+        <v>5</v>
+      </c>
+      <c r="I1934">
+        <f>B1934</f>
+        <v>1.0917874396135266E-5</v>
+      </c>
+      <c r="J1934">
+        <f>(200000/250000)*B1934</f>
+        <v>8.7342995169082132E-6</v>
+      </c>
+      <c r="K1934">
+        <f>(200000/150000)*B1934</f>
+        <v>1.4557165861513688E-5</v>
+      </c>
     </row>
     <row r="1935" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1935" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B1935" s="28">
         <f>(23.75*0.2)/1.8/200000</f>
@@ -36496,7 +36614,7 @@
         <v>18</v>
       </c>
       <c r="G1935" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H1935">
         <v>5</v>
@@ -36997,7 +37115,7 @@
     </row>
     <row r="1966" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1966" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B1966" s="3">
         <v>7.1789570411210658E-8</v>
@@ -37546,16 +37664,16 @@
         <v>3</v>
       </c>
       <c r="H2003" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I2003" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J2003" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K2003" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2004" spans="1:11" x14ac:dyDescent="0.2">
@@ -37661,7 +37779,19 @@
         <v>415</v>
       </c>
       <c r="H2007">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2007">
+        <f>B2007</f>
+        <v>1.2763976504487801E-4</v>
+      </c>
+      <c r="J2007">
+        <f>I2007*(700000/1000000)</f>
+        <v>8.9347835531414601E-5</v>
+      </c>
+      <c r="K2007">
+        <f>I2007*(700000/500000)</f>
+        <v>1.786956710628292E-4</v>
       </c>
     </row>
     <row r="2008" spans="1:11" x14ac:dyDescent="0.2">
@@ -38002,16 +38132,16 @@
         <v>3</v>
       </c>
       <c r="G2032" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H2032" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I2032" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J2032" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2033" spans="1:10" x14ac:dyDescent="0.2">
@@ -38081,7 +38211,19 @@
         <v>391</v>
       </c>
       <c r="G2035">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2035">
+        <f>B2035</f>
+        <v>5.8548009367681507E-6</v>
+      </c>
+      <c r="I2035">
+        <f>H2035*(700000/1000000)</f>
+        <v>4.0983606557377053E-6</v>
+      </c>
+      <c r="J2035">
+        <f>H2035*(700000/500000)</f>
+        <v>8.1967213114754105E-6</v>
       </c>
     </row>
     <row r="2036" spans="1:10" x14ac:dyDescent="0.2">
@@ -38104,7 +38246,19 @@
         <v>387</v>
       </c>
       <c r="G2036">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2036">
+        <f>B2036</f>
+        <v>2.0319944081098179E-5</v>
+      </c>
+      <c r="I2036">
+        <f>H2036*(700000/1000000)</f>
+        <v>1.4223960856768724E-5</v>
+      </c>
+      <c r="J2036">
+        <f>H2036*(700000/500000)</f>
+        <v>2.8447921713537448E-5</v>
       </c>
     </row>
     <row r="2037" spans="1:10" x14ac:dyDescent="0.2">
@@ -38127,7 +38281,19 @@
         <v>393</v>
       </c>
       <c r="G2037">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2037">
+        <f>B2037</f>
+        <v>2.9685693565181665E-6</v>
+      </c>
+      <c r="I2037">
+        <f>H2037*(700000/1000000)</f>
+        <v>2.0779985495627166E-6</v>
+      </c>
+      <c r="J2037">
+        <f>H2037*(700000/500000)</f>
+        <v>4.1559970991254331E-6</v>
       </c>
     </row>
     <row r="2038" spans="1:10" x14ac:dyDescent="0.2">
@@ -38150,12 +38316,24 @@
         <v>395</v>
       </c>
       <c r="G2038">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2038">
+        <f>B2038</f>
+        <v>8.4309133489461356E-6</v>
+      </c>
+      <c r="I2038">
+        <f>H2038*(700000/1000000)</f>
+        <v>5.9016393442622947E-6</v>
+      </c>
+      <c r="J2038">
+        <f>H2038*(700000/500000)</f>
+        <v>1.1803278688524589E-5</v>
       </c>
     </row>
     <row r="2039" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2039" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2039">
         <f>399/700000/6.1</f>
@@ -38171,7 +38349,7 @@
         <v>18</v>
       </c>
       <c r="F2039" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G2039">
         <v>5</v>
@@ -38181,12 +38359,12 @@
         <v>9.3442622950819676E-5</v>
       </c>
       <c r="I2039">
-        <f>(266)/700000/6.1</f>
-        <v>6.2295081967213127E-5</v>
+        <f>(266)/1000000/6.1</f>
+        <v>4.3606557377049187E-5</v>
       </c>
       <c r="J2039">
-        <f>533/700000/6.1</f>
-        <v>1.2482435597189697E-4</v>
+        <f>533/500000/6.1</f>
+        <v>1.7475409836065578E-4</v>
       </c>
     </row>
     <row r="2040" spans="1:10" x14ac:dyDescent="0.2">
@@ -38246,7 +38424,7 @@
         <v>396</v>
       </c>
       <c r="B2044" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2045" spans="1:10" x14ac:dyDescent="0.2">
@@ -38278,7 +38456,7 @@
         <v>8</v>
       </c>
       <c r="B2048" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2049" spans="1:8" x14ac:dyDescent="0.2">
@@ -38365,7 +38543,7 @@
     </row>
     <row r="2055" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2055" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B2055">
         <v>4.3</v>
@@ -38383,7 +38561,7 @@
         <v>18</v>
       </c>
       <c r="G2055" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H2055" t="s">
         <v>412</v>
@@ -38391,7 +38569,7 @@
     </row>
     <row r="2056" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2056" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B2056">
         <v>1</v>
@@ -38409,7 +38587,7 @@
         <v>18</v>
       </c>
       <c r="G2056" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H2056" t="s">
         <v>412</v>
@@ -38417,7 +38595,7 @@
     </row>
     <row r="2057" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2057" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B2057">
         <v>1</v>
@@ -38435,7 +38613,7 @@
         <v>18</v>
       </c>
       <c r="G2057" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H2057" t="s">
         <v>412</v>
@@ -38542,16 +38720,16 @@
         <v>3</v>
       </c>
       <c r="G2069" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H2069" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I2069" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J2069" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2070" spans="1:10" x14ac:dyDescent="0.2">
@@ -38579,7 +38757,7 @@
     </row>
     <row r="2071" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2071" s="53" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B2071" s="59">
         <f>1/120</f>
@@ -38595,7 +38773,7 @@
         <v>18</v>
       </c>
       <c r="F2071" s="53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G2071" s="53">
         <v>0</v>
@@ -38665,12 +38843,12 @@
         <v>3.7188208616780044E-5</v>
       </c>
       <c r="I2073">
-        <f>96/700000/6.3</f>
-        <v>2.1768707482993196E-5</v>
+        <f>96/1000000/6.3</f>
+        <v>1.5238095238095239E-5</v>
       </c>
       <c r="J2073">
-        <f>232/700000/6.3</f>
-        <v>5.2607709750566898E-5</v>
+        <f>232/500000/6.3</f>
+        <v>7.3650793650793659E-5</v>
       </c>
     </row>
     <row r="2074" spans="1:10" x14ac:dyDescent="0.2">
@@ -38693,7 +38871,19 @@
         <v>391</v>
       </c>
       <c r="G2074">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2074">
+        <f t="shared" ref="H2074" si="0">B2074</f>
+        <v>5.6689342403628128E-6</v>
+      </c>
+      <c r="I2074">
+        <f>B2074*(700000/1000000)</f>
+        <v>3.9682539682539689E-6</v>
+      </c>
+      <c r="J2074">
+        <f>B2074*(700000/500000)</f>
+        <v>7.9365079365079379E-6</v>
       </c>
     </row>
     <row r="2075" spans="1:10" x14ac:dyDescent="0.2">
@@ -38716,7 +38906,19 @@
         <v>387</v>
       </c>
       <c r="G2075">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2075">
+        <f t="shared" ref="H2075" si="1">B2075</f>
+        <v>2.4040391954934648E-5</v>
+      </c>
+      <c r="I2075">
+        <f>B2075*(700000/1000000)</f>
+        <v>1.6828274368454252E-5</v>
+      </c>
+      <c r="J2075">
+        <f>B2075*(700000/500000)</f>
+        <v>3.3656548736908503E-5</v>
       </c>
     </row>
     <row r="2076" spans="1:10" x14ac:dyDescent="0.2">
@@ -38739,7 +38941,19 @@
         <v>393</v>
       </c>
       <c r="G2076">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2076">
+        <f t="shared" ref="H2076" si="2">B2076</f>
+        <v>3.1830926606374987E-6</v>
+      </c>
+      <c r="I2076">
+        <f>B2076*(700000/1000000)</f>
+        <v>2.2281648624462491E-6</v>
+      </c>
+      <c r="J2076">
+        <f>B2076*(700000/500000)</f>
+        <v>4.4563297248924981E-6</v>
       </c>
     </row>
     <row r="2077" spans="1:10" x14ac:dyDescent="0.2">
@@ -38762,12 +38976,24 @@
         <v>395</v>
       </c>
       <c r="G2077">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2077">
+        <f t="shared" ref="H2077" si="3">B2077</f>
+        <v>8.16326530612245E-6</v>
+      </c>
+      <c r="I2077">
+        <f>B2077*(700000/1000000)</f>
+        <v>5.7142857142857145E-6</v>
+      </c>
+      <c r="J2077">
+        <f>B2077*(700000/500000)</f>
+        <v>1.1428571428571429E-5</v>
       </c>
     </row>
     <row r="2078" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2078" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2078">
         <f>80/700000/6.3</f>
@@ -38783,7 +39009,7 @@
         <v>18</v>
       </c>
       <c r="F2078" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G2078">
         <v>5</v>
@@ -38793,12 +39019,12 @@
         <v>1.8140589569160997E-5</v>
       </c>
       <c r="I2078">
-        <f>47/700000/6.3</f>
-        <v>1.0657596371882086E-5</v>
+        <f>47/1000000/6.3</f>
+        <v>7.4603174603174601E-6</v>
       </c>
       <c r="J2078">
-        <f>98/700000/6.3</f>
-        <v>2.222222222222222E-5</v>
+        <f>98/500000/6.3</f>
+        <v>3.111111111111111E-5</v>
       </c>
     </row>
     <row r="2079" spans="1:10" x14ac:dyDescent="0.2">
@@ -38883,35 +39109,35 @@
       <c r="B2089"/>
     </row>
     <row r="2090" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2090" t="s">
+      <c r="A2090" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B2090" t="s">
+      <c r="B2090" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C2090" t="s">
+      <c r="C2090" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D2090" t="s">
+      <c r="D2090" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E2090" t="s">
+      <c r="E2090" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F2090" t="s">
+      <c r="F2090" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G2090" t="s">
-        <v>483</v>
-      </c>
-      <c r="H2090" t="s">
-        <v>501</v>
-      </c>
-      <c r="I2090" t="s">
-        <v>484</v>
-      </c>
-      <c r="J2090" t="s">
-        <v>485</v>
+      <c r="G2090" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="H2090" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2090" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="J2090" s="60" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="2091" spans="1:10" x14ac:dyDescent="0.2">
@@ -38981,7 +39207,19 @@
         <v>391</v>
       </c>
       <c r="G2093">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2093">
+        <f t="shared" ref="H2093:H2095" si="4">B2093</f>
+        <v>4.3859649122807014E-6</v>
+      </c>
+      <c r="I2093">
+        <f t="shared" ref="I2093:I2095" si="5">B2093*(1000000/1250000)</f>
+        <v>3.5087719298245615E-6</v>
+      </c>
+      <c r="J2093">
+        <f t="shared" ref="J2093:J2095" si="6">B2093*(1000000/750000)</f>
+        <v>5.8479532163742686E-6</v>
       </c>
     </row>
     <row r="2094" spans="1:10" x14ac:dyDescent="0.2">
@@ -39004,7 +39242,19 @@
         <v>387</v>
       </c>
       <c r="G2094">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2094">
+        <f t="shared" si="4"/>
+        <v>1.529271460518488E-5</v>
+      </c>
+      <c r="I2094">
+        <f t="shared" si="5"/>
+        <v>1.2234171684147905E-5</v>
+      </c>
+      <c r="J2094">
+        <f t="shared" si="6"/>
+        <v>2.0390286140246506E-5</v>
       </c>
     </row>
     <row r="2095" spans="1:10" x14ac:dyDescent="0.2">
@@ -39027,7 +39277,19 @@
         <v>393</v>
       </c>
       <c r="G2095">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2095">
+        <f t="shared" si="4"/>
+        <v>2.2293376104859981E-6</v>
+      </c>
+      <c r="I2095">
+        <f t="shared" si="5"/>
+        <v>1.7834700883887986E-6</v>
+      </c>
+      <c r="J2095">
+        <f t="shared" si="6"/>
+        <v>2.9724501473146639E-6</v>
       </c>
     </row>
     <row r="2096" spans="1:10" x14ac:dyDescent="0.2">
@@ -39050,12 +39312,24 @@
         <v>395</v>
       </c>
       <c r="G2096">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H2096">
+        <f>B2096</f>
+        <v>6.3157894736842103E-6</v>
+      </c>
+      <c r="I2096">
+        <f>B2096*(1000000/1250000)</f>
+        <v>5.0526315789473688E-6</v>
+      </c>
+      <c r="J2096">
+        <f>B2096*(1000000/750000)</f>
+        <v>8.4210526315789465E-6</v>
       </c>
     </row>
     <row r="2097" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2097" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B2097">
         <f>66/1000000/5.7</f>
@@ -39071,7 +39345,7 @@
         <v>18</v>
       </c>
       <c r="F2097" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G2097">
         <v>5</v>
@@ -39081,12 +39355,12 @@
         <v>1.1578947368421053E-5</v>
       </c>
       <c r="I2097">
-        <f>33/1000000/5.7</f>
-        <v>5.7894736842105267E-6</v>
+        <f>33/1250000/5.7</f>
+        <v>4.631578947368421E-6</v>
       </c>
       <c r="J2097">
-        <f>88/1000000/5.7</f>
-        <v>1.5438596491228068E-5</v>
+        <f>88/750000/5.7</f>
+        <v>2.0584795321637427E-5</v>
       </c>
     </row>
     <row r="2099" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -39261,41 +39535,41 @@
       </c>
     </row>
     <row r="2117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2117" t="s">
+      <c r="A2117" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B2117" s="3" t="s">
+      <c r="B2117" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C2117" t="s">
+      <c r="C2117" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D2117" t="s">
+      <c r="D2117" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E2117" t="s">
+      <c r="E2117" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F2117" t="s">
+      <c r="F2117" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G2117" t="s">
+      <c r="G2117" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H2117" t="s">
+      <c r="H2117" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="I2117" t="s">
-        <v>483</v>
-      </c>
-      <c r="J2117" t="s">
-        <v>501</v>
-      </c>
-      <c r="K2117" t="s">
-        <v>484</v>
-      </c>
-      <c r="L2117" t="s">
-        <v>485</v>
+      <c r="I2117" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="J2117" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="K2117" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="L2117" s="60" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="2118" spans="1:12" x14ac:dyDescent="0.2">
@@ -39376,7 +39650,7 @@
     </row>
     <row r="2121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2121" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2121">
         <f>8.1/38500/(0.0753*3.6)</f>
@@ -39392,7 +39666,7 @@
         <v>18</v>
       </c>
       <c r="H2121" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I2121">
         <v>5</v>
@@ -39402,12 +39676,12 @@
         <v>7.7611631396491947E-4</v>
       </c>
       <c r="K2121">
-        <f>2.4/38500/(0.0753*3.6)</f>
-        <v>2.2996038932293907E-4</v>
+        <f>2.4/42000/(0.0753*3.6)</f>
+        <v>2.1079702354602749E-4</v>
       </c>
       <c r="L2121">
-        <f>16.5/38500/(0.0753*3.6)</f>
-        <v>1.5809776765952062E-3</v>
+        <f>16.5/35000/(0.0753*3.6)</f>
+        <v>1.7390754442547268E-3</v>
       </c>
     </row>
     <row r="2123" spans="1:12" x14ac:dyDescent="0.2">
@@ -39472,41 +39746,41 @@
       </c>
     </row>
     <row r="2131" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2131" t="s">
+      <c r="A2131" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B2131" s="3" t="s">
+      <c r="B2131" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C2131" t="s">
+      <c r="C2131" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D2131" t="s">
+      <c r="D2131" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E2131" t="s">
+      <c r="E2131" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F2131" t="s">
+      <c r="F2131" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G2131" t="s">
+      <c r="G2131" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H2131" t="s">
+      <c r="H2131" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="I2131" t="s">
-        <v>483</v>
-      </c>
-      <c r="J2131" t="s">
-        <v>501</v>
-      </c>
-      <c r="K2131" t="s">
-        <v>484</v>
-      </c>
-      <c r="L2131" t="s">
-        <v>485</v>
+      <c r="I2131" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="J2131" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="K2131" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="L2131" s="60" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="2132" spans="1:15" x14ac:dyDescent="0.2">
@@ -39616,7 +39890,7 @@
     </row>
     <row r="2135" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2135" s="53" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B2135" s="62">
         <f>1/120</f>
@@ -39632,7 +39906,7 @@
         <v>18</v>
       </c>
       <c r="H2135" s="53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I2135">
         <v>0</v>
@@ -39640,7 +39914,7 @@
     </row>
     <row r="2136" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2136" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2136">
         <f>(8.1/5)/38500/(0.0753*3.6)</f>
@@ -39656,7 +39930,7 @@
         <v>18</v>
       </c>
       <c r="H2136" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I2136">
         <v>5</v>
@@ -39666,12 +39940,12 @@
         <v>1.5522326279298387E-4</v>
       </c>
       <c r="K2136">
-        <f>(2.4/5)/38500/(0.0753*3.6)</f>
-        <v>4.599207786458782E-5</v>
+        <f>(2.4/5)/42000/(0.0753*3.6)</f>
+        <v>4.2159404709205494E-5</v>
       </c>
       <c r="L2136">
-        <f>(16.5/5)/38500/(0.0753*3.6)</f>
-        <v>3.1619553531904123E-4</v>
+        <f>(16.5/5)/35000/(0.0753*3.6)</f>
+        <v>3.4781508885094539E-4</v>
       </c>
     </row>
     <row r="2138" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -40633,7 +40907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2193" t="s">
         <v>3</v>
       </c>
@@ -40641,7 +40915,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2194" t="s">
         <v>4</v>
       </c>
@@ -40649,7 +40923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2195" t="s">
         <v>6</v>
       </c>
@@ -40657,7 +40931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2196" t="s">
         <v>8</v>
       </c>
@@ -40665,7 +40939,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2197" t="s">
         <v>396</v>
       </c>
@@ -40673,7 +40947,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2198" t="s">
         <v>9</v>
       </c>
@@ -40681,36 +40955,48 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2199" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2199" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2199"/>
     </row>
-    <row r="2200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2200" t="s">
+    <row r="2200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2200" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B2200" t="s">
+      <c r="B2200" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C2200" t="s">
+      <c r="C2200" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D2200" t="s">
+      <c r="D2200" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E2200" t="s">
+      <c r="E2200" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F2200" t="s">
+      <c r="F2200" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G2200" t="s">
+      <c r="G2200" s="60" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H2200" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="I2200" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2200" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="K2200" s="60" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2201" s="64" t="s">
         <v>454</v>
       </c>
@@ -40733,7 +41019,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2202" t="s">
         <v>415</v>
       </c>
@@ -40755,8 +41041,23 @@
       <c r="G2202" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="2203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2202">
+        <v>5</v>
+      </c>
+      <c r="I2202">
+        <f>B2202</f>
+        <v>1.1278940455009136E-4</v>
+      </c>
+      <c r="J2202">
+        <f>(1000000/1250000)*B2202</f>
+        <v>9.0231523640073099E-5</v>
+      </c>
+      <c r="K2202">
+        <f>(1000000/750000)*B2202</f>
+        <v>1.5038587273345514E-4</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2203" t="s">
         <v>413</v>
       </c>
@@ -40779,7 +41080,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="2204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2204" t="s">
         <v>377</v>
       </c>
@@ -40800,7 +41101,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2205" t="s">
         <v>365</v>
       </c>
@@ -40817,7 +41118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2206" t="s">
         <v>455</v>
       </c>
@@ -40834,7 +41135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2207" t="s">
         <v>375</v>
       </c>
@@ -40851,7 +41152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2208" t="s">
         <v>363</v>
       </c>
@@ -41400,7 +41701,7 @@
         <v>0</v>
       </c>
       <c r="B2242" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2243" spans="1:11" x14ac:dyDescent="0.2">
@@ -41464,7 +41765,7 @@
         <v>9</v>
       </c>
       <c r="B2250" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2251" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -41496,21 +41797,21 @@
         <v>3</v>
       </c>
       <c r="H2252" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I2252" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J2252" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K2252" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2253" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2253" s="64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2253">
         <v>1</v>
@@ -41557,7 +41858,19 @@
         <v>395</v>
       </c>
       <c r="H2254">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2254">
+        <f>B2254</f>
+        <v>1.0342946239951181E-6</v>
+      </c>
+      <c r="J2254">
+        <f>(1000000/1250000)*B2254</f>
+        <v>8.274356991960945E-7</v>
+      </c>
+      <c r="K2254">
+        <f>(1000000/750000)*B2254</f>
+        <v>1.3790594986601575E-6</v>
       </c>
     </row>
     <row r="2255" spans="1:11" x14ac:dyDescent="0.2">
@@ -41583,7 +41896,19 @@
         <v>391</v>
       </c>
       <c r="H2255">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2255">
+        <f>B2255</f>
+        <v>6.4643413999694885E-6</v>
+      </c>
+      <c r="J2255">
+        <f>(1000000/1250000)*B2255</f>
+        <v>5.1714731199755913E-6</v>
+      </c>
+      <c r="K2255">
+        <f>(1000000/750000)*B2255</f>
+        <v>8.6191218666259841E-6</v>
       </c>
     </row>
     <row r="2256" spans="1:11" x14ac:dyDescent="0.2">
@@ -41609,7 +41934,19 @@
         <v>393</v>
       </c>
       <c r="H2256">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2256">
+        <f>B2256</f>
+        <v>7.7322091721143572E-6</v>
+      </c>
+      <c r="J2256">
+        <f>(1000000/1250000)*B2256</f>
+        <v>6.1857673376914861E-6</v>
+      </c>
+      <c r="K2256">
+        <f>(1000000/750000)*B2256</f>
+        <v>1.030961222948581E-5</v>
       </c>
     </row>
     <row r="2257" spans="1:11" x14ac:dyDescent="0.2">
@@ -41635,12 +41972,24 @@
         <v>387</v>
       </c>
       <c r="H2257">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2257">
+        <f>B2257</f>
+        <v>1.5514419359926774E-4</v>
+      </c>
+      <c r="J2257">
+        <f>(1000000/1250000)*B2257</f>
+        <v>1.2411535487941419E-4</v>
+      </c>
+      <c r="K2257">
+        <f>(1000000/750000)*B2257</f>
+        <v>2.0685892479902363E-4</v>
       </c>
     </row>
     <row r="2258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2258" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2258">
         <f>283/710000/5.45</f>
@@ -41656,7 +42005,7 @@
         <v>18</v>
       </c>
       <c r="G2258" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H2258">
         <v>5</v>
@@ -41682,7 +42031,7 @@
         <v>0</v>
       </c>
       <c r="B2260" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2261" spans="1:11" x14ac:dyDescent="0.2">
@@ -41746,7 +42095,7 @@
         <v>9</v>
       </c>
       <c r="B2268" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2269" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -41778,21 +42127,21 @@
         <v>3</v>
       </c>
       <c r="H2270" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I2270" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J2270" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K2270" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2271" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2271" s="64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2271">
         <v>1</v>
@@ -41818,7 +42167,7 @@
     </row>
     <row r="2272" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2272" s="53" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B2272" s="62">
         <f>1/120</f>
@@ -41834,7 +42183,7 @@
         <v>18</v>
       </c>
       <c r="G2272" s="53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H2272">
         <v>0</v>
@@ -41860,7 +42209,19 @@
         <v>395</v>
       </c>
       <c r="H2273">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2273">
+        <f>B2273</f>
+        <v>5.1450254035629309E-7</v>
+      </c>
+      <c r="J2273">
+        <f>(1000000/1250000)*B2273</f>
+        <v>4.1160203228503449E-7</v>
+      </c>
+      <c r="K2273">
+        <f>(1000000/750000)*B2273</f>
+        <v>6.8600338714172405E-7</v>
       </c>
     </row>
     <row r="2274" spans="1:11" x14ac:dyDescent="0.2">
@@ -41883,7 +42244,19 @@
         <v>391</v>
       </c>
       <c r="H2274">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2274">
+        <f>B2274</f>
+        <v>3.2156408772268317E-6</v>
+      </c>
+      <c r="J2274">
+        <f>(1000000/1250000)*B2274</f>
+        <v>2.5725127017814656E-6</v>
+      </c>
+      <c r="K2274">
+        <f>(1000000/750000)*B2274</f>
+        <v>4.2875211696357754E-6</v>
       </c>
     </row>
     <row r="2275" spans="1:11" x14ac:dyDescent="0.2">
@@ -41906,7 +42279,19 @@
         <v>393</v>
       </c>
       <c r="H2275">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2275">
+        <f>B2275</f>
+        <v>2.4884703939932923E-6</v>
+      </c>
+      <c r="J2275">
+        <f>(1000000/1250000)*B2275</f>
+        <v>1.990776315194634E-6</v>
+      </c>
+      <c r="K2275">
+        <f>(1000000/750000)*B2275</f>
+        <v>3.3179605253243896E-6</v>
       </c>
     </row>
     <row r="2276" spans="1:11" x14ac:dyDescent="0.2">
@@ -41965,7 +42350,19 @@
         <v>387</v>
       </c>
       <c r="H2277">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2277">
+        <f>B2277</f>
+        <v>2.9788164985196983E-5</v>
+      </c>
+      <c r="J2277">
+        <f>(1000000/1250000)*B2277</f>
+        <v>2.3830531988157587E-5</v>
+      </c>
+      <c r="K2277">
+        <f>(1000000/750000)*B2277</f>
+        <v>3.9717553313595977E-5</v>
       </c>
     </row>
     <row r="2278" spans="1:11" x14ac:dyDescent="0.2">
@@ -41992,25 +42389,25 @@
         <v>5</v>
       </c>
       <c r="I2278">
-        <f t="shared" ref="I2278:I2279" si="0">B2278</f>
+        <f t="shared" ref="I2278:I2279" si="7">B2278</f>
         <v>1.178082191780822E-5</v>
       </c>
       <c r="J2278">
-        <f>26/1000000/10.95</f>
-        <v>2.3744292237442924E-6</v>
+        <f>26/1250000/10.95</f>
+        <v>1.899543378995434E-6</v>
       </c>
       <c r="K2278">
-        <f>235/1000000/10.95</f>
-        <v>2.1461187214611872E-5</v>
+        <f>235/750000/10.95</f>
+        <v>2.8614916286149163E-5</v>
       </c>
     </row>
     <row r="2279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2279" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2279">
-        <f>47/710000/11</f>
-        <v>6.0179257362355952E-6</v>
+        <f>47/1000000/11</f>
+        <v>4.2727272727272722E-6</v>
       </c>
       <c r="C2279" s="53" t="s">
         <v>24</v>
@@ -42022,22 +42419,22 @@
         <v>18</v>
       </c>
       <c r="G2279" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H2279">
         <v>5</v>
       </c>
       <c r="I2279">
-        <f t="shared" si="0"/>
-        <v>6.0179257362355952E-6</v>
+        <f t="shared" si="7"/>
+        <v>4.2727272727272722E-6</v>
       </c>
       <c r="J2279">
-        <f>20.6/710000/11</f>
-        <v>2.6376440460947507E-6</v>
+        <f>20.6/1250000/11</f>
+        <v>1.4981818181818184E-6</v>
       </c>
       <c r="K2279">
-        <f>80.4/710000/11</f>
-        <v>1.0294494238156211E-5</v>
+        <f>80.4/750000/11</f>
+        <v>9.7454545454545466E-6</v>
       </c>
     </row>
     <row r="2280" spans="1:11" x14ac:dyDescent="0.2">
@@ -42048,7 +42445,7 @@
         <v>0</v>
       </c>
       <c r="B2282" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2283" spans="1:11" x14ac:dyDescent="0.2">
@@ -42056,7 +42453,7 @@
         <v>9</v>
       </c>
       <c r="B2283" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2284" spans="1:11" x14ac:dyDescent="0.2">
@@ -42144,21 +42541,21 @@
         <v>3</v>
       </c>
       <c r="H2292" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I2292" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J2292" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K2292" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2293" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2293" s="64" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B2293">
         <v>1</v>
@@ -42223,7 +42620,19 @@
         <v>415</v>
       </c>
       <c r="H2295">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I2295">
+        <f>B2295</f>
+        <v>1.1510877524470435E-4</v>
+      </c>
+      <c r="J2295">
+        <f>(1000000/1250000)*B2295</f>
+        <v>9.2087020195763493E-5</v>
+      </c>
+      <c r="K2295">
+        <f>(1000000/750000)*B2295</f>
+        <v>1.5347836699293913E-4</v>
       </c>
     </row>
     <row r="2296" spans="1:11" x14ac:dyDescent="0.2">
@@ -42254,12 +42663,12 @@
         <v>1.622754491017964E-5</v>
       </c>
       <c r="J2296">
-        <f>77/1000000/16.7</f>
-        <v>4.6107784431137724E-6</v>
+        <f>77/1250000/16.7</f>
+        <v>3.6886227544910185E-6</v>
       </c>
       <c r="K2296">
-        <f>387/1000000/16.7</f>
-        <v>2.3173652694610778E-5</v>
+        <f>387/750000/16.7</f>
+        <v>3.0898203592814368E-5</v>
       </c>
     </row>
     <row r="2297" spans="1:11" x14ac:dyDescent="0.2">
@@ -42747,7 +43156,7 @@
         <v>0</v>
       </c>
       <c r="B2322" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2323" spans="1:11" x14ac:dyDescent="0.2">
@@ -42755,7 +43164,7 @@
         <v>9</v>
       </c>
       <c r="B2323" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2324" spans="1:11" x14ac:dyDescent="0.2">
@@ -42827,16 +43236,16 @@
         <v>3</v>
       </c>
       <c r="H2330" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I2330" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J2330" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K2330" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2331" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -42867,7 +43276,7 @@
     </row>
     <row r="2332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2332" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B2332" s="3">
         <v>1</v>
@@ -42893,7 +43302,7 @@
         <v>0</v>
       </c>
       <c r="B2334" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2335" spans="1:11" x14ac:dyDescent="0.2">
@@ -42901,7 +43310,7 @@
         <v>9</v>
       </c>
       <c r="B2335" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2336" spans="1:11" x14ac:dyDescent="0.2">
@@ -42973,16 +43382,16 @@
         <v>3</v>
       </c>
       <c r="H2342" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I2342" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J2342" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K2342" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2343" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -43013,7 +43422,7 @@
     </row>
     <row r="2344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2344" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B2344" s="3">
         <v>1</v>
@@ -43039,7 +43448,7 @@
         <v>0</v>
       </c>
       <c r="B2346" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2347" spans="1:11" x14ac:dyDescent="0.2">
@@ -43047,7 +43456,7 @@
         <v>9</v>
       </c>
       <c r="B2347" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2348" spans="1:11" x14ac:dyDescent="0.2">
@@ -43119,16 +43528,16 @@
         <v>3</v>
       </c>
       <c r="H2354" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I2354" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J2354" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K2354" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2355" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -43159,7 +43568,7 @@
     </row>
     <row r="2356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2356" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B2356" s="3">
         <v>1</v>
@@ -43174,7 +43583,7 @@
         <v>18</v>
       </c>
       <c r="G2356" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H2356">
         <v>0</v>
